--- a/Excel/skill.技能.xlsx
+++ b/Excel/skill.技能.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3109C73-28EF-4828-BC9D-C5B3A7A38A1D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA1F948-30E9-4734-9290-91A72712859D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="171">
   <si>
     <t>sheet名</t>
   </si>
@@ -544,10 +544,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>X50X</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>11010,11010</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -608,14 +604,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>全军攻击</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>护盾回复</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>se[1].Param</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -648,10 +636,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>无敌</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>22110</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -665,10 +649,6 @@
   </si>
   <si>
     <t>tarBuff</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>受伤提升</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -709,46 +689,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>X50X50X50X50X50X50X50X50X50X50X50X50X50X50X50X50X50X50X50X50</t>
-  </si>
-  <si>
     <t>101010</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>X</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0X</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>100X</t>
-    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1092,6 +1033,76 @@
   </si>
   <si>
     <t>string:e&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_id:e&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shieldRg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:ae&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>X,50,X</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>X,50,X,50,X,50,X,50,X,50,X,50,X,50,X,50,X,50,X,50,X,50,X,50,X,50,X,50,X,50,X,50,X,50,X,50,X,50,X,50</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>X,100,X,100,X</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1628,8 +1639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1668,20 +1679,20 @@
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
@@ -1689,11 +1700,11 @@
     </row>
     <row r="3" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>52</v>
@@ -1702,7 +1713,7 @@
         <v>52</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="G3" s="3" t="b">
         <v>1</v>
@@ -1710,20 +1721,20 @@
     </row>
     <row r="4" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G4" s="3" t="b">
         <v>1</v>
@@ -1731,11 +1742,11 @@
     </row>
     <row r="5" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>52</v>
@@ -1744,7 +1755,7 @@
         <v>52</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="G5" s="3" t="b">
         <v>1</v>
@@ -1765,7 +1776,7 @@
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1800,13 +1811,13 @@
         <v>15</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>85</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>8</v>
@@ -1821,22 +1832,22 @@
         <v>46</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>102</v>
-      </c>
       <c r="Q1" s="6" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -1850,13 +1861,13 @@
         <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E2" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="F2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G2" t="s">
         <v>49</v>
@@ -1871,25 +1882,25 @@
         <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="M2" t="s">
         <v>35</v>
       </c>
       <c r="N2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O2" t="s">
         <v>49</v>
       </c>
       <c r="P2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.2">
@@ -1912,7 +1923,7 @@
         <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>27</v>
@@ -1927,22 +1938,22 @@
         <v>48</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="Q3" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1956,11 +1967,11 @@
         <v>54</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="3">
@@ -1977,7 +1988,7 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1992,10 +2003,10 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3">
@@ -2012,7 +2023,7 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2027,10 +2038,10 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3">
@@ -2047,7 +2058,7 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2061,11 +2072,11 @@
         <v>57</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>81</v>
+      <c r="E7" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="3">
@@ -2082,7 +2093,7 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2097,10 +2108,10 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3">
@@ -2117,7 +2128,7 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2132,10 +2143,10 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3">
@@ -2152,7 +2163,7 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2167,10 +2178,10 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="4" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G10" s="3">
         <v>100</v>
@@ -2189,7 +2200,7 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2215,12 +2226,12 @@
         <v>0</v>
       </c>
       <c r="J11" s="3"/>
-      <c r="K11" s="4" t="s">
-        <v>107</v>
+      <c r="K11" s="4">
+        <v>101</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="N11" s="3">
         <v>0.35</v>
@@ -2228,7 +2239,7 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2243,10 +2254,10 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G12" s="3">
         <v>100</v>
@@ -2265,7 +2276,7 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2280,10 +2291,10 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G13" s="3">
         <v>100</v>
@@ -2302,7 +2313,7 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2317,10 +2328,10 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G14" s="3">
         <v>100</v>
@@ -2332,8 +2343,8 @@
         <v>0</v>
       </c>
       <c r="J14" s="4"/>
-      <c r="K14" s="4" t="s">
-        <v>97</v>
+      <c r="K14" s="4">
+        <v>102</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="3"/>
@@ -2341,7 +2352,7 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2356,10 +2367,10 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G15" s="3">
         <v>100</v>
@@ -2372,15 +2383,15 @@
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="4" t="s">
-        <v>112</v>
+      <c r="L15" s="4">
+        <v>103</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="4" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2395,10 +2406,10 @@
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3">
@@ -2415,7 +2426,7 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2430,10 +2441,10 @@
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3">
@@ -2450,7 +2461,7 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2465,10 +2476,10 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="4" t="s">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3">
@@ -2485,7 +2496,7 @@
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2500,10 +2511,10 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="4" t="s">
-        <v>119</v>
+        <v>170</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3">
@@ -2520,7 +2531,7 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2535,10 +2546,10 @@
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3">
@@ -2555,7 +2566,7 @@
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2570,10 +2581,10 @@
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3">
@@ -2590,7 +2601,7 @@
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2605,10 +2616,10 @@
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3">
@@ -2625,7 +2636,7 @@
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2636,14 +2647,14 @@
         <v>10701</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3">
@@ -2660,7 +2671,7 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2674,8 +2685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0068CF0C-3E4E-41E6-AC58-3D4F99CD1B34}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2701,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>11</v>
@@ -2710,7 +2721,7 @@
         <v>12</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>38</v>
@@ -2751,7 +2762,7 @@
         <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
@@ -2783,7 +2794,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
@@ -2792,7 +2803,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>19</v>
@@ -2824,7 +2835,7 @@
         <v>11010</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D4" s="3">
         <v>2000</v>
@@ -2853,7 +2864,7 @@
         <v>12010</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D5" s="3">
         <v>2000</v>
@@ -2884,7 +2895,7 @@
         <v>13010</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D6" s="3">
         <v>2000</v>
@@ -2913,7 +2924,7 @@
         <v>11110</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D7" s="3">
         <v>2000</v>
@@ -2942,7 +2953,7 @@
         <v>12110</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D8" s="3">
         <v>2000</v>
@@ -2973,7 +2984,7 @@
         <v>13110</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D9" s="3">
         <v>2000</v>
@@ -3002,7 +3013,7 @@
         <v>21010</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D10" s="3">
         <v>2000</v>
@@ -3033,7 +3044,7 @@
         <v>23010</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D11" s="3">
         <v>2000</v>
@@ -3064,7 +3075,7 @@
         <v>21110</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D12" s="3">
         <v>2000</v>
@@ -3099,7 +3110,7 @@
         <v>22110</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D13" s="3">
         <v>2000</v>
@@ -3368,7 +3379,7 @@
         <v>107010</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D22" s="3">
         <v>2000</v>

--- a/Excel/skill.技能.xlsx
+++ b/Excel/skill.技能.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA1F948-30E9-4734-9290-91A72712859D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3FD48B-02DA-43F6-B419-F880C356E8A7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -1775,15 +1775,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAFF09F-591C-41DC-A711-53F6351E712C}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="17.625" customWidth="1"/>
     <col min="4" max="4" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="91.875" customWidth="1"/>
     <col min="6" max="6" width="16.375" customWidth="1"/>
     <col min="7" max="7" width="10.875" customWidth="1"/>
     <col min="8" max="8" width="11.25" customWidth="1"/>
@@ -2685,8 +2685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0068CF0C-3E4E-41E6-AC58-3D4F99CD1B34}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/skill.技能.xlsx
+++ b/Excel/skill.技能.xlsx
@@ -3,14 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3FD48B-02DA-43F6-B419-F880C356E8A7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D7B48B-8705-4B37-948E-F1B51440DAD2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
-    <sheet name="技能" sheetId="26" r:id="rId2"/>
-    <sheet name="子弹" sheetId="28" r:id="rId3"/>
+    <sheet name="配数值技能" sheetId="29" r:id="rId2"/>
+    <sheet name="配数值子弹" sheetId="30" r:id="rId3"/>
+    <sheet name="技能" sheetId="26" r:id="rId4"/>
+    <sheet name="子弹" sheetId="28" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,6 +24,212 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{9AECE558-FEDE-45EE-A968-B4FFC16442C4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+目前阶段，只有我方的技能有BUFF效果</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{1C5ECD23-77CE-4555-97E7-F6FCC12345D2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+单位：像素</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{406A62FD-C487-487C-87F9-9DD2C1F859A0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1. 无弹道子弹
+2. 直线弹道子弹
+3. 跟踪导弹
+4. 持续连线激光或闪电
+5. 全屏轰炸</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{64A90A13-D8F8-4AA5-BF13-5F266658044C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+现在只用于持续激光</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{88584C2F-B404-4126-BF97-FD2EFB058145}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+只有导弹和范围火炮有效</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{AE5B686B-8F94-47D9-9C3B-63FD8DA17E33}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+子弹特效</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{F7DB370E-39FB-4BA5-9694-B6A2F79EBA06}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+子弹爆炸的特效文件</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
@@ -57,7 +265,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
@@ -228,7 +436,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="336">
   <si>
     <t>sheet名</t>
   </si>
@@ -977,14 +1185,6 @@
   </si>
   <si>
     <t>int:e&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>子弹</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1103,6 +1303,713 @@
   </si>
   <si>
     <t>X,100,X,100,X</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>XX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>12010</t>
+  </si>
+  <si>
+    <t>11010</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰普攻子弹--I</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰普攻子弹--II</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰普攻子弹--III</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰普攻子弹-- IV</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞碟普攻激光--I</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞碟普攻激光--II</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞碟普攻激光--III</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞碟普攻激光--IV</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主炮普攻-0突</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主炮普攻-1突</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主炮普攻-2突</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主炮普攻-3突</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主炮普攻-4突</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主炮普攻-5突</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主炮普攻-6突</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主炮普攻-7突</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主炮普攻-8突</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主炮普攻-9突</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主炮普攻-10突</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主炮普攻-11突</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主炮普攻-12突</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮普攻-1突</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮普攻-2突</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮普攻-3突</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮普攻-4突</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮普攻-5突</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮普攻-6突</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮普攻-7突</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮普攻-8突</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮普攻-9突</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮普攻-10突</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮普攻-11突</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮普攻-12突</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11010,11010,11010,11010</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11020</t>
+  </si>
+  <si>
+    <t>11020,11020</t>
+  </si>
+  <si>
+    <t>11020,11020,11020,11020</t>
+  </si>
+  <si>
+    <t>11030</t>
+  </si>
+  <si>
+    <t>11030,11030</t>
+  </si>
+  <si>
+    <t>11030,11030,11030,11030</t>
+  </si>
+  <si>
+    <t>11040,11040</t>
+  </si>
+  <si>
+    <t>11040,11040,11040,11040</t>
+  </si>
+  <si>
+    <t>11040</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXXX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11050,11050,11050,11050</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12010,12010</t>
+  </si>
+  <si>
+    <t>12010,12010,12010,12010</t>
+  </si>
+  <si>
+    <t>12020</t>
+  </si>
+  <si>
+    <t>12020,12020</t>
+  </si>
+  <si>
+    <t>12020,12020,12020,12020</t>
+  </si>
+  <si>
+    <t>12030</t>
+  </si>
+  <si>
+    <t>12030,12030</t>
+  </si>
+  <si>
+    <t>12030,12030,12030,12030</t>
+  </si>
+  <si>
+    <t>12040</t>
+  </si>
+  <si>
+    <t>12040,12040</t>
+  </si>
+  <si>
+    <t>12040,12040,12040,12040</t>
+  </si>
+  <si>
+    <t>12050,12050,12050,12050</t>
+  </si>
+  <si>
+    <t>主舰普攻子弹--V</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>护卫舰普攻导弹--1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>护卫舰普攻导弹--2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>护卫舰普攻导弹--3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>护卫舰普攻导弹--4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>护卫舰普攻导弹--5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>护卫舰普攻导弹--6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>护卫舰普攻导弹--7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>护卫舰普攻导弹--8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>护卫舰普攻导弹--9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>护卫舰普攻导弹--10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>护卫舰普攻导弹--11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>护卫舰普攻导弹--12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>护卫舰普攻导弹--0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞碟普攻激光--V</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮普攻-0突</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹普攻-0突</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹普攻-1突</t>
+  </si>
+  <si>
+    <t>导弹普攻-2突</t>
+  </si>
+  <si>
+    <t>导弹普攻-3突</t>
+  </si>
+  <si>
+    <t>导弹普攻-4突</t>
+  </si>
+  <si>
+    <t>导弹普攻-5突</t>
+  </si>
+  <si>
+    <t>导弹普攻-6突</t>
+  </si>
+  <si>
+    <t>导弹普攻-7突</t>
+  </si>
+  <si>
+    <t>导弹普攻-8突</t>
+  </si>
+  <si>
+    <t>导弹普攻-9突</t>
+  </si>
+  <si>
+    <t>导弹普攻-10突</t>
+  </si>
+  <si>
+    <t>导弹普攻-11突</t>
+  </si>
+  <si>
+    <t>导弹普攻-12突</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13020</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>13050</t>
+  </si>
+  <si>
+    <t>13070</t>
+  </si>
+  <si>
+    <t>13090</t>
+  </si>
+  <si>
+    <t>13030</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13040</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13060</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13080</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>13110</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13120</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>13130</t>
+  </si>
+  <si>
+    <t>释放激光弹攻击敌军</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放导弹攻击敌军</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainBullet-0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainBullet-1</t>
+  </si>
+  <si>
+    <t>MainBullet-2</t>
+  </si>
+  <si>
+    <t>MainBullet-3</t>
+  </si>
+  <si>
+    <t>MainBullet-4</t>
+  </si>
+  <si>
+    <t>Laser-0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Laser-1</t>
+  </si>
+  <si>
+    <t>Laser-2</t>
+  </si>
+  <si>
+    <t>Laser-3</t>
+  </si>
+  <si>
+    <t>Laser-4</t>
+  </si>
+  <si>
+    <t>配数值技能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>配数值子弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missle-0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missle-1</t>
+  </si>
+  <si>
+    <t>Missle-2</t>
+  </si>
+  <si>
+    <t>Missle-3</t>
+  </si>
+  <si>
+    <t>Missle-4</t>
+  </si>
+  <si>
+    <t>Missle-5</t>
+  </si>
+  <si>
+    <t>Missle-6</t>
+  </si>
+  <si>
+    <t>Missle-7</t>
+  </si>
+  <si>
+    <t>Missle-8</t>
+  </si>
+  <si>
+    <t>Missle-9</t>
+  </si>
+  <si>
+    <t>Missle-10</t>
+  </si>
+  <si>
+    <t>Missle-11</t>
+  </si>
+  <si>
+    <t>Missle-12</t>
+  </si>
+  <si>
+    <t>Point-0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Point-1</t>
+  </si>
+  <si>
+    <t>Point-2</t>
+  </si>
+  <si>
+    <t>Point-3</t>
+  </si>
+  <si>
+    <t>Point-4</t>
+  </si>
+  <si>
+    <t>小怪通用子弹--1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪通用子弹--2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪通用子弹--3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪通用子弹--4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪通用子弹--5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪通用子弹--6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪通用子弹--7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪通用子弹--8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪通用子弹--9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪通用子弹--10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪通用子弹--11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪通用子弹--12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Point-5</t>
+  </si>
+  <si>
+    <t>Point-6</t>
+  </si>
+  <si>
+    <t>Point-7</t>
+  </si>
+  <si>
+    <t>Point-8</t>
+  </si>
+  <si>
+    <t>Point-9</t>
+  </si>
+  <si>
+    <t>Point-10</t>
+  </si>
+  <si>
+    <t>Point-11</t>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪普攻1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100010</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪普攻2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS普攻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100011</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OSS大招</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>XX,0.05,XX</t>
+  </si>
+  <si>
+    <t>XXX,0.05,XXX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXX,0.05,XXX,1,XX,0.5,X,0.1,X</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS的普攻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS的大招</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100101,100102,100101,100103,100104,100103</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100105,100106,100105,100107,100107,100107,12040,12040,13050,13050</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1640,7 +2547,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1679,20 +2586,20 @@
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
@@ -1700,11 +2607,11 @@
     </row>
     <row r="3" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>153</v>
+        <v>283</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>52</v>
@@ -1713,7 +2620,7 @@
         <v>52</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G3" s="3" t="b">
         <v>1</v>
@@ -1721,20 +2628,20 @@
     </row>
     <row r="4" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G4" s="3" t="b">
         <v>1</v>
@@ -1742,11 +2649,11 @@
     </row>
     <row r="5" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>154</v>
+        <v>284</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>52</v>
@@ -1755,7 +2662,7 @@
         <v>52</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G5" s="3" t="b">
         <v>1</v>
@@ -1772,11 +2679,3056 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE1484E-E599-4101-955C-A99AA9634D79}">
+  <dimension ref="A1:Q48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="5" max="5" width="91.875" customWidth="1"/>
+    <col min="6" max="6" width="74.875" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
+    <col min="8" max="8" width="11.25" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="13.625" customWidth="1"/>
+    <col min="11" max="12" width="11.75" customWidth="1"/>
+    <col min="13" max="13" width="15.25" customWidth="1"/>
+    <col min="14" max="14" width="20.125" customWidth="1"/>
+    <col min="15" max="15" width="13.625" customWidth="1"/>
+    <col min="16" max="16" width="15.25" customWidth="1"/>
+    <col min="17" max="17" width="105.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>162</v>
+      </c>
+      <c r="L2" t="s">
+        <v>162</v>
+      </c>
+      <c r="M2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1101</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1102</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1103</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1104</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1105</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1106</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1107</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1108</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1109</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1110</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1111</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1112</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1113</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1201</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3">
+        <v>2</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1202</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="3">
+        <v>2</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1203</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="3">
+        <v>2</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1204</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="3">
+        <v>2</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1205</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="3">
+        <v>2</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1206</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="3">
+        <v>2</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1207</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="3">
+        <v>2</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1208</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="3">
+        <v>2</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1209</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="3">
+        <v>2</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1210</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="3">
+        <v>2</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1211</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="3">
+        <v>2</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1212</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="3">
+        <v>2</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>26</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1213</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="3">
+        <v>2</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>27</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1301</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>28</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1302</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>29</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1303</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>30</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1304</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>31</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1305</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0</v>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>32</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1306</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>33</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1307</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>34</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1308</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0</v>
+      </c>
+      <c r="J37" s="4"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>35</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1309</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0</v>
+      </c>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>36</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1310</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0</v>
+      </c>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>37</v>
+      </c>
+      <c r="B40" s="3">
+        <v>1311</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0</v>
+      </c>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>38</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1312</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>39</v>
+      </c>
+      <c r="B42" s="3">
+        <v>1313</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>40</v>
+      </c>
+      <c r="B43" s="3">
+        <v>10001</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3">
+        <v>2</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>41</v>
+      </c>
+      <c r="B44" s="3">
+        <v>10002</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3">
+        <v>2</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>42</v>
+      </c>
+      <c r="B45" s="3">
+        <v>20001</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3">
+        <v>2</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>43</v>
+      </c>
+      <c r="B46" s="3">
+        <v>20002</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3">
+        <v>15</v>
+      </c>
+      <c r="I46" s="3">
+        <v>20</v>
+      </c>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="4"/>
+    </row>
+    <row r="48" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84809B08-AEE0-4B35-956F-542A8D2C0F97}">
+  <dimension ref="A1:M41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="11.25" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="13.625" customWidth="1"/>
+    <col min="9" max="9" width="12.25" customWidth="1"/>
+    <col min="10" max="10" width="26.875" customWidth="1"/>
+    <col min="11" max="11" width="28.5" customWidth="1"/>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
+    <col min="13" max="13" width="13.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>11010</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>11020</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="3">
+        <v>5</v>
+      </c>
+      <c r="M5" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>11030</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="3">
+        <v>25</v>
+      </c>
+      <c r="M6" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>11040</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="3">
+        <v>125</v>
+      </c>
+      <c r="M7" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>11050</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="3">
+        <v>625</v>
+      </c>
+      <c r="M8" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>12010</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3">
+        <v>75</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>12020</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3">
+        <v>75</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="3">
+        <v>2</v>
+      </c>
+      <c r="M10" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>12030</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3">
+        <v>75</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="3">
+        <v>4</v>
+      </c>
+      <c r="M11" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3">
+        <v>12040</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3">
+        <v>75</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="3">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
+        <v>12050</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3">
+        <v>75</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="3">
+        <v>10</v>
+      </c>
+      <c r="M13" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3">
+        <v>12060</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3">
+        <v>75</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="3">
+        <v>20</v>
+      </c>
+      <c r="M14" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3">
+        <v>12070</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3">
+        <v>75</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="3">
+        <v>25</v>
+      </c>
+      <c r="M15" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3">
+        <v>12080</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E16" s="3">
+        <v>3</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3">
+        <v>75</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="K16" s="4"/>
+      <c r="L16" s="3">
+        <v>50</v>
+      </c>
+      <c r="M16" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3">
+        <v>12090</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3">
+        <v>75</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3">
+        <v>12100</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3">
+        <v>75</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="L18" s="3">
+        <v>125</v>
+      </c>
+      <c r="M18" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3">
+        <v>12110</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E19" s="3">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3">
+        <v>75</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="3">
+        <v>250</v>
+      </c>
+      <c r="M19" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3">
+        <v>12120</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3">
+        <v>75</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="3">
+        <v>500</v>
+      </c>
+      <c r="M20" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3">
+        <v>12130</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3">
+        <v>75</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="3">
+        <v>625</v>
+      </c>
+      <c r="M21" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3">
+        <v>13010</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="K22" s="4"/>
+      <c r="L22" s="3">
+        <v>1</v>
+      </c>
+      <c r="M22" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3">
+        <v>13020</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="K23" s="4"/>
+      <c r="L23" s="3">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3">
+        <v>13030</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="K24" s="4"/>
+      <c r="L24" s="3">
+        <v>25</v>
+      </c>
+      <c r="M24" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3">
+        <v>13040</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="L25" s="3">
+        <v>125</v>
+      </c>
+      <c r="M25" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3">
+        <v>13050</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3">
+        <v>625</v>
+      </c>
+      <c r="M26" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3">
+        <v>100100</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D27" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3">
+        <v>1</v>
+      </c>
+      <c r="M27" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3">
+        <v>100101</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="D28" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E28" s="3">
+        <v>2</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3">
+        <v>1</v>
+      </c>
+      <c r="M28" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>26</v>
+      </c>
+      <c r="B29" s="3">
+        <v>100102</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D29" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E29" s="3">
+        <v>2</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3">
+        <v>1</v>
+      </c>
+      <c r="M29" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>27</v>
+      </c>
+      <c r="B30" s="3">
+        <v>100103</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D30" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E30" s="3">
+        <v>2</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3">
+        <v>1</v>
+      </c>
+      <c r="M30" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>28</v>
+      </c>
+      <c r="B31" s="3">
+        <v>100104</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="D31" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E31" s="3">
+        <v>2</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3">
+        <v>1</v>
+      </c>
+      <c r="M31" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>29</v>
+      </c>
+      <c r="B32" s="3">
+        <v>100105</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="D32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3">
+        <v>1</v>
+      </c>
+      <c r="M32" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>30</v>
+      </c>
+      <c r="B33" s="3">
+        <v>100106</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D33" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3">
+        <v>1</v>
+      </c>
+      <c r="M33" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>31</v>
+      </c>
+      <c r="B34" s="3">
+        <v>100107</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D34" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E34" s="3">
+        <v>2</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3">
+        <v>1</v>
+      </c>
+      <c r="M34" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>32</v>
+      </c>
+      <c r="B35" s="3">
+        <v>100108</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D35" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3">
+        <v>1</v>
+      </c>
+      <c r="M35" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>33</v>
+      </c>
+      <c r="B36" s="3">
+        <v>100109</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="D36" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E36" s="3">
+        <v>2</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3">
+        <v>1</v>
+      </c>
+      <c r="M36" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>34</v>
+      </c>
+      <c r="B37" s="3">
+        <v>100110</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D37" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E37" s="3">
+        <v>2</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3">
+        <v>1</v>
+      </c>
+      <c r="M37" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>35</v>
+      </c>
+      <c r="B38" s="3">
+        <v>100111</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D38" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E38" s="3">
+        <v>2</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3">
+        <v>1</v>
+      </c>
+      <c r="M38" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAFF09F-591C-41DC-A711-53F6351E712C}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1861,10 +5813,10 @@
         <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F2" t="s">
         <v>106</v>
@@ -1882,10 +5834,10 @@
         <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M2" t="s">
         <v>35</v>
@@ -1968,7 +5920,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>81</v>
@@ -2073,7 +6025,7 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>85</v>
@@ -2178,7 +6130,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>92</v>
@@ -2231,7 +6183,7 @@
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="N11" s="3">
         <v>0.35</v>
@@ -2476,7 +6428,7 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>115</v>
@@ -2511,7 +6463,7 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>116</v>
@@ -2681,12 +6633,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0068CF0C-3E4E-41E6-AC58-3D4F99CD1B34}">
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/skill.技能.xlsx
+++ b/Excel/skill.技能.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D7B48B-8705-4B37-948E-F1B51440DAD2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3EC5F1-EAC8-4893-B7F7-C26EEAF5E54D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="配数值技能" sheetId="29" r:id="rId2"/>
     <sheet name="配数值子弹" sheetId="30" r:id="rId3"/>
-    <sheet name="技能" sheetId="26" r:id="rId4"/>
-    <sheet name="子弹" sheetId="28" r:id="rId5"/>
+    <sheet name="子弹" sheetId="28" r:id="rId4"/>
+    <sheet name="技能" sheetId="26" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -235,42 +235,6 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{38A54F9E-931C-4D53-A2DA-9A2B1F11BF96}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-目前阶段，只有我方的技能有BUFF效果</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
     <comment ref="D3" authorId="0" shapeId="0" xr:uid="{70F2E75C-3563-41ED-A071-BE4C9AC36D0B}">
       <text>
         <r>
@@ -428,6 +392,42 @@
           </rPr>
           <t xml:space="preserve">
 子弹爆炸的特效文件</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{38A54F9E-931C-4D53-A2DA-9A2B1F11BF96}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+目前阶段，只有我方的技能有BUFF效果</t>
         </r>
       </text>
     </comment>
@@ -2682,8 +2682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE1484E-E599-4101-955C-A99AA9634D79}">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4417,8 +4417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84809B08-AEE0-4B35-956F-542A8D2C0F97}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5724,6 +5724,732 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0068CF0C-3E4E-41E6-AC58-3D4F99CD1B34}">
+  <dimension ref="A1:M22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="11.25" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="13.625" customWidth="1"/>
+    <col min="9" max="9" width="12.25" customWidth="1"/>
+    <col min="10" max="10" width="26.875" customWidth="1"/>
+    <col min="11" max="11" width="28.5" customWidth="1"/>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
+    <col min="13" max="13" width="13.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>11010</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>12010</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3">
+        <v>75</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="3">
+        <v>1</v>
+      </c>
+      <c r="M5" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>13010</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>11110</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>12110</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3">
+        <v>75</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>13110</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>21010</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3">
+        <v>75</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3">
+        <v>1</v>
+      </c>
+      <c r="M10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>23010</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E11" s="3">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3">
+        <v>1</v>
+      </c>
+      <c r="M11" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3">
+        <v>21110</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3">
+        <v>300</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
+        <v>22110</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E13" s="3">
+        <v>5</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3">
+        <v>1</v>
+      </c>
+      <c r="M13" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3">
+        <v>23110</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3">
+        <v>1</v>
+      </c>
+      <c r="M14" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3">
+        <v>100010</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3">
+        <v>1</v>
+      </c>
+      <c r="M15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3">
+        <v>101010</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3">
+        <v>1</v>
+      </c>
+      <c r="M16" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3">
+        <v>102010</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3">
+        <v>75</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3">
+        <v>1</v>
+      </c>
+      <c r="M17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3">
+        <v>103010</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3">
+        <v>75</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3">
+        <v>1</v>
+      </c>
+      <c r="M18" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3">
+        <v>104010</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3">
+        <v>1</v>
+      </c>
+      <c r="M19" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3">
+        <v>105010</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3">
+        <v>1</v>
+      </c>
+      <c r="M20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3">
+        <v>106010</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3">
+        <v>1</v>
+      </c>
+      <c r="M21" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3">
+        <v>107010</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3">
+        <v>1</v>
+      </c>
+      <c r="M22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAFF09F-591C-41DC-A711-53F6351E712C}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
@@ -6631,730 +7357,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0068CF0C-3E4E-41E6-AC58-3D4F99CD1B34}">
-  <dimension ref="A1:M22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="11.25" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
-    <col min="8" max="8" width="13.625" customWidth="1"/>
-    <col min="9" max="9" width="12.25" customWidth="1"/>
-    <col min="10" max="10" width="26.875" customWidth="1"/>
-    <col min="11" max="11" width="28.5" customWidth="1"/>
-    <col min="12" max="12" width="13.5" customWidth="1"/>
-    <col min="13" max="13" width="13.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
-        <v>11010</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E4" s="3">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="3">
-        <v>1</v>
-      </c>
-      <c r="M4" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3">
-        <v>12010</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E5" s="3">
-        <v>3</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3">
-        <v>75</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="3">
-        <v>1</v>
-      </c>
-      <c r="M5" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3">
-        <v>13010</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E6" s="3">
-        <v>2</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="3">
-        <v>1</v>
-      </c>
-      <c r="M6" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3">
-        <v>11110</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="3">
-        <v>1</v>
-      </c>
-      <c r="M7" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3">
-        <v>12110</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E8" s="3">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3">
-        <v>75</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="3">
-        <v>1</v>
-      </c>
-      <c r="M8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3">
-        <v>13110</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D9" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E9" s="3">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="3">
-        <v>1</v>
-      </c>
-      <c r="M9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3">
-        <v>21010</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D10" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E10" s="3">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3">
-        <v>75</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3">
-        <v>1</v>
-      </c>
-      <c r="M10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3">
-        <v>23010</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D11" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E11" s="3">
-        <v>4</v>
-      </c>
-      <c r="F11" s="3">
-        <v>3000</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3">
-        <v>1</v>
-      </c>
-      <c r="M11" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3">
-        <v>21110</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D12" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E12" s="3">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3">
-        <v>3000</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3">
-        <v>300</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1300</v>
-      </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3">
-        <v>1</v>
-      </c>
-      <c r="M12" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3">
-        <v>22110</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D13" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E13" s="3">
-        <v>5</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3">
-        <v>1</v>
-      </c>
-      <c r="M13" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3">
-        <v>23110</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E14" s="3">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3">
-        <v>1</v>
-      </c>
-      <c r="M14" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3">
-        <v>100010</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3">
-        <v>1</v>
-      </c>
-      <c r="M15" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>13</v>
-      </c>
-      <c r="B16" s="3">
-        <v>101010</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3">
-        <v>1</v>
-      </c>
-      <c r="M16" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3">
-        <v>102010</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E17" s="3">
-        <v>3</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3">
-        <v>75</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3">
-        <v>1</v>
-      </c>
-      <c r="M17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>15</v>
-      </c>
-      <c r="B18" s="3">
-        <v>103010</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E18" s="3">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3">
-        <v>75</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3">
-        <v>1</v>
-      </c>
-      <c r="M18" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>16</v>
-      </c>
-      <c r="B19" s="3">
-        <v>104010</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3">
-        <v>1</v>
-      </c>
-      <c r="M19" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>17</v>
-      </c>
-      <c r="B20" s="3">
-        <v>105010</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E20" s="3">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3">
-        <v>1</v>
-      </c>
-      <c r="M20" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>18</v>
-      </c>
-      <c r="B21" s="3">
-        <v>106010</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3">
-        <v>1</v>
-      </c>
-      <c r="M21" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>19</v>
-      </c>
-      <c r="B22" s="3">
-        <v>107010</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D22" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3">
-        <v>1</v>
-      </c>
-      <c r="M22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Excel/skill.技能.xlsx
+++ b/Excel/skill.技能.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3EC5F1-EAC8-4893-B7F7-C26EEAF5E54D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00FDBF1-D0F1-4CF2-A16D-37AFA4483799}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,8 +11,8 @@
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="配数值技能" sheetId="29" r:id="rId2"/>
     <sheet name="配数值子弹" sheetId="30" r:id="rId3"/>
-    <sheet name="子弹" sheetId="28" r:id="rId4"/>
-    <sheet name="技能" sheetId="26" r:id="rId5"/>
+    <sheet name="技能" sheetId="26" r:id="rId4"/>
+    <sheet name="子弹" sheetId="28" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{9AECE558-FEDE-45EE-A968-B4FFC16442C4}">
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{9AECE558-FEDE-45EE-A968-B4FFC16442C4}">
       <text>
         <r>
           <rPr>
@@ -235,6 +235,42 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{38A54F9E-931C-4D53-A2DA-9A2B1F11BF96}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+目前阶段，只有我方的技能有BUFF效果</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
     <comment ref="D3" authorId="0" shapeId="0" xr:uid="{70F2E75C-3563-41ED-A071-BE4C9AC36D0B}">
       <text>
         <r>
@@ -399,44 +435,8 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{38A54F9E-931C-4D53-A2DA-9A2B1F11BF96}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-目前阶段，只有我方的技能有BUFF效果</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="334">
   <si>
     <t>sheet名</t>
   </si>
@@ -1306,13 +1306,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>XX</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>12010</t>
   </si>
   <si>
@@ -1481,10 +1474,6 @@
   </si>
   <si>
     <t>11040</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>XXXX</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1861,22 +1850,6 @@
     <t>Missle-12</t>
   </si>
   <si>
-    <t>Point-0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Point-1</t>
-  </si>
-  <si>
-    <t>Point-2</t>
-  </si>
-  <si>
-    <t>Point-3</t>
-  </si>
-  <si>
-    <t>Point-4</t>
-  </si>
-  <si>
     <t>小怪通用子弹--1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1925,48 +1898,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Point-5</t>
-  </si>
-  <si>
-    <t>Point-6</t>
-  </si>
-  <si>
-    <t>Point-7</t>
-  </si>
-  <si>
-    <t>Point-8</t>
-  </si>
-  <si>
-    <t>Point-9</t>
-  </si>
-  <si>
-    <t>Point-10</t>
-  </si>
-  <si>
-    <t>Point-11</t>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>小怪普攻1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>100010</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>小怪普攻2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>BOSS普攻</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100011</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1986,17 +1926,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>XX,0.05,XX</t>
-  </si>
-  <si>
-    <t>XXX,0.05,XXX</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>XXX,0.05,XXX,1,XX,0.5,X,0.1,X</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>BOSS的普攻</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2009,7 +1938,72 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>100105,100106,100105,100107,100107,100107,12040,12040,13050,13050</t>
+    <t>bullet.Seq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bullet.interval</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:ae&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float:ae&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PointBullet04</t>
+  </si>
+  <si>
+    <t>PointBullet01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PointBullet02</t>
+  </si>
+  <si>
+    <t>PointBullet03</t>
+  </si>
+  <si>
+    <t>PointBullet05</t>
+  </si>
+  <si>
+    <t>PointBullet06</t>
+  </si>
+  <si>
+    <t>PointBullet07</t>
+  </si>
+  <si>
+    <t>PointBullet08</t>
+  </si>
+  <si>
+    <t>PointBullet09</t>
+  </si>
+  <si>
+    <t>PointBullet10</t>
+  </si>
+  <si>
+    <t>PointBullet11</t>
+  </si>
+  <si>
+    <t>PointBullet12</t>
+  </si>
+  <si>
+    <t>12130,12120,12110,12100,12090</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100101</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2586,7 +2580,7 @@
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>153</v>
@@ -2607,7 +2601,7 @@
     </row>
     <row r="3" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
@@ -2628,7 +2622,7 @@
     </row>
     <row r="4" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>154</v>
@@ -2649,7 +2643,7 @@
     </row>
     <row r="5" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
@@ -2680,31 +2674,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE1484E-E599-4101-955C-A99AA9634D79}">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:R48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="17.625" customWidth="1"/>
     <col min="4" max="4" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="91.875" customWidth="1"/>
-    <col min="6" max="6" width="74.875" customWidth="1"/>
-    <col min="7" max="7" width="10.875" customWidth="1"/>
-    <col min="8" max="8" width="11.25" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="13.625" customWidth="1"/>
-    <col min="11" max="12" width="11.75" customWidth="1"/>
-    <col min="13" max="13" width="15.25" customWidth="1"/>
-    <col min="14" max="14" width="20.125" customWidth="1"/>
-    <col min="15" max="15" width="13.625" customWidth="1"/>
-    <col min="16" max="16" width="15.25" customWidth="1"/>
-    <col min="17" max="17" width="105.25" customWidth="1"/>
+    <col min="5" max="6" width="43.125" customWidth="1"/>
+    <col min="7" max="7" width="74.875" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
+    <col min="9" max="9" width="11.25" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="13.625" customWidth="1"/>
+    <col min="12" max="13" width="11.75" customWidth="1"/>
+    <col min="14" max="14" width="15.25" customWidth="1"/>
+    <col min="15" max="15" width="20.125" customWidth="1"/>
+    <col min="16" max="16" width="13.625" customWidth="1"/>
+    <col min="17" max="17" width="15.25" customWidth="1"/>
+    <col min="18" max="18" width="105.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -2718,46 +2712,49 @@
         <v>15</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>83</v>
+        <v>314</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -2771,46 +2768,49 @@
         <v>161</v>
       </c>
       <c r="E2" t="s">
-        <v>164</v>
+        <v>316</v>
       </c>
       <c r="F2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G2" t="s">
         <v>106</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>49</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>32</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>29</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
-      </c>
-      <c r="K2" t="s">
-        <v>162</v>
       </c>
       <c r="L2" t="s">
         <v>162</v>
       </c>
       <c r="M2" t="s">
+        <v>162</v>
+      </c>
+      <c r="N2" t="s">
         <v>35</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>33</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>49</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>42</v>
       </c>
@@ -2823,47 +2823,46 @@
       <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -2871,34 +2870,35 @@
         <v>1101</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H4" s="7"/>
       <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
         <v>0</v>
       </c>
-      <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="3"/>
+      <c r="R4" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -2906,34 +2906,35 @@
         <v>1102</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F5" s="8" t="s">
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="3">
-        <v>1</v>
-      </c>
+      <c r="H5" s="7"/>
       <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
         <v>0</v>
       </c>
-      <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="3"/>
+      <c r="R5" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -2941,34 +2942,37 @@
         <v>1103</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="3">
-        <v>1</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="H6" s="7"/>
       <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
         <v>0</v>
       </c>
-      <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-      <c r="Q6" s="4" t="s">
+      <c r="Q6" s="3"/>
+      <c r="R6" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -2976,34 +2980,35 @@
         <v>1104</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="3">
-        <v>1</v>
-      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="H7" s="7"/>
       <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
         <v>0</v>
       </c>
-      <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-      <c r="Q7" s="4" t="s">
+      <c r="Q7" s="3"/>
+      <c r="R7" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -3011,34 +3016,35 @@
         <v>1105</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
+      <c r="E8" s="4">
+        <v>2</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="H8" s="7"/>
       <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
         <v>0</v>
       </c>
-      <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
-      <c r="Q8" s="4" t="s">
+      <c r="Q8" s="3"/>
+      <c r="R8" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -3046,34 +3052,37 @@
         <v>1106</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="3">
-        <v>1</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="H9" s="7"/>
       <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
-      <c r="Q9" s="4" t="s">
+      <c r="Q9" s="3"/>
+      <c r="R9" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -3081,34 +3090,35 @@
         <v>1107</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="3">
-        <v>1</v>
-      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="H10" s="7"/>
       <c r="I10" s="3">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3">
         <v>0</v>
       </c>
-      <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-      <c r="Q10" s="4" t="s">
+      <c r="Q10" s="3"/>
+      <c r="R10" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -3116,34 +3126,35 @@
         <v>1108</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="3">
-        <v>1</v>
-      </c>
+      <c r="E11" s="4">
+        <v>2</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="H11" s="7"/>
       <c r="I11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3">
         <v>0</v>
       </c>
-      <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-      <c r="Q11" s="4" t="s">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -3151,34 +3162,37 @@
         <v>1109</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="3">
-        <v>1</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="H12" s="7"/>
       <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3">
         <v>0</v>
       </c>
-      <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-      <c r="Q12" s="4" t="s">
+      <c r="Q12" s="3"/>
+      <c r="R12" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -3186,34 +3200,35 @@
         <v>1110</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="3">
-        <v>1</v>
-      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="H13" s="7"/>
       <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="4" t="s">
+      <c r="Q13" s="3"/>
+      <c r="R13" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -3221,34 +3236,35 @@
         <v>1111</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="3">
-        <v>1</v>
-      </c>
+      <c r="E14" s="4">
+        <v>2</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="H14" s="7"/>
       <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="4" t="s">
+      <c r="Q14" s="3"/>
+      <c r="R14" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -3256,34 +3272,35 @@
         <v>1112</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="H15" s="7"/>
       <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-      <c r="Q15" s="4" t="s">
+      <c r="Q15" s="3"/>
+      <c r="R15" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -3291,34 +3308,35 @@
         <v>1113</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="3">
-        <v>1</v>
-      </c>
+      <c r="E16" s="4">
+        <v>4</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="H16" s="7"/>
       <c r="I16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3">
         <v>0</v>
       </c>
-      <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="4" t="s">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -3326,34 +3344,35 @@
         <v>1201</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3">
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3">
         <v>2</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>0</v>
       </c>
-      <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
-      <c r="Q17" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3"/>
+      <c r="R17" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -3361,34 +3380,35 @@
         <v>1202</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="3">
+      <c r="E18" s="4">
         <v>2</v>
       </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="H18" s="7"/>
       <c r="I18" s="3">
+        <v>2</v>
+      </c>
+      <c r="J18" s="3">
         <v>0</v>
       </c>
-      <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
-      <c r="Q18" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3"/>
+      <c r="R18" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -3396,34 +3416,37 @@
         <v>1203</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="3">
+        <v>318</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="3">
         <v>2</v>
       </c>
-      <c r="I19" s="3">
+      <c r="J19" s="3">
         <v>0</v>
       </c>
-      <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-      <c r="Q19" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -3431,34 +3454,35 @@
         <v>1204</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D20" s="3"/>
-      <c r="E20" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="3">
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="3">
         <v>2</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
-      <c r="Q20" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3"/>
+      <c r="R20" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -3466,34 +3490,35 @@
         <v>1205</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="3">
+      <c r="E21" s="4">
         <v>2</v>
       </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="H21" s="7"/>
       <c r="I21" s="3">
+        <v>2</v>
+      </c>
+      <c r="J21" s="3">
         <v>0</v>
       </c>
-      <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
-      <c r="Q21" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3"/>
+      <c r="R21" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -3501,34 +3526,37 @@
         <v>1206</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="3">
+        <v>318</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="3">
         <v>2</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
-      <c r="Q22" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3"/>
+      <c r="R22" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -3536,34 +3564,35 @@
         <v>1207</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D23" s="3"/>
-      <c r="E23" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="3">
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="3">
         <v>2</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>0</v>
       </c>
-      <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
-      <c r="Q23" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3"/>
+      <c r="R23" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -3571,34 +3600,35 @@
         <v>1208</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="3">
+      <c r="E24" s="4">
         <v>2</v>
       </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="H24" s="7"/>
       <c r="I24" s="3">
+        <v>2</v>
+      </c>
+      <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
-      <c r="Q24" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3"/>
+      <c r="R24" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -3606,34 +3636,37 @@
         <v>1209</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="3">
+        <v>318</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="3">
         <v>2</v>
       </c>
-      <c r="I25" s="3">
+      <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
-      <c r="Q25" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3"/>
+      <c r="R25" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -3641,34 +3674,35 @@
         <v>1210</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="3">
+      <c r="E26" s="4">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="3">
         <v>2</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>0</v>
       </c>
-      <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
-      <c r="Q26" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3"/>
+      <c r="R26" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -3676,34 +3710,35 @@
         <v>1211</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D27" s="3"/>
-      <c r="E27" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="3">
+      <c r="E27" s="4">
         <v>2</v>
       </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="H27" s="7"/>
       <c r="I27" s="3">
+        <v>2</v>
+      </c>
+      <c r="J27" s="3">
         <v>0</v>
       </c>
-      <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
-      <c r="Q27" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3"/>
+      <c r="R27" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -3711,34 +3746,37 @@
         <v>1212</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="3">
+        <v>318</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="3">
         <v>2</v>
       </c>
-      <c r="I28" s="3">
+      <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
-      <c r="Q28" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3"/>
+      <c r="R28" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -3746,34 +3784,35 @@
         <v>1213</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D29" s="3"/>
-      <c r="E29" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="3">
+      <c r="E29" s="4">
+        <v>1</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="3">
         <v>2</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
-      <c r="Q29" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3"/>
+      <c r="R29" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -3781,34 +3820,35 @@
         <v>1301</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D30" s="3"/>
-      <c r="E30" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F30" s="8" t="s">
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3">
+      <c r="H30" s="3"/>
+      <c r="I30" s="3">
         <v>1.5</v>
       </c>
-      <c r="I30" s="3">
+      <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
-      <c r="Q30" s="4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3"/>
+      <c r="R30" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -3816,34 +3856,35 @@
         <v>1302</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D31" s="3"/>
-      <c r="E31" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="3">
+      <c r="E31" s="4">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="3">
         <v>1.5</v>
       </c>
-      <c r="I31" s="3">
+      <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
-      <c r="Q31" s="4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3"/>
+      <c r="R31" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -3851,34 +3892,35 @@
         <v>1303</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3">
+      <c r="E32" s="4">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3">
         <v>1.5</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
-      <c r="Q32" s="4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3"/>
+      <c r="R32" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -3886,34 +3928,35 @@
         <v>1304</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D33" s="3"/>
-      <c r="E33" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3">
+      <c r="E33" s="4">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3">
         <v>1.5</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>0</v>
       </c>
-      <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
-      <c r="Q33" s="4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3"/>
+      <c r="R33" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -3921,34 +3964,35 @@
         <v>1305</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D34" s="3"/>
-      <c r="E34" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3">
+      <c r="E34" s="4">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3">
         <v>1.5</v>
       </c>
-      <c r="I34" s="3">
+      <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
-      <c r="Q34" s="4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3"/>
+      <c r="R34" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>32</v>
       </c>
@@ -3956,34 +4000,35 @@
         <v>1306</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D35" s="3"/>
-      <c r="E35" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3">
+      <c r="E35" s="4">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3">
         <v>1.5</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>0</v>
       </c>
-      <c r="J35" s="3"/>
-      <c r="K35" s="4"/>
+      <c r="K35" s="3"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
-      <c r="N35" s="3"/>
+      <c r="N35" s="4"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
-      <c r="Q35" s="4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3"/>
+      <c r="R35" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>33</v>
       </c>
@@ -3991,34 +4036,35 @@
         <v>1307</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D36" s="3"/>
-      <c r="E36" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3">
+      <c r="E36" s="4">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3">
         <v>1.5</v>
       </c>
-      <c r="I36" s="3">
+      <c r="J36" s="3">
         <v>0</v>
       </c>
-      <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
-      <c r="Q36" s="4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q36" s="3"/>
+      <c r="R36" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>34</v>
       </c>
@@ -4026,34 +4072,35 @@
         <v>1308</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D37" s="3"/>
-      <c r="E37" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3">
+      <c r="E37" s="4">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3">
         <v>1.5</v>
       </c>
-      <c r="I37" s="3">
+      <c r="J37" s="3">
         <v>0</v>
       </c>
-      <c r="J37" s="4"/>
-      <c r="K37" s="3"/>
+      <c r="K37" s="4"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
-      <c r="Q37" s="4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q37" s="3"/>
+      <c r="R37" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>35</v>
       </c>
@@ -4061,34 +4108,35 @@
         <v>1309</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D38" s="3"/>
-      <c r="E38" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3">
+      <c r="E38" s="4">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3">
         <v>1.5</v>
       </c>
-      <c r="I38" s="3">
+      <c r="J38" s="3">
         <v>0</v>
       </c>
-      <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="3"/>
+      <c r="M38" s="4"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
-      <c r="Q38" s="4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q38" s="3"/>
+      <c r="R38" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>36</v>
       </c>
@@ -4096,34 +4144,35 @@
         <v>1310</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D39" s="3"/>
-      <c r="E39" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3">
+      <c r="E39" s="4">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3">
         <v>1.5</v>
       </c>
-      <c r="I39" s="3">
+      <c r="J39" s="3">
         <v>0</v>
       </c>
-      <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="4"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-      <c r="Q39" s="4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>37</v>
       </c>
@@ -4131,34 +4180,35 @@
         <v>1311</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D40" s="3"/>
-      <c r="E40" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3">
+      <c r="E40" s="4">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3">
         <v>1.5</v>
       </c>
-      <c r="I40" s="3">
+      <c r="J40" s="3">
         <v>0</v>
       </c>
-      <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-      <c r="Q40" s="4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>38</v>
       </c>
@@ -4166,34 +4216,35 @@
         <v>1312</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D41" s="3"/>
-      <c r="E41" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3">
+      <c r="E41" s="4">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3">
         <v>1.5</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>0</v>
       </c>
-      <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
-      <c r="Q41" s="4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3"/>
+      <c r="R41" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>39</v>
       </c>
@@ -4201,34 +4252,35 @@
         <v>1313</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D42" s="3"/>
-      <c r="E42" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3">
+      <c r="E42" s="4">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3">
         <v>1.5</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
-      <c r="Q42" s="4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3"/>
+      <c r="R42" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>40</v>
       </c>
@@ -4236,34 +4288,35 @@
         <v>10001</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="D43" s="3"/>
-      <c r="E43" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3">
+      <c r="E43" s="4">
+        <v>1</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3">
         <v>2</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
-      <c r="Q43" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3"/>
+      <c r="R43" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>41</v>
       </c>
@@ -4271,34 +4324,35 @@
         <v>10002</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="D44" s="3"/>
-      <c r="E44" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3">
+      <c r="E44" s="4">
+        <v>1</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3">
         <v>2</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
-      <c r="Q44" s="4" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3"/>
+      <c r="R44" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>42</v>
       </c>
@@ -4306,34 +4360,35 @@
         <v>20001</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="D45" s="3"/>
-      <c r="E45" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3">
+      <c r="E45" s="4">
+        <v>3</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3">
         <v>2</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
-      <c r="Q45" s="4" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3"/>
+      <c r="R45" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>43</v>
       </c>
@@ -4341,41 +4396,42 @@
         <v>20002</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="D46" s="3"/>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="4">
+        <v>5</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="F46" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3">
+      <c r="H46" s="3"/>
+      <c r="I46" s="3">
         <v>15</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>20</v>
       </c>
-      <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
-      <c r="Q46" s="4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3"/>
+      <c r="R46" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="4"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="3"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="8"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
@@ -4385,16 +4441,17 @@
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
-      <c r="Q47" s="4"/>
-    </row>
-    <row r="48" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3"/>
+      <c r="R47" s="4"/>
+    </row>
+    <row r="48" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="4"/>
       <c r="D48" s="3"/>
       <c r="E48" s="4"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="3"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="8"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
@@ -4404,12 +4461,14 @@
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
-      <c r="Q48" s="4"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4417,8 +4476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84809B08-AEE0-4B35-956F-542A8D2C0F97}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4567,7 +4626,7 @@
         <v>11010</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D4" s="3">
         <v>2000</v>
@@ -4580,7 +4639,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="3">
@@ -4598,7 +4657,7 @@
         <v>11020</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D5" s="3">
         <v>2000</v>
@@ -4611,7 +4670,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="3">
@@ -4629,7 +4688,7 @@
         <v>11030</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D6" s="3">
         <v>2000</v>
@@ -4642,7 +4701,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="3">
@@ -4660,7 +4719,7 @@
         <v>11040</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D7" s="3">
         <v>2000</v>
@@ -4673,7 +4732,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="3">
@@ -4691,7 +4750,7 @@
         <v>11050</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D8" s="3">
         <v>2000</v>
@@ -4704,7 +4763,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="3">
@@ -4722,7 +4781,7 @@
         <v>12010</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D9" s="3">
         <v>2000</v>
@@ -4737,7 +4796,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="3">
@@ -4755,7 +4814,7 @@
         <v>12020</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D10" s="3">
         <v>2000</v>
@@ -4770,7 +4829,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="3">
@@ -4788,7 +4847,7 @@
         <v>12030</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D11" s="3">
         <v>2000</v>
@@ -4803,7 +4862,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="3">
@@ -4821,7 +4880,7 @@
         <v>12040</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D12" s="3">
         <v>2000</v>
@@ -4836,7 +4895,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="3">
@@ -4854,7 +4913,7 @@
         <v>12050</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D13" s="3">
         <v>2000</v>
@@ -4869,7 +4928,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="3">
@@ -4887,7 +4946,7 @@
         <v>12060</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D14" s="3">
         <v>2000</v>
@@ -4902,7 +4961,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="3">
@@ -4920,7 +4979,7 @@
         <v>12070</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D15" s="3">
         <v>2000</v>
@@ -4935,7 +4994,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="3">
@@ -4953,7 +5012,7 @@
         <v>12080</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D16" s="3">
         <v>2000</v>
@@ -4968,7 +5027,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="3">
@@ -4986,7 +5045,7 @@
         <v>12090</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D17" s="3">
         <v>2000</v>
@@ -5001,7 +5060,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="3">
@@ -5019,7 +5078,7 @@
         <v>12100</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D18" s="3">
         <v>2000</v>
@@ -5034,7 +5093,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="3">
@@ -5052,7 +5111,7 @@
         <v>12110</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D19" s="3">
         <v>2000</v>
@@ -5067,7 +5126,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="3">
@@ -5085,7 +5144,7 @@
         <v>12120</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D20" s="3">
         <v>2000</v>
@@ -5100,7 +5159,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K20" s="4"/>
       <c r="L20" s="3">
@@ -5118,7 +5177,7 @@
         <v>12130</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D21" s="3">
         <v>2000</v>
@@ -5133,7 +5192,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="3">
@@ -5151,7 +5210,7 @@
         <v>13010</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D22" s="3">
         <v>2000</v>
@@ -5164,7 +5223,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="3">
@@ -5182,7 +5241,7 @@
         <v>13020</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D23" s="3">
         <v>2000</v>
@@ -5195,7 +5254,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K23" s="4"/>
       <c r="L23" s="3">
@@ -5213,7 +5272,7 @@
         <v>13030</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D24" s="3">
         <v>2000</v>
@@ -5226,7 +5285,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K24" s="4"/>
       <c r="L24" s="3">
@@ -5244,7 +5303,7 @@
         <v>13040</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D25" s="3">
         <v>2000</v>
@@ -5257,7 +5316,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="3">
@@ -5275,7 +5334,7 @@
         <v>13050</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D26" s="3">
         <v>2000</v>
@@ -5288,7 +5347,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3">
@@ -5306,7 +5365,7 @@
         <v>100100</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D27" s="3">
         <v>2000</v>
@@ -5319,7 +5378,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="4" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3">
@@ -5337,7 +5396,7 @@
         <v>100101</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D28" s="3">
         <v>2000</v>
@@ -5350,7 +5409,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="4" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3">
@@ -5368,7 +5427,7 @@
         <v>100102</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D29" s="3">
         <v>2000</v>
@@ -5381,7 +5440,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="4" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3">
@@ -5399,7 +5458,7 @@
         <v>100103</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D30" s="3">
         <v>2000</v>
@@ -5412,7 +5471,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="4" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3">
@@ -5430,7 +5489,7 @@
         <v>100104</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D31" s="3">
         <v>2000</v>
@@ -5443,7 +5502,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3">
@@ -5461,7 +5520,7 @@
         <v>100105</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D32" s="3">
         <v>2000</v>
@@ -5474,7 +5533,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3">
@@ -5492,7 +5551,7 @@
         <v>100106</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D33" s="3">
         <v>2000</v>
@@ -5505,7 +5564,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="4" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3">
@@ -5523,7 +5582,7 @@
         <v>100107</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="D34" s="3">
         <v>2000</v>
@@ -5536,7 +5595,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="4" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="K34" s="3"/>
       <c r="L34" s="3">
@@ -5554,7 +5613,7 @@
         <v>100108</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="D35" s="3">
         <v>2000</v>
@@ -5567,7 +5626,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="4" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="K35" s="3"/>
       <c r="L35" s="3">
@@ -5585,7 +5644,7 @@
         <v>100109</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="D36" s="3">
         <v>2000</v>
@@ -5598,7 +5657,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="4" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="K36" s="3"/>
       <c r="L36" s="3">
@@ -5616,7 +5675,7 @@
         <v>100110</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="D37" s="3">
         <v>2000</v>
@@ -5629,7 +5688,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="4" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="K37" s="3"/>
       <c r="L37" s="3">
@@ -5647,7 +5706,7 @@
         <v>100111</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="D38" s="3">
         <v>2000</v>
@@ -5660,7 +5719,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="4" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="K38" s="3"/>
       <c r="L38" s="3">
@@ -5724,732 +5783,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0068CF0C-3E4E-41E6-AC58-3D4F99CD1B34}">
-  <dimension ref="A1:M22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="11.25" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
-    <col min="8" max="8" width="13.625" customWidth="1"/>
-    <col min="9" max="9" width="12.25" customWidth="1"/>
-    <col min="10" max="10" width="26.875" customWidth="1"/>
-    <col min="11" max="11" width="28.5" customWidth="1"/>
-    <col min="12" max="12" width="13.5" customWidth="1"/>
-    <col min="13" max="13" width="13.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
-        <v>11010</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E4" s="3">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="3">
-        <v>1</v>
-      </c>
-      <c r="M4" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3">
-        <v>12010</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E5" s="3">
-        <v>3</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3">
-        <v>75</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="3">
-        <v>1</v>
-      </c>
-      <c r="M5" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3">
-        <v>13010</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E6" s="3">
-        <v>2</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="3">
-        <v>1</v>
-      </c>
-      <c r="M6" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3">
-        <v>11110</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="3">
-        <v>1</v>
-      </c>
-      <c r="M7" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3">
-        <v>12110</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E8" s="3">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3">
-        <v>75</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="3">
-        <v>1</v>
-      </c>
-      <c r="M8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3">
-        <v>13110</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D9" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E9" s="3">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="3">
-        <v>1</v>
-      </c>
-      <c r="M9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3">
-        <v>21010</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D10" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E10" s="3">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3">
-        <v>75</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3">
-        <v>1</v>
-      </c>
-      <c r="M10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3">
-        <v>23010</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D11" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E11" s="3">
-        <v>4</v>
-      </c>
-      <c r="F11" s="3">
-        <v>3000</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3">
-        <v>1</v>
-      </c>
-      <c r="M11" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3">
-        <v>21110</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D12" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E12" s="3">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3">
-        <v>3000</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3">
-        <v>300</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1300</v>
-      </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3">
-        <v>1</v>
-      </c>
-      <c r="M12" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3">
-        <v>22110</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D13" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E13" s="3">
-        <v>5</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3">
-        <v>1</v>
-      </c>
-      <c r="M13" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3">
-        <v>23110</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E14" s="3">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3">
-        <v>1</v>
-      </c>
-      <c r="M14" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3">
-        <v>100010</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3">
-        <v>1</v>
-      </c>
-      <c r="M15" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>13</v>
-      </c>
-      <c r="B16" s="3">
-        <v>101010</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3">
-        <v>1</v>
-      </c>
-      <c r="M16" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3">
-        <v>102010</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E17" s="3">
-        <v>3</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3">
-        <v>75</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3">
-        <v>1</v>
-      </c>
-      <c r="M17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>15</v>
-      </c>
-      <c r="B18" s="3">
-        <v>103010</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E18" s="3">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3">
-        <v>75</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3">
-        <v>1</v>
-      </c>
-      <c r="M18" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>16</v>
-      </c>
-      <c r="B19" s="3">
-        <v>104010</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3">
-        <v>1</v>
-      </c>
-      <c r="M19" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>17</v>
-      </c>
-      <c r="B20" s="3">
-        <v>105010</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E20" s="3">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3">
-        <v>1</v>
-      </c>
-      <c r="M20" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>18</v>
-      </c>
-      <c r="B21" s="3">
-        <v>106010</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3">
-        <v>1</v>
-      </c>
-      <c r="M21" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>19</v>
-      </c>
-      <c r="B22" s="3">
-        <v>107010</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D22" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3">
-        <v>1</v>
-      </c>
-      <c r="M22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAFF09F-591C-41DC-A711-53F6351E712C}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
@@ -7357,4 +6690,730 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0068CF0C-3E4E-41E6-AC58-3D4F99CD1B34}">
+  <dimension ref="A1:M22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="11.25" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="13.625" customWidth="1"/>
+    <col min="9" max="9" width="12.25" customWidth="1"/>
+    <col min="10" max="10" width="26.875" customWidth="1"/>
+    <col min="11" max="11" width="28.5" customWidth="1"/>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
+    <col min="13" max="13" width="13.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>11010</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>12010</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3">
+        <v>75</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="3">
+        <v>1</v>
+      </c>
+      <c r="M5" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>13010</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>11110</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>12110</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3">
+        <v>75</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>13110</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>21010</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3">
+        <v>75</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3">
+        <v>1</v>
+      </c>
+      <c r="M10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>23010</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E11" s="3">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3">
+        <v>1</v>
+      </c>
+      <c r="M11" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3">
+        <v>21110</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3">
+        <v>300</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
+        <v>22110</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E13" s="3">
+        <v>5</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3">
+        <v>1</v>
+      </c>
+      <c r="M13" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3">
+        <v>23110</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3">
+        <v>1</v>
+      </c>
+      <c r="M14" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3">
+        <v>100010</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3">
+        <v>1</v>
+      </c>
+      <c r="M15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3">
+        <v>101010</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3">
+        <v>1</v>
+      </c>
+      <c r="M16" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3">
+        <v>102010</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3">
+        <v>75</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3">
+        <v>1</v>
+      </c>
+      <c r="M17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3">
+        <v>103010</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3">
+        <v>75</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3">
+        <v>1</v>
+      </c>
+      <c r="M18" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3">
+        <v>104010</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3">
+        <v>1</v>
+      </c>
+      <c r="M19" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3">
+        <v>105010</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3">
+        <v>1</v>
+      </c>
+      <c r="M20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3">
+        <v>106010</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3">
+        <v>1</v>
+      </c>
+      <c r="M21" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3">
+        <v>107010</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3">
+        <v>1</v>
+      </c>
+      <c r="M22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Excel/skill.技能.xlsx
+++ b/Excel/skill.技能.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00FDBF1-D0F1-4CF2-A16D-37AFA4483799}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A3F342-3955-45AF-B683-B2D2D769543F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -2676,7 +2676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE1484E-E599-4101-955C-A99AA9634D79}">
   <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
@@ -6696,8 +6696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0068CF0C-3E4E-41E6-AC58-3D4F99CD1B34}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/skill.技能.xlsx
+++ b/Excel/skill.技能.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A3F342-3955-45AF-B683-B2D2D769543F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00FDBF1-D0F1-4CF2-A16D-37AFA4483799}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -2676,7 +2676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE1484E-E599-4101-955C-A99AA9634D79}">
   <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
@@ -6696,8 +6696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0068CF0C-3E4E-41E6-AC58-3D4F99CD1B34}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/skill.技能.xlsx
+++ b/Excel/skill.技能.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00FDBF1-D0F1-4CF2-A16D-37AFA4483799}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FD958F-A422-4969-84E0-52F0F4114356}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,6 +29,58 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{3F6C03B7-3633-4BC8-95DB-1C8D7B27AF70}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+暂不实现</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{9D1E895B-E75C-426E-B13C-419D50346953}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+暂不实现</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="K3" authorId="0" shapeId="0" xr:uid="{9AECE558-FEDE-45EE-A968-B4FFC16442C4}">
       <text>
         <r>
@@ -436,7 +488,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="337">
   <si>
     <t>sheet名</t>
   </si>
@@ -1306,45 +1358,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>12010</t>
-  </si>
-  <si>
-    <t>11010</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰普攻子弹--I</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰普攻子弹--II</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰普攻子弹--III</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰普攻子弹-- IV</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞碟普攻激光--I</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞碟普攻激光--II</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞碟普攻激光--III</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞碟普攻激光--IV</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>主炮普攻-0突</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1445,82 +1458,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>11010,11010,11010,11010</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>11020</t>
-  </si>
-  <si>
-    <t>11020,11020</t>
-  </si>
-  <si>
-    <t>11020,11020,11020,11020</t>
-  </si>
-  <si>
-    <t>11030</t>
-  </si>
-  <si>
-    <t>11030,11030</t>
-  </si>
-  <si>
-    <t>11030,11030,11030,11030</t>
-  </si>
-  <si>
-    <t>11040,11040</t>
-  </si>
-  <si>
-    <t>11040,11040,11040,11040</t>
-  </si>
-  <si>
-    <t>11040</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>11050,11050,11050,11050</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>12010,12010</t>
-  </si>
-  <si>
-    <t>12010,12010,12010,12010</t>
-  </si>
-  <si>
-    <t>12020</t>
-  </si>
-  <si>
-    <t>12020,12020</t>
-  </si>
-  <si>
-    <t>12020,12020,12020,12020</t>
-  </si>
-  <si>
-    <t>12030</t>
-  </si>
-  <si>
-    <t>12030,12030</t>
-  </si>
-  <si>
-    <t>12030,12030,12030,12030</t>
-  </si>
-  <si>
-    <t>12040</t>
-  </si>
-  <si>
-    <t>12040,12040</t>
-  </si>
-  <si>
-    <t>12040,12040,12040,12040</t>
-  </si>
-  <si>
-    <t>12050,12050,12050,12050</t>
-  </si>
-  <si>
-    <t>主舰普攻子弹--V</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>护卫舰普攻导弹--1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1573,10 +1510,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>飞碟普攻激光--V</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>激光炮普攻-0突</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1621,297 +1554,337 @@
     <t>导弹普攻-12突</t>
   </si>
   <si>
+    <t>释放激光弹攻击敌军</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放导弹攻击敌军</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainBullet-0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainBullet-1</t>
+  </si>
+  <si>
+    <t>MainBullet-2</t>
+  </si>
+  <si>
+    <t>MainBullet-3</t>
+  </si>
+  <si>
+    <t>MainBullet-4</t>
+  </si>
+  <si>
+    <t>Laser-0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Laser-1</t>
+  </si>
+  <si>
+    <t>Laser-2</t>
+  </si>
+  <si>
+    <t>Laser-3</t>
+  </si>
+  <si>
+    <t>Laser-4</t>
+  </si>
+  <si>
+    <t>配数值技能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>配数值子弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪通用子弹--1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪通用子弹--2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪通用子弹--3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪通用子弹--4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪通用子弹--5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪通用子弹--6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪通用子弹--7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪通用子弹--8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪通用子弹--9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪通用子弹--10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪通用子弹--11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪通用子弹--12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪普攻1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪普攻2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS普攻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS的普攻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bullet.interval</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:ae&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float:ae&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PointBullet04</t>
+  </si>
+  <si>
+    <t>PointBullet01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PointBullet02</t>
+  </si>
+  <si>
+    <t>PointBullet03</t>
+  </si>
+  <si>
+    <t>PointBullet05</t>
+  </si>
+  <si>
+    <t>PointBullet06</t>
+  </si>
+  <si>
+    <t>PointBullet07</t>
+  </si>
+  <si>
+    <t>PointBullet08</t>
+  </si>
+  <si>
+    <t>PointBullet09</t>
+  </si>
+  <si>
+    <t>PointBullet10</t>
+  </si>
+  <si>
+    <t>PointBullet11</t>
+  </si>
+  <si>
+    <t>PointBullet12</t>
+  </si>
+  <si>
+    <t>主舰普攻子弹--1</t>
+  </si>
+  <si>
+    <t>主舰普攻子弹--0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰普攻子弹--2</t>
+  </si>
+  <si>
+    <t>主舰普攻子弹--3</t>
+  </si>
+  <si>
+    <t>主舰普攻子弹--4</t>
+  </si>
+  <si>
+    <t>主舰普攻子弹--5</t>
+  </si>
+  <si>
+    <t>主舰普攻子弹--6</t>
+  </si>
+  <si>
+    <t>主舰普攻子弹--7</t>
+  </si>
+  <si>
+    <t>主舰普攻子弹--8</t>
+  </si>
+  <si>
+    <t>主舰普攻子弹--9</t>
+  </si>
+  <si>
+    <t>主舰普攻子弹--10</t>
+  </si>
+  <si>
+    <t>主舰普攻子弹--11</t>
+  </si>
+  <si>
+    <t>主舰普攻子弹--12</t>
+  </si>
+  <si>
+    <t>MainBullet-5</t>
+  </si>
+  <si>
+    <t>MainBullet-6</t>
+  </si>
+  <si>
+    <t>MainBullet-7</t>
+  </si>
+  <si>
+    <t>MainBullet-8</t>
+  </si>
+  <si>
+    <t>MainBullet-9</t>
+  </si>
+  <si>
+    <t>MainBullet-10</t>
+  </si>
+  <si>
+    <t>MainBullet-11</t>
+  </si>
+  <si>
+    <t>MainBullet-12</t>
+  </si>
+  <si>
+    <t>sequence</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹序列</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列间隔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞碟普攻激光--0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞碟普攻激光--1</t>
+  </si>
+  <si>
+    <t>飞碟普攻激光--2</t>
+  </si>
+  <si>
+    <t>飞碟普攻激光--3</t>
+  </si>
+  <si>
+    <t>飞碟普攻激光--4</t>
+  </si>
+  <si>
+    <t>飞碟普攻激光--5</t>
+  </si>
+  <si>
+    <t>飞碟普攻激光--6</t>
+  </si>
+  <si>
+    <t>飞碟普攻激光--7</t>
+  </si>
+  <si>
+    <t>飞碟普攻激光--8</t>
+  </si>
+  <si>
+    <t>飞碟普攻激光--9</t>
+  </si>
+  <si>
+    <t>飞碟普攻激光--10</t>
+  </si>
+  <si>
+    <t>飞碟普攻激光--11</t>
+  </si>
+  <si>
+    <t>飞碟普攻激光--12</t>
+  </si>
+  <si>
+    <t>Laser-5</t>
+  </si>
+  <si>
+    <t>Laser-6</t>
+  </si>
+  <si>
+    <t>Laser-7</t>
+  </si>
+  <si>
+    <t>Laser-8</t>
+  </si>
+  <si>
+    <t>Laser-9</t>
+  </si>
+  <si>
+    <t>Laser-10</t>
+  </si>
+  <si>
+    <t>Laser-11</t>
+  </si>
+  <si>
+    <t>Laser-12</t>
+  </si>
+  <si>
+    <t>精英怪普攻1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英怪普攻2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>双BOSS普攻1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪1普攻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪2普攻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英1普攻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英2普攻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>13020</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>13050</t>
-  </si>
-  <si>
-    <t>13070</t>
-  </si>
-  <si>
-    <t>13090</t>
-  </si>
-  <si>
-    <t>13030</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>13040</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>13060</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>13080</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>13100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>13110</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>13120</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>13130</t>
-  </si>
-  <si>
-    <t>释放激光弹攻击敌军</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放导弹攻击敌军</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MainBullet-0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MainBullet-1</t>
-  </si>
-  <si>
-    <t>MainBullet-2</t>
-  </si>
-  <si>
-    <t>MainBullet-3</t>
-  </si>
-  <si>
-    <t>MainBullet-4</t>
-  </si>
-  <si>
-    <t>Laser-0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Laser-1</t>
-  </si>
-  <si>
-    <t>Laser-2</t>
-  </si>
-  <si>
-    <t>Laser-3</t>
-  </si>
-  <si>
-    <t>Laser-4</t>
-  </si>
-  <si>
-    <t>配数值技能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>配数值子弹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Missle-0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Missle-1</t>
-  </si>
-  <si>
-    <t>Missle-2</t>
-  </si>
-  <si>
-    <t>Missle-3</t>
-  </si>
-  <si>
-    <t>Missle-4</t>
-  </si>
-  <si>
-    <t>Missle-5</t>
-  </si>
-  <si>
-    <t>Missle-6</t>
-  </si>
-  <si>
-    <t>Missle-7</t>
-  </si>
-  <si>
-    <t>Missle-8</t>
-  </si>
-  <si>
-    <t>Missle-9</t>
-  </si>
-  <si>
-    <t>Missle-10</t>
-  </si>
-  <si>
-    <t>Missle-11</t>
-  </si>
-  <si>
-    <t>Missle-12</t>
-  </si>
-  <si>
-    <t>小怪通用子弹--1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>小怪通用子弹--2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>小怪通用子弹--3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>小怪通用子弹--4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>小怪通用子弹--5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>小怪通用子弹--6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>小怪通用子弹--7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>小怪通用子弹--8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>小怪通用子弹--9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>小怪通用子弹--10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>小怪通用子弹--11</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>小怪通用子弹--12</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>小怪普攻1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>小怪普攻2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOSS普攻</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B</t>
+      <t>双B</t>
     </r>
     <r>
       <rPr>
@@ -1921,89 +1894,80 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>OSS大招</t>
+      <t>OSS普攻</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>BOSS的普攻</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOSS的大招</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100101,100102,100101,100103,100104,100103</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bullet.Seq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bullet.interval</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:ae&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>float:ae&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2</t>
+    <t>BOSS普攻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PointBullet02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PointBullet01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PointBullet03</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PointBullet04</t>
-  </si>
-  <si>
-    <t>PointBullet01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PointBullet02</t>
-  </si>
-  <si>
-    <t>PointBullet03</t>
-  </si>
-  <si>
-    <t>PointBullet05</t>
-  </si>
-  <si>
-    <t>PointBullet06</t>
-  </si>
-  <si>
-    <t>PointBullet07</t>
-  </si>
-  <si>
-    <t>PointBullet08</t>
-  </si>
-  <si>
-    <t>PointBullet09</t>
-  </si>
-  <si>
-    <t>PointBullet10</t>
-  </si>
-  <si>
-    <t>PointBullet11</t>
-  </si>
-  <si>
-    <t>PointBullet12</t>
-  </si>
-  <si>
-    <t>12130,12120,12110,12100,12090</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100101</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missile-0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missile-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missile-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missile-3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missile-4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missile-5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missile-6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missile-7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missile-8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missile-9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missile-10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missile-11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missile-12</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2189,7 +2153,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -2219,8 +2183,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -2246,9 +2213,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" quotePrefix="1" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="13">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="13" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="13" quotePrefix="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="13" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="14">
     <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Grid 2" xfId="13" xr:uid="{9B77FA6F-15F4-46B0-8192-6C28564BFE59}"/>
     <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -2580,7 +2560,7 @@
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>280</v>
+        <v>233</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>153</v>
@@ -2601,7 +2581,7 @@
     </row>
     <row r="3" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>280</v>
+        <v>233</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
@@ -2622,7 +2602,7 @@
     </row>
     <row r="4" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>281</v>
+        <v>234</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>154</v>
@@ -2643,7 +2623,7 @@
     </row>
     <row r="5" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>281</v>
+        <v>234</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
@@ -2674,18 +2654,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE1484E-E599-4101-955C-A99AA9634D79}">
-  <dimension ref="A1:R48"/>
+  <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="17.625" customWidth="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
-    <col min="5" max="6" width="43.125" customWidth="1"/>
-    <col min="7" max="7" width="74.875" customWidth="1"/>
+    <col min="4" max="5" width="13.625" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="23.25" customWidth="1"/>
     <col min="8" max="8" width="10.875" customWidth="1"/>
     <col min="9" max="9" width="11.25" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
@@ -2712,10 +2692,10 @@
         <v>15</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>315</v>
+        <v>251</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>84</v>
@@ -2768,13 +2748,13 @@
         <v>161</v>
       </c>
       <c r="E2" t="s">
-        <v>316</v>
+        <v>252</v>
       </c>
       <c r="F2" t="s">
-        <v>317</v>
+        <v>253</v>
       </c>
       <c r="G2" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
         <v>49</v>
@@ -2823,8 +2803,12 @@
       <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>289</v>
+      </c>
       <c r="G3" s="2" t="s">
         <v>26</v>
       </c>
@@ -2866,35 +2850,33 @@
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="9">
         <v>1101</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3">
+      <c r="C4" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="12">
+        <v>11010</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="J4" s="9">
         <v>0</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="4" t="s">
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="10" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2902,35 +2884,33 @@
       <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="9">
         <v>1102</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4">
-        <v>2</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
+      <c r="C5" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="12">
+        <v>11020</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="J5" s="9">
         <v>0</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="4" t="s">
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="10" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2938,37 +2918,33 @@
       <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="9">
         <v>1103</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3">
+      <c r="C6" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="12">
+        <v>11030</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="J6" s="9">
         <v>0</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="4" t="s">
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="10" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2976,35 +2952,33 @@
       <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="9">
         <v>1104</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3">
+      <c r="C7" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="12">
+        <v>11040</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="J7" s="9">
         <v>0</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="4" t="s">
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="10" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3012,35 +2986,33 @@
       <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="9">
         <v>1105</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4">
-        <v>2</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="3">
-        <v>1</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="C8" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="12">
+        <v>11050</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="J8" s="9">
         <v>0</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="4" t="s">
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="10" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3048,37 +3020,33 @@
       <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="9">
         <v>1106</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="3">
-        <v>1</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="C9" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="12">
+        <v>11060</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="J9" s="9">
         <v>0</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="4" t="s">
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="10" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3086,35 +3054,33 @@
       <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="9">
         <v>1107</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="3">
-        <v>1</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="C10" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="12">
+        <v>11070</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="J10" s="9">
         <v>0</v>
       </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="4" t="s">
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="10" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3122,35 +3088,33 @@
       <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="9">
         <v>1108</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4">
-        <v>2</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="3">
-        <v>1</v>
-      </c>
-      <c r="J11" s="3">
+      <c r="C11" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="12">
+        <v>11080</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="J11" s="9">
         <v>0</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="4" t="s">
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="10" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3158,37 +3122,33 @@
       <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="9">
         <v>1109</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="3">
-        <v>1</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="C12" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="12">
+        <v>11090</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="J12" s="9">
         <v>0</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="4" t="s">
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="10" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3196,35 +3156,33 @@
       <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="9">
         <v>1110</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="3">
-        <v>1</v>
-      </c>
-      <c r="J13" s="3">
+      <c r="C13" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="12">
+        <v>11100</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="J13" s="9">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="4" t="s">
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="10" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3232,35 +3190,33 @@
       <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="9">
         <v>1111</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4">
-        <v>2</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="3">
-        <v>1</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="C14" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="12">
+        <v>11110</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="J14" s="9">
         <v>0</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="4" t="s">
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="10" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3268,35 +3224,33 @@
       <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="9">
         <v>1112</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="3">
-        <v>1</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="C15" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="12">
+        <v>11120</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="J15" s="9">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="4" t="s">
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="10" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3304,35 +3258,33 @@
       <c r="A16" s="3">
         <v>13</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="9">
         <v>1113</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4">
-        <v>4</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="3">
-        <v>1</v>
-      </c>
-      <c r="J16" s="3">
+      <c r="C16" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="12">
+        <v>11130</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="J16" s="9">
         <v>0</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="4" t="s">
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="10" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3340,944 +3292,884 @@
       <c r="A17" s="3">
         <v>14</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="9">
         <v>1201</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3">
-        <v>2</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="C17" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="12">
+        <v>12010</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="J17" s="9">
         <v>0</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="4" t="s">
-        <v>268</v>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="10" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="9">
         <v>1202</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4">
-        <v>2</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="3">
-        <v>2</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="C18" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="12">
+        <v>12020</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="J18" s="9">
         <v>0</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="4" t="s">
-        <v>268</v>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="10" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="9">
         <v>1203</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="3">
-        <v>2</v>
-      </c>
-      <c r="J19" s="3">
+      <c r="C19" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="12">
+        <v>12030</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="J19" s="9">
         <v>0</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="4" t="s">
-        <v>268</v>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="10" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="9">
         <v>1204</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4">
-        <v>1</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="3">
-        <v>2</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="C20" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="12">
+        <v>12040</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="J20" s="9">
         <v>0</v>
       </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="4" t="s">
-        <v>268</v>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="10" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="9">
         <v>1205</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4">
-        <v>2</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="3">
-        <v>2</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="C21" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="12">
+        <v>12050</v>
+      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="J21" s="9">
         <v>0</v>
       </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="4" t="s">
-        <v>268</v>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="10" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="9">
         <v>1206</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="F22" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="3">
-        <v>2</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="C22" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="12">
+        <v>12060</v>
+      </c>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="J22" s="9">
         <v>0</v>
       </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="4" t="s">
-        <v>268</v>
+      <c r="K22" s="9"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="10" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="9">
         <v>1207</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="4">
-        <v>1</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="3">
-        <v>2</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="C23" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="12">
+        <v>12070</v>
+      </c>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="J23" s="9">
         <v>0</v>
       </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="4" t="s">
-        <v>268</v>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="10" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="9">
         <v>1208</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4">
-        <v>2</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="3">
-        <v>2</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="C24" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="12">
+        <v>12080</v>
+      </c>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="J24" s="9">
         <v>0</v>
       </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="4" t="s">
-        <v>268</v>
+      <c r="K24" s="10"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="10" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="9">
         <v>1209</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="F25" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="G25" s="8" t="s">
+      <c r="C25" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="12">
+        <v>12090</v>
+      </c>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="J25" s="9">
+        <v>0</v>
+      </c>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="10" t="s">
         <v>222</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="3">
-        <v>2</v>
-      </c>
-      <c r="J25" s="3">
-        <v>0</v>
-      </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="4" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="9">
         <v>1210</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="4">
-        <v>1</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="3">
-        <v>2</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="C26" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="12">
+        <v>12100</v>
+      </c>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="J26" s="9">
         <v>0</v>
       </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="4" t="s">
-        <v>268</v>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="10" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>24</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="9">
         <v>1211</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="4">
-        <v>2</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="3">
-        <v>2</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="C27" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="12">
+        <v>12110</v>
+      </c>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="J27" s="9">
         <v>0</v>
       </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="4" t="s">
-        <v>268</v>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="10" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>25</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="9">
         <v>1212</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="F28" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="3">
-        <v>2</v>
-      </c>
-      <c r="J28" s="3">
+      <c r="C28" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="12">
+        <v>12120</v>
+      </c>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="J28" s="9">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="4" t="s">
-        <v>268</v>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="10" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>26</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="9">
         <v>1213</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="4">
-        <v>1</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="3">
-        <v>2</v>
-      </c>
-      <c r="J29" s="3">
+      <c r="C29" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="12">
+        <v>12130</v>
+      </c>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="J29" s="9">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="4" t="s">
-        <v>268</v>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="10" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>27</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="9">
         <v>1301</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="4">
-        <v>1</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="J30" s="3">
+      <c r="C30" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="12">
+        <v>13010</v>
+      </c>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9">
+        <v>2</v>
+      </c>
+      <c r="J30" s="9">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="4" t="s">
-        <v>269</v>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="10" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>28</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="9">
         <v>1302</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="4">
-        <v>1</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="J31" s="3">
+      <c r="C31" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="12">
+        <v>13020</v>
+      </c>
+      <c r="H31" s="11"/>
+      <c r="I31" s="9">
+        <v>2</v>
+      </c>
+      <c r="J31" s="9">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="4" t="s">
-        <v>269</v>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="10" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>29</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="9">
         <v>1303</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="4">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="C32" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="12">
+        <v>13030</v>
+      </c>
+      <c r="H32" s="11"/>
+      <c r="I32" s="9">
+        <v>2</v>
+      </c>
+      <c r="J32" s="9">
         <v>0</v>
       </c>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="4" t="s">
-        <v>269</v>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="10" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>30</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="9">
         <v>1304</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="4">
-        <v>1</v>
-      </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="C33" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="12">
+        <v>13040</v>
+      </c>
+      <c r="H33" s="11"/>
+      <c r="I33" s="9">
+        <v>2</v>
+      </c>
+      <c r="J33" s="9">
         <v>0</v>
       </c>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="4" t="s">
-        <v>269</v>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="10" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>31</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="9">
         <v>1305</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="4">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="J34" s="3">
+      <c r="C34" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="12">
+        <v>13050</v>
+      </c>
+      <c r="H34" s="11"/>
+      <c r="I34" s="9">
+        <v>2</v>
+      </c>
+      <c r="J34" s="9">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="4" t="s">
-        <v>269</v>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="10" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>32</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="9">
         <v>1306</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="4">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="C35" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="12">
+        <v>13060</v>
+      </c>
+      <c r="H35" s="11"/>
+      <c r="I35" s="9">
+        <v>2</v>
+      </c>
+      <c r="J35" s="9">
         <v>0</v>
       </c>
-      <c r="K35" s="3"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="4" t="s">
-        <v>269</v>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="10" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>33</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="9">
         <v>1307</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="4">
-        <v>1</v>
-      </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="J36" s="3">
+      <c r="C36" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="12">
+        <v>13070</v>
+      </c>
+      <c r="H36" s="11"/>
+      <c r="I36" s="9">
+        <v>2</v>
+      </c>
+      <c r="J36" s="9">
         <v>0</v>
       </c>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="4" t="s">
-        <v>269</v>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="10" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>34</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="9">
         <v>1308</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="4">
-        <v>1</v>
-      </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="J37" s="3">
+      <c r="C37" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="12">
+        <v>13080</v>
+      </c>
+      <c r="H37" s="11"/>
+      <c r="I37" s="9">
+        <v>2</v>
+      </c>
+      <c r="J37" s="9">
         <v>0</v>
       </c>
-      <c r="K37" s="4"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="4" t="s">
-        <v>269</v>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="10" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>35</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="9">
         <v>1309</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="4">
-        <v>1</v>
-      </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="J38" s="3">
+      <c r="C38" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="12">
+        <v>13090</v>
+      </c>
+      <c r="H38" s="11"/>
+      <c r="I38" s="9">
+        <v>2</v>
+      </c>
+      <c r="J38" s="9">
         <v>0</v>
       </c>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="4" t="s">
-        <v>269</v>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="10" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>36</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="9">
         <v>1310</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="4">
-        <v>1</v>
-      </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="J39" s="3">
+      <c r="C39" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="12">
+        <v>13100</v>
+      </c>
+      <c r="H39" s="11"/>
+      <c r="I39" s="9">
+        <v>2</v>
+      </c>
+      <c r="J39" s="9">
         <v>0</v>
       </c>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="4" t="s">
-        <v>269</v>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="10" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>37</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="9">
         <v>1311</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="4">
-        <v>1</v>
-      </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="J40" s="3">
+      <c r="C40" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="12">
+        <v>13110</v>
+      </c>
+      <c r="H40" s="11"/>
+      <c r="I40" s="9">
+        <v>2</v>
+      </c>
+      <c r="J40" s="9">
         <v>0</v>
       </c>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="4" t="s">
-        <v>269</v>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="10" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>38</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="9">
         <v>1312</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="4">
-        <v>1</v>
-      </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="C41" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="12">
+        <v>13120</v>
+      </c>
+      <c r="H41" s="11"/>
+      <c r="I41" s="9">
+        <v>2</v>
+      </c>
+      <c r="J41" s="9">
         <v>0</v>
       </c>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="4" t="s">
-        <v>269</v>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="10" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>39</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="9">
         <v>1313</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="4">
-        <v>1</v>
-      </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="C42" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="12">
+        <v>13130</v>
+      </c>
+      <c r="H42" s="11"/>
+      <c r="I42" s="9">
+        <v>2</v>
+      </c>
+      <c r="J42" s="9">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="4" t="s">
-        <v>269</v>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="10" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4288,19 +4180,17 @@
         <v>10001</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>307</v>
+        <v>247</v>
       </c>
       <c r="D43" s="3"/>
-      <c r="E43" s="4">
-        <v>1</v>
-      </c>
+      <c r="E43" s="3"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="8" t="s">
-        <v>332</v>
+      <c r="G43" s="3">
+        <v>100200</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -4313,7 +4203,7 @@
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="4" t="s">
-        <v>307</v>
+        <v>247</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4324,19 +4214,17 @@
         <v>10002</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>308</v>
+        <v>248</v>
       </c>
       <c r="D44" s="3"/>
-      <c r="E44" s="4">
-        <v>1</v>
-      </c>
+      <c r="E44" s="3"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="8" t="s">
-        <v>333</v>
+      <c r="G44" s="3">
+        <v>100300</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
@@ -4349,7 +4237,7 @@
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="4" t="s">
-        <v>308</v>
+        <v>248</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4357,22 +4245,20 @@
         <v>42</v>
       </c>
       <c r="B45" s="3">
-        <v>20001</v>
+        <v>11001</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D45" s="3"/>
-      <c r="E45" s="4">
-        <v>3</v>
-      </c>
+      <c r="E45" s="3"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="8" t="s">
-        <v>313</v>
+      <c r="G45" s="3">
+        <v>100400</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -4384,34 +4270,30 @@
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
-      <c r="R45" s="4" t="s">
-        <v>311</v>
-      </c>
+      <c r="R45" s="4"/>
     </row>
     <row r="46" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>43</v>
       </c>
       <c r="B46" s="3">
-        <v>20002</v>
+        <v>11002</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D46" s="3"/>
-      <c r="E46" s="4">
-        <v>5</v>
-      </c>
+      <c r="E46" s="3"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="8" t="s">
-        <v>331</v>
+      <c r="G46" s="3">
+        <v>100500</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J46" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -4420,21 +4302,31 @@
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
-      <c r="R46" s="4" t="s">
-        <v>312</v>
-      </c>
+      <c r="R46" s="4"/>
     </row>
     <row r="47" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
+      <c r="A47" s="3">
+        <v>44</v>
+      </c>
+      <c r="B47" s="3">
+        <v>20001</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>313</v>
+      </c>
       <c r="D47" s="3"/>
-      <c r="E47" s="4"/>
+      <c r="E47" s="3"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="8"/>
+      <c r="G47" s="3">
+        <v>100600</v>
+      </c>
       <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
+      <c r="I47" s="3">
+        <v>1</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
@@ -4445,16 +4337,28 @@
       <c r="R47" s="4"/>
     </row>
     <row r="48" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="4"/>
+      <c r="A48" s="3">
+        <v>45</v>
+      </c>
+      <c r="B48" s="3">
+        <v>21002</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>249</v>
+      </c>
       <c r="D48" s="3"/>
-      <c r="E48" s="4"/>
+      <c r="E48" s="3"/>
       <c r="F48" s="4"/>
-      <c r="G48" s="8"/>
+      <c r="G48" s="3">
+        <v>100700</v>
+      </c>
       <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
+      <c r="I48" s="3">
+        <v>1</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
@@ -4462,7 +4366,49 @@
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
-      <c r="R48" s="4"/>
+      <c r="R48" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="4"/>
+    </row>
+    <row r="50" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4474,10 +4420,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84809B08-AEE0-4B35-956F-542A8D2C0F97}">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4626,7 +4572,7 @@
         <v>11010</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>171</v>
+        <v>267</v>
       </c>
       <c r="D4" s="3">
         <v>2000</v>
@@ -4639,11 +4585,11 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="4" t="s">
-        <v>270</v>
+        <v>223</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="3">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="M4" s="3">
         <v>10</v>
@@ -4657,7 +4603,7 @@
         <v>11020</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>172</v>
+        <v>266</v>
       </c>
       <c r="D5" s="3">
         <v>2000</v>
@@ -4670,14 +4616,14 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="4" t="s">
-        <v>271</v>
+        <v>224</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="3">
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="M5" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -4688,7 +4634,7 @@
         <v>11030</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>173</v>
+        <v>268</v>
       </c>
       <c r="D6" s="3">
         <v>2000</v>
@@ -4701,14 +4647,14 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="4" t="s">
-        <v>272</v>
+        <v>225</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="3">
-        <v>25</v>
+        <v>0.2</v>
       </c>
       <c r="M6" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -4719,7 +4665,7 @@
         <v>11040</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>174</v>
+        <v>269</v>
       </c>
       <c r="D7" s="3">
         <v>2000</v>
@@ -4732,14 +4678,14 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="4" t="s">
-        <v>273</v>
+        <v>226</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="3">
-        <v>125</v>
+        <v>0.2</v>
       </c>
       <c r="M7" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -4750,7 +4696,7 @@
         <v>11050</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>227</v>
+        <v>270</v>
       </c>
       <c r="D8" s="3">
         <v>2000</v>
@@ -4763,14 +4709,14 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="4" t="s">
-        <v>274</v>
+        <v>227</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="3">
-        <v>625</v>
+        <v>0.2</v>
       </c>
       <c r="M8" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -4778,32 +4724,30 @@
         <v>6</v>
       </c>
       <c r="B9" s="3">
-        <v>12010</v>
+        <v>11060</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="D9" s="3">
         <v>2000</v>
       </c>
       <c r="E9" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="3">
-        <v>75</v>
-      </c>
+      <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="3">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="M9" s="3">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -4811,32 +4755,30 @@
         <v>7</v>
       </c>
       <c r="B10" s="3">
-        <v>12020</v>
+        <v>11070</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>228</v>
+        <v>272</v>
       </c>
       <c r="D10" s="3">
         <v>2000</v>
       </c>
       <c r="E10" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="3">
-        <v>75</v>
-      </c>
+      <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="M10" s="3">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -4844,32 +4786,30 @@
         <v>8</v>
       </c>
       <c r="B11" s="3">
-        <v>12030</v>
+        <v>11080</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>229</v>
+        <v>273</v>
       </c>
       <c r="D11" s="3">
         <v>2000</v>
       </c>
       <c r="E11" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="3">
-        <v>75</v>
-      </c>
+      <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="3">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="M11" s="3">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -4877,32 +4817,30 @@
         <v>9</v>
       </c>
       <c r="B12" s="3">
-        <v>12040</v>
+        <v>11090</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>230</v>
+        <v>274</v>
       </c>
       <c r="D12" s="3">
         <v>2000</v>
       </c>
       <c r="E12" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="3">
-        <v>75</v>
-      </c>
+      <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="3">
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="M12" s="3">
-        <v>10</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -4910,32 +4848,30 @@
         <v>10</v>
       </c>
       <c r="B13" s="3">
-        <v>12050</v>
+        <v>11100</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>231</v>
+        <v>275</v>
       </c>
       <c r="D13" s="3">
         <v>2000</v>
       </c>
       <c r="E13" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="3">
-        <v>75</v>
-      </c>
+      <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="3">
-        <v>10</v>
+        <v>0.2</v>
       </c>
       <c r="M13" s="3">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -4943,32 +4879,30 @@
         <v>11</v>
       </c>
       <c r="B14" s="3">
-        <v>12060</v>
+        <v>11110</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>232</v>
+        <v>276</v>
       </c>
       <c r="D14" s="3">
         <v>2000</v>
       </c>
       <c r="E14" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="3">
-        <v>75</v>
-      </c>
+      <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="3">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="M14" s="3">
-        <v>10</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -4976,32 +4910,30 @@
         <v>12</v>
       </c>
       <c r="B15" s="3">
-        <v>12070</v>
+        <v>11120</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>233</v>
+        <v>277</v>
       </c>
       <c r="D15" s="3">
         <v>2000</v>
       </c>
       <c r="E15" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="3">
-        <v>75</v>
-      </c>
+      <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="3">
-        <v>25</v>
+        <v>0.2</v>
       </c>
       <c r="M15" s="3">
-        <v>10</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -5009,32 +4941,30 @@
         <v>13</v>
       </c>
       <c r="B16" s="3">
-        <v>12080</v>
+        <v>11130</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>234</v>
+        <v>278</v>
       </c>
       <c r="D16" s="3">
         <v>2000</v>
       </c>
       <c r="E16" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="3">
-        <v>75</v>
-      </c>
+      <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="3">
-        <v>50</v>
+        <v>0.2</v>
       </c>
       <c r="M16" s="3">
-        <v>10</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -5042,10 +4972,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="3">
-        <v>12090</v>
+        <v>12010</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="D17" s="3">
         <v>2000</v>
@@ -5060,11 +4990,11 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="4" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M17" s="3">
         <v>10</v>
@@ -5075,10 +5005,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="3">
-        <v>12100</v>
+        <v>12020</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="D18" s="3">
         <v>2000</v>
@@ -5093,14 +5023,14 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="4" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="3">
-        <v>125</v>
+        <v>1</v>
       </c>
       <c r="M18" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -5108,10 +5038,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="3">
-        <v>12110</v>
+        <v>12030</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="D19" s="3">
         <v>2000</v>
@@ -5126,14 +5056,14 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="4" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="3">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="M19" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -5141,10 +5071,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="3">
-        <v>12120</v>
+        <v>12040</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="D20" s="3">
         <v>2000</v>
@@ -5159,14 +5089,14 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="4" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="K20" s="4"/>
       <c r="L20" s="3">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="M20" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -5174,10 +5104,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="3">
-        <v>12130</v>
+        <v>12050</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="D21" s="3">
         <v>2000</v>
@@ -5192,14 +5122,14 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="4" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="3">
-        <v>625</v>
+        <v>1</v>
       </c>
       <c r="M21" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -5207,30 +5137,32 @@
         <v>19</v>
       </c>
       <c r="B22" s="3">
-        <v>13010</v>
+        <v>12060</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="D22" s="3">
         <v>2000</v>
       </c>
       <c r="E22" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="G22" s="3">
+        <v>75</v>
+      </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="4" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="3">
         <v>1</v>
       </c>
       <c r="M22" s="3">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -5238,30 +5170,32 @@
         <v>20</v>
       </c>
       <c r="B23" s="3">
-        <v>13020</v>
+        <v>12070</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="D23" s="3">
         <v>2000</v>
       </c>
       <c r="E23" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="G23" s="3">
+        <v>75</v>
+      </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="4" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="K23" s="4"/>
       <c r="L23" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M23" s="3">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -5269,30 +5203,32 @@
         <v>21</v>
       </c>
       <c r="B24" s="3">
-        <v>13030</v>
+        <v>12080</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="D24" s="3">
         <v>2000</v>
       </c>
       <c r="E24" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="G24" s="3">
+        <v>75</v>
+      </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="4" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="K24" s="4"/>
       <c r="L24" s="3">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="M24" s="3">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -5300,30 +5236,32 @@
         <v>22</v>
       </c>
       <c r="B25" s="3">
-        <v>13040</v>
+        <v>12090</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="D25" s="3">
         <v>2000</v>
       </c>
       <c r="E25" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="G25" s="3">
+        <v>75</v>
+      </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="4" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="3">
-        <v>125</v>
+        <v>1</v>
       </c>
       <c r="M25" s="3">
-        <v>10</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -5331,30 +5269,32 @@
         <v>23</v>
       </c>
       <c r="B26" s="3">
-        <v>13050</v>
+        <v>12100</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="D26" s="3">
         <v>2000</v>
       </c>
       <c r="E26" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="G26" s="3">
+        <v>75</v>
+      </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="K26" s="3"/>
+        <v>333</v>
+      </c>
+      <c r="K26" s="4"/>
       <c r="L26" s="3">
-        <v>625</v>
+        <v>1</v>
       </c>
       <c r="M26" s="3">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -5362,30 +5302,32 @@
         <v>24</v>
       </c>
       <c r="B27" s="3">
-        <v>100100</v>
+        <v>12110</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>295</v>
+        <v>203</v>
       </c>
       <c r="D27" s="3">
         <v>2000</v>
       </c>
       <c r="E27" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="G27" s="3">
+        <v>75</v>
+      </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="K27" s="3"/>
+        <v>334</v>
+      </c>
+      <c r="K27" s="4"/>
       <c r="L27" s="3">
         <v>1</v>
       </c>
       <c r="M27" s="3">
-        <v>10</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -5393,30 +5335,32 @@
         <v>25</v>
       </c>
       <c r="B28" s="3">
-        <v>100101</v>
+        <v>12120</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>296</v>
+        <v>204</v>
       </c>
       <c r="D28" s="3">
         <v>2000</v>
       </c>
       <c r="E28" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="G28" s="3">
+        <v>75</v>
+      </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="K28" s="3"/>
+        <v>335</v>
+      </c>
+      <c r="K28" s="4"/>
       <c r="L28" s="3">
         <v>1</v>
       </c>
       <c r="M28" s="3">
-        <v>10</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -5424,30 +5368,32 @@
         <v>26</v>
       </c>
       <c r="B29" s="3">
-        <v>100102</v>
+        <v>12130</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>297</v>
+        <v>205</v>
       </c>
       <c r="D29" s="3">
         <v>2000</v>
       </c>
       <c r="E29" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="G29" s="3">
+        <v>75</v>
+      </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="K29" s="3"/>
+        <v>336</v>
+      </c>
+      <c r="K29" s="4"/>
       <c r="L29" s="3">
         <v>1</v>
       </c>
       <c r="M29" s="3">
-        <v>10</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -5455,10 +5401,10 @@
         <v>27</v>
       </c>
       <c r="B30" s="3">
-        <v>100103</v>
+        <v>13010</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D30" s="3">
         <v>2000</v>
@@ -5471,9 +5417,9 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="K30" s="3"/>
+        <v>228</v>
+      </c>
+      <c r="K30" s="4"/>
       <c r="L30" s="3">
         <v>1</v>
       </c>
@@ -5486,10 +5432,10 @@
         <v>28</v>
       </c>
       <c r="B31" s="3">
-        <v>100104</v>
+        <v>13020</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="D31" s="3">
         <v>2000</v>
@@ -5502,14 +5448,14 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="K31" s="3"/>
+        <v>229</v>
+      </c>
+      <c r="K31" s="4"/>
       <c r="L31" s="3">
         <v>1</v>
       </c>
       <c r="M31" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -5517,10 +5463,10 @@
         <v>29</v>
       </c>
       <c r="B32" s="3">
-        <v>100105</v>
+        <v>13030</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D32" s="3">
         <v>2000</v>
@@ -5533,14 +5479,14 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="K32" s="3"/>
+        <v>230</v>
+      </c>
+      <c r="K32" s="4"/>
       <c r="L32" s="3">
         <v>1</v>
       </c>
       <c r="M32" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -5548,10 +5494,10 @@
         <v>30</v>
       </c>
       <c r="B33" s="3">
-        <v>100106</v>
+        <v>13040</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D33" s="3">
         <v>2000</v>
@@ -5564,14 +5510,14 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="K33" s="3"/>
+        <v>231</v>
+      </c>
+      <c r="K33" s="4"/>
       <c r="L33" s="3">
         <v>1</v>
       </c>
       <c r="M33" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -5579,10 +5525,10 @@
         <v>31</v>
       </c>
       <c r="B34" s="3">
-        <v>100107</v>
+        <v>13050</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D34" s="3">
         <v>2000</v>
@@ -5595,14 +5541,14 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="4" t="s">
-        <v>326</v>
+        <v>232</v>
       </c>
       <c r="K34" s="3"/>
       <c r="L34" s="3">
         <v>1</v>
       </c>
       <c r="M34" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -5610,10 +5556,10 @@
         <v>32</v>
       </c>
       <c r="B35" s="3">
-        <v>100108</v>
+        <v>13060</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D35" s="3">
         <v>2000</v>
@@ -5626,14 +5572,14 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="K35" s="3"/>
+        <v>303</v>
+      </c>
+      <c r="K35" s="4"/>
       <c r="L35" s="3">
         <v>1</v>
       </c>
       <c r="M35" s="3">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -5641,10 +5587,10 @@
         <v>33</v>
       </c>
       <c r="B36" s="3">
-        <v>100109</v>
+        <v>13070</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D36" s="3">
         <v>2000</v>
@@ -5657,14 +5603,14 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="K36" s="3"/>
+        <v>304</v>
+      </c>
+      <c r="K36" s="4"/>
       <c r="L36" s="3">
         <v>1</v>
       </c>
       <c r="M36" s="3">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -5672,10 +5618,10 @@
         <v>34</v>
       </c>
       <c r="B37" s="3">
-        <v>100110</v>
+        <v>13080</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D37" s="3">
         <v>2000</v>
@@ -5688,14 +5634,14 @@
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="K37" s="3"/>
+        <v>305</v>
+      </c>
+      <c r="K37" s="4"/>
       <c r="L37" s="3">
         <v>1</v>
       </c>
       <c r="M37" s="3">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -5703,10 +5649,10 @@
         <v>35</v>
       </c>
       <c r="B38" s="3">
-        <v>100111</v>
+        <v>13090</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D38" s="3">
         <v>2000</v>
@@ -5719,60 +5665,697 @@
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="K38" s="3"/>
+        <v>306</v>
+      </c>
+      <c r="K38" s="4"/>
       <c r="L38" s="3">
         <v>1</v>
       </c>
       <c r="M38" s="3">
-        <v>10</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
+      <c r="A39" s="3">
+        <v>36</v>
+      </c>
+      <c r="B39" s="3">
+        <v>13100</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D39" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E39" s="3">
+        <v>2</v>
+      </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
+      <c r="J39" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
+      <c r="L39" s="3">
+        <v>1</v>
+      </c>
+      <c r="M39" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="40" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
+      <c r="A40" s="3">
+        <v>37</v>
+      </c>
+      <c r="B40" s="3">
+        <v>13110</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="D40" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E40" s="3">
+        <v>2</v>
+      </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
+      <c r="J40" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="K40" s="4"/>
+      <c r="L40" s="3">
+        <v>1</v>
+      </c>
+      <c r="M40" s="3">
+        <v>110</v>
+      </c>
     </row>
     <row r="41" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
+      <c r="A41" s="3">
+        <v>38</v>
+      </c>
+      <c r="B41" s="3">
+        <v>13120</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D41" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2</v>
+      </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
+      <c r="J41" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="K41" s="4"/>
+      <c r="L41" s="3">
+        <v>1</v>
+      </c>
+      <c r="M41" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>39</v>
+      </c>
+      <c r="B42" s="3">
+        <v>13130</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D42" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>2</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="K42" s="4"/>
+      <c r="L42" s="3">
+        <v>1</v>
+      </c>
+      <c r="M42" s="3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>40</v>
+      </c>
+      <c r="B43" s="3">
+        <v>100100</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D43" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3">
+        <v>1</v>
+      </c>
+      <c r="M43" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>41</v>
+      </c>
+      <c r="B44" s="3">
+        <v>100101</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3">
+        <v>1</v>
+      </c>
+      <c r="M44" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>42</v>
+      </c>
+      <c r="B45" s="3">
+        <v>100102</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D45" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3">
+        <v>1</v>
+      </c>
+      <c r="M45" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>43</v>
+      </c>
+      <c r="B46" s="3">
+        <v>100103</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D46" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3">
+        <v>1</v>
+      </c>
+      <c r="M46" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>44</v>
+      </c>
+      <c r="B47" s="3">
+        <v>100104</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D47" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3">
+        <v>1</v>
+      </c>
+      <c r="M47" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>45</v>
+      </c>
+      <c r="B48" s="3">
+        <v>100105</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2</v>
+      </c>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3">
+        <v>1</v>
+      </c>
+      <c r="M48" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>46</v>
+      </c>
+      <c r="B49" s="3">
+        <v>100106</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3">
+        <v>1</v>
+      </c>
+      <c r="M49" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>47</v>
+      </c>
+      <c r="B50" s="3">
+        <v>100107</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D50" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E50" s="3">
+        <v>2</v>
+      </c>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3">
+        <v>1</v>
+      </c>
+      <c r="M50" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>48</v>
+      </c>
+      <c r="B51" s="3">
+        <v>100108</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D51" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E51" s="3">
+        <v>2</v>
+      </c>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3">
+        <v>1</v>
+      </c>
+      <c r="M51" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>49</v>
+      </c>
+      <c r="B52" s="3">
+        <v>100109</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2</v>
+      </c>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3">
+        <v>1</v>
+      </c>
+      <c r="M52" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>50</v>
+      </c>
+      <c r="B53" s="3">
+        <v>100110</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D53" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E53" s="3">
+        <v>2</v>
+      </c>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3">
+        <v>1</v>
+      </c>
+      <c r="M53" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>51</v>
+      </c>
+      <c r="B54" s="3">
+        <v>100111</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2</v>
+      </c>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3">
+        <v>1</v>
+      </c>
+      <c r="M54" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>52</v>
+      </c>
+      <c r="B55" s="3">
+        <v>100200</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D55" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E55" s="3">
+        <v>2</v>
+      </c>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="M55" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>53</v>
+      </c>
+      <c r="B56" s="3">
+        <v>100300</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D56" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E56" s="3">
+        <v>2</v>
+      </c>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="M56" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>54</v>
+      </c>
+      <c r="B57" s="3">
+        <v>100400</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2</v>
+      </c>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="M57" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>55</v>
+      </c>
+      <c r="B58" s="3">
+        <v>100500</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2</v>
+      </c>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="M58" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>56</v>
+      </c>
+      <c r="B59" s="3">
+        <v>100600</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2</v>
+      </c>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="M59" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>57</v>
+      </c>
+      <c r="B60" s="3">
+        <v>100700</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2</v>
+      </c>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3">
+        <v>1</v>
+      </c>
+      <c r="M60" s="3">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -6697,7 +7280,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/skill.技能.xlsx
+++ b/Excel/skill.技能.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FD958F-A422-4969-84E0-52F0F4114356}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F12157D-3179-493F-8EAD-955EE41272B3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -2656,8 +2656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE1484E-E599-4101-955C-A99AA9634D79}">
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2864,7 +2864,7 @@
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J4" s="9">
         <v>0</v>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J5" s="9">
         <v>0</v>
@@ -2932,7 +2932,7 @@
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J6" s="9">
         <v>0</v>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J7" s="9">
         <v>0</v>
@@ -3000,7 +3000,7 @@
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J8" s="9">
         <v>0</v>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J9" s="9">
         <v>0</v>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J10" s="9">
         <v>0</v>
@@ -3102,7 +3102,7 @@
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J11" s="9">
         <v>0</v>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J12" s="9">
         <v>0</v>
@@ -3170,7 +3170,7 @@
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J13" s="9">
         <v>0</v>
@@ -3204,7 +3204,7 @@
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J14" s="9">
         <v>0</v>
@@ -3238,7 +3238,7 @@
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J15" s="9">
         <v>0</v>
@@ -3272,7 +3272,7 @@
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J16" s="9">
         <v>0</v>
@@ -4422,8 +4422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84809B08-AEE0-4B35-956F-542A8D2C0F97}">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4589,7 +4589,7 @@
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M4" s="3">
         <v>10</v>
@@ -4620,7 +4620,7 @@
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M5" s="3">
         <v>20</v>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M6" s="3">
         <v>30</v>
@@ -4682,7 +4682,7 @@
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M7" s="3">
         <v>40</v>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M8" s="3">
         <v>50</v>
@@ -4744,7 +4744,7 @@
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M9" s="3">
         <v>60</v>
@@ -4775,7 +4775,7 @@
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M10" s="3">
         <v>70</v>
@@ -4806,7 +4806,7 @@
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M11" s="3">
         <v>80</v>
@@ -4837,7 +4837,7 @@
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M12" s="3">
         <v>90</v>
@@ -4868,7 +4868,7 @@
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M13" s="3">
         <v>100</v>
@@ -4899,7 +4899,7 @@
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M14" s="3">
         <v>110</v>
@@ -4930,7 +4930,7 @@
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M15" s="3">
         <v>120</v>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M16" s="3">
         <v>130</v>

--- a/Excel/skill.技能.xlsx
+++ b/Excel/skill.技能.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F12157D-3179-493F-8EAD-955EE41272B3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD28E537-E3F4-45C1-B3A0-775D6245948B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -251,7 +251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{F7DB370E-39FB-4BA5-9694-B6A2F79EBA06}">
+    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{F7DB370E-39FB-4BA5-9694-B6A2F79EBA06}">
       <text>
         <r>
           <rPr>
@@ -488,7 +488,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="341">
   <si>
     <t>sheet名</t>
   </si>
@@ -1907,68 +1907,83 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>PointBullet03</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PointBullet04</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missile-0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missile-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missile-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missile-3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missile-4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missile-5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missile-6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missile-7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missile-8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missile-9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missile-10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missile-11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missile-12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>scale.x</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>scale.y</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩放x</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩放y</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>PointBullet01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PointBullet03</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PointBullet04</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Missile-0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Missile-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Missile-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Missile-3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Missile-4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Missile-5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Missile-6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Missile-7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Missile-8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Missile-9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Missile-10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Missile-11</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Missile-12</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4420,10 +4435,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84809B08-AEE0-4B35-956F-542A8D2C0F97}">
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:O60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4436,12 +4451,13 @@
     <col min="8" max="8" width="13.625" customWidth="1"/>
     <col min="9" max="9" width="12.25" customWidth="1"/>
     <col min="10" max="10" width="26.875" customWidth="1"/>
-    <col min="11" max="11" width="28.5" customWidth="1"/>
-    <col min="12" max="12" width="13.5" customWidth="1"/>
-    <col min="13" max="13" width="13.375" customWidth="1"/>
+    <col min="11" max="12" width="12.5" customWidth="1"/>
+    <col min="13" max="13" width="28.5" customWidth="1"/>
+    <col min="14" max="14" width="13.5" customWidth="1"/>
+    <col min="15" max="15" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -4473,16 +4489,22 @@
         <v>14</v>
       </c>
       <c r="K1" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -4514,16 +4536,22 @@
         <v>35</v>
       </c>
       <c r="K2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" t="s">
         <v>35</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>32</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>42</v>
       </c>
@@ -4555,16 +4583,22 @@
         <v>41</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -4588,14 +4622,16 @@
         <v>223</v>
       </c>
       <c r="K4" s="4"/>
-      <c r="L4" s="3">
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="3">
         <v>0.1</v>
       </c>
-      <c r="M4" s="3">
+      <c r="O4" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -4619,14 +4655,16 @@
         <v>224</v>
       </c>
       <c r="K5" s="4"/>
-      <c r="L5" s="3">
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="3">
         <v>0.1</v>
       </c>
-      <c r="M5" s="3">
+      <c r="O5" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -4650,14 +4688,16 @@
         <v>225</v>
       </c>
       <c r="K6" s="4"/>
-      <c r="L6" s="3">
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="3">
         <v>0.1</v>
       </c>
-      <c r="M6" s="3">
+      <c r="O6" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -4681,14 +4721,16 @@
         <v>226</v>
       </c>
       <c r="K7" s="4"/>
-      <c r="L7" s="3">
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="3">
         <v>0.1</v>
       </c>
-      <c r="M7" s="3">
+      <c r="O7" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -4712,14 +4754,16 @@
         <v>227</v>
       </c>
       <c r="K8" s="4"/>
-      <c r="L8" s="3">
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="3">
         <v>0.1</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -4743,14 +4787,16 @@
         <v>279</v>
       </c>
       <c r="K9" s="4"/>
-      <c r="L9" s="3">
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="3">
         <v>0.1</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -4774,14 +4820,16 @@
         <v>280</v>
       </c>
       <c r="K10" s="4"/>
-      <c r="L10" s="3">
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="3">
         <v>0.1</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -4805,14 +4853,16 @@
         <v>281</v>
       </c>
       <c r="K11" s="4"/>
-      <c r="L11" s="3">
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="3">
         <v>0.1</v>
       </c>
-      <c r="M11" s="3">
+      <c r="O11" s="3">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -4836,14 +4886,16 @@
         <v>282</v>
       </c>
       <c r="K12" s="4"/>
-      <c r="L12" s="3">
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="3">
         <v>0.1</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -4867,14 +4919,16 @@
         <v>283</v>
       </c>
       <c r="K13" s="4"/>
-      <c r="L13" s="3">
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="3">
         <v>0.1</v>
       </c>
-      <c r="M13" s="3">
+      <c r="O13" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -4898,14 +4952,16 @@
         <v>284</v>
       </c>
       <c r="K14" s="4"/>
-      <c r="L14" s="3">
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="3">
         <v>0.1</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -4929,14 +4985,16 @@
         <v>285</v>
       </c>
       <c r="K15" s="4"/>
-      <c r="L15" s="3">
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="3">
         <v>0.1</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -4960,14 +5018,16 @@
         <v>286</v>
       </c>
       <c r="K16" s="4"/>
-      <c r="L16" s="3">
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="3">
         <v>0.1</v>
       </c>
-      <c r="M16" s="3">
+      <c r="O16" s="3">
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -4990,17 +5050,19 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K17" s="4"/>
-      <c r="L17" s="3">
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="3">
         <v>1</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -5023,17 +5085,19 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K18" s="4"/>
-      <c r="L18" s="3">
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="3">
         <v>1</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -5056,17 +5120,19 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K19" s="4"/>
-      <c r="L19" s="3">
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="3">
         <v>1</v>
       </c>
-      <c r="M19" s="3">
+      <c r="O19" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -5089,17 +5155,19 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K20" s="4"/>
-      <c r="L20" s="3">
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="3">
         <v>1</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -5122,17 +5190,19 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K21" s="4"/>
-      <c r="L21" s="3">
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="3">
         <v>1</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -5155,17 +5225,19 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K22" s="4"/>
-      <c r="L22" s="3">
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="3">
         <v>1</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -5188,17 +5260,19 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K23" s="4"/>
-      <c r="L23" s="3">
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="3">
         <v>1</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -5221,17 +5295,19 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K24" s="4"/>
-      <c r="L24" s="3">
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="3">
         <v>1</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -5254,17 +5330,19 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K25" s="4"/>
-      <c r="L25" s="3">
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="3">
         <v>1</v>
       </c>
-      <c r="M25" s="3">
+      <c r="O25" s="3">
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -5287,17 +5365,19 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K26" s="4"/>
-      <c r="L26" s="3">
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="3">
         <v>1</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -5320,17 +5400,19 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K27" s="4"/>
-      <c r="L27" s="3">
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="3">
         <v>1</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -5353,17 +5435,19 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K28" s="4"/>
-      <c r="L28" s="3">
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="3">
         <v>1</v>
       </c>
-      <c r="M28" s="3">
+      <c r="O28" s="3">
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -5386,17 +5470,19 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K29" s="4"/>
-      <c r="L29" s="3">
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="3">
         <v>1</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -5420,14 +5506,16 @@
         <v>228</v>
       </c>
       <c r="K30" s="4"/>
-      <c r="L30" s="3">
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="3">
         <v>1</v>
       </c>
-      <c r="M30" s="3">
+      <c r="O30" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -5451,14 +5539,16 @@
         <v>229</v>
       </c>
       <c r="K31" s="4"/>
-      <c r="L31" s="3">
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="3">
         <v>1</v>
       </c>
-      <c r="M31" s="3">
+      <c r="O31" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -5482,14 +5572,16 @@
         <v>230</v>
       </c>
       <c r="K32" s="4"/>
-      <c r="L32" s="3">
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="3">
         <v>1</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -5513,14 +5605,16 @@
         <v>231</v>
       </c>
       <c r="K33" s="4"/>
-      <c r="L33" s="3">
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="3">
         <v>1</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -5543,15 +5637,17 @@
       <c r="J34" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3">
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3">
         <v>1</v>
       </c>
-      <c r="M34" s="3">
+      <c r="O34" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>32</v>
       </c>
@@ -5575,14 +5671,16 @@
         <v>303</v>
       </c>
       <c r="K35" s="4"/>
-      <c r="L35" s="3">
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="3">
         <v>1</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>33</v>
       </c>
@@ -5606,14 +5704,16 @@
         <v>304</v>
       </c>
       <c r="K36" s="4"/>
-      <c r="L36" s="3">
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="3">
         <v>1</v>
       </c>
-      <c r="M36" s="3">
+      <c r="O36" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>34</v>
       </c>
@@ -5637,14 +5737,16 @@
         <v>305</v>
       </c>
       <c r="K37" s="4"/>
-      <c r="L37" s="3">
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="3">
         <v>1</v>
       </c>
-      <c r="M37" s="3">
+      <c r="O37" s="3">
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>35</v>
       </c>
@@ -5668,14 +5770,16 @@
         <v>306</v>
       </c>
       <c r="K38" s="4"/>
-      <c r="L38" s="3">
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="3">
         <v>1</v>
       </c>
-      <c r="M38" s="3">
+      <c r="O38" s="3">
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>36</v>
       </c>
@@ -5698,15 +5802,17 @@
       <c r="J39" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3">
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3">
         <v>1</v>
       </c>
-      <c r="M39" s="3">
+      <c r="O39" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>37</v>
       </c>
@@ -5730,14 +5836,16 @@
         <v>308</v>
       </c>
       <c r="K40" s="4"/>
-      <c r="L40" s="3">
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="3">
         <v>1</v>
       </c>
-      <c r="M40" s="3">
+      <c r="O40" s="3">
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>38</v>
       </c>
@@ -5761,14 +5869,16 @@
         <v>309</v>
       </c>
       <c r="K41" s="4"/>
-      <c r="L41" s="3">
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="3">
         <v>1</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>39</v>
       </c>
@@ -5792,14 +5902,16 @@
         <v>310</v>
       </c>
       <c r="K42" s="4"/>
-      <c r="L42" s="3">
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="3">
         <v>1</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>40</v>
       </c>
@@ -5822,15 +5934,17 @@
       <c r="J43" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3">
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3">
         <v>1</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>41</v>
       </c>
@@ -5853,15 +5967,17 @@
       <c r="J44" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3">
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3">
         <v>1</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>42</v>
       </c>
@@ -5884,15 +6000,17 @@
       <c r="J45" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3">
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3">
         <v>1</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>43</v>
       </c>
@@ -5915,15 +6033,17 @@
       <c r="J46" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3">
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3">
         <v>1</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>44</v>
       </c>
@@ -5946,15 +6066,17 @@
       <c r="J47" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3">
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3">
         <v>1</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>45</v>
       </c>
@@ -5977,15 +6099,17 @@
       <c r="J48" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3">
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3">
         <v>1</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>46</v>
       </c>
@@ -6008,15 +6132,17 @@
       <c r="J49" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3">
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3">
         <v>1</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>47</v>
       </c>
@@ -6039,15 +6165,17 @@
       <c r="J50" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3">
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3">
         <v>1</v>
       </c>
-      <c r="M50" s="3">
+      <c r="O50" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>48</v>
       </c>
@@ -6070,15 +6198,17 @@
       <c r="J51" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3">
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3">
         <v>1</v>
       </c>
-      <c r="M51" s="3">
+      <c r="O51" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>49</v>
       </c>
@@ -6101,15 +6231,17 @@
       <c r="J52" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3">
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3">
         <v>1</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>50</v>
       </c>
@@ -6132,15 +6264,17 @@
       <c r="J53" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3">
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3">
         <v>1</v>
       </c>
-      <c r="M53" s="3">
+      <c r="O53" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>51</v>
       </c>
@@ -6163,15 +6297,17 @@
       <c r="J54" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3">
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3">
         <v>1</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>52</v>
       </c>
@@ -6192,17 +6328,23 @@
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3">
+        <v>340</v>
+      </c>
+      <c r="K55" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="L55" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3">
         <v>0.15</v>
       </c>
-      <c r="M55" s="3">
+      <c r="O55" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>53</v>
       </c>
@@ -6223,17 +6365,23 @@
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3">
+        <v>340</v>
+      </c>
+      <c r="K56" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="L56" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3">
         <v>0.2</v>
       </c>
-      <c r="M56" s="3">
+      <c r="O56" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>54</v>
       </c>
@@ -6256,15 +6404,17 @@
       <c r="J57" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3">
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3">
         <v>0.45</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>55</v>
       </c>
@@ -6287,15 +6437,17 @@
       <c r="J58" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3">
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3">
         <v>0.8</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>56</v>
       </c>
@@ -6316,17 +6468,19 @@
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3">
+        <v>321</v>
+      </c>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3">
         <v>0.65</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>57</v>
       </c>
@@ -6347,13 +6501,15 @@
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3">
+        <v>322</v>
+      </c>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3">
         <v>1</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>10</v>
       </c>
     </row>

--- a/Excel/skill.技能.xlsx
+++ b/Excel/skill.技能.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD28E537-E3F4-45C1-B3A0-775D6245948B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE1AD63-1D9B-434C-8B57-D49BFA0FB423}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -2671,8 +2671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE1484E-E599-4101-955C-A99AA9634D79}">
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4205,7 +4205,7 @@
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -4239,7 +4239,7 @@
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
@@ -4437,8 +4437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84809B08-AEE0-4B35-956F-542A8D2C0F97}">
   <dimension ref="A1:O60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L52" sqref="L52"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5056,7 +5056,7 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O17" s="3">
         <v>10</v>
@@ -5091,7 +5091,7 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O18" s="3">
         <v>20</v>
@@ -5126,7 +5126,7 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O19" s="3">
         <v>30</v>
@@ -5161,7 +5161,7 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O20" s="3">
         <v>40</v>
@@ -5196,7 +5196,7 @@
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O21" s="3">
         <v>50</v>
@@ -5231,7 +5231,7 @@
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O22" s="3">
         <v>60</v>
@@ -5266,7 +5266,7 @@
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O23" s="3">
         <v>70</v>
@@ -5301,7 +5301,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O24" s="3">
         <v>80</v>
@@ -5336,7 +5336,7 @@
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O25" s="3">
         <v>90</v>
@@ -5371,7 +5371,7 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O26" s="3">
         <v>100</v>
@@ -5406,7 +5406,7 @@
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O27" s="3">
         <v>110</v>
@@ -5441,7 +5441,7 @@
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O28" s="3">
         <v>120</v>
@@ -5476,7 +5476,7 @@
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O29" s="3">
         <v>130</v>
@@ -5509,7 +5509,7 @@
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O30" s="3">
         <v>10</v>
@@ -5542,7 +5542,7 @@
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O31" s="3">
         <v>20</v>
@@ -5575,7 +5575,7 @@
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O32" s="3">
         <v>30</v>
@@ -5608,7 +5608,7 @@
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O33" s="3">
         <v>40</v>
@@ -5641,7 +5641,7 @@
       <c r="L34" s="4"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O34" s="3">
         <v>50</v>
@@ -5674,7 +5674,7 @@
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O35" s="3">
         <v>60</v>
@@ -5707,7 +5707,7 @@
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O36" s="3">
         <v>70</v>
@@ -5740,7 +5740,7 @@
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O37" s="3">
         <v>80</v>
@@ -5773,7 +5773,7 @@
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O38" s="3">
         <v>90</v>
@@ -5806,7 +5806,7 @@
       <c r="L39" s="4"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O39" s="3">
         <v>100</v>
@@ -5839,7 +5839,7 @@
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O40" s="3">
         <v>110</v>
@@ -5872,7 +5872,7 @@
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
       <c r="N41" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O41" s="3">
         <v>120</v>
@@ -5905,7 +5905,7 @@
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
       <c r="N42" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O42" s="3">
         <v>130</v>
@@ -6338,7 +6338,7 @@
       </c>
       <c r="M55" s="3"/>
       <c r="N55" s="3">
-        <v>0.15</v>
+        <v>0.22499999999999998</v>
       </c>
       <c r="O55" s="3">
         <v>10</v>
@@ -6375,7 +6375,7 @@
       </c>
       <c r="M56" s="3"/>
       <c r="N56" s="3">
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="O56" s="3">
         <v>10</v>

--- a/Excel/skill.技能.xlsx
+++ b/Excel/skill.技能.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE1AD63-1D9B-434C-8B57-D49BFA0FB423}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153F44E1-4C3B-4131-AEDF-CA27C19F2FBF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -2671,8 +2671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE1484E-E599-4101-955C-A99AA9634D79}">
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4437,8 +4437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84809B08-AEE0-4B35-956F-542A8D2C0F97}">
   <dimension ref="A1:O60"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J63" sqref="J63"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17:N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5056,7 +5056,7 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="3">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="O17" s="3">
         <v>10</v>
@@ -5091,7 +5091,7 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="3">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="O18" s="3">
         <v>20</v>
@@ -5126,7 +5126,7 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="3">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="O19" s="3">
         <v>30</v>
@@ -5161,7 +5161,7 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="3">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="O20" s="3">
         <v>40</v>
@@ -5196,7 +5196,7 @@
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="3">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="O21" s="3">
         <v>50</v>
@@ -5231,7 +5231,7 @@
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="3">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="O22" s="3">
         <v>60</v>
@@ -5266,7 +5266,7 @@
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="3">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="O23" s="3">
         <v>70</v>
@@ -5301,7 +5301,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="3">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="O24" s="3">
         <v>80</v>
@@ -5336,7 +5336,7 @@
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="3">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="O25" s="3">
         <v>90</v>
@@ -5371,7 +5371,7 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="3">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="O26" s="3">
         <v>100</v>
@@ -5406,7 +5406,7 @@
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="3">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="O27" s="3">
         <v>110</v>
@@ -5441,7 +5441,7 @@
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="3">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="O28" s="3">
         <v>120</v>
@@ -5476,7 +5476,7 @@
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="3">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="O29" s="3">
         <v>130</v>
@@ -5509,7 +5509,7 @@
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="3">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="O30" s="3">
         <v>10</v>
@@ -5542,7 +5542,7 @@
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="3">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="O31" s="3">
         <v>20</v>
@@ -5575,7 +5575,7 @@
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="3">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="O32" s="3">
         <v>30</v>
@@ -5608,7 +5608,7 @@
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="3">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="O33" s="3">
         <v>40</v>
@@ -5641,7 +5641,7 @@
       <c r="L34" s="4"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="O34" s="3">
         <v>50</v>
@@ -5674,7 +5674,7 @@
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="3">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="O35" s="3">
         <v>60</v>
@@ -5707,7 +5707,7 @@
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="3">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="O36" s="3">
         <v>70</v>
@@ -5740,7 +5740,7 @@
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="3">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="O37" s="3">
         <v>80</v>
@@ -5773,7 +5773,7 @@
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="3">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="O38" s="3">
         <v>90</v>
@@ -5806,7 +5806,7 @@
       <c r="L39" s="4"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="O39" s="3">
         <v>100</v>
@@ -5839,7 +5839,7 @@
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="3">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="O40" s="3">
         <v>110</v>
@@ -5872,7 +5872,7 @@
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
       <c r="N41" s="3">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="O41" s="3">
         <v>120</v>
@@ -5905,7 +5905,7 @@
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
       <c r="N42" s="3">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="O42" s="3">
         <v>130</v>

--- a/Excel/skill.技能.xlsx
+++ b/Excel/skill.技能.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153F44E1-4C3B-4131-AEDF-CA27C19F2FBF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFFA7F1-FF13-4E08-9B43-86B898AFBC64}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4437,8 +4437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84809B08-AEE0-4B35-956F-542A8D2C0F97}">
   <dimension ref="A1:O60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17:N29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4628,7 +4628,7 @@
         <v>0.1</v>
       </c>
       <c r="O4" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4661,7 +4661,7 @@
         <v>0.1</v>
       </c>
       <c r="O5" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4694,7 +4694,7 @@
         <v>0.1</v>
       </c>
       <c r="O6" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4727,7 +4727,7 @@
         <v>0.1</v>
       </c>
       <c r="O7" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4760,7 +4760,7 @@
         <v>0.1</v>
       </c>
       <c r="O8" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4793,7 +4793,7 @@
         <v>0.1</v>
       </c>
       <c r="O9" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4826,7 +4826,7 @@
         <v>0.1</v>
       </c>
       <c r="O10" s="3">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4859,7 +4859,7 @@
         <v>0.1</v>
       </c>
       <c r="O11" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4892,7 +4892,7 @@
         <v>0.1</v>
       </c>
       <c r="O12" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4925,7 +4925,7 @@
         <v>0.1</v>
       </c>
       <c r="O13" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4958,7 +4958,7 @@
         <v>0.1</v>
       </c>
       <c r="O14" s="3">
-        <v>110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4991,7 +4991,7 @@
         <v>0.1</v>
       </c>
       <c r="O15" s="3">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5024,7 +5024,7 @@
         <v>0.1</v>
       </c>
       <c r="O16" s="3">
-        <v>130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5059,7 +5059,7 @@
         <v>0.6</v>
       </c>
       <c r="O17" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5094,7 +5094,7 @@
         <v>0.6</v>
       </c>
       <c r="O18" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5129,7 +5129,7 @@
         <v>0.6</v>
       </c>
       <c r="O19" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5164,7 +5164,7 @@
         <v>0.6</v>
       </c>
       <c r="O20" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5199,7 +5199,7 @@
         <v>0.6</v>
       </c>
       <c r="O21" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5234,7 +5234,7 @@
         <v>0.6</v>
       </c>
       <c r="O22" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5269,7 +5269,7 @@
         <v>0.6</v>
       </c>
       <c r="O23" s="3">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5304,7 +5304,7 @@
         <v>0.6</v>
       </c>
       <c r="O24" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5339,7 +5339,7 @@
         <v>0.6</v>
       </c>
       <c r="O25" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5374,7 +5374,7 @@
         <v>0.6</v>
       </c>
       <c r="O26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5409,7 +5409,7 @@
         <v>0.6</v>
       </c>
       <c r="O27" s="3">
-        <v>110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5444,7 +5444,7 @@
         <v>0.6</v>
       </c>
       <c r="O28" s="3">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5479,7 +5479,7 @@
         <v>0.6</v>
       </c>
       <c r="O29" s="3">
-        <v>130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5512,7 +5512,7 @@
         <v>0.8</v>
       </c>
       <c r="O30" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5545,7 +5545,7 @@
         <v>0.8</v>
       </c>
       <c r="O31" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5578,7 +5578,7 @@
         <v>0.8</v>
       </c>
       <c r="O32" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5611,7 +5611,7 @@
         <v>0.8</v>
       </c>
       <c r="O33" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5644,7 +5644,7 @@
         <v>0.8</v>
       </c>
       <c r="O34" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5677,7 +5677,7 @@
         <v>0.8</v>
       </c>
       <c r="O35" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5710,7 +5710,7 @@
         <v>0.8</v>
       </c>
       <c r="O36" s="3">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5743,7 +5743,7 @@
         <v>0.8</v>
       </c>
       <c r="O37" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5776,7 +5776,7 @@
         <v>0.8</v>
       </c>
       <c r="O38" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5809,7 +5809,7 @@
         <v>0.8</v>
       </c>
       <c r="O39" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5842,7 +5842,7 @@
         <v>0.8</v>
       </c>
       <c r="O40" s="3">
-        <v>110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5875,7 +5875,7 @@
         <v>0.8</v>
       </c>
       <c r="O41" s="3">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5908,7 +5908,7 @@
         <v>0.8</v>
       </c>
       <c r="O42" s="3">
-        <v>130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5941,7 +5941,7 @@
         <v>1</v>
       </c>
       <c r="O43" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5974,7 +5974,7 @@
         <v>1</v>
       </c>
       <c r="O44" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6007,7 +6007,7 @@
         <v>1</v>
       </c>
       <c r="O45" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6040,7 +6040,7 @@
         <v>1</v>
       </c>
       <c r="O46" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6073,7 +6073,7 @@
         <v>1</v>
       </c>
       <c r="O47" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6106,7 +6106,7 @@
         <v>1</v>
       </c>
       <c r="O48" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6139,7 +6139,7 @@
         <v>1</v>
       </c>
       <c r="O49" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6172,7 +6172,7 @@
         <v>1</v>
       </c>
       <c r="O50" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6205,7 +6205,7 @@
         <v>1</v>
       </c>
       <c r="O51" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6238,7 +6238,7 @@
         <v>1</v>
       </c>
       <c r="O52" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6271,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="O53" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6304,7 +6304,7 @@
         <v>1</v>
       </c>
       <c r="O54" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6341,7 +6341,7 @@
         <v>0.22499999999999998</v>
       </c>
       <c r="O55" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6378,7 +6378,7 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="O56" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6411,7 +6411,7 @@
         <v>0.45</v>
       </c>
       <c r="O57" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6444,7 +6444,7 @@
         <v>0.8</v>
       </c>
       <c r="O58" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6477,7 +6477,7 @@
         <v>0.65</v>
       </c>
       <c r="O59" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6510,7 +6510,7 @@
         <v>1</v>
       </c>
       <c r="O60" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/skill.技能.xlsx
+++ b/Excel/skill.技能.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFFA7F1-FF13-4E08-9B43-86B898AFBC64}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475304A5-BE1C-4557-A6CF-B7BDA32FD2D7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="技能" sheetId="26" r:id="rId4"/>
     <sheet name="子弹" sheetId="28" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2671,8 +2671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE1484E-E599-4101-955C-A99AA9634D79}">
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD30"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4438,7 +4438,7 @@
   <dimension ref="A1:O60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/skill.技能.xlsx
+++ b/Excel/skill.技能.xlsx
@@ -3,16 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475304A5-BE1C-4557-A6CF-B7BDA32FD2D7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0052D655-247E-4A43-833E-8914F31D06C3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
-    <sheet name="配数值技能" sheetId="29" r:id="rId2"/>
-    <sheet name="配数值子弹" sheetId="30" r:id="rId3"/>
-    <sheet name="技能" sheetId="26" r:id="rId4"/>
-    <sheet name="子弹" sheetId="28" r:id="rId5"/>
+    <sheet name="技能" sheetId="29" r:id="rId2"/>
+    <sheet name="子弹" sheetId="30" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -281,214 +279,8 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{38A54F9E-931C-4D53-A2DA-9A2B1F11BF96}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-目前阶段，只有我方的技能有BUFF效果</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{70F2E75C-3563-41ED-A071-BE4C9AC36D0B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-单位：像素</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{40405D43-9410-47DF-AE03-48D44DEF86CC}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1. 无弹道子弹
-2. 直线弹道子弹
-3. 跟踪导弹
-4. 持续连线激光或闪电
-5. 全屏轰炸</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{7B89FC8B-C229-4D2F-BAFD-373A4034238D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-现在只用于持续激光</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{563EBCCC-C913-40B0-9B89-0443A5CB5022}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-只有导弹和范围火炮有效</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{12E0D263-3305-448F-B102-35BEFE8CCFE9}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-子弹特效</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{7C02BA9E-458C-402A-ABFB-C97696314ABC}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-子弹爆炸的特效文件</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="256">
   <si>
     <t>sheet名</t>
   </si>
@@ -528,10 +320,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>speed</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -584,14 +372,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>子弹序列</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>子弹集合</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -612,10 +392,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>int:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>float:&lt;&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -624,10 +400,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>string:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>string:e&lt;&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -700,130 +472,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>行ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰普攻</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>护卫舰普攻</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞碟普攻</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰普攻_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>护卫舰普攻_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞碟普攻_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰怒气技能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>护卫舰怒气技能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞碟怒气技能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰怒气技能_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>护卫舰怒气技能_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞碟怒气技能_1</t>
-  </si>
-  <si>
-    <t>飞碟怒气技能_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>战列机火炮1</t>
-  </si>
-  <si>
-    <t>战列机火炮1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>侦察机普攻1</t>
-  </si>
-  <si>
-    <t>侦察机普攻1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>地堡普攻1</t>
-  </si>
-  <si>
-    <t>地堡普攻1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>放空炮普攻1</t>
-  </si>
-  <si>
-    <t>放空炮普攻1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>巡航机普攻1</t>
-  </si>
-  <si>
-    <t>巡航机普攻1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>低级飞碟普攻1</t>
-  </si>
-  <si>
-    <t>低级飞碟普攻1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级飞碟普攻1</t>
-  </si>
-  <si>
-    <t>高级飞碟普攻1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>11010,11010</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bullet.Seq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>bullet.Ids</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>11110,11110</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>angry</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -832,38 +484,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>12010</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>13010</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>12110</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>13110</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>21010</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>float:e&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>23010</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>21110</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>se[1].Param</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -896,18 +516,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>22110</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string:e&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:ea&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>tarBuff</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -920,200 +528,14 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>23110</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>101010</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>目标BUFF</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>堡垒怪普攻1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10201</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10301</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10401</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>105010</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10601</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10701</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>子弹名</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>主舰普攻子弹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>护卫舰普攻导弹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞碟普攻激光</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰普攻子弹_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>护卫舰普攻导弹_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞碟普攻激光_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰怒气飞弹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞碟怒气激光</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰怒气大激光_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>护卫舰怒气技能_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>desc</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1123,120 +545,6 @@
   </si>
   <si>
     <t>释放子弹攻击敌军</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放激光攻击敌军</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放导弹攻击敌军，导弹AOE伤害</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>不断释放飞弹（2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0个</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>），疯狂的轰炸敌军</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>护盾回复3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5%，无敌3秒</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放激光，对单体持续造成大量伤害</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放强力激光攻击，背景为之改色，攻击持续5秒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>呼叫支援，全屏轰炸。并鼓舞我方士气，使攻击力提升3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5%，持续5秒。</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对目标释放激光，持续时间越长，目标所受到的伤害越高。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放小型子弹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放追踪导弹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放3发追踪导弹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放炮火攻击</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放一束强力激光</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放持续攻击的激光</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>火炮攻击</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>堡垒怪普攻火炮1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:e&lt;&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1292,72 +600,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>shieldRg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string:ae&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>X,50,X</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>X</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>X</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>X,50,X,50,X,50,X,50,X,50,X,50,X,50,X,50,X,50,X,50,X,50,X,50,X,50,X,50,X,50,X,50,X,50,X,50,X,50,X,50</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>X,100,X,100,X</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>主炮普攻-0突</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1592,14 +834,6 @@
   </si>
   <si>
     <t>Laser-4</t>
-  </si>
-  <si>
-    <t>配数值技能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>配数值子弹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>小怪通用子弹--1</t>
@@ -1984,6 +1218,41 @@
   </si>
   <si>
     <t>PointBullet01</t>
+  </si>
+  <si>
+    <t>狂暴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升200%的攻击速度，持续30秒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>核打击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一堆导弹飞出去，攻击对方。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝对领域</t>
+  </si>
+  <si>
+    <t>护盾值增加50%，无敌5s。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>核打击子弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2536,7 +1805,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2575,20 +1844,20 @@
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>67</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>156</v>
+        <v>70</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
@@ -2596,20 +1865,20 @@
     </row>
     <row r="3" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>153</v>
+        <v>67</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="G3" s="3" t="b">
         <v>1</v>
@@ -2617,20 +1886,20 @@
     </row>
     <row r="4" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>154</v>
+        <v>68</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>156</v>
+        <v>70</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>159</v>
+        <v>73</v>
       </c>
       <c r="G4" s="3" t="b">
         <v>1</v>
@@ -2638,20 +1907,20 @@
     </row>
     <row r="5" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
-        <v>155</v>
+        <v>69</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="G5" s="3" t="b">
         <v>1</v>
@@ -2669,10 +1938,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE1484E-E599-4101-955C-A99AA9634D79}">
-  <dimension ref="A1:R50"/>
+  <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2695,28 +1965,28 @@
   <sheetData>
     <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>287</v>
+        <v>193</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>251</v>
+        <v>157</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>8</v>
@@ -2725,140 +1995,140 @@
         <v>9</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>133</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
+      <c r="P2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" t="s">
         <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E2" t="s">
-        <v>252</v>
-      </c>
-      <c r="F2" t="s">
-        <v>253</v>
-      </c>
-      <c r="G2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" t="s">
-        <v>162</v>
-      </c>
-      <c r="M2" t="s">
-        <v>162</v>
-      </c>
-      <c r="N2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>134</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2869,7 +2139,7 @@
         <v>1101</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -2892,7 +2162,7 @@
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
       <c r="R4" s="10" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2903,7 +2173,7 @@
         <v>1102</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -2926,7 +2196,7 @@
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="10" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2937,7 +2207,7 @@
         <v>1103</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -2960,7 +2230,7 @@
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
       <c r="R6" s="10" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2971,7 +2241,7 @@
         <v>1104</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -2994,7 +2264,7 @@
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="10" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3005,7 +2275,7 @@
         <v>1105</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -3028,7 +2298,7 @@
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="10" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3039,7 +2309,7 @@
         <v>1106</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -3062,7 +2332,7 @@
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="10" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3073,7 +2343,7 @@
         <v>1107</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -3096,7 +2366,7 @@
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
       <c r="R10" s="10" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3107,7 +2377,7 @@
         <v>1108</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>176</v>
+        <v>84</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -3130,7 +2400,7 @@
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
       <c r="R11" s="10" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3141,7 +2411,7 @@
         <v>1109</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>177</v>
+        <v>85</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -3164,7 +2434,7 @@
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="10" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3175,7 +2445,7 @@
         <v>1110</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>178</v>
+        <v>86</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -3198,7 +2468,7 @@
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="10" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3209,7 +2479,7 @@
         <v>1111</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>179</v>
+        <v>87</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -3232,7 +2502,7 @@
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
       <c r="R14" s="10" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3243,7 +2513,7 @@
         <v>1112</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>180</v>
+        <v>88</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -3266,7 +2536,7 @@
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
       <c r="R15" s="10" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3277,7 +2547,7 @@
         <v>1113</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>181</v>
+        <v>89</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -3300,7 +2570,7 @@
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="10" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3311,7 +2581,7 @@
         <v>1201</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>208</v>
+        <v>116</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -3334,7 +2604,7 @@
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="10" t="s">
-        <v>222</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3345,7 +2615,7 @@
         <v>1202</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>209</v>
+        <v>117</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
@@ -3368,7 +2638,7 @@
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
       <c r="R18" s="10" t="s">
-        <v>222</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3379,7 +2649,7 @@
         <v>1203</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>210</v>
+        <v>118</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
@@ -3402,7 +2672,7 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="10" t="s">
-        <v>222</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3413,7 +2683,7 @@
         <v>1204</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>211</v>
+        <v>119</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -3436,7 +2706,7 @@
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
       <c r="R20" s="10" t="s">
-        <v>222</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3447,7 +2717,7 @@
         <v>1205</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>212</v>
+        <v>120</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -3470,7 +2740,7 @@
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
       <c r="R21" s="10" t="s">
-        <v>222</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3481,7 +2751,7 @@
         <v>1206</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>213</v>
+        <v>121</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -3504,7 +2774,7 @@
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
       <c r="R22" s="10" t="s">
-        <v>222</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3515,7 +2785,7 @@
         <v>1207</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>214</v>
+        <v>122</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
@@ -3538,7 +2808,7 @@
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
       <c r="R23" s="10" t="s">
-        <v>222</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3549,7 +2819,7 @@
         <v>1208</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>215</v>
+        <v>123</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -3572,7 +2842,7 @@
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
       <c r="R24" s="10" t="s">
-        <v>222</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3583,7 +2853,7 @@
         <v>1209</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>216</v>
+        <v>124</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
@@ -3606,7 +2876,7 @@
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
       <c r="R25" s="10" t="s">
-        <v>222</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3617,7 +2887,7 @@
         <v>1210</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>217</v>
+        <v>125</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
@@ -3640,7 +2910,7 @@
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
       <c r="R26" s="10" t="s">
-        <v>222</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3651,7 +2921,7 @@
         <v>1211</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>218</v>
+        <v>126</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
@@ -3674,7 +2944,7 @@
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
       <c r="R27" s="10" t="s">
-        <v>222</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3685,7 +2955,7 @@
         <v>1212</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>219</v>
+        <v>127</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
@@ -3708,7 +2978,7 @@
       <c r="P28" s="9"/>
       <c r="Q28" s="9"/>
       <c r="R28" s="10" t="s">
-        <v>222</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3719,7 +2989,7 @@
         <v>1213</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>220</v>
+        <v>128</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -3742,7 +3012,7 @@
       <c r="P29" s="9"/>
       <c r="Q29" s="9"/>
       <c r="R29" s="10" t="s">
-        <v>222</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3753,7 +3023,7 @@
         <v>1301</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>207</v>
+        <v>115</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -3776,7 +3046,7 @@
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
       <c r="R30" s="10" t="s">
-        <v>221</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3787,7 +3057,7 @@
         <v>1302</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>182</v>
+        <v>90</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -3810,7 +3080,7 @@
       <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
       <c r="R31" s="10" t="s">
-        <v>221</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3821,7 +3091,7 @@
         <v>1303</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>183</v>
+        <v>91</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
@@ -3844,7 +3114,7 @@
       <c r="P32" s="9"/>
       <c r="Q32" s="9"/>
       <c r="R32" s="10" t="s">
-        <v>221</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3855,7 +3125,7 @@
         <v>1304</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>184</v>
+        <v>92</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
@@ -3878,7 +3148,7 @@
       <c r="P33" s="9"/>
       <c r="Q33" s="9"/>
       <c r="R33" s="10" t="s">
-        <v>221</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3889,7 +3159,7 @@
         <v>1305</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>185</v>
+        <v>93</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
@@ -3912,7 +3182,7 @@
       <c r="P34" s="9"/>
       <c r="Q34" s="9"/>
       <c r="R34" s="10" t="s">
-        <v>221</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3923,7 +3193,7 @@
         <v>1306</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>186</v>
+        <v>94</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
@@ -3946,7 +3216,7 @@
       <c r="P35" s="9"/>
       <c r="Q35" s="9"/>
       <c r="R35" s="10" t="s">
-        <v>221</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3957,7 +3227,7 @@
         <v>1307</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>187</v>
+        <v>95</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
@@ -3980,7 +3250,7 @@
       <c r="P36" s="9"/>
       <c r="Q36" s="9"/>
       <c r="R36" s="10" t="s">
-        <v>221</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3991,7 +3261,7 @@
         <v>1308</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
@@ -4014,7 +3284,7 @@
       <c r="P37" s="9"/>
       <c r="Q37" s="9"/>
       <c r="R37" s="10" t="s">
-        <v>221</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4025,7 +3295,7 @@
         <v>1309</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>189</v>
+        <v>97</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
@@ -4048,7 +3318,7 @@
       <c r="P38" s="9"/>
       <c r="Q38" s="9"/>
       <c r="R38" s="10" t="s">
-        <v>221</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4059,7 +3329,7 @@
         <v>1310</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>190</v>
+        <v>98</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
@@ -4082,7 +3352,7 @@
       <c r="P39" s="9"/>
       <c r="Q39" s="9"/>
       <c r="R39" s="10" t="s">
-        <v>221</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4093,7 +3363,7 @@
         <v>1311</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>191</v>
+        <v>99</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
@@ -4116,7 +3386,7 @@
       <c r="P40" s="9"/>
       <c r="Q40" s="9"/>
       <c r="R40" s="10" t="s">
-        <v>221</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4127,7 +3397,7 @@
         <v>1312</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>192</v>
+        <v>100</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
@@ -4150,7 +3420,7 @@
       <c r="P41" s="9"/>
       <c r="Q41" s="9"/>
       <c r="R41" s="10" t="s">
-        <v>221</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4161,7 +3431,7 @@
         <v>1313</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>193</v>
+        <v>101</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -4184,7 +3454,7 @@
       <c r="P42" s="9"/>
       <c r="Q42" s="9"/>
       <c r="R42" s="10" t="s">
-        <v>221</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4195,7 +3465,7 @@
         <v>10001</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>247</v>
+        <v>153</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -4218,7 +3488,7 @@
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="4" t="s">
-        <v>247</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4229,7 +3499,7 @@
         <v>10002</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>248</v>
+        <v>154</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -4252,7 +3522,7 @@
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="4" t="s">
-        <v>248</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4263,7 +3533,7 @@
         <v>11001</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>311</v>
+        <v>217</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -4295,7 +3565,7 @@
         <v>11002</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>312</v>
+        <v>218</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -4327,7 +3597,7 @@
         <v>20001</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>313</v>
+        <v>219</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -4359,7 +3629,7 @@
         <v>21002</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>249</v>
+        <v>155</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -4382,48 +3652,148 @@
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>46</v>
+      </c>
+      <c r="B49" s="3">
+        <v>50001</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="G49" s="7"/>
+      <c r="H49" s="3">
+        <v>100</v>
+      </c>
+      <c r="I49" s="3">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
+        <v>104</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>47</v>
+      </c>
+      <c r="B50" s="3">
+        <v>50002</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="G50" s="7">
+        <v>500020</v>
+      </c>
+      <c r="H50" s="3">
+        <v>200</v>
+      </c>
+      <c r="I50" s="3">
+        <v>5</v>
+      </c>
+      <c r="J50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="4"/>
-    </row>
-    <row r="50" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="4"/>
+    <row r="51" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>48</v>
+      </c>
+      <c r="B51" s="3">
+        <v>50003</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="G51" s="7"/>
+      <c r="H51" s="3">
+        <v>300</v>
+      </c>
+      <c r="I51" s="3">
+        <v>5</v>
+      </c>
+      <c r="J51" s="3">
+        <v>0</v>
+      </c>
+      <c r="K51" s="9">
+        <v>101</v>
+      </c>
+      <c r="R51" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="4"/>
+    </row>
+    <row r="53" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="4"/>
+    </row>
+    <row r="54" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4435,10 +3805,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84809B08-AEE0-4B35-956F-542A8D2C0F97}">
-  <dimension ref="A1:O60"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30:O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4459,143 +3829,143 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="F1" s="5" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>336</v>
+        <v>242</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>337</v>
+        <v>243</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" t="s">
-        <v>35</v>
-      </c>
       <c r="N2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>338</v>
+        <v>244</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>339</v>
+        <v>245</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4606,7 +3976,7 @@
         <v>11010</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>267</v>
+        <v>173</v>
       </c>
       <c r="D4" s="3">
         <v>2000</v>
@@ -4619,7 +3989,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="4" t="s">
-        <v>223</v>
+        <v>131</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -4628,7 +3998,7 @@
         <v>0.1</v>
       </c>
       <c r="O4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4639,7 +4009,7 @@
         <v>11020</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>266</v>
+        <v>172</v>
       </c>
       <c r="D5" s="3">
         <v>2000</v>
@@ -4652,7 +4022,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="4" t="s">
-        <v>224</v>
+        <v>132</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -4661,7 +4031,7 @@
         <v>0.1</v>
       </c>
       <c r="O5" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4672,7 +4042,7 @@
         <v>11030</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>268</v>
+        <v>174</v>
       </c>
       <c r="D6" s="3">
         <v>2000</v>
@@ -4685,7 +4055,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="4" t="s">
-        <v>225</v>
+        <v>133</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -4694,7 +4064,7 @@
         <v>0.1</v>
       </c>
       <c r="O6" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4705,7 +4075,7 @@
         <v>11040</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>269</v>
+        <v>175</v>
       </c>
       <c r="D7" s="3">
         <v>2000</v>
@@ -4718,7 +4088,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="4" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -4727,7 +4097,7 @@
         <v>0.1</v>
       </c>
       <c r="O7" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4738,7 +4108,7 @@
         <v>11050</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>270</v>
+        <v>176</v>
       </c>
       <c r="D8" s="3">
         <v>2000</v>
@@ -4751,7 +4121,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="4" t="s">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -4760,7 +4130,7 @@
         <v>0.1</v>
       </c>
       <c r="O8" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4771,7 +4141,7 @@
         <v>11060</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>271</v>
+        <v>177</v>
       </c>
       <c r="D9" s="3">
         <v>2000</v>
@@ -4784,7 +4154,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="4" t="s">
-        <v>279</v>
+        <v>185</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -4793,7 +4163,7 @@
         <v>0.1</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4804,7 +4174,7 @@
         <v>11070</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>272</v>
+        <v>178</v>
       </c>
       <c r="D10" s="3">
         <v>2000</v>
@@ -4817,7 +4187,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="4" t="s">
-        <v>280</v>
+        <v>186</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -4826,7 +4196,7 @@
         <v>0.1</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4837,7 +4207,7 @@
         <v>11080</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>273</v>
+        <v>179</v>
       </c>
       <c r="D11" s="3">
         <v>2000</v>
@@ -4850,7 +4220,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="4" t="s">
-        <v>281</v>
+        <v>187</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -4859,7 +4229,7 @@
         <v>0.1</v>
       </c>
       <c r="O11" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4870,7 +4240,7 @@
         <v>11090</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>274</v>
+        <v>180</v>
       </c>
       <c r="D12" s="3">
         <v>2000</v>
@@ -4883,7 +4253,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="4" t="s">
-        <v>282</v>
+        <v>188</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -4892,7 +4262,7 @@
         <v>0.1</v>
       </c>
       <c r="O12" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4903,7 +4273,7 @@
         <v>11100</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>275</v>
+        <v>181</v>
       </c>
       <c r="D13" s="3">
         <v>2000</v>
@@ -4916,7 +4286,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="4" t="s">
-        <v>283</v>
+        <v>189</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -4925,7 +4295,7 @@
         <v>0.1</v>
       </c>
       <c r="O13" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4936,7 +4306,7 @@
         <v>11110</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>276</v>
+        <v>182</v>
       </c>
       <c r="D14" s="3">
         <v>2000</v>
@@ -4949,7 +4319,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="4" t="s">
-        <v>284</v>
+        <v>190</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -4958,7 +4328,7 @@
         <v>0.1</v>
       </c>
       <c r="O14" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4969,7 +4339,7 @@
         <v>11120</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>277</v>
+        <v>183</v>
       </c>
       <c r="D15" s="3">
         <v>2000</v>
@@ -4982,7 +4352,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="4" t="s">
-        <v>285</v>
+        <v>191</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -4991,7 +4361,7 @@
         <v>0.1</v>
       </c>
       <c r="O15" s="3">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5002,7 +4372,7 @@
         <v>11130</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>278</v>
+        <v>184</v>
       </c>
       <c r="D16" s="3">
         <v>2000</v>
@@ -5015,7 +4385,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="4" t="s">
-        <v>286</v>
+        <v>192</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -5024,7 +4394,7 @@
         <v>0.1</v>
       </c>
       <c r="O16" s="3">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5035,7 +4405,7 @@
         <v>12010</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>206</v>
+        <v>114</v>
       </c>
       <c r="D17" s="3">
         <v>2000</v>
@@ -5050,7 +4420,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="4" t="s">
-        <v>323</v>
+        <v>229</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -5059,7 +4429,7 @@
         <v>0.6</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5070,7 +4440,7 @@
         <v>12020</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>194</v>
+        <v>102</v>
       </c>
       <c r="D18" s="3">
         <v>2000</v>
@@ -5085,7 +4455,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="4" t="s">
-        <v>324</v>
+        <v>230</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -5094,7 +4464,7 @@
         <v>0.6</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5105,7 +4475,7 @@
         <v>12030</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>195</v>
+        <v>103</v>
       </c>
       <c r="D19" s="3">
         <v>2000</v>
@@ -5120,7 +4490,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="4" t="s">
-        <v>325</v>
+        <v>231</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
@@ -5129,7 +4499,7 @@
         <v>0.6</v>
       </c>
       <c r="O19" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5140,7 +4510,7 @@
         <v>12040</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>196</v>
+        <v>104</v>
       </c>
       <c r="D20" s="3">
         <v>2000</v>
@@ -5155,7 +4525,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="4" t="s">
-        <v>326</v>
+        <v>232</v>
       </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
@@ -5164,7 +4534,7 @@
         <v>0.6</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5175,7 +4545,7 @@
         <v>12050</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>197</v>
+        <v>105</v>
       </c>
       <c r="D21" s="3">
         <v>2000</v>
@@ -5190,7 +4560,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="4" t="s">
-        <v>327</v>
+        <v>233</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
@@ -5199,7 +4569,7 @@
         <v>0.6</v>
       </c>
       <c r="O21" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5210,7 +4580,7 @@
         <v>12060</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>198</v>
+        <v>106</v>
       </c>
       <c r="D22" s="3">
         <v>2000</v>
@@ -5225,7 +4595,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="4" t="s">
-        <v>328</v>
+        <v>234</v>
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
@@ -5234,7 +4604,7 @@
         <v>0.6</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5245,7 +4615,7 @@
         <v>12070</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>199</v>
+        <v>107</v>
       </c>
       <c r="D23" s="3">
         <v>2000</v>
@@ -5260,7 +4630,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="4" t="s">
-        <v>329</v>
+        <v>235</v>
       </c>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
@@ -5269,7 +4639,7 @@
         <v>0.6</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5280,7 +4650,7 @@
         <v>12080</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>200</v>
+        <v>108</v>
       </c>
       <c r="D24" s="3">
         <v>2000</v>
@@ -5295,7 +4665,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="4" t="s">
-        <v>330</v>
+        <v>236</v>
       </c>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
@@ -5304,7 +4674,7 @@
         <v>0.6</v>
       </c>
       <c r="O24" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5315,7 +4685,7 @@
         <v>12090</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>201</v>
+        <v>109</v>
       </c>
       <c r="D25" s="3">
         <v>2000</v>
@@ -5330,7 +4700,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="4" t="s">
-        <v>331</v>
+        <v>237</v>
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
@@ -5339,7 +4709,7 @@
         <v>0.6</v>
       </c>
       <c r="O25" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5350,7 +4720,7 @@
         <v>12100</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>202</v>
+        <v>110</v>
       </c>
       <c r="D26" s="3">
         <v>2000</v>
@@ -5365,7 +4735,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="4" t="s">
-        <v>332</v>
+        <v>238</v>
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
@@ -5374,7 +4744,7 @@
         <v>0.6</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5385,7 +4755,7 @@
         <v>12110</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>203</v>
+        <v>111</v>
       </c>
       <c r="D27" s="3">
         <v>2000</v>
@@ -5400,7 +4770,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="4" t="s">
-        <v>333</v>
+        <v>239</v>
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
@@ -5409,7 +4779,7 @@
         <v>0.6</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5420,7 +4790,7 @@
         <v>12120</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>204</v>
+        <v>112</v>
       </c>
       <c r="D28" s="3">
         <v>2000</v>
@@ -5435,7 +4805,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="4" t="s">
-        <v>334</v>
+        <v>240</v>
       </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
@@ -5444,7 +4814,7 @@
         <v>0.6</v>
       </c>
       <c r="O28" s="3">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5455,7 +4825,7 @@
         <v>12130</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>205</v>
+        <v>113</v>
       </c>
       <c r="D29" s="3">
         <v>2000</v>
@@ -5470,7 +4840,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="4" t="s">
-        <v>335</v>
+        <v>241</v>
       </c>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
@@ -5479,7 +4849,7 @@
         <v>0.6</v>
       </c>
       <c r="O29" s="3">
-        <v>0</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5490,7 +4860,7 @@
         <v>13010</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>290</v>
+        <v>196</v>
       </c>
       <c r="D30" s="3">
         <v>2000</v>
@@ -5503,7 +4873,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="4" t="s">
-        <v>228</v>
+        <v>136</v>
       </c>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
@@ -5512,7 +4882,7 @@
         <v>0.8</v>
       </c>
       <c r="O30" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5523,7 +4893,7 @@
         <v>13020</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>291</v>
+        <v>197</v>
       </c>
       <c r="D31" s="3">
         <v>2000</v>
@@ -5536,7 +4906,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4" t="s">
-        <v>229</v>
+        <v>137</v>
       </c>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
@@ -5545,7 +4915,7 @@
         <v>0.8</v>
       </c>
       <c r="O31" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5556,7 +4926,7 @@
         <v>13030</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>292</v>
+        <v>198</v>
       </c>
       <c r="D32" s="3">
         <v>2000</v>
@@ -5569,7 +4939,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4" t="s">
-        <v>230</v>
+        <v>138</v>
       </c>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
@@ -5578,7 +4948,7 @@
         <v>0.8</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5589,7 +4959,7 @@
         <v>13040</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>293</v>
+        <v>199</v>
       </c>
       <c r="D33" s="3">
         <v>2000</v>
@@ -5602,7 +4972,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="4" t="s">
-        <v>231</v>
+        <v>139</v>
       </c>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
@@ -5611,7 +4981,7 @@
         <v>0.8</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5622,7 +4992,7 @@
         <v>13050</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>294</v>
+        <v>200</v>
       </c>
       <c r="D34" s="3">
         <v>2000</v>
@@ -5635,7 +5005,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="4" t="s">
-        <v>232</v>
+        <v>140</v>
       </c>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
@@ -5644,7 +5014,7 @@
         <v>0.8</v>
       </c>
       <c r="O34" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5655,7 +5025,7 @@
         <v>13060</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>295</v>
+        <v>201</v>
       </c>
       <c r="D35" s="3">
         <v>2000</v>
@@ -5668,7 +5038,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="4" t="s">
-        <v>303</v>
+        <v>209</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
@@ -5677,7 +5047,7 @@
         <v>0.8</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5688,7 +5058,7 @@
         <v>13070</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>296</v>
+        <v>202</v>
       </c>
       <c r="D36" s="3">
         <v>2000</v>
@@ -5701,7 +5071,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="4" t="s">
-        <v>304</v>
+        <v>210</v>
       </c>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
@@ -5710,7 +5080,7 @@
         <v>0.8</v>
       </c>
       <c r="O36" s="3">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5721,7 +5091,7 @@
         <v>13080</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>297</v>
+        <v>203</v>
       </c>
       <c r="D37" s="3">
         <v>2000</v>
@@ -5734,7 +5104,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="4" t="s">
-        <v>305</v>
+        <v>211</v>
       </c>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
@@ -5743,7 +5113,7 @@
         <v>0.8</v>
       </c>
       <c r="O37" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5754,7 +5124,7 @@
         <v>13090</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>298</v>
+        <v>204</v>
       </c>
       <c r="D38" s="3">
         <v>2000</v>
@@ -5767,7 +5137,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="4" t="s">
-        <v>306</v>
+        <v>212</v>
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
@@ -5776,7 +5146,7 @@
         <v>0.8</v>
       </c>
       <c r="O38" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5787,7 +5157,7 @@
         <v>13100</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>299</v>
+        <v>205</v>
       </c>
       <c r="D39" s="3">
         <v>2000</v>
@@ -5800,7 +5170,7 @@
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="4" t="s">
-        <v>307</v>
+        <v>213</v>
       </c>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
@@ -5809,7 +5179,7 @@
         <v>0.8</v>
       </c>
       <c r="O39" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5820,7 +5190,7 @@
         <v>13110</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>300</v>
+        <v>206</v>
       </c>
       <c r="D40" s="3">
         <v>2000</v>
@@ -5833,7 +5203,7 @@
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="4" t="s">
-        <v>308</v>
+        <v>214</v>
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
@@ -5842,7 +5212,7 @@
         <v>0.8</v>
       </c>
       <c r="O40" s="3">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5853,7 +5223,7 @@
         <v>13120</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>301</v>
+        <v>207</v>
       </c>
       <c r="D41" s="3">
         <v>2000</v>
@@ -5866,7 +5236,7 @@
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="4" t="s">
-        <v>309</v>
+        <v>215</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
@@ -5875,7 +5245,7 @@
         <v>0.8</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5886,7 +5256,7 @@
         <v>13130</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>302</v>
+        <v>208</v>
       </c>
       <c r="D42" s="3">
         <v>2000</v>
@@ -5899,7 +5269,7 @@
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="4" t="s">
-        <v>310</v>
+        <v>216</v>
       </c>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
@@ -5908,7 +5278,7 @@
         <v>0.8</v>
       </c>
       <c r="O42" s="3">
-        <v>0</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5919,7 +5289,7 @@
         <v>100100</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>235</v>
+        <v>141</v>
       </c>
       <c r="D43" s="3">
         <v>2000</v>
@@ -5932,7 +5302,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="4" t="s">
-        <v>255</v>
+        <v>161</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
@@ -5952,7 +5322,7 @@
         <v>100101</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>236</v>
+        <v>142</v>
       </c>
       <c r="D44" s="3">
         <v>2000</v>
@@ -5965,7 +5335,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="4" t="s">
-        <v>256</v>
+        <v>162</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
@@ -5985,7 +5355,7 @@
         <v>100102</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>237</v>
+        <v>143</v>
       </c>
       <c r="D45" s="3">
         <v>2000</v>
@@ -5998,7 +5368,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="4" t="s">
-        <v>257</v>
+        <v>163</v>
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
@@ -6018,7 +5388,7 @@
         <v>100103</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>238</v>
+        <v>144</v>
       </c>
       <c r="D46" s="3">
         <v>2000</v>
@@ -6031,7 +5401,7 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="4" t="s">
-        <v>254</v>
+        <v>160</v>
       </c>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
@@ -6051,7 +5421,7 @@
         <v>100104</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="D47" s="3">
         <v>2000</v>
@@ -6064,7 +5434,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="4" t="s">
-        <v>258</v>
+        <v>164</v>
       </c>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
@@ -6084,7 +5454,7 @@
         <v>100105</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="D48" s="3">
         <v>2000</v>
@@ -6097,7 +5467,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="4" t="s">
-        <v>259</v>
+        <v>165</v>
       </c>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
@@ -6117,7 +5487,7 @@
         <v>100106</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
       <c r="D49" s="3">
         <v>2000</v>
@@ -6130,7 +5500,7 @@
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="4" t="s">
-        <v>260</v>
+        <v>166</v>
       </c>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
@@ -6150,7 +5520,7 @@
         <v>100107</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>242</v>
+        <v>148</v>
       </c>
       <c r="D50" s="3">
         <v>2000</v>
@@ -6163,7 +5533,7 @@
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="4" t="s">
-        <v>261</v>
+        <v>167</v>
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
@@ -6183,7 +5553,7 @@
         <v>100108</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>243</v>
+        <v>149</v>
       </c>
       <c r="D51" s="3">
         <v>2000</v>
@@ -6196,7 +5566,7 @@
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="4" t="s">
-        <v>262</v>
+        <v>168</v>
       </c>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
@@ -6216,7 +5586,7 @@
         <v>100109</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>244</v>
+        <v>150</v>
       </c>
       <c r="D52" s="3">
         <v>2000</v>
@@ -6229,7 +5599,7 @@
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="4" t="s">
-        <v>263</v>
+        <v>169</v>
       </c>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
@@ -6249,7 +5619,7 @@
         <v>100110</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>245</v>
+        <v>151</v>
       </c>
       <c r="D53" s="3">
         <v>2000</v>
@@ -6262,7 +5632,7 @@
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="4" t="s">
-        <v>264</v>
+        <v>170</v>
       </c>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
@@ -6282,7 +5652,7 @@
         <v>100111</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>246</v>
+        <v>152</v>
       </c>
       <c r="D54" s="3">
         <v>2000</v>
@@ -6295,7 +5665,7 @@
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="4" t="s">
-        <v>265</v>
+        <v>171</v>
       </c>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
@@ -6315,7 +5685,7 @@
         <v>100200</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>314</v>
+        <v>220</v>
       </c>
       <c r="D55" s="3">
         <v>2000</v>
@@ -6328,7 +5698,7 @@
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="4" t="s">
-        <v>340</v>
+        <v>246</v>
       </c>
       <c r="K55" s="4">
         <v>0.85</v>
@@ -6352,7 +5722,7 @@
         <v>100300</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>315</v>
+        <v>221</v>
       </c>
       <c r="D56" s="3">
         <v>2000</v>
@@ -6365,7 +5735,7 @@
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="4" t="s">
-        <v>340</v>
+        <v>246</v>
       </c>
       <c r="K56" s="4">
         <v>0.85</v>
@@ -6389,7 +5759,7 @@
         <v>100400</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>316</v>
+        <v>222</v>
       </c>
       <c r="D57" s="3">
         <v>2000</v>
@@ -6402,7 +5772,7 @@
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="4" t="s">
-        <v>320</v>
+        <v>226</v>
       </c>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
@@ -6422,7 +5792,7 @@
         <v>100500</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>317</v>
+        <v>223</v>
       </c>
       <c r="D58" s="3">
         <v>2000</v>
@@ -6435,7 +5805,7 @@
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="4" t="s">
-        <v>320</v>
+        <v>226</v>
       </c>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
@@ -6455,7 +5825,7 @@
         <v>100600</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>318</v>
+        <v>224</v>
       </c>
       <c r="D59" s="3">
         <v>2000</v>
@@ -6468,7 +5838,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="4" t="s">
-        <v>321</v>
+        <v>227</v>
       </c>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
@@ -6488,7 +5858,7 @@
         <v>100700</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>319</v>
+        <v>225</v>
       </c>
       <c r="D60" s="3">
         <v>2000</v>
@@ -6501,7 +5871,7 @@
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="4" t="s">
-        <v>322</v>
+        <v>228</v>
       </c>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
@@ -6510,6 +5880,39 @@
         <v>1</v>
       </c>
       <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>58</v>
+      </c>
+      <c r="B61" s="3">
+        <v>500020</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D61" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2</v>
+      </c>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="3">
+        <v>10</v>
+      </c>
+      <c r="O61" s="3">
         <v>0</v>
       </c>
     </row>
@@ -6519,1640 +5922,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAFF09F-591C-41DC-A711-53F6351E712C}">
-  <dimension ref="A1:Q23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="17.625" customWidth="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="91.875" customWidth="1"/>
-    <col min="6" max="6" width="16.375" customWidth="1"/>
-    <col min="7" max="7" width="10.875" customWidth="1"/>
-    <col min="8" max="8" width="11.25" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="13.625" customWidth="1"/>
-    <col min="11" max="12" width="11.75" customWidth="1"/>
-    <col min="13" max="13" width="15.25" customWidth="1"/>
-    <col min="14" max="14" width="20.125" customWidth="1"/>
-    <col min="15" max="15" width="13.625" customWidth="1"/>
-    <col min="16" max="16" width="15.25" customWidth="1"/>
-    <col min="17" max="17" width="105.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" t="s">
-        <v>162</v>
-      </c>
-      <c r="L2" t="s">
-        <v>162</v>
-      </c>
-      <c r="M2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" t="s">
-        <v>93</v>
-      </c>
-      <c r="O2" t="s">
-        <v>49</v>
-      </c>
-      <c r="P2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1101</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="3">
-        <v>500</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1201</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1301</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1111</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="3">
-        <v>500</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1211</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1311</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3">
-        <v>2101</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="G10" s="3">
-        <v>100</v>
-      </c>
-      <c r="H10" s="3">
-        <v>3000</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3">
-        <v>2201</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="3">
-        <v>100</v>
-      </c>
-      <c r="H11" s="3">
-        <v>3000</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="4">
-        <v>101</v>
-      </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="N11" s="3">
-        <v>0.35</v>
-      </c>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3">
-        <v>2301</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="G12" s="3">
-        <v>100</v>
-      </c>
-      <c r="H12" s="3">
-        <v>3000</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3">
-        <v>2111</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="G13" s="3">
-        <v>100</v>
-      </c>
-      <c r="H13" s="3">
-        <v>3000</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3">
-        <v>2211</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G14" s="3">
-        <v>100</v>
-      </c>
-      <c r="H14" s="3">
-        <v>3000</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4">
-        <v>102</v>
-      </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3">
-        <v>2311</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="G15" s="3">
-        <v>100</v>
-      </c>
-      <c r="H15" s="3">
-        <v>3000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="4">
-        <v>103</v>
-      </c>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>13</v>
-      </c>
-      <c r="B16" s="3">
-        <v>10001</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3">
-        <v>10101</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>15</v>
-      </c>
-      <c r="B18" s="3">
-        <v>10201</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>16</v>
-      </c>
-      <c r="B19" s="3">
-        <v>10301</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>17</v>
-      </c>
-      <c r="B20" s="3">
-        <v>10401</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>18</v>
-      </c>
-      <c r="B21" s="3">
-        <v>10501</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>19</v>
-      </c>
-      <c r="B22" s="3">
-        <v>10601</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>20</v>
-      </c>
-      <c r="B23" s="3">
-        <v>10701</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0068CF0C-3E4E-41E6-AC58-3D4F99CD1B34}">
-  <dimension ref="A1:M22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="11.25" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
-    <col min="8" max="8" width="13.625" customWidth="1"/>
-    <col min="9" max="9" width="12.25" customWidth="1"/>
-    <col min="10" max="10" width="26.875" customWidth="1"/>
-    <col min="11" max="11" width="28.5" customWidth="1"/>
-    <col min="12" max="12" width="13.5" customWidth="1"/>
-    <col min="13" max="13" width="13.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
-        <v>11010</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E4" s="3">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="3">
-        <v>1</v>
-      </c>
-      <c r="M4" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3">
-        <v>12010</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E5" s="3">
-        <v>3</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3">
-        <v>75</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="3">
-        <v>1</v>
-      </c>
-      <c r="M5" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3">
-        <v>13010</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E6" s="3">
-        <v>2</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="3">
-        <v>1</v>
-      </c>
-      <c r="M6" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3">
-        <v>11110</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="3">
-        <v>1</v>
-      </c>
-      <c r="M7" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3">
-        <v>12110</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E8" s="3">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3">
-        <v>75</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="3">
-        <v>1</v>
-      </c>
-      <c r="M8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3">
-        <v>13110</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D9" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E9" s="3">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="3">
-        <v>1</v>
-      </c>
-      <c r="M9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3">
-        <v>21010</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D10" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E10" s="3">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3">
-        <v>75</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3">
-        <v>1</v>
-      </c>
-      <c r="M10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3">
-        <v>23010</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D11" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E11" s="3">
-        <v>4</v>
-      </c>
-      <c r="F11" s="3">
-        <v>3000</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3">
-        <v>1</v>
-      </c>
-      <c r="M11" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3">
-        <v>21110</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D12" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E12" s="3">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3">
-        <v>3000</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3">
-        <v>300</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1300</v>
-      </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3">
-        <v>1</v>
-      </c>
-      <c r="M12" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3">
-        <v>22110</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D13" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E13" s="3">
-        <v>5</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3">
-        <v>1</v>
-      </c>
-      <c r="M13" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3">
-        <v>23110</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E14" s="3">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3">
-        <v>1</v>
-      </c>
-      <c r="M14" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3">
-        <v>100010</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3">
-        <v>1</v>
-      </c>
-      <c r="M15" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>13</v>
-      </c>
-      <c r="B16" s="3">
-        <v>101010</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3">
-        <v>1</v>
-      </c>
-      <c r="M16" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3">
-        <v>102010</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E17" s="3">
-        <v>3</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3">
-        <v>75</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3">
-        <v>1</v>
-      </c>
-      <c r="M17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>15</v>
-      </c>
-      <c r="B18" s="3">
-        <v>103010</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E18" s="3">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3">
-        <v>75</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3">
-        <v>1</v>
-      </c>
-      <c r="M18" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>16</v>
-      </c>
-      <c r="B19" s="3">
-        <v>104010</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3">
-        <v>1</v>
-      </c>
-      <c r="M19" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>17</v>
-      </c>
-      <c r="B20" s="3">
-        <v>105010</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E20" s="3">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3">
-        <v>1</v>
-      </c>
-      <c r="M20" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>18</v>
-      </c>
-      <c r="B21" s="3">
-        <v>106010</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3">
-        <v>1</v>
-      </c>
-      <c r="M21" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>19</v>
-      </c>
-      <c r="B22" s="3">
-        <v>107010</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D22" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3">
-        <v>1</v>
-      </c>
-      <c r="M22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Excel/skill.技能.xlsx
+++ b/Excel/skill.技能.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0052D655-247E-4A43-833E-8914F31D06C3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5031729D-A717-4C99-B4A0-1CC29EF80422}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -1940,9 +1940,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE1484E-E599-4101-955C-A99AA9634D79}">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3594,7 +3594,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="3">
-        <v>20001</v>
+        <v>12001</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>219</v>
@@ -3626,7 +3626,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="3">
-        <v>21002</v>
+        <v>13001</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>155</v>
@@ -3807,7 +3807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84809B08-AEE0-4B35-956F-542A8D2C0F97}">
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O30" sqref="O30:O42"/>
     </sheetView>
   </sheetViews>

--- a/Excel/skill.技能.xlsx
+++ b/Excel/skill.技能.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5031729D-A717-4C99-B4A0-1CC29EF80422}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894B894F-42F5-43E1-BE27-3CC4BD04C6B3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -1940,9 +1940,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE1484E-E599-4101-955C-A99AA9634D79}">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3807,8 +3807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84809B08-AEE0-4B35-956F-542A8D2C0F97}">
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30:O42"/>
+    <sheetView tabSelected="1" topLeftCell="B43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/skill.技能.xlsx
+++ b/Excel/skill.技能.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894B894F-42F5-43E1-BE27-3CC4BD04C6B3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E56135-613E-466E-96E9-EDFCC38E7845}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1941,8 +1941,8 @@
   <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3807,8 +3807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84809B08-AEE0-4B35-956F-542A8D2C0F97}">
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="B31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N62" sqref="N62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4429,7 +4429,7 @@
         <v>0.6</v>
       </c>
       <c r="O17" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4464,7 +4464,7 @@
         <v>0.6</v>
       </c>
       <c r="O18" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4499,7 +4499,7 @@
         <v>0.6</v>
       </c>
       <c r="O19" s="3">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4534,7 +4534,7 @@
         <v>0.6</v>
       </c>
       <c r="O20" s="3">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4569,7 +4569,7 @@
         <v>0.6</v>
       </c>
       <c r="O21" s="3">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4604,7 +4604,7 @@
         <v>0.6</v>
       </c>
       <c r="O22" s="3">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4639,7 +4639,7 @@
         <v>0.6</v>
       </c>
       <c r="O23" s="3">
-        <v>70</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4674,7 +4674,7 @@
         <v>0.6</v>
       </c>
       <c r="O24" s="3">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4709,7 +4709,7 @@
         <v>0.6</v>
       </c>
       <c r="O25" s="3">
-        <v>90</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4744,7 +4744,7 @@
         <v>0.6</v>
       </c>
       <c r="O26" s="3">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4779,7 +4779,7 @@
         <v>0.6</v>
       </c>
       <c r="O27" s="3">
-        <v>110</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4814,7 +4814,7 @@
         <v>0.6</v>
       </c>
       <c r="O28" s="3">
-        <v>120</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4849,7 +4849,7 @@
         <v>0.6</v>
       </c>
       <c r="O29" s="3">
-        <v>130</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4882,7 +4882,7 @@
         <v>0.8</v>
       </c>
       <c r="O30" s="3">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4915,7 +4915,7 @@
         <v>0.8</v>
       </c>
       <c r="O31" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4948,7 +4948,7 @@
         <v>0.8</v>
       </c>
       <c r="O32" s="3">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4981,7 +4981,7 @@
         <v>0.8</v>
       </c>
       <c r="O33" s="3">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5014,7 +5014,7 @@
         <v>0.8</v>
       </c>
       <c r="O34" s="3">
-        <v>50</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5047,7 +5047,7 @@
         <v>0.8</v>
       </c>
       <c r="O35" s="3">
-        <v>60</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5080,7 +5080,7 @@
         <v>0.8</v>
       </c>
       <c r="O36" s="3">
-        <v>70</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5113,7 +5113,7 @@
         <v>0.8</v>
       </c>
       <c r="O37" s="3">
-        <v>80</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5146,7 +5146,7 @@
         <v>0.8</v>
       </c>
       <c r="O38" s="3">
-        <v>90</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5179,7 +5179,7 @@
         <v>0.8</v>
       </c>
       <c r="O39" s="3">
-        <v>100</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5212,7 +5212,7 @@
         <v>0.8</v>
       </c>
       <c r="O40" s="3">
-        <v>110</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5245,7 +5245,7 @@
         <v>0.8</v>
       </c>
       <c r="O41" s="3">
-        <v>120</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5278,7 +5278,7 @@
         <v>0.8</v>
       </c>
       <c r="O42" s="3">
-        <v>130</v>
+        <v>350</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5778,7 +5778,7 @@
       <c r="L57" s="4"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -5811,7 +5811,7 @@
       <c r="L58" s="4"/>
       <c r="M58" s="3"/>
       <c r="N58" s="3">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>

--- a/Excel/skill.技能.xlsx
+++ b/Excel/skill.技能.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E56135-613E-466E-96E9-EDFCC38E7845}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2362607-1776-4C5F-8858-D75FE0BEEFB0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1941,8 +1941,8 @@
   <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30:XFD30"/>
+      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3607,7 +3607,7 @@
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -3639,7 +3639,7 @@
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -5844,7 +5844,7 @@
       <c r="L59" s="4"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3">
-        <v>0.65</v>
+        <v>0.8</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -5877,7 +5877,7 @@
       <c r="L60" s="4"/>
       <c r="M60" s="3"/>
       <c r="N60" s="3">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="O60" s="3">
         <v>0</v>

--- a/Excel/skill.技能.xlsx
+++ b/Excel/skill.技能.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2362607-1776-4C5F-8858-D75FE0BEEFB0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF393BC-C970-4350-923C-5B95EBCABD43}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -1224,10 +1224,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>提升200%的攻击速度，持续30秒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>核打击</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1239,10 +1235,6 @@
     <t>绝对领域</t>
   </si>
   <si>
-    <t>护盾值增加50%，无敌5s。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>核打击子弹</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1252,6 +1244,36 @@
   </si>
   <si>
     <t>子弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>提升500%的攻击速度，持续</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>秒</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾值增加30%，无敌5s。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1844,7 +1866,7 @@
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>67</v>
@@ -1865,7 +1887,7 @@
     </row>
     <row r="3" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
@@ -1886,7 +1908,7 @@
     </row>
     <row r="4" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>68</v>
@@ -1907,7 +1929,7 @@
     </row>
     <row r="5" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
@@ -1940,9 +1962,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE1484E-E599-4101-955C-A99AA9634D79}">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J52" sqref="J52"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3663,11 +3685,13 @@
         <v>50001</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="G49" s="7"/>
+        <v>248</v>
+      </c>
+      <c r="G49" s="7">
+        <v>500020</v>
+      </c>
       <c r="H49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I49" s="3">
         <v>5</v>
@@ -3675,11 +3699,8 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3">
-        <v>104</v>
-      </c>
       <c r="R49" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3690,13 +3711,11 @@
         <v>50002</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="G50" s="7">
-        <v>500020</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="G50" s="7"/>
       <c r="H50" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I50" s="3">
         <v>5</v>
@@ -3704,8 +3723,11 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="R50" s="3" t="s">
-        <v>250</v>
+      <c r="K50" s="3">
+        <v>104</v>
+      </c>
+      <c r="R50" s="4" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="51" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3716,7 +3738,7 @@
         <v>50003</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="3">
@@ -3731,8 +3753,14 @@
       <c r="K51" s="9">
         <v>101</v>
       </c>
-      <c r="R51" s="3" t="s">
-        <v>252</v>
+      <c r="N51" s="3">
+        <v>1</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="R51" s="4" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="52" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3807,8 +3835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84809B08-AEE0-4B35-956F-542A8D2C0F97}">
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N62" sqref="N62"/>
+    <sheetView topLeftCell="B34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5891,7 +5919,7 @@
         <v>500020</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D61" s="3">
         <v>2000</v>

--- a/Excel/skill.技能.xlsx
+++ b/Excel/skill.技能.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF393BC-C970-4350-923C-5B95EBCABD43}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BF561B-FA52-4AFE-88BA-21DEB9BDE841}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{9D1E895B-E75C-426E-B13C-419D50346953}">
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{9D1E895B-E75C-426E-B13C-419D50346953}">
       <text>
         <r>
           <rPr>
@@ -79,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{9AECE558-FEDE-45EE-A968-B4FFC16442C4}">
+    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{9AECE558-FEDE-45EE-A968-B4FFC16442C4}">
       <text>
         <r>
           <rPr>
@@ -280,7 +280,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="258">
   <si>
     <t>sheet名</t>
   </si>
@@ -908,10 +908,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>float:ae&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>PointBullet04</t>
   </si>
   <si>
@@ -1225,10 +1221,6 @@
   </si>
   <si>
     <t>核打击</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>一堆导弹飞出去，攻击对方。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1274,6 +1266,22 @@
   </si>
   <si>
     <t>护盾值增加30%，无敌5s。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放强能激光，灼烧敌人。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bullet.begTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bullet.times</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹次数</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1866,7 +1874,7 @@
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>67</v>
@@ -1887,7 +1895,7 @@
     </row>
     <row r="3" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
@@ -1908,7 +1916,7 @@
     </row>
     <row r="4" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>68</v>
@@ -1929,7 +1937,7 @@
     </row>
     <row r="5" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
@@ -1960,32 +1968,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE1484E-E599-4101-955C-A99AA9634D79}">
-  <dimension ref="A1:R54"/>
+  <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K51" sqref="K51"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="17.625" customWidth="1"/>
     <col min="4" max="5" width="13.625" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="23.25" customWidth="1"/>
-    <col min="8" max="8" width="10.875" customWidth="1"/>
-    <col min="9" max="9" width="11.25" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="13.625" customWidth="1"/>
-    <col min="12" max="13" width="11.75" customWidth="1"/>
-    <col min="14" max="14" width="15.25" customWidth="1"/>
-    <col min="15" max="15" width="20.125" customWidth="1"/>
-    <col min="16" max="16" width="13.625" customWidth="1"/>
-    <col min="17" max="17" width="15.25" customWidth="1"/>
-    <col min="18" max="18" width="105.25" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="23.25" customWidth="1"/>
+    <col min="10" max="10" width="10.875" customWidth="1"/>
+    <col min="11" max="11" width="11.25" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="13" max="13" width="13.625" customWidth="1"/>
+    <col min="14" max="15" width="11.75" customWidth="1"/>
+    <col min="16" max="16" width="15.25" customWidth="1"/>
+    <col min="17" max="17" width="20.125" customWidth="1"/>
+    <col min="18" max="18" width="13.625" customWidth="1"/>
+    <col min="19" max="19" width="15.25" customWidth="1"/>
+    <col min="20" max="20" width="105.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>47</v>
       </c>
@@ -1999,49 +2008,55 @@
         <v>14</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -2058,46 +2073,52 @@
         <v>158</v>
       </c>
       <c r="F2" t="s">
-        <v>159</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
         <v>44</v>
       </c>
       <c r="I2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" t="s">
         <v>28</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>44</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>76</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>76</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>30</v>
-      </c>
-      <c r="O2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" t="s">
-        <v>44</v>
       </c>
       <c r="Q2" t="s">
         <v>29</v>
       </c>
       <c r="R2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
@@ -2111,49 +2132,53 @@
         <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -2165,29 +2190,31 @@
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="12">
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="12">
         <v>11010</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="9">
+      <c r="J4" s="11"/>
+      <c r="K4" s="9">
         <v>0.1</v>
       </c>
-      <c r="J4" s="9">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="L4" s="9">
+        <v>0</v>
+      </c>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
-      <c r="R4" s="10" t="s">
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -2199,29 +2226,31 @@
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="12">
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="12">
         <v>11020</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="9">
+      <c r="J5" s="11"/>
+      <c r="K5" s="9">
         <v>0.1</v>
       </c>
-      <c r="J5" s="9">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
+      <c r="L5" s="9">
+        <v>0</v>
+      </c>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
-      <c r="R5" s="10" t="s">
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -2233,29 +2262,31 @@
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="12">
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="12">
         <v>11030</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="9">
+      <c r="J6" s="11"/>
+      <c r="K6" s="9">
         <v>0.1</v>
       </c>
-      <c r="J6" s="9">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
+      <c r="L6" s="9">
+        <v>0</v>
+      </c>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
-      <c r="R6" s="10" t="s">
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -2267,29 +2298,31 @@
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="12">
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="12">
         <v>11040</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="9">
+      <c r="J7" s="11"/>
+      <c r="K7" s="9">
         <v>0.1</v>
       </c>
-      <c r="J7" s="9">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
+      <c r="L7" s="9">
+        <v>0</v>
+      </c>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
-      <c r="R7" s="10" t="s">
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -2301,29 +2334,31 @@
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="12">
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="12">
         <v>11050</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="9">
+      <c r="J8" s="11"/>
+      <c r="K8" s="9">
         <v>0.1</v>
       </c>
-      <c r="J8" s="9">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+      <c r="L8" s="9">
+        <v>0</v>
+      </c>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
-      <c r="R8" s="10" t="s">
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -2335,29 +2370,31 @@
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="12">
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="12">
         <v>11060</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="9">
+      <c r="J9" s="11"/>
+      <c r="K9" s="9">
         <v>0.1</v>
       </c>
-      <c r="J9" s="9">
-        <v>0</v>
-      </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
+      <c r="L9" s="9">
+        <v>0</v>
+      </c>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
-      <c r="R9" s="10" t="s">
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -2369,29 +2406,31 @@
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="12">
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="12">
         <v>11070</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="9">
+      <c r="J10" s="11"/>
+      <c r="K10" s="9">
         <v>0.1</v>
       </c>
-      <c r="J10" s="9">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
-      <c r="R10" s="10" t="s">
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -2403,29 +2442,31 @@
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="12">
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="12">
         <v>11080</v>
       </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="9">
+      <c r="J11" s="11"/>
+      <c r="K11" s="9">
         <v>0.1</v>
       </c>
-      <c r="J11" s="9">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
+      <c r="L11" s="9">
+        <v>0</v>
+      </c>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
-      <c r="R11" s="10" t="s">
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -2437,29 +2478,31 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="12">
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="12">
         <v>11090</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="9">
+      <c r="J12" s="11"/>
+      <c r="K12" s="9">
         <v>0.1</v>
       </c>
-      <c r="J12" s="9">
-        <v>0</v>
-      </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
-      <c r="R12" s="10" t="s">
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -2471,29 +2514,31 @@
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="12">
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="12">
         <v>11100</v>
       </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="9">
+      <c r="J13" s="11"/>
+      <c r="K13" s="9">
         <v>0.1</v>
       </c>
-      <c r="J13" s="9">
-        <v>0</v>
-      </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
+      <c r="L13" s="9">
+        <v>0</v>
+      </c>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
-      <c r="R13" s="10" t="s">
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -2505,29 +2550,31 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="12">
+      <c r="F14" s="9"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="12">
         <v>11110</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="9">
+      <c r="J14" s="11"/>
+      <c r="K14" s="9">
         <v>0.1</v>
       </c>
-      <c r="J14" s="9">
-        <v>0</v>
-      </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
-      <c r="R14" s="10" t="s">
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -2539,29 +2586,31 @@
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="12">
+      <c r="F15" s="9"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="12">
         <v>11120</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="9">
+      <c r="J15" s="11"/>
+      <c r="K15" s="9">
         <v>0.1</v>
       </c>
-      <c r="J15" s="9">
-        <v>0</v>
-      </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
+      <c r="L15" s="9">
+        <v>0</v>
+      </c>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
-      <c r="R15" s="10" t="s">
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -2573,29 +2622,31 @@
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="12">
+      <c r="F16" s="9"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="12">
         <v>11130</v>
       </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="9">
+      <c r="J16" s="11"/>
+      <c r="K16" s="9">
         <v>0.1</v>
       </c>
-      <c r="J16" s="9">
-        <v>0</v>
-      </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
+      <c r="L16" s="9">
+        <v>0</v>
+      </c>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
-      <c r="R16" s="10" t="s">
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -2608,28 +2659,30 @@
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="12">
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="12">
         <v>12010</v>
       </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9">
+      <c r="J17" s="9"/>
+      <c r="K17" s="9">
         <v>1.5</v>
       </c>
-      <c r="J17" s="9">
-        <v>0</v>
-      </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
+      <c r="L17" s="9">
+        <v>0</v>
+      </c>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
-      <c r="R17" s="10" t="s">
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -2642,28 +2695,30 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="12">
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="12">
         <v>12020</v>
       </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="9">
+      <c r="J18" s="11"/>
+      <c r="K18" s="9">
         <v>1.5</v>
       </c>
-      <c r="J18" s="9">
-        <v>0</v>
-      </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
+      <c r="L18" s="9">
+        <v>0</v>
+      </c>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
-      <c r="R18" s="10" t="s">
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -2676,28 +2731,30 @@
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="12">
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="12">
         <v>12030</v>
       </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9">
+      <c r="J19" s="9"/>
+      <c r="K19" s="9">
         <v>1.5</v>
       </c>
-      <c r="J19" s="9">
-        <v>0</v>
-      </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
+      <c r="L19" s="9">
+        <v>0</v>
+      </c>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
-      <c r="R19" s="10" t="s">
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -2710,28 +2767,30 @@
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="12">
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="12">
         <v>12040</v>
       </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9">
+      <c r="J20" s="9"/>
+      <c r="K20" s="9">
         <v>1.5</v>
       </c>
-      <c r="J20" s="9">
-        <v>0</v>
-      </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
+      <c r="L20" s="9">
+        <v>0</v>
+      </c>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
-      <c r="R20" s="10" t="s">
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -2744,28 +2803,30 @@
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="12">
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="12">
         <v>12050</v>
       </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9">
+      <c r="J21" s="9"/>
+      <c r="K21" s="9">
         <v>1.5</v>
       </c>
-      <c r="J21" s="9">
-        <v>0</v>
-      </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
+      <c r="L21" s="9">
+        <v>0</v>
+      </c>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
-      <c r="R21" s="10" t="s">
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -2778,28 +2839,30 @@
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="12">
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="12">
         <v>12060</v>
       </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9">
+      <c r="J22" s="9"/>
+      <c r="K22" s="9">
         <v>1.5</v>
       </c>
-      <c r="J22" s="9">
-        <v>0</v>
-      </c>
-      <c r="K22" s="9"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9"/>
       <c r="N22" s="10"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
       <c r="Q22" s="9"/>
-      <c r="R22" s="10" t="s">
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -2812,28 +2875,30 @@
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="12">
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="12">
         <v>12070</v>
       </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9">
+      <c r="J23" s="9"/>
+      <c r="K23" s="9">
         <v>1.5</v>
       </c>
-      <c r="J23" s="9">
-        <v>0</v>
-      </c>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
+      <c r="L23" s="9">
+        <v>0</v>
+      </c>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
-      <c r="R23" s="10" t="s">
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -2846,28 +2911,30 @@
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="12">
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="12">
         <v>12080</v>
       </c>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9">
+      <c r="J24" s="9"/>
+      <c r="K24" s="9">
         <v>1.5</v>
       </c>
-      <c r="J24" s="9">
-        <v>0</v>
-      </c>
-      <c r="K24" s="10"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
+      <c r="L24" s="9">
+        <v>0</v>
+      </c>
+      <c r="M24" s="10"/>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
-      <c r="R24" s="10" t="s">
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -2880,28 +2947,30 @@
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="12">
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="12">
         <v>12090</v>
       </c>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9">
+      <c r="J25" s="9"/>
+      <c r="K25" s="9">
         <v>1.5</v>
       </c>
-      <c r="J25" s="9">
-        <v>0</v>
-      </c>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
+      <c r="L25" s="9">
+        <v>0</v>
+      </c>
       <c r="M25" s="10"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
-      <c r="R25" s="10" t="s">
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -2914,28 +2983,30 @@
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="12">
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="12">
         <v>12100</v>
       </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9">
+      <c r="J26" s="9"/>
+      <c r="K26" s="9">
         <v>1.5</v>
       </c>
-      <c r="J26" s="9">
-        <v>0</v>
-      </c>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="10"/>
+      <c r="L26" s="9">
+        <v>0</v>
+      </c>
+      <c r="M26" s="9"/>
       <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
+      <c r="O26" s="10"/>
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
-      <c r="R26" s="10" t="s">
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -2948,28 +3019,30 @@
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="12">
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="12">
         <v>12110</v>
       </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9">
+      <c r="J27" s="9"/>
+      <c r="K27" s="9">
         <v>1.5</v>
       </c>
-      <c r="J27" s="9">
-        <v>0</v>
-      </c>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
+      <c r="L27" s="9">
+        <v>0</v>
+      </c>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
-      <c r="R27" s="10" t="s">
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -2982,28 +3055,30 @@
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="12">
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="12">
         <v>12120</v>
       </c>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9">
+      <c r="J28" s="9"/>
+      <c r="K28" s="9">
         <v>1.5</v>
       </c>
-      <c r="J28" s="9">
-        <v>0</v>
-      </c>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
+      <c r="L28" s="9">
+        <v>0</v>
+      </c>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
       <c r="Q28" s="9"/>
-      <c r="R28" s="10" t="s">
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -3016,28 +3091,30 @@
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="12">
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="12">
         <v>12130</v>
       </c>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9">
+      <c r="J29" s="9"/>
+      <c r="K29" s="9">
         <v>1.5</v>
       </c>
-      <c r="J29" s="9">
-        <v>0</v>
-      </c>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
+      <c r="L29" s="9">
+        <v>0</v>
+      </c>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
       <c r="Q29" s="9"/>
-      <c r="R29" s="10" t="s">
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -3049,29 +3126,31 @@
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="12">
+      <c r="F30" s="9"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="12">
         <v>13010</v>
       </c>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9">
-        <v>2</v>
-      </c>
-      <c r="J30" s="9">
-        <v>0</v>
-      </c>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9">
+        <v>2</v>
+      </c>
+      <c r="L30" s="9">
+        <v>0</v>
+      </c>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
-      <c r="R30" s="10" t="s">
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -3083,29 +3162,31 @@
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="12">
+      <c r="F31" s="9"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="12">
         <v>13020</v>
       </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="9">
-        <v>2</v>
-      </c>
-      <c r="J31" s="9">
-        <v>0</v>
-      </c>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="9">
+        <v>2</v>
+      </c>
+      <c r="L31" s="9">
+        <v>0</v>
+      </c>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
-      <c r="R31" s="10" t="s">
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -3117,29 +3198,31 @@
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="12">
+      <c r="F32" s="9"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="12">
         <v>13030</v>
       </c>
-      <c r="H32" s="11"/>
-      <c r="I32" s="9">
-        <v>2</v>
-      </c>
-      <c r="J32" s="9">
-        <v>0</v>
-      </c>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="9">
+        <v>2</v>
+      </c>
+      <c r="L32" s="9">
+        <v>0</v>
+      </c>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
       <c r="Q32" s="9"/>
-      <c r="R32" s="10" t="s">
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -3151,29 +3234,31 @@
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="12">
+      <c r="F33" s="9"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="12">
         <v>13040</v>
       </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="9">
-        <v>2</v>
-      </c>
-      <c r="J33" s="9">
-        <v>0</v>
-      </c>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="9">
+        <v>2</v>
+      </c>
+      <c r="L33" s="9">
+        <v>0</v>
+      </c>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
       <c r="Q33" s="9"/>
-      <c r="R33" s="10" t="s">
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -3185,29 +3270,31 @@
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="12">
+      <c r="F34" s="9"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="12">
         <v>13050</v>
       </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="9">
-        <v>2</v>
-      </c>
-      <c r="J34" s="9">
-        <v>0</v>
-      </c>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="9">
+        <v>2</v>
+      </c>
+      <c r="L34" s="9">
+        <v>0</v>
+      </c>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
       <c r="Q34" s="9"/>
-      <c r="R34" s="10" t="s">
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>32</v>
       </c>
@@ -3219,29 +3306,31 @@
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="12">
+      <c r="F35" s="9"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="12">
         <v>13060</v>
       </c>
-      <c r="H35" s="11"/>
-      <c r="I35" s="9">
-        <v>2</v>
-      </c>
-      <c r="J35" s="9">
-        <v>0</v>
-      </c>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="9">
+        <v>2</v>
+      </c>
+      <c r="L35" s="9">
+        <v>0</v>
+      </c>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
       <c r="Q35" s="9"/>
-      <c r="R35" s="10" t="s">
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>33</v>
       </c>
@@ -3253,29 +3342,31 @@
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="12">
+      <c r="F36" s="9"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="12">
         <v>13070</v>
       </c>
-      <c r="H36" s="11"/>
-      <c r="I36" s="9">
-        <v>2</v>
-      </c>
-      <c r="J36" s="9">
-        <v>0</v>
-      </c>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="9">
+        <v>2</v>
+      </c>
+      <c r="L36" s="9">
+        <v>0</v>
+      </c>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
       <c r="Q36" s="9"/>
-      <c r="R36" s="10" t="s">
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>34</v>
       </c>
@@ -3287,29 +3378,31 @@
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="12">
+      <c r="F37" s="9"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="12">
         <v>13080</v>
       </c>
-      <c r="H37" s="11"/>
-      <c r="I37" s="9">
-        <v>2</v>
-      </c>
-      <c r="J37" s="9">
-        <v>0</v>
-      </c>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="9">
+        <v>2</v>
+      </c>
+      <c r="L37" s="9">
+        <v>0</v>
+      </c>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
       <c r="Q37" s="9"/>
-      <c r="R37" s="10" t="s">
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>35</v>
       </c>
@@ -3321,29 +3414,31 @@
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="12">
+      <c r="F38" s="9"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="12">
         <v>13090</v>
       </c>
-      <c r="H38" s="11"/>
-      <c r="I38" s="9">
-        <v>2</v>
-      </c>
-      <c r="J38" s="9">
-        <v>0</v>
-      </c>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="9">
+        <v>2</v>
+      </c>
+      <c r="L38" s="9">
+        <v>0</v>
+      </c>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
       <c r="Q38" s="9"/>
-      <c r="R38" s="10" t="s">
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>36</v>
       </c>
@@ -3355,29 +3450,31 @@
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="12">
+      <c r="F39" s="9"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="12">
         <v>13100</v>
       </c>
-      <c r="H39" s="11"/>
-      <c r="I39" s="9">
-        <v>2</v>
-      </c>
-      <c r="J39" s="9">
-        <v>0</v>
-      </c>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="9">
+        <v>2</v>
+      </c>
+      <c r="L39" s="9">
+        <v>0</v>
+      </c>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
       <c r="Q39" s="9"/>
-      <c r="R39" s="10" t="s">
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>37</v>
       </c>
@@ -3389,29 +3486,31 @@
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="12">
+      <c r="F40" s="9"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="12">
         <v>13110</v>
       </c>
-      <c r="H40" s="11"/>
-      <c r="I40" s="9">
-        <v>2</v>
-      </c>
-      <c r="J40" s="9">
-        <v>0</v>
-      </c>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="9">
+        <v>2</v>
+      </c>
+      <c r="L40" s="9">
+        <v>0</v>
+      </c>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
       <c r="Q40" s="9"/>
-      <c r="R40" s="10" t="s">
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>38</v>
       </c>
@@ -3423,29 +3522,31 @@
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="12">
+      <c r="F41" s="9"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="12">
         <v>13120</v>
       </c>
-      <c r="H41" s="11"/>
-      <c r="I41" s="9">
-        <v>2</v>
-      </c>
-      <c r="J41" s="9">
-        <v>0</v>
-      </c>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="9">
+        <v>2</v>
+      </c>
+      <c r="L41" s="9">
+        <v>0</v>
+      </c>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
       <c r="Q41" s="9"/>
-      <c r="R41" s="10" t="s">
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>39</v>
       </c>
@@ -3457,29 +3558,31 @@
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="12">
+      <c r="F42" s="9"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="12">
         <v>13130</v>
       </c>
-      <c r="H42" s="11"/>
-      <c r="I42" s="9">
-        <v>2</v>
-      </c>
-      <c r="J42" s="9">
-        <v>0</v>
-      </c>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="9">
+        <v>2</v>
+      </c>
+      <c r="L42" s="9">
+        <v>0</v>
+      </c>
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
       <c r="Q42" s="9"/>
-      <c r="R42" s="10" t="s">
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>40</v>
       </c>
@@ -3491,29 +3594,31 @@
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="3">
+      <c r="F43" s="3"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="3">
         <v>100200</v>
       </c>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3">
+      <c r="J43" s="3"/>
+      <c r="K43" s="3">
         <v>1.5</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
-      <c r="R43" s="4" t="s">
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>41</v>
       </c>
@@ -3525,29 +3630,31 @@
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="3">
+      <c r="F44" s="3"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="3">
         <v>100300</v>
       </c>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3">
+      <c r="J44" s="3"/>
+      <c r="K44" s="3">
         <v>1.5</v>
       </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
-      <c r="R44" s="4" t="s">
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>42</v>
       </c>
@@ -3555,31 +3662,33 @@
         <v>11001</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="3">
+      <c r="F45" s="3"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="3">
         <v>100400</v>
       </c>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3">
+      <c r="J45" s="3"/>
+      <c r="K45" s="3">
         <v>1</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
-      <c r="R45" s="4"/>
-    </row>
-    <row r="46" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="4"/>
+    </row>
+    <row r="46" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>43</v>
       </c>
@@ -3587,31 +3696,33 @@
         <v>11002</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="3">
+      <c r="F46" s="3"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="3">
         <v>100500</v>
       </c>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3">
+      <c r="J46" s="3"/>
+      <c r="K46" s="3">
         <v>1</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
-      <c r="R46" s="4"/>
-    </row>
-    <row r="47" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="4"/>
+    </row>
+    <row r="47" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>44</v>
       </c>
@@ -3619,31 +3730,33 @@
         <v>12001</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="3">
+      <c r="F47" s="3"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="3">
         <v>100600</v>
       </c>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3">
-        <v>2</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3">
+        <v>2</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
-      <c r="R47" s="4"/>
-    </row>
-    <row r="48" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="4"/>
+    </row>
+    <row r="48" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>45</v>
       </c>
@@ -3655,29 +3768,31 @@
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="3">
+      <c r="F48" s="3"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="3">
         <v>100700</v>
       </c>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3">
-        <v>2</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3">
+        <v>2</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
-      <c r="R48" s="4" t="s">
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="49" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>46</v>
       </c>
@@ -3685,25 +3800,34 @@
         <v>50001</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="G49" s="7">
+        <v>247</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H49" s="3">
+        <v>10</v>
+      </c>
+      <c r="I49" s="7">
         <v>500020</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>200</v>
       </c>
-      <c r="I49" s="3">
-        <v>5</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
-      </c>
-      <c r="R49" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K49" s="3">
+        <v>200</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>47</v>
       </c>
@@ -3711,26 +3835,26 @@
         <v>50002</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="G50" s="7"/>
-      <c r="H50" s="3">
-        <v>100</v>
-      </c>
-      <c r="I50" s="3">
-        <v>5</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="I50" s="7"/>
       <c r="J50" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="K50" s="3">
+        <v>500</v>
+      </c>
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
         <v>104</v>
       </c>
-      <c r="R50" s="4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T50" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>48</v>
       </c>
@@ -3738,41 +3862,41 @@
         <v>50003</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="G51" s="7"/>
-      <c r="H51" s="3">
-        <v>300</v>
-      </c>
-      <c r="I51" s="3">
-        <v>5</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="I51" s="7"/>
       <c r="J51" s="3">
-        <v>0</v>
-      </c>
-      <c r="K51" s="9">
+        <v>100</v>
+      </c>
+      <c r="K51" s="3">
+        <v>100</v>
+      </c>
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="9">
         <v>101</v>
       </c>
-      <c r="N51" s="3">
+      <c r="P51" s="3">
         <v>1</v>
       </c>
-      <c r="O51" s="3">
+      <c r="Q51" s="3">
         <v>0.3</v>
       </c>
-      <c r="R51" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T51" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="4"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="8"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
@@ -3781,18 +3905,20 @@
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
-      <c r="R52" s="4"/>
-    </row>
-    <row r="53" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="4"/>
+    </row>
+    <row r="53" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="8"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -3801,27 +3927,31 @@
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
-      <c r="R53" s="4"/>
-    </row>
-    <row r="54" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="4"/>
+    </row>
+    <row r="54" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="4"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="8"/>
       <c r="J54" s="3"/>
-      <c r="K54" s="9"/>
+      <c r="K54" s="3"/>
       <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
+      <c r="M54" s="9"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
-      <c r="R54" s="4"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3835,8 +3965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84809B08-AEE0-4B35-956F-542A8D2C0F97}">
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView topLeftCell="B34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3887,10 +4017,10 @@
         <v>13</v>
       </c>
       <c r="K1" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>242</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>243</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>16</v>
@@ -3981,10 +4111,10 @@
         <v>36</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>17</v>
@@ -4004,7 +4134,7 @@
         <v>11010</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D4" s="3">
         <v>2000</v>
@@ -4037,7 +4167,7 @@
         <v>11020</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D5" s="3">
         <v>2000</v>
@@ -4070,7 +4200,7 @@
         <v>11030</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D6" s="3">
         <v>2000</v>
@@ -4103,7 +4233,7 @@
         <v>11040</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D7" s="3">
         <v>2000</v>
@@ -4136,7 +4266,7 @@
         <v>11050</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D8" s="3">
         <v>2000</v>
@@ -4169,7 +4299,7 @@
         <v>11060</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D9" s="3">
         <v>2000</v>
@@ -4182,7 +4312,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -4202,7 +4332,7 @@
         <v>11070</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D10" s="3">
         <v>2000</v>
@@ -4215,7 +4345,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -4235,7 +4365,7 @@
         <v>11080</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D11" s="3">
         <v>2000</v>
@@ -4248,7 +4378,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -4268,7 +4398,7 @@
         <v>11090</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D12" s="3">
         <v>2000</v>
@@ -4281,7 +4411,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -4301,7 +4431,7 @@
         <v>11100</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D13" s="3">
         <v>2000</v>
@@ -4314,7 +4444,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -4334,7 +4464,7 @@
         <v>11110</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D14" s="3">
         <v>2000</v>
@@ -4347,7 +4477,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -4367,7 +4497,7 @@
         <v>11120</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D15" s="3">
         <v>2000</v>
@@ -4380,7 +4510,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -4400,7 +4530,7 @@
         <v>11130</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D16" s="3">
         <v>2000</v>
@@ -4413,7 +4543,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -4448,7 +4578,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -4483,7 +4613,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -4518,7 +4648,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
@@ -4553,7 +4683,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
@@ -4588,7 +4718,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
@@ -4623,7 +4753,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
@@ -4658,7 +4788,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
@@ -4693,7 +4823,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
@@ -4728,7 +4858,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
@@ -4763,7 +4893,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
@@ -4798,7 +4928,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
@@ -4833,7 +4963,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
@@ -4868,7 +4998,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
@@ -4888,7 +5018,7 @@
         <v>13010</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D30" s="3">
         <v>2000</v>
@@ -4921,7 +5051,7 @@
         <v>13020</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D31" s="3">
         <v>2000</v>
@@ -4954,7 +5084,7 @@
         <v>13030</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D32" s="3">
         <v>2000</v>
@@ -4987,7 +5117,7 @@
         <v>13040</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D33" s="3">
         <v>2000</v>
@@ -5020,7 +5150,7 @@
         <v>13050</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D34" s="3">
         <v>2000</v>
@@ -5053,7 +5183,7 @@
         <v>13060</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D35" s="3">
         <v>2000</v>
@@ -5066,7 +5196,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
@@ -5086,7 +5216,7 @@
         <v>13070</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D36" s="3">
         <v>2000</v>
@@ -5099,7 +5229,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
@@ -5119,7 +5249,7 @@
         <v>13080</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D37" s="3">
         <v>2000</v>
@@ -5132,7 +5262,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
@@ -5152,7 +5282,7 @@
         <v>13090</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D38" s="3">
         <v>2000</v>
@@ -5165,7 +5295,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
@@ -5185,7 +5315,7 @@
         <v>13100</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D39" s="3">
         <v>2000</v>
@@ -5198,7 +5328,7 @@
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
@@ -5218,7 +5348,7 @@
         <v>13110</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D40" s="3">
         <v>2000</v>
@@ -5231,7 +5361,7 @@
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
@@ -5251,7 +5381,7 @@
         <v>13120</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D41" s="3">
         <v>2000</v>
@@ -5264,7 +5394,7 @@
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
@@ -5284,7 +5414,7 @@
         <v>13130</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D42" s="3">
         <v>2000</v>
@@ -5297,7 +5427,7 @@
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
@@ -5330,7 +5460,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
@@ -5363,7 +5493,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
@@ -5396,7 +5526,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
@@ -5429,7 +5559,7 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
@@ -5462,7 +5592,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
@@ -5495,7 +5625,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
@@ -5528,7 +5658,7 @@
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
@@ -5561,7 +5691,7 @@
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
@@ -5594,7 +5724,7 @@
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
@@ -5627,7 +5757,7 @@
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
@@ -5660,7 +5790,7 @@
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
@@ -5693,7 +5823,7 @@
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
@@ -5713,7 +5843,7 @@
         <v>100200</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D55" s="3">
         <v>2000</v>
@@ -5726,7 +5856,7 @@
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K55" s="4">
         <v>0.85</v>
@@ -5750,7 +5880,7 @@
         <v>100300</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D56" s="3">
         <v>2000</v>
@@ -5763,7 +5893,7 @@
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K56" s="4">
         <v>0.85</v>
@@ -5787,7 +5917,7 @@
         <v>100400</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D57" s="3">
         <v>2000</v>
@@ -5800,7 +5930,7 @@
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
@@ -5820,7 +5950,7 @@
         <v>100500</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D58" s="3">
         <v>2000</v>
@@ -5833,7 +5963,7 @@
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
@@ -5853,7 +5983,7 @@
         <v>100600</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D59" s="3">
         <v>2000</v>
@@ -5866,7 +5996,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
@@ -5886,7 +6016,7 @@
         <v>100700</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D60" s="3">
         <v>2000</v>
@@ -5899,7 +6029,7 @@
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
@@ -5919,7 +6049,7 @@
         <v>500020</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D61" s="3">
         <v>2000</v>
@@ -5932,16 +6062,16 @@
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
       <c r="N61" s="3">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/skill.技能.xlsx
+++ b/Excel/skill.技能.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BF561B-FA52-4AFE-88BA-21DEB9BDE841}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4CC34E-CA04-4D50-8D7B-1AB92F4AE15F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -280,7 +280,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="260">
   <si>
     <t>sheet名</t>
   </si>
@@ -1282,6 +1282,14 @@
   </si>
   <si>
     <t>子弹次数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:ea&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>104,206</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1501,7 +1509,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -1537,6 +1545,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="13" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1971,8 +1982,8 @@
   <dimension ref="A1:T54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K52" sqref="K52"/>
+      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2094,7 +2105,7 @@
         <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>44</v>
+        <v>258</v>
       </c>
       <c r="N2" t="s">
         <v>76</v>
@@ -3847,8 +3858,8 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3">
-        <v>104</v>
+      <c r="M50" s="13" t="s">
+        <v>259</v>
       </c>
       <c r="T50" s="4" t="s">
         <v>252</v>

--- a/Excel/skill.技能.xlsx
+++ b/Excel/skill.技能.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4CC34E-CA04-4D50-8D7B-1AB92F4AE15F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9209132-DB45-4618-AAE3-81C63AB1491D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1983,7 +1983,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M50" sqref="M50"/>
+      <selection pane="bottomLeft" activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3826,10 +3826,10 @@
         <v>500020</v>
       </c>
       <c r="J49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -3850,10 +3850,10 @@
       </c>
       <c r="I50" s="7"/>
       <c r="J50" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K50" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L50" s="3">
         <v>0</v>
@@ -3877,10 +3877,10 @@
       </c>
       <c r="I51" s="7"/>
       <c r="J51" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K51" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L51" s="3">
         <v>0</v>

--- a/Excel/skill.技能.xlsx
+++ b/Excel/skill.技能.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9209132-DB45-4618-AAE3-81C63AB1491D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F862C20-7122-4DF4-A9E7-289B0F29E5B0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -1981,9 +1981,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE1484E-E599-4101-955C-A99AA9634D79}">
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K53" sqref="K53"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2209,7 +2209,7 @@
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L4" s="9">
         <v>0</v>
@@ -2245,7 +2245,7 @@
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L5" s="9">
         <v>0</v>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L6" s="9">
         <v>0</v>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L7" s="9">
         <v>0</v>
@@ -2353,7 +2353,7 @@
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L8" s="9">
         <v>0</v>
@@ -2389,7 +2389,7 @@
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L9" s="9">
         <v>0</v>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L10" s="9">
         <v>0</v>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L11" s="9">
         <v>0</v>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L12" s="9">
         <v>0</v>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L13" s="9">
         <v>0</v>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L14" s="9">
         <v>0</v>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L15" s="9">
         <v>0</v>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L16" s="9">
         <v>0</v>
@@ -3976,8 +3976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84809B08-AEE0-4B35-956F-542A8D2C0F97}">
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4:N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4164,7 +4164,7 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="O4" s="3">
         <v>1</v>
@@ -4197,7 +4197,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="O5" s="3">
         <v>2</v>
@@ -4230,7 +4230,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="O6" s="3">
         <v>3</v>
@@ -4263,7 +4263,7 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="O7" s="3">
         <v>4</v>
@@ -4296,7 +4296,7 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="O8" s="3">
         <v>5</v>
@@ -4329,7 +4329,7 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="O9" s="3">
         <v>6</v>
@@ -4362,7 +4362,7 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="O10" s="3">
         <v>7</v>
@@ -4395,7 +4395,7 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="O11" s="3">
         <v>8</v>
@@ -4428,7 +4428,7 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="O12" s="3">
         <v>9</v>
@@ -4461,7 +4461,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="O13" s="3">
         <v>10</v>
@@ -4494,7 +4494,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="O14" s="3">
         <v>11</v>
@@ -4527,7 +4527,7 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="O15" s="3">
         <v>12</v>
@@ -4560,7 +4560,7 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="O16" s="3">
         <v>13</v>

--- a/Excel/skill.技能.xlsx
+++ b/Excel/skill.技能.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F862C20-7122-4DF4-A9E7-289B0F29E5B0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D5C656-B726-4301-90B9-9F5A00411D52}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -1981,9 +1981,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE1484E-E599-4101-955C-A99AA9634D79}">
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2209,7 +2209,7 @@
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="9">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="L4" s="9">
         <v>0</v>
@@ -2245,7 +2245,7 @@
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="9">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="L5" s="9">
         <v>0</v>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="9">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="L6" s="9">
         <v>0</v>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="9">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="L7" s="9">
         <v>0</v>
@@ -2353,7 +2353,7 @@
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="9">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="L8" s="9">
         <v>0</v>
@@ -2389,7 +2389,7 @@
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="9">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="L9" s="9">
         <v>0</v>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="9">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="L10" s="9">
         <v>0</v>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="9">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="L11" s="9">
         <v>0</v>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="9">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="L12" s="9">
         <v>0</v>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="9">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="L13" s="9">
         <v>0</v>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="9">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="L14" s="9">
         <v>0</v>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="9">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="L15" s="9">
         <v>0</v>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="9">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="L16" s="9">
         <v>0</v>
@@ -3976,7 +3976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84809B08-AEE0-4B35-956F-542A8D2C0F97}">
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N4" sqref="N4:N16"/>
     </sheetView>
   </sheetViews>
@@ -4164,7 +4164,7 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="3">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="O4" s="3">
         <v>1</v>
@@ -4197,7 +4197,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="3">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="O5" s="3">
         <v>2</v>
@@ -4230,7 +4230,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="3">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="O6" s="3">
         <v>3</v>
@@ -4263,7 +4263,7 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="3">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="O7" s="3">
         <v>4</v>
@@ -4296,7 +4296,7 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="3">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="O8" s="3">
         <v>5</v>
@@ -4329,7 +4329,7 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="3">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="O9" s="3">
         <v>6</v>
@@ -4362,7 +4362,7 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="3">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="O10" s="3">
         <v>7</v>
@@ -4395,7 +4395,7 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="3">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="O11" s="3">
         <v>8</v>
@@ -4428,7 +4428,7 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="3">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="O12" s="3">
         <v>9</v>
@@ -4461,7 +4461,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="3">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="O13" s="3">
         <v>10</v>
@@ -4494,7 +4494,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="3">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="O14" s="3">
         <v>11</v>
@@ -4527,7 +4527,7 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="3">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="O15" s="3">
         <v>12</v>
@@ -4560,7 +4560,7 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="3">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="O16" s="3">
         <v>13</v>

--- a/Excel/skill.技能.xlsx
+++ b/Excel/skill.技能.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D5C656-B726-4301-90B9-9F5A00411D52}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF15826E-E3A1-46AC-BA82-54BD123AA1BE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1982,8 +1982,8 @@
   <dimension ref="A1:T54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3832,7 +3832,7 @@
         <v>100</v>
       </c>
       <c r="L49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T49" s="4" t="s">
         <v>254</v>
@@ -3856,7 +3856,7 @@
         <v>200</v>
       </c>
       <c r="L50" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M50" s="13" t="s">
         <v>259</v>
@@ -3883,7 +3883,7 @@
         <v>50</v>
       </c>
       <c r="L51" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M51" s="9">
         <v>101</v>

--- a/Excel/skill.技能.xlsx
+++ b/Excel/skill.技能.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF15826E-E3A1-46AC-BA82-54BD123AA1BE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFDA428-6A73-483E-8216-C30095CBA45C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{9AECE558-FEDE-45EE-A968-B4FFC16442C4}">
+    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{9AECE558-FEDE-45EE-A968-B4FFC16442C4}">
       <text>
         <r>
           <rPr>
@@ -280,7 +280,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="263">
   <si>
     <t>sheet名</t>
   </si>
@@ -1290,6 +1290,18 @@
   </si>
   <si>
     <t>104,206</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>delay</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间延迟</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float:e&lt;&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1979,11 +1991,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE1484E-E599-4101-955C-A99AA9634D79}">
-  <dimension ref="A1:T54"/>
+  <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M56" sqref="M56"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1993,19 +2005,19 @@
     <col min="6" max="6" width="14.5" customWidth="1"/>
     <col min="7" max="8" width="21" customWidth="1"/>
     <col min="9" max="9" width="23.25" customWidth="1"/>
-    <col min="10" max="10" width="10.875" customWidth="1"/>
-    <col min="11" max="11" width="11.25" customWidth="1"/>
-    <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="13.625" customWidth="1"/>
-    <col min="14" max="15" width="11.75" customWidth="1"/>
-    <col min="16" max="16" width="15.25" customWidth="1"/>
-    <col min="17" max="17" width="20.125" customWidth="1"/>
-    <col min="18" max="18" width="13.625" customWidth="1"/>
-    <col min="19" max="19" width="15.25" customWidth="1"/>
-    <col min="20" max="20" width="105.25" customWidth="1"/>
+    <col min="10" max="11" width="10.875" customWidth="1"/>
+    <col min="12" max="12" width="11.25" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="13.625" customWidth="1"/>
+    <col min="15" max="16" width="11.75" customWidth="1"/>
+    <col min="17" max="17" width="15.25" customWidth="1"/>
+    <col min="18" max="18" width="20.125" customWidth="1"/>
+    <col min="19" max="19" width="13.625" customWidth="1"/>
+    <col min="20" max="20" width="15.25" customWidth="1"/>
+    <col min="21" max="21" width="105.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>47</v>
       </c>
@@ -2037,37 +2049,40 @@
         <v>49</v>
       </c>
       <c r="K1" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -2099,37 +2114,40 @@
         <v>44</v>
       </c>
       <c r="K2" t="s">
+        <v>262</v>
+      </c>
+      <c r="L2" t="s">
         <v>28</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>26</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>258</v>
-      </c>
-      <c r="N2" t="s">
-        <v>76</v>
       </c>
       <c r="O2" t="s">
         <v>76</v>
       </c>
       <c r="P2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>29</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>44</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>29</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
@@ -2159,37 +2177,40 @@
         <v>50</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -2208,24 +2229,25 @@
         <v>11010</v>
       </c>
       <c r="J4" s="11"/>
-      <c r="K4" s="9">
+      <c r="K4" s="11"/>
+      <c r="L4" s="9">
         <v>0.125</v>
       </c>
-      <c r="L4" s="9">
-        <v>0</v>
-      </c>
-      <c r="M4" s="9"/>
+      <c r="M4" s="9">
+        <v>0</v>
+      </c>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
-      <c r="T4" s="10" t="s">
+      <c r="T4" s="9"/>
+      <c r="U4" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -2244,24 +2266,25 @@
         <v>11020</v>
       </c>
       <c r="J5" s="11"/>
-      <c r="K5" s="9">
+      <c r="K5" s="11"/>
+      <c r="L5" s="9">
         <v>0.125</v>
       </c>
-      <c r="L5" s="9">
-        <v>0</v>
-      </c>
-      <c r="M5" s="9"/>
+      <c r="M5" s="9">
+        <v>0</v>
+      </c>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
-      <c r="T5" s="10" t="s">
+      <c r="T5" s="9"/>
+      <c r="U5" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -2280,24 +2303,25 @@
         <v>11030</v>
       </c>
       <c r="J6" s="11"/>
-      <c r="K6" s="9">
+      <c r="K6" s="11"/>
+      <c r="L6" s="9">
         <v>0.125</v>
       </c>
-      <c r="L6" s="9">
-        <v>0</v>
-      </c>
-      <c r="M6" s="9"/>
+      <c r="M6" s="9">
+        <v>0</v>
+      </c>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
-      <c r="T6" s="10" t="s">
+      <c r="T6" s="9"/>
+      <c r="U6" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -2316,24 +2340,25 @@
         <v>11040</v>
       </c>
       <c r="J7" s="11"/>
-      <c r="K7" s="9">
+      <c r="K7" s="11"/>
+      <c r="L7" s="9">
         <v>0.125</v>
       </c>
-      <c r="L7" s="9">
-        <v>0</v>
-      </c>
-      <c r="M7" s="9"/>
+      <c r="M7" s="9">
+        <v>0</v>
+      </c>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
-      <c r="T7" s="10" t="s">
+      <c r="T7" s="9"/>
+      <c r="U7" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -2352,24 +2377,25 @@
         <v>11050</v>
       </c>
       <c r="J8" s="11"/>
-      <c r="K8" s="9">
+      <c r="K8" s="11"/>
+      <c r="L8" s="9">
         <v>0.125</v>
       </c>
-      <c r="L8" s="9">
-        <v>0</v>
-      </c>
-      <c r="M8" s="9"/>
+      <c r="M8" s="9">
+        <v>0</v>
+      </c>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
       <c r="S8" s="9"/>
-      <c r="T8" s="10" t="s">
+      <c r="T8" s="9"/>
+      <c r="U8" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -2388,24 +2414,25 @@
         <v>11060</v>
       </c>
       <c r="J9" s="11"/>
-      <c r="K9" s="9">
+      <c r="K9" s="11"/>
+      <c r="L9" s="9">
         <v>0.125</v>
       </c>
-      <c r="L9" s="9">
-        <v>0</v>
-      </c>
-      <c r="M9" s="9"/>
+      <c r="M9" s="9">
+        <v>0</v>
+      </c>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
-      <c r="T9" s="10" t="s">
+      <c r="T9" s="9"/>
+      <c r="U9" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -2424,24 +2451,25 @@
         <v>11070</v>
       </c>
       <c r="J10" s="11"/>
-      <c r="K10" s="9">
+      <c r="K10" s="11"/>
+      <c r="L10" s="9">
         <v>0.125</v>
       </c>
-      <c r="L10" s="9">
-        <v>0</v>
-      </c>
-      <c r="M10" s="9"/>
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
       <c r="S10" s="9"/>
-      <c r="T10" s="10" t="s">
+      <c r="T10" s="9"/>
+      <c r="U10" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -2460,24 +2488,25 @@
         <v>11080</v>
       </c>
       <c r="J11" s="11"/>
-      <c r="K11" s="9">
+      <c r="K11" s="11"/>
+      <c r="L11" s="9">
         <v>0.125</v>
       </c>
-      <c r="L11" s="9">
-        <v>0</v>
-      </c>
-      <c r="M11" s="9"/>
+      <c r="M11" s="9">
+        <v>0</v>
+      </c>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
-      <c r="T11" s="10" t="s">
+      <c r="T11" s="9"/>
+      <c r="U11" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -2496,24 +2525,25 @@
         <v>11090</v>
       </c>
       <c r="J12" s="11"/>
-      <c r="K12" s="9">
+      <c r="K12" s="11"/>
+      <c r="L12" s="9">
         <v>0.125</v>
       </c>
-      <c r="L12" s="9">
-        <v>0</v>
-      </c>
-      <c r="M12" s="9"/>
+      <c r="M12" s="9">
+        <v>0</v>
+      </c>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
-      <c r="T12" s="10" t="s">
+      <c r="T12" s="9"/>
+      <c r="U12" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -2532,24 +2562,25 @@
         <v>11100</v>
       </c>
       <c r="J13" s="11"/>
-      <c r="K13" s="9">
+      <c r="K13" s="11"/>
+      <c r="L13" s="9">
         <v>0.125</v>
       </c>
-      <c r="L13" s="9">
-        <v>0</v>
-      </c>
-      <c r="M13" s="9"/>
+      <c r="M13" s="9">
+        <v>0</v>
+      </c>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
-      <c r="T13" s="10" t="s">
+      <c r="T13" s="9"/>
+      <c r="U13" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -2568,24 +2599,25 @@
         <v>11110</v>
       </c>
       <c r="J14" s="11"/>
-      <c r="K14" s="9">
+      <c r="K14" s="11"/>
+      <c r="L14" s="9">
         <v>0.125</v>
       </c>
-      <c r="L14" s="9">
-        <v>0</v>
-      </c>
-      <c r="M14" s="9"/>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
-      <c r="T14" s="10" t="s">
+      <c r="T14" s="9"/>
+      <c r="U14" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -2604,24 +2636,25 @@
         <v>11120</v>
       </c>
       <c r="J15" s="11"/>
-      <c r="K15" s="9">
+      <c r="K15" s="11"/>
+      <c r="L15" s="9">
         <v>0.125</v>
       </c>
-      <c r="L15" s="9">
-        <v>0</v>
-      </c>
-      <c r="M15" s="9"/>
+      <c r="M15" s="9">
+        <v>0</v>
+      </c>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
-      <c r="T15" s="10" t="s">
+      <c r="T15" s="9"/>
+      <c r="U15" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -2640,24 +2673,25 @@
         <v>11130</v>
       </c>
       <c r="J16" s="11"/>
-      <c r="K16" s="9">
+      <c r="K16" s="11"/>
+      <c r="L16" s="9">
         <v>0.125</v>
       </c>
-      <c r="L16" s="9">
-        <v>0</v>
-      </c>
-      <c r="M16" s="9"/>
+      <c r="M16" s="9">
+        <v>0</v>
+      </c>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
       <c r="S16" s="9"/>
-      <c r="T16" s="10" t="s">
+      <c r="T16" s="9"/>
+      <c r="U16" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -2676,24 +2710,25 @@
         <v>12010</v>
       </c>
       <c r="J17" s="9"/>
-      <c r="K17" s="9">
+      <c r="K17" s="9"/>
+      <c r="L17" s="9">
         <v>1.5</v>
       </c>
-      <c r="L17" s="9">
-        <v>0</v>
-      </c>
-      <c r="M17" s="9"/>
+      <c r="M17" s="9">
+        <v>0</v>
+      </c>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
-      <c r="T17" s="10" t="s">
+      <c r="T17" s="9"/>
+      <c r="U17" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -2712,24 +2747,25 @@
         <v>12020</v>
       </c>
       <c r="J18" s="11"/>
-      <c r="K18" s="9">
+      <c r="K18" s="11"/>
+      <c r="L18" s="9">
         <v>1.5</v>
       </c>
-      <c r="L18" s="9">
-        <v>0</v>
-      </c>
-      <c r="M18" s="9"/>
+      <c r="M18" s="9">
+        <v>0</v>
+      </c>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
-      <c r="T18" s="10" t="s">
+      <c r="T18" s="9"/>
+      <c r="U18" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -2748,24 +2784,25 @@
         <v>12030</v>
       </c>
       <c r="J19" s="9"/>
-      <c r="K19" s="9">
+      <c r="K19" s="9"/>
+      <c r="L19" s="9">
         <v>1.5</v>
       </c>
-      <c r="L19" s="9">
-        <v>0</v>
-      </c>
-      <c r="M19" s="9"/>
+      <c r="M19" s="9">
+        <v>0</v>
+      </c>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
-      <c r="T19" s="10" t="s">
+      <c r="T19" s="9"/>
+      <c r="U19" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -2784,24 +2821,25 @@
         <v>12040</v>
       </c>
       <c r="J20" s="9"/>
-      <c r="K20" s="9">
+      <c r="K20" s="9"/>
+      <c r="L20" s="9">
         <v>1.5</v>
       </c>
-      <c r="L20" s="9">
-        <v>0</v>
-      </c>
-      <c r="M20" s="9"/>
+      <c r="M20" s="9">
+        <v>0</v>
+      </c>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
       <c r="S20" s="9"/>
-      <c r="T20" s="10" t="s">
+      <c r="T20" s="9"/>
+      <c r="U20" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -2820,24 +2858,25 @@
         <v>12050</v>
       </c>
       <c r="J21" s="9"/>
-      <c r="K21" s="9">
+      <c r="K21" s="9"/>
+      <c r="L21" s="9">
         <v>1.5</v>
       </c>
-      <c r="L21" s="9">
-        <v>0</v>
-      </c>
-      <c r="M21" s="9"/>
+      <c r="M21" s="9">
+        <v>0</v>
+      </c>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
       <c r="S21" s="9"/>
-      <c r="T21" s="10" t="s">
+      <c r="T21" s="9"/>
+      <c r="U21" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -2856,24 +2895,25 @@
         <v>12060</v>
       </c>
       <c r="J22" s="9"/>
-      <c r="K22" s="9">
+      <c r="K22" s="9"/>
+      <c r="L22" s="9">
         <v>1.5</v>
       </c>
-      <c r="L22" s="9">
-        <v>0</v>
-      </c>
-      <c r="M22" s="9"/>
-      <c r="N22" s="10"/>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9"/>
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
-      <c r="Q22" s="9"/>
+      <c r="Q22" s="10"/>
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
-      <c r="T22" s="10" t="s">
+      <c r="T22" s="9"/>
+      <c r="U22" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -2892,24 +2932,25 @@
         <v>12070</v>
       </c>
       <c r="J23" s="9"/>
-      <c r="K23" s="9">
+      <c r="K23" s="9"/>
+      <c r="L23" s="9">
         <v>1.5</v>
       </c>
-      <c r="L23" s="9">
-        <v>0</v>
-      </c>
-      <c r="M23" s="9"/>
+      <c r="M23" s="9">
+        <v>0</v>
+      </c>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
-      <c r="T23" s="10" t="s">
+      <c r="T23" s="9"/>
+      <c r="U23" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -2928,24 +2969,25 @@
         <v>12080</v>
       </c>
       <c r="J24" s="9"/>
-      <c r="K24" s="9">
+      <c r="K24" s="9"/>
+      <c r="L24" s="9">
         <v>1.5</v>
       </c>
-      <c r="L24" s="9">
-        <v>0</v>
-      </c>
-      <c r="M24" s="10"/>
-      <c r="N24" s="9"/>
+      <c r="M24" s="9">
+        <v>0</v>
+      </c>
+      <c r="N24" s="10"/>
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
       <c r="S24" s="9"/>
-      <c r="T24" s="10" t="s">
+      <c r="T24" s="9"/>
+      <c r="U24" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -2964,24 +3006,25 @@
         <v>12090</v>
       </c>
       <c r="J25" s="9"/>
-      <c r="K25" s="9">
+      <c r="K25" s="9"/>
+      <c r="L25" s="9">
         <v>1.5</v>
       </c>
-      <c r="L25" s="9">
-        <v>0</v>
-      </c>
-      <c r="M25" s="10"/>
+      <c r="M25" s="9">
+        <v>0</v>
+      </c>
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
-      <c r="P25" s="9"/>
+      <c r="P25" s="10"/>
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
-      <c r="T25" s="10" t="s">
+      <c r="T25" s="9"/>
+      <c r="U25" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -3000,24 +3043,25 @@
         <v>12100</v>
       </c>
       <c r="J26" s="9"/>
-      <c r="K26" s="9">
+      <c r="K26" s="9"/>
+      <c r="L26" s="9">
         <v>1.5</v>
       </c>
-      <c r="L26" s="9">
-        <v>0</v>
-      </c>
-      <c r="M26" s="9"/>
+      <c r="M26" s="9">
+        <v>0</v>
+      </c>
       <c r="N26" s="9"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="10"/>
       <c r="Q26" s="9"/>
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
-      <c r="T26" s="10" t="s">
+      <c r="T26" s="9"/>
+      <c r="U26" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -3036,24 +3080,25 @@
         <v>12110</v>
       </c>
       <c r="J27" s="9"/>
-      <c r="K27" s="9">
+      <c r="K27" s="9"/>
+      <c r="L27" s="9">
         <v>1.5</v>
       </c>
-      <c r="L27" s="9">
-        <v>0</v>
-      </c>
-      <c r="M27" s="9"/>
+      <c r="M27" s="9">
+        <v>0</v>
+      </c>
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
       <c r="R27" s="9"/>
       <c r="S27" s="9"/>
-      <c r="T27" s="10" t="s">
+      <c r="T27" s="9"/>
+      <c r="U27" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -3072,24 +3117,25 @@
         <v>12120</v>
       </c>
       <c r="J28" s="9"/>
-      <c r="K28" s="9">
+      <c r="K28" s="9"/>
+      <c r="L28" s="9">
         <v>1.5</v>
       </c>
-      <c r="L28" s="9">
-        <v>0</v>
-      </c>
-      <c r="M28" s="9"/>
+      <c r="M28" s="9">
+        <v>0</v>
+      </c>
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
       <c r="Q28" s="9"/>
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
-      <c r="T28" s="10" t="s">
+      <c r="T28" s="9"/>
+      <c r="U28" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -3108,24 +3154,25 @@
         <v>12130</v>
       </c>
       <c r="J29" s="9"/>
-      <c r="K29" s="9">
+      <c r="K29" s="9"/>
+      <c r="L29" s="9">
         <v>1.5</v>
       </c>
-      <c r="L29" s="9">
-        <v>0</v>
-      </c>
-      <c r="M29" s="9"/>
+      <c r="M29" s="9">
+        <v>0</v>
+      </c>
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
       <c r="Q29" s="9"/>
       <c r="R29" s="9"/>
       <c r="S29" s="9"/>
-      <c r="T29" s="10" t="s">
+      <c r="T29" s="9"/>
+      <c r="U29" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -3144,24 +3191,25 @@
         <v>13010</v>
       </c>
       <c r="J30" s="9"/>
-      <c r="K30" s="9">
-        <v>2</v>
-      </c>
+      <c r="K30" s="9"/>
       <c r="L30" s="9">
-        <v>0</v>
-      </c>
-      <c r="M30" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="M30" s="9">
+        <v>0</v>
+      </c>
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
       <c r="R30" s="9"/>
       <c r="S30" s="9"/>
-      <c r="T30" s="10" t="s">
+      <c r="T30" s="9"/>
+      <c r="U30" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -3180,24 +3228,25 @@
         <v>13020</v>
       </c>
       <c r="J31" s="11"/>
-      <c r="K31" s="9">
-        <v>2</v>
-      </c>
+      <c r="K31" s="11"/>
       <c r="L31" s="9">
-        <v>0</v>
-      </c>
-      <c r="M31" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="M31" s="9">
+        <v>0</v>
+      </c>
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
       <c r="R31" s="9"/>
       <c r="S31" s="9"/>
-      <c r="T31" s="10" t="s">
+      <c r="T31" s="9"/>
+      <c r="U31" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -3216,24 +3265,25 @@
         <v>13030</v>
       </c>
       <c r="J32" s="11"/>
-      <c r="K32" s="9">
-        <v>2</v>
-      </c>
+      <c r="K32" s="11"/>
       <c r="L32" s="9">
-        <v>0</v>
-      </c>
-      <c r="M32" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="M32" s="9">
+        <v>0</v>
+      </c>
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
       <c r="Q32" s="9"/>
       <c r="R32" s="9"/>
       <c r="S32" s="9"/>
-      <c r="T32" s="10" t="s">
+      <c r="T32" s="9"/>
+      <c r="U32" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -3252,24 +3302,25 @@
         <v>13040</v>
       </c>
       <c r="J33" s="11"/>
-      <c r="K33" s="9">
-        <v>2</v>
-      </c>
+      <c r="K33" s="11"/>
       <c r="L33" s="9">
-        <v>0</v>
-      </c>
-      <c r="M33" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="M33" s="9">
+        <v>0</v>
+      </c>
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
       <c r="Q33" s="9"/>
       <c r="R33" s="9"/>
       <c r="S33" s="9"/>
-      <c r="T33" s="10" t="s">
+      <c r="T33" s="9"/>
+      <c r="U33" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -3288,24 +3339,25 @@
         <v>13050</v>
       </c>
       <c r="J34" s="11"/>
-      <c r="K34" s="9">
-        <v>2</v>
-      </c>
+      <c r="K34" s="11"/>
       <c r="L34" s="9">
-        <v>0</v>
-      </c>
-      <c r="M34" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="M34" s="9">
+        <v>0</v>
+      </c>
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
       <c r="Q34" s="9"/>
       <c r="R34" s="9"/>
       <c r="S34" s="9"/>
-      <c r="T34" s="10" t="s">
+      <c r="T34" s="9"/>
+      <c r="U34" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>32</v>
       </c>
@@ -3324,24 +3376,25 @@
         <v>13060</v>
       </c>
       <c r="J35" s="11"/>
-      <c r="K35" s="9">
-        <v>2</v>
-      </c>
+      <c r="K35" s="11"/>
       <c r="L35" s="9">
-        <v>0</v>
-      </c>
-      <c r="M35" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="M35" s="9">
+        <v>0</v>
+      </c>
       <c r="N35" s="9"/>
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
       <c r="Q35" s="9"/>
       <c r="R35" s="9"/>
       <c r="S35" s="9"/>
-      <c r="T35" s="10" t="s">
+      <c r="T35" s="9"/>
+      <c r="U35" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>33</v>
       </c>
@@ -3360,24 +3413,25 @@
         <v>13070</v>
       </c>
       <c r="J36" s="11"/>
-      <c r="K36" s="9">
-        <v>2</v>
-      </c>
+      <c r="K36" s="11"/>
       <c r="L36" s="9">
-        <v>0</v>
-      </c>
-      <c r="M36" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="M36" s="9">
+        <v>0</v>
+      </c>
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
       <c r="Q36" s="9"/>
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
-      <c r="T36" s="10" t="s">
+      <c r="T36" s="9"/>
+      <c r="U36" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>34</v>
       </c>
@@ -3396,24 +3450,25 @@
         <v>13080</v>
       </c>
       <c r="J37" s="11"/>
-      <c r="K37" s="9">
-        <v>2</v>
-      </c>
+      <c r="K37" s="11"/>
       <c r="L37" s="9">
-        <v>0</v>
-      </c>
-      <c r="M37" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="M37" s="9">
+        <v>0</v>
+      </c>
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
       <c r="Q37" s="9"/>
       <c r="R37" s="9"/>
       <c r="S37" s="9"/>
-      <c r="T37" s="10" t="s">
+      <c r="T37" s="9"/>
+      <c r="U37" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>35</v>
       </c>
@@ -3432,24 +3487,25 @@
         <v>13090</v>
       </c>
       <c r="J38" s="11"/>
-      <c r="K38" s="9">
-        <v>2</v>
-      </c>
+      <c r="K38" s="11"/>
       <c r="L38" s="9">
-        <v>0</v>
-      </c>
-      <c r="M38" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="M38" s="9">
+        <v>0</v>
+      </c>
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
       <c r="Q38" s="9"/>
       <c r="R38" s="9"/>
       <c r="S38" s="9"/>
-      <c r="T38" s="10" t="s">
+      <c r="T38" s="9"/>
+      <c r="U38" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>36</v>
       </c>
@@ -3468,24 +3524,25 @@
         <v>13100</v>
       </c>
       <c r="J39" s="11"/>
-      <c r="K39" s="9">
-        <v>2</v>
-      </c>
+      <c r="K39" s="11"/>
       <c r="L39" s="9">
-        <v>0</v>
-      </c>
-      <c r="M39" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="M39" s="9">
+        <v>0</v>
+      </c>
       <c r="N39" s="9"/>
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
       <c r="Q39" s="9"/>
       <c r="R39" s="9"/>
       <c r="S39" s="9"/>
-      <c r="T39" s="10" t="s">
+      <c r="T39" s="9"/>
+      <c r="U39" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>37</v>
       </c>
@@ -3504,24 +3561,25 @@
         <v>13110</v>
       </c>
       <c r="J40" s="11"/>
-      <c r="K40" s="9">
-        <v>2</v>
-      </c>
+      <c r="K40" s="11"/>
       <c r="L40" s="9">
-        <v>0</v>
-      </c>
-      <c r="M40" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="M40" s="9">
+        <v>0</v>
+      </c>
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
       <c r="Q40" s="9"/>
       <c r="R40" s="9"/>
       <c r="S40" s="9"/>
-      <c r="T40" s="10" t="s">
+      <c r="T40" s="9"/>
+      <c r="U40" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>38</v>
       </c>
@@ -3540,24 +3598,25 @@
         <v>13120</v>
       </c>
       <c r="J41" s="11"/>
-      <c r="K41" s="9">
-        <v>2</v>
-      </c>
+      <c r="K41" s="11"/>
       <c r="L41" s="9">
-        <v>0</v>
-      </c>
-      <c r="M41" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="M41" s="9">
+        <v>0</v>
+      </c>
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
       <c r="Q41" s="9"/>
       <c r="R41" s="9"/>
       <c r="S41" s="9"/>
-      <c r="T41" s="10" t="s">
+      <c r="T41" s="9"/>
+      <c r="U41" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>39</v>
       </c>
@@ -3576,24 +3635,25 @@
         <v>13130</v>
       </c>
       <c r="J42" s="11"/>
-      <c r="K42" s="9">
-        <v>2</v>
-      </c>
+      <c r="K42" s="11"/>
       <c r="L42" s="9">
-        <v>0</v>
-      </c>
-      <c r="M42" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="M42" s="9">
+        <v>0</v>
+      </c>
       <c r="N42" s="9"/>
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
       <c r="Q42" s="9"/>
       <c r="R42" s="9"/>
       <c r="S42" s="9"/>
-      <c r="T42" s="10" t="s">
+      <c r="T42" s="9"/>
+      <c r="U42" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>40</v>
       </c>
@@ -3612,24 +3672,25 @@
         <v>100200</v>
       </c>
       <c r="J43" s="3"/>
-      <c r="K43" s="3">
+      <c r="K43" s="3"/>
+      <c r="L43" s="3">
         <v>1.5</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3"/>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
-      <c r="T43" s="4" t="s">
+      <c r="T43" s="3"/>
+      <c r="U43" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>41</v>
       </c>
@@ -3648,24 +3709,25 @@
         <v>100300</v>
       </c>
       <c r="J44" s="3"/>
-      <c r="K44" s="3">
+      <c r="K44" s="3"/>
+      <c r="L44" s="3">
         <v>1.5</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
-      <c r="M44" s="3"/>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
-      <c r="T44" s="4" t="s">
+      <c r="T44" s="3"/>
+      <c r="U44" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>42</v>
       </c>
@@ -3684,22 +3746,23 @@
         <v>100400</v>
       </c>
       <c r="J45" s="3"/>
-      <c r="K45" s="3">
+      <c r="K45" s="3"/>
+      <c r="L45" s="3">
         <v>1</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3"/>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
-      <c r="T45" s="4"/>
-    </row>
-    <row r="46" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T45" s="3"/>
+      <c r="U45" s="4"/>
+    </row>
+    <row r="46" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>43</v>
       </c>
@@ -3718,22 +3781,23 @@
         <v>100500</v>
       </c>
       <c r="J46" s="3"/>
-      <c r="K46" s="3">
+      <c r="K46" s="3"/>
+      <c r="L46" s="3">
         <v>1</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-      <c r="M46" s="3"/>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
-      <c r="T46" s="4"/>
-    </row>
-    <row r="47" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T46" s="3"/>
+      <c r="U46" s="4"/>
+    </row>
+    <row r="47" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>44</v>
       </c>
@@ -3752,22 +3816,23 @@
         <v>100600</v>
       </c>
       <c r="J47" s="3"/>
-      <c r="K47" s="3">
-        <v>2</v>
-      </c>
+      <c r="K47" s="3"/>
       <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
-      <c r="T47" s="4"/>
-    </row>
-    <row r="48" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T47" s="3"/>
+      <c r="U47" s="4"/>
+    </row>
+    <row r="48" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>45</v>
       </c>
@@ -3786,24 +3851,25 @@
         <v>100700</v>
       </c>
       <c r="J48" s="3"/>
-      <c r="K48" s="3">
-        <v>2</v>
-      </c>
+      <c r="K48" s="3"/>
       <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
-      <c r="T48" s="4" t="s">
+      <c r="T48" s="3"/>
+      <c r="U48" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="49" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>46</v>
       </c>
@@ -3828,17 +3894,17 @@
       <c r="J49" s="3">
         <v>100</v>
       </c>
-      <c r="K49" s="3">
-        <v>100</v>
-      </c>
       <c r="L49" s="3">
         <v>100</v>
       </c>
-      <c r="T49" s="4" t="s">
+      <c r="M49" s="3">
+        <v>100</v>
+      </c>
+      <c r="U49" s="4" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="50" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>47</v>
       </c>
@@ -3853,19 +3919,22 @@
         <v>200</v>
       </c>
       <c r="K50" s="3">
+        <v>1</v>
+      </c>
+      <c r="L50" s="3">
         <v>200</v>
       </c>
-      <c r="L50" s="3">
+      <c r="M50" s="3">
         <v>100</v>
       </c>
-      <c r="M50" s="13" t="s">
+      <c r="N50" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="T50" s="4" t="s">
+      <c r="U50" s="4" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="51" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>48</v>
       </c>
@@ -3879,26 +3948,26 @@
       <c r="J51" s="3">
         <v>50</v>
       </c>
-      <c r="K51" s="3">
-        <v>50</v>
-      </c>
       <c r="L51" s="3">
         <v>50</v>
       </c>
-      <c r="M51" s="9">
+      <c r="M51" s="3">
+        <v>50</v>
+      </c>
+      <c r="N51" s="9">
         <v>101</v>
       </c>
-      <c r="P51" s="3">
+      <c r="Q51" s="3">
         <v>1</v>
       </c>
-      <c r="Q51" s="3">
+      <c r="R51" s="3">
         <v>0.3</v>
       </c>
-      <c r="T51" s="4" t="s">
+      <c r="U51" s="4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="4"/>
@@ -3918,9 +3987,10 @@
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
-      <c r="T52" s="4"/>
-    </row>
-    <row r="53" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T52" s="3"/>
+      <c r="U52" s="4"/>
+    </row>
+    <row r="53" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -3940,9 +4010,10 @@
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
-      <c r="T53" s="4"/>
-    </row>
-    <row r="54" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T53" s="3"/>
+      <c r="U53" s="4"/>
+    </row>
+    <row r="54" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="4"/>
@@ -3955,14 +4026,15 @@
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
-      <c r="M54" s="9"/>
-      <c r="N54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="9"/>
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
-      <c r="T54" s="4"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Excel/skill.技能.xlsx
+++ b/Excel/skill.技能.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFDA428-6A73-483E-8216-C30095CBA45C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6F160F-824D-4559-B090-038DF3580A37}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -1993,9 +1993,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE1484E-E599-4101-955C-A99AA9634D79}">
   <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K50" sqref="K50"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4048,8 +4048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84809B08-AEE0-4B35-956F-542A8D2C0F97}">
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4:N16"/>
+    <sheetView tabSelected="1" topLeftCell="D34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R57" sqref="R57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6085,7 +6085,7 @@
       <c r="L59" s="4"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -6118,7 +6118,7 @@
       <c r="L60" s="4"/>
       <c r="M60" s="3"/>
       <c r="N60" s="3">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="O60" s="3">
         <v>0</v>

--- a/Excel/skill.技能.xlsx
+++ b/Excel/skill.技能.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6F160F-824D-4559-B090-038DF3580A37}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61C4B58-DE24-4E1F-9319-0457C9CD1F6F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4048,8 +4048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84809B08-AEE0-4B35-956F-542A8D2C0F97}">
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R57" sqref="R57"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N60" sqref="N60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6085,7 +6085,7 @@
       <c r="L59" s="4"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>

--- a/Excel/skill.技能.xlsx
+++ b/Excel/skill.技能.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61C4B58-DE24-4E1F-9319-0457C9CD1F6F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E897C2B9-7CDD-4D10-A821-32A66EF41BD6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -1239,40 +1239,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>提升500%的攻击速度，持续</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>秒</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>护盾值增加30%，无敌5s。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放强能激光，灼烧敌人。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>bullet.begTime</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1302,6 +1268,18 @@
   </si>
   <si>
     <t>float:e&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放核子轰炸，每0.25秒造成0.5倍主舰攻击伤害，持续2.5秒。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大幅提升导弹炮和激光炮的攻击速度，持续5秒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>为护盾充能，使护盾值增加30%，且无敌5s。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1993,9 +1971,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE1484E-E599-4101-955C-A99AA9634D79}">
   <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G52" sqref="G52"/>
+      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2034,13 +2012,13 @@
         <v>192</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>157</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>48</v>
@@ -2049,7 +2027,7 @@
         <v>49</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>8</v>
@@ -2114,7 +2092,7 @@
         <v>44</v>
       </c>
       <c r="K2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="L2" t="s">
         <v>28</v>
@@ -2123,7 +2101,7 @@
         <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="O2" t="s">
         <v>76</v>
@@ -2168,7 +2146,7 @@
         <v>194</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
@@ -2177,7 +2155,7 @@
         <v>50</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>24</v>
@@ -3880,7 +3858,7 @@
         <v>247</v>
       </c>
       <c r="F49" s="3">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="G49" s="3">
         <v>0.25</v>
@@ -3901,7 +3879,7 @@
         <v>100</v>
       </c>
       <c r="U49" s="4" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="50" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3928,10 +3906,10 @@
         <v>100</v>
       </c>
       <c r="N50" s="13" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="U50" s="4" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3964,7 +3942,7 @@
         <v>0.3</v>
       </c>
       <c r="U51" s="4" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4048,8 +4026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84809B08-AEE0-4B35-956F-542A8D2C0F97}">
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N60" sqref="N60"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N61" sqref="N61:O61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/skill.技能.xlsx
+++ b/Excel/skill.技能.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E897C2B9-7CDD-4D10-A821-32A66EF41BD6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5735DCB-E533-44A2-993D-FFE8AE99BF31}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1220,10 +1220,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>核打击</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>绝对领域</t>
   </si>
   <si>
@@ -1271,15 +1267,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>释放核子轰炸，每0.25秒造成0.5倍主舰攻击伤害，持续2.5秒。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>大幅提升导弹炮和激光炮的攻击速度，持续5秒</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>为护盾充能，使护盾值增加30%，且无敌5s。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>轨道电磁炮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放轨道电磁炮，灼烧敌人；每秒造成8次0.35倍的主舰攻击伤害，持续2.5秒。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>67</v>
@@ -1896,7 +1896,7 @@
     </row>
     <row r="3" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
@@ -1917,7 +1917,7 @@
     </row>
     <row r="4" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>68</v>
@@ -1938,7 +1938,7 @@
     </row>
     <row r="5" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
@@ -1972,8 +1972,8 @@
   <dimension ref="A1:U54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="A49:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2012,13 +2012,13 @@
         <v>192</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>157</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>48</v>
@@ -2027,7 +2027,7 @@
         <v>49</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>8</v>
@@ -2092,7 +2092,7 @@
         <v>44</v>
       </c>
       <c r="K2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L2" t="s">
         <v>28</v>
@@ -2101,7 +2101,7 @@
         <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O2" t="s">
         <v>76</v>
@@ -2146,7 +2146,7 @@
         <v>194</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
@@ -2155,7 +2155,7 @@
         <v>50</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>24</v>
@@ -3854,17 +3854,17 @@
       <c r="B49" s="3">
         <v>50001</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>247</v>
+      <c r="C49" s="4" t="s">
+        <v>261</v>
       </c>
       <c r="F49" s="3">
         <v>0.5</v>
       </c>
       <c r="G49" s="3">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="H49" s="3">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I49" s="7">
         <v>500020</v>
@@ -3879,7 +3879,7 @@
         <v>100</v>
       </c>
       <c r="U49" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="50" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3906,10 +3906,10 @@
         <v>100</v>
       </c>
       <c r="N50" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="U50" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3920,7 +3920,7 @@
         <v>50003</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I51" s="7"/>
       <c r="J51" s="3">
@@ -3942,7 +3942,7 @@
         <v>0.3</v>
       </c>
       <c r="U51" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4027,7 +4027,7 @@
   <dimension ref="A1:O61"/>
   <sheetViews>
     <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N61" sqref="N61:O61"/>
+      <selection activeCell="M65" sqref="M65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6110,7 +6110,7 @@
         <v>500020</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D61" s="3">
         <v>2000</v>
@@ -6129,10 +6129,10 @@
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
       <c r="N61" s="3">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="O61" s="3">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/skill.技能.xlsx
+++ b/Excel/skill.技能.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5735DCB-E533-44A2-993D-FFE8AE99BF31}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7417899-30EE-41C9-8BF8-C637FCEB4CB2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -280,7 +280,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="274">
   <si>
     <t>sheet名</t>
   </si>
@@ -1280,6 +1280,61 @@
   </si>
   <si>
     <t>释放轨道电磁炮，灼烧敌人；每秒造成8次0.35倍的主舰攻击伤害，持续2.5秒。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔小怪普攻1</t>
+  </si>
+  <si>
+    <t>通天塔小怪普攻1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔小怪普攻2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔精英怪普攻1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔精英怪普攻2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔精英1普攻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔精英2普攻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>通天塔双B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OSS普攻</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔BOSS普攻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔双BOSS普攻1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹开始时间</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1969,16 +2024,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE1484E-E599-4101-955C-A99AA9634D79}">
-  <dimension ref="A1:U54"/>
+  <dimension ref="A1:U60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A49" sqref="A49:XFD49"/>
+      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
     <col min="4" max="5" width="13.625" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
     <col min="7" max="8" width="21" customWidth="1"/>
@@ -2141,7 +2196,9 @@
       <c r="E3" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>273</v>
+      </c>
       <c r="G3" s="2" t="s">
         <v>194</v>
       </c>
@@ -3664,9 +3721,7 @@
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
-      <c r="U43" s="4" t="s">
-        <v>153</v>
-      </c>
+      <c r="U43" s="4"/>
     </row>
     <row r="44" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
@@ -3701,19 +3756,17 @@
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
-      <c r="U44" s="4" t="s">
-        <v>154</v>
-      </c>
+      <c r="U44" s="4"/>
     </row>
     <row r="45" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>42</v>
       </c>
       <c r="B45" s="3">
-        <v>11001</v>
+        <v>10003</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>216</v>
+        <v>264</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -3721,12 +3774,12 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="3">
-        <v>100400</v>
+        <v>100800</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -3745,10 +3798,10 @@
         <v>43</v>
       </c>
       <c r="B46" s="3">
-        <v>11002</v>
+        <v>10004</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>217</v>
+        <v>265</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -3756,12 +3809,12 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="3">
-        <v>100500</v>
+        <v>100900</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="M46" s="3">
         <v>0</v>
@@ -3780,10 +3833,10 @@
         <v>44</v>
       </c>
       <c r="B47" s="3">
-        <v>12001</v>
+        <v>11001</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -3791,12 +3844,12 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="3">
-        <v>100600</v>
+        <v>100400</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -3815,10 +3868,10 @@
         <v>45</v>
       </c>
       <c r="B48" s="3">
-        <v>13001</v>
+        <v>11002</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>155</v>
+        <v>217</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -3826,12 +3879,12 @@
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="3">
-        <v>100700</v>
+        <v>100500</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -3843,122 +3896,139 @@
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
-      <c r="U48" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U48" s="4"/>
+    </row>
+    <row r="49" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>46</v>
       </c>
       <c r="B49" s="3">
-        <v>50001</v>
+        <v>11003</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0.125</v>
-      </c>
-      <c r="H49" s="3">
-        <v>25</v>
-      </c>
-      <c r="I49" s="7">
-        <v>500020</v>
-      </c>
-      <c r="J49" s="3">
-        <v>100</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="3">
+        <v>101000</v>
+      </c>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
       <c r="L49" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M49" s="3">
-        <v>100</v>
-      </c>
-      <c r="U49" s="4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="4"/>
+    </row>
+    <row r="50" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>47</v>
       </c>
       <c r="B50" s="3">
-        <v>50002</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="I50" s="7"/>
-      <c r="J50" s="3">
-        <v>200</v>
-      </c>
-      <c r="K50" s="3">
+        <v>11004</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="3">
+        <v>101100</v>
+      </c>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3">
         <v>1</v>
       </c>
-      <c r="L50" s="3">
-        <v>200</v>
-      </c>
       <c r="M50" s="3">
-        <v>100</v>
-      </c>
-      <c r="N50" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="U50" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="4"/>
+    </row>
+    <row r="51" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>48</v>
       </c>
       <c r="B51" s="3">
-        <v>50003</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="I51" s="7"/>
-      <c r="J51" s="3">
-        <v>50</v>
-      </c>
+        <v>12001</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="3">
+        <v>100600</v>
+      </c>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
       <c r="L51" s="3">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="M51" s="3">
-        <v>50</v>
-      </c>
-      <c r="N51" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q51" s="3">
-        <v>1</v>
-      </c>
-      <c r="R51" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="U51" s="4" t="s">
-        <v>260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="4"/>
     </row>
     <row r="52" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="4"/>
+      <c r="A52" s="3">
+        <v>49</v>
+      </c>
+      <c r="B52" s="3">
+        <v>12002</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>272</v>
+      </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
-      <c r="I52" s="8"/>
+      <c r="I52" s="3">
+        <v>101200</v>
+      </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
+      <c r="L52" s="3">
+        <v>2</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
@@ -3969,19 +4039,31 @@
       <c r="U52" s="4"/>
     </row>
     <row r="53" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
+      <c r="A53" s="3">
+        <v>50</v>
+      </c>
+      <c r="B53" s="3">
+        <v>13001</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>155</v>
+      </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
-      <c r="I53" s="8"/>
+      <c r="I53" s="3">
+        <v>100700</v>
+      </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
+      <c r="L53" s="3">
+        <v>2</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
@@ -3989,23 +4071,37 @@
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
       <c r="T53" s="3"/>
-      <c r="U53" s="4"/>
+      <c r="U53" s="4" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="54" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="4"/>
+      <c r="A54" s="3">
+        <v>51</v>
+      </c>
+      <c r="B54" s="3">
+        <v>13002</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>271</v>
+      </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
-      <c r="I54" s="8"/>
+      <c r="I54" s="3">
+        <v>101300</v>
+      </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="9"/>
+      <c r="L54" s="3">
+        <v>2</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3"/>
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
@@ -4013,6 +4109,173 @@
       <c r="S54" s="3"/>
       <c r="T54" s="3"/>
       <c r="U54" s="4"/>
+    </row>
+    <row r="55" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>52</v>
+      </c>
+      <c r="B55" s="3">
+        <v>50001</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G55" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="H55" s="3">
+        <v>25</v>
+      </c>
+      <c r="I55" s="7">
+        <v>500020</v>
+      </c>
+      <c r="J55" s="3">
+        <v>100</v>
+      </c>
+      <c r="L55" s="3">
+        <v>100</v>
+      </c>
+      <c r="M55" s="3">
+        <v>100</v>
+      </c>
+      <c r="U55" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>53</v>
+      </c>
+      <c r="B56" s="3">
+        <v>50002</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="I56" s="7"/>
+      <c r="J56" s="3">
+        <v>200</v>
+      </c>
+      <c r="K56" s="3">
+        <v>1</v>
+      </c>
+      <c r="L56" s="3">
+        <v>200</v>
+      </c>
+      <c r="M56" s="3">
+        <v>100</v>
+      </c>
+      <c r="N56" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="U56" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>54</v>
+      </c>
+      <c r="B57" s="3">
+        <v>50003</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="I57" s="7"/>
+      <c r="J57" s="3">
+        <v>50</v>
+      </c>
+      <c r="L57" s="3">
+        <v>50</v>
+      </c>
+      <c r="M57" s="3">
+        <v>50</v>
+      </c>
+      <c r="N57" s="9">
+        <v>101</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>1</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="U57" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="4"/>
+    </row>
+    <row r="59" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="4"/>
+    </row>
+    <row r="60" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4024,10 +4287,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84809B08-AEE0-4B35-956F-542A8D2C0F97}">
-  <dimension ref="A1:O61"/>
+  <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M65" sqref="M65"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6107,10 +6370,10 @@
         <v>58</v>
       </c>
       <c r="B61" s="3">
-        <v>500020</v>
+        <v>100800</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="D61" s="3">
         <v>2000</v>
@@ -6123,15 +6386,221 @@
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="K61" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="L61" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3">
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>59</v>
+      </c>
+      <c r="B62" s="3">
+        <v>100900</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2</v>
+      </c>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="K62" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="L62" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>60</v>
+      </c>
+      <c r="B63" s="3">
+        <v>101000</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D63" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E63" s="3">
+        <v>2</v>
+      </c>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>61</v>
+      </c>
+      <c r="B64" s="3">
+        <v>101100</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D64" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E64" s="3">
+        <v>2</v>
+      </c>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>62</v>
+      </c>
+      <c r="B65" s="3">
+        <v>101200</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D65" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E65" s="3">
+        <v>2</v>
+      </c>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>63</v>
+      </c>
+      <c r="B66" s="3">
+        <v>101300</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2</v>
+      </c>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="O66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>64</v>
+      </c>
+      <c r="B67" s="3">
+        <v>500020</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D67" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E67" s="3">
+        <v>2</v>
+      </c>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="3">
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="3">
         <v>0.35</v>
       </c>
-      <c r="O61" s="3">
+      <c r="O67" s="3">
         <v>8</v>
       </c>
     </row>

--- a/Excel/skill.技能.xlsx
+++ b/Excel/skill.技能.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7417899-30EE-41C9-8BF8-C637FCEB4CB2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A151AD76-199C-45A7-BE7B-0D5D8C0A6D58}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -280,7 +280,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="285">
   <si>
     <t>sheet名</t>
   </si>
@@ -1335,6 +1335,50 @@
   </si>
   <si>
     <t>子弹开始时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常本小怪1普攻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常本小怪2普攻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常本守卫普攻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常本BOSS普攻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常本小怪1子弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常本小怪2子弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常本精英子弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常本守卫子弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常本BOSS子弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PointBullet02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常本精英普攻</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2024,11 +2068,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE1484E-E599-4101-955C-A99AA9634D79}">
-  <dimension ref="A1:U60"/>
+  <dimension ref="A1:U65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K53" sqref="K53"/>
+      <pane ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4110,118 +4154,137 @@
       <c r="T54" s="3"/>
       <c r="U54" s="4"/>
     </row>
-    <row r="55" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>52</v>
       </c>
       <c r="B55" s="3">
-        <v>50001</v>
+        <v>20001</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="F55" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G55" s="3">
-        <v>0.125</v>
-      </c>
-      <c r="H55" s="3">
-        <v>25</v>
-      </c>
-      <c r="I55" s="7">
-        <v>500020</v>
-      </c>
-      <c r="J55" s="3">
-        <v>100</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="3">
+        <v>101400</v>
+      </c>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
       <c r="L55" s="3">
-        <v>100</v>
+        <v>1.5</v>
       </c>
       <c r="M55" s="3">
-        <v>100</v>
-      </c>
-      <c r="U55" s="4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="4"/>
+    </row>
+    <row r="56" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>53</v>
       </c>
       <c r="B56" s="3">
-        <v>50002</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="I56" s="7"/>
-      <c r="J56" s="3">
-        <v>200</v>
-      </c>
-      <c r="K56" s="3">
-        <v>1</v>
-      </c>
+        <v>20002</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="3">
+        <v>101500</v>
+      </c>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
       <c r="L56" s="3">
-        <v>200</v>
+        <v>1.5</v>
       </c>
       <c r="M56" s="3">
-        <v>100</v>
-      </c>
-      <c r="N56" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="U56" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="4"/>
+    </row>
+    <row r="57" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>54</v>
       </c>
       <c r="B57" s="3">
-        <v>50003</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="I57" s="7"/>
-      <c r="J57" s="3">
-        <v>50</v>
-      </c>
+        <v>20003</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="3">
+        <v>101600</v>
+      </c>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
       <c r="L57" s="3">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="M57" s="3">
-        <v>50</v>
-      </c>
-      <c r="N57" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>1</v>
-      </c>
-      <c r="R57" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="U57" s="4" t="s">
-        <v>260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="4"/>
     </row>
     <row r="58" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="4"/>
+      <c r="A58" s="3">
+        <v>55</v>
+      </c>
+      <c r="B58" s="3">
+        <v>20004</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>276</v>
+      </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
-      <c r="I58" s="8"/>
+      <c r="I58" s="3">
+        <v>101700</v>
+      </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
+      <c r="L58" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
@@ -4232,19 +4295,31 @@
       <c r="U58" s="4"/>
     </row>
     <row r="59" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
+      <c r="A59" s="3">
+        <v>56</v>
+      </c>
+      <c r="B59" s="3">
+        <v>20005</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>277</v>
+      </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
-      <c r="I59" s="8"/>
+      <c r="I59" s="3">
+        <v>101800</v>
+      </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
+      <c r="L59" s="3">
+        <v>2</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
@@ -4254,28 +4329,172 @@
       <c r="T59" s="3"/>
       <c r="U59" s="4"/>
     </row>
-    <row r="60" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="9"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
-      <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
-      <c r="U60" s="4"/>
+    <row r="60" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>57</v>
+      </c>
+      <c r="B60" s="3">
+        <v>50001</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G60" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="H60" s="3">
+        <v>25</v>
+      </c>
+      <c r="I60" s="7">
+        <v>500020</v>
+      </c>
+      <c r="J60" s="3">
+        <v>100</v>
+      </c>
+      <c r="L60" s="3">
+        <v>100</v>
+      </c>
+      <c r="M60" s="3">
+        <v>100</v>
+      </c>
+      <c r="U60" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>58</v>
+      </c>
+      <c r="B61" s="3">
+        <v>50002</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="I61" s="7"/>
+      <c r="J61" s="3">
+        <v>200</v>
+      </c>
+      <c r="K61" s="3">
+        <v>1</v>
+      </c>
+      <c r="L61" s="3">
+        <v>200</v>
+      </c>
+      <c r="M61" s="3">
+        <v>100</v>
+      </c>
+      <c r="N61" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="U61" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>59</v>
+      </c>
+      <c r="B62" s="3">
+        <v>50003</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="I62" s="7"/>
+      <c r="J62" s="3">
+        <v>50</v>
+      </c>
+      <c r="L62" s="3">
+        <v>50</v>
+      </c>
+      <c r="M62" s="3">
+        <v>50</v>
+      </c>
+      <c r="N62" s="9">
+        <v>101</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>1</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="U62" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="4"/>
+    </row>
+    <row r="64" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3"/>
+      <c r="S64" s="3"/>
+      <c r="T64" s="3"/>
+      <c r="U64" s="4"/>
+    </row>
+    <row r="65" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4287,10 +4506,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84809B08-AEE0-4B35-956F-542A8D2C0F97}">
-  <dimension ref="A1:O67"/>
+  <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67:B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6310,7 +6529,7 @@
         <v>223</v>
       </c>
       <c r="D59" s="3">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="E59" s="3">
         <v>2</v>
@@ -6343,7 +6562,7 @@
         <v>224</v>
       </c>
       <c r="D60" s="3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E60" s="3">
         <v>2</v>
@@ -6516,7 +6735,7 @@
         <v>270</v>
       </c>
       <c r="D65" s="3">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="E65" s="3">
         <v>2</v>
@@ -6549,7 +6768,7 @@
         <v>271</v>
       </c>
       <c r="D66" s="3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E66" s="3">
         <v>2</v>
@@ -6559,7 +6778,7 @@
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
@@ -6576,10 +6795,10 @@
         <v>64</v>
       </c>
       <c r="B67" s="3">
-        <v>500020</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>248</v>
+        <v>101400</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>278</v>
       </c>
       <c r="D67" s="3">
         <v>2000</v>
@@ -6592,15 +6811,180 @@
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="4" t="s">
-        <v>191</v>
+        <v>245</v>
       </c>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
+      <c r="M67" s="3"/>
       <c r="N67" s="3">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="O67" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>65</v>
+      </c>
+      <c r="B68" s="3">
+        <v>101500</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D68" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E68" s="3">
+        <v>2</v>
+      </c>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="O68" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>66</v>
+      </c>
+      <c r="B69" s="3">
+        <v>101600</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D69" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E69" s="3">
+        <v>2</v>
+      </c>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="O69" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>67</v>
+      </c>
+      <c r="B70" s="3">
+        <v>101700</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D70" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E70" s="3">
+        <v>2</v>
+      </c>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="O70" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <v>68</v>
+      </c>
+      <c r="B71" s="3">
+        <v>101800</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D71" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E71" s="3">
+        <v>2</v>
+      </c>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="O71" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
+        <v>69</v>
+      </c>
+      <c r="B72" s="3">
+        <v>500020</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D72" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>2</v>
+      </c>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="3">
         <v>0.35</v>
       </c>
-      <c r="O67" s="3">
+      <c r="O72" s="3">
         <v>8</v>
       </c>
     </row>

--- a/Excel/skill.技能.xlsx
+++ b/Excel/skill.技能.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A151AD76-199C-45A7-BE7B-0D5D8C0A6D58}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71940657-0BD8-4FE3-8A20-685769988CE9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2072,7 +2072,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
+      <selection pane="bottomLeft" activeCell="A52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4509,7 +4509,7 @@
   <dimension ref="A1:O72"/>
   <sheetViews>
     <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67:B71"/>
+      <selection activeCell="O74" sqref="O74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6751,7 +6751,7 @@
       <c r="L65" s="4"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="O65" s="3">
         <v>0</v>
@@ -6784,7 +6784,7 @@
       <c r="L66" s="4"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="O66" s="3">
         <v>0</v>

--- a/Excel/skill.技能.xlsx
+++ b/Excel/skill.技能.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71940657-0BD8-4FE3-8A20-685769988CE9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C23E10-FAF0-48FD-8484-B4D2A28E8C50}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -280,7 +280,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="303">
   <si>
     <t>sheet名</t>
   </si>
@@ -1379,6 +1379,69 @@
   </si>
   <si>
     <t>日常本精英普攻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币本小怪1普攻</t>
+  </si>
+  <si>
+    <t>金币本小怪2普攻</t>
+  </si>
+  <si>
+    <t>金币本小怪3普攻</t>
+  </si>
+  <si>
+    <t>金币本3精英普攻</t>
+  </si>
+  <si>
+    <t>金币本4精英普攻</t>
+  </si>
+  <si>
+    <t>金币本5小怪普攻</t>
+  </si>
+  <si>
+    <t>金币本5精英普攻</t>
+  </si>
+  <si>
+    <t>金币本6守卫普攻</t>
+  </si>
+  <si>
+    <t>金币本7BOSS普攻</t>
+  </si>
+  <si>
+    <t>金币本小怪1子弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币本小怪2子弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币本小怪3子弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币本3精英子弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币本4精英子弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币本5小怪子弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币本5精英子弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币本6守卫子弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币本7BOSS子弹</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2068,11 +2131,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE1484E-E599-4101-955C-A99AA9634D79}">
-  <dimension ref="A1:U65"/>
+  <dimension ref="A1:U74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A52" sqref="A52:XFD52"/>
+      <pane ySplit="3" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O67" sqref="O67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4329,118 +4392,137 @@
       <c r="T59" s="3"/>
       <c r="U59" s="4"/>
     </row>
-    <row r="60" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>57</v>
       </c>
       <c r="B60" s="3">
-        <v>50001</v>
+        <v>20006</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="F60" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G60" s="3">
-        <v>0.125</v>
-      </c>
-      <c r="H60" s="3">
-        <v>25</v>
-      </c>
-      <c r="I60" s="7">
-        <v>500020</v>
-      </c>
-      <c r="J60" s="3">
-        <v>100</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="3">
+        <v>101900</v>
+      </c>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
       <c r="L60" s="3">
-        <v>100</v>
+        <v>1.5</v>
       </c>
       <c r="M60" s="3">
-        <v>100</v>
-      </c>
-      <c r="U60" s="4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="4"/>
+    </row>
+    <row r="61" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>58</v>
       </c>
       <c r="B61" s="3">
-        <v>50002</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="I61" s="7"/>
-      <c r="J61" s="3">
-        <v>200</v>
-      </c>
-      <c r="K61" s="3">
-        <v>1</v>
-      </c>
+        <v>20007</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="3">
+        <v>102000</v>
+      </c>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
       <c r="L61" s="3">
-        <v>200</v>
+        <v>1.5</v>
       </c>
       <c r="M61" s="3">
-        <v>100</v>
-      </c>
-      <c r="N61" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="U61" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="4"/>
+    </row>
+    <row r="62" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>59</v>
       </c>
       <c r="B62" s="3">
-        <v>50003</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="I62" s="7"/>
-      <c r="J62" s="3">
-        <v>50</v>
-      </c>
+        <v>20008</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="3">
+        <v>102100</v>
+      </c>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
       <c r="L62" s="3">
-        <v>50</v>
+        <v>1.5</v>
       </c>
       <c r="M62" s="3">
-        <v>50</v>
-      </c>
-      <c r="N62" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>1</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="U62" s="4" t="s">
-        <v>260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="4"/>
     </row>
     <row r="63" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="4"/>
+      <c r="A63" s="3">
+        <v>60</v>
+      </c>
+      <c r="B63" s="3">
+        <v>20009</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>288</v>
+      </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
-      <c r="I63" s="8"/>
+      <c r="I63" s="3">
+        <v>102200</v>
+      </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
+      <c r="L63" s="3">
+        <v>1</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
       <c r="P63" s="3"/>
@@ -4451,19 +4533,31 @@
       <c r="U63" s="4"/>
     </row>
     <row r="64" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
+      <c r="A64" s="3">
+        <v>61</v>
+      </c>
+      <c r="B64" s="3">
+        <v>20010</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>289</v>
+      </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
-      <c r="I64" s="8"/>
+      <c r="I64" s="3">
+        <v>102300</v>
+      </c>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
+      <c r="L64" s="3">
+        <v>1</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>
@@ -4474,20 +4568,32 @@
       <c r="U64" s="4"/>
     </row>
     <row r="65" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="4"/>
+      <c r="A65" s="3">
+        <v>62</v>
+      </c>
+      <c r="B65" s="3">
+        <v>20011</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>290</v>
+      </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
-      <c r="I65" s="8"/>
+      <c r="I65" s="3">
+        <v>102400</v>
+      </c>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
-      <c r="N65" s="9"/>
+      <c r="L65" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
       <c r="O65" s="3"/>
       <c r="P65" s="3"/>
       <c r="Q65" s="3"/>
@@ -4495,6 +4601,278 @@
       <c r="S65" s="3"/>
       <c r="T65" s="3"/>
       <c r="U65" s="4"/>
+    </row>
+    <row r="66" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>63</v>
+      </c>
+      <c r="B66" s="3">
+        <v>20012</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="3">
+        <v>102500</v>
+      </c>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M66" s="3">
+        <v>0</v>
+      </c>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="4"/>
+    </row>
+    <row r="67" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>64</v>
+      </c>
+      <c r="B67" s="3">
+        <v>20013</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="3">
+        <v>102600</v>
+      </c>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3">
+        <v>2</v>
+      </c>
+      <c r="M67" s="3">
+        <v>0</v>
+      </c>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="4"/>
+    </row>
+    <row r="68" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>65</v>
+      </c>
+      <c r="B68" s="3">
+        <v>20014</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="3">
+        <v>102700</v>
+      </c>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3">
+        <v>3</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3"/>
+      <c r="S68" s="3"/>
+      <c r="T68" s="3"/>
+      <c r="U68" s="4"/>
+    </row>
+    <row r="69" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>66</v>
+      </c>
+      <c r="B69" s="3">
+        <v>50001</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F69" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G69" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="H69" s="3">
+        <v>25</v>
+      </c>
+      <c r="I69" s="7">
+        <v>500020</v>
+      </c>
+      <c r="J69" s="3">
+        <v>100</v>
+      </c>
+      <c r="L69" s="3">
+        <v>100</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>67</v>
+      </c>
+      <c r="B70" s="3">
+        <v>50002</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="I70" s="7"/>
+      <c r="J70" s="3">
+        <v>200</v>
+      </c>
+      <c r="K70" s="3">
+        <v>1</v>
+      </c>
+      <c r="L70" s="3">
+        <v>200</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="U70" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <v>68</v>
+      </c>
+      <c r="B71" s="3">
+        <v>50003</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="I71" s="7"/>
+      <c r="J71" s="3">
+        <v>50</v>
+      </c>
+      <c r="L71" s="3">
+        <v>50</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="9">
+        <v>101</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>1</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="U71" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3"/>
+      <c r="S72" s="3"/>
+      <c r="T72" s="3"/>
+      <c r="U72" s="4"/>
+    </row>
+    <row r="73" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3"/>
+      <c r="U73" s="4"/>
+    </row>
+    <row r="74" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+      <c r="U74" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4506,10 +4884,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84809B08-AEE0-4B35-956F-542A8D2C0F97}">
-  <dimension ref="A1:O72"/>
+  <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O74" sqref="O74"/>
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P77" sqref="P77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6960,10 +7338,10 @@
         <v>69</v>
       </c>
       <c r="B72" s="3">
-        <v>500020</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>248</v>
+        <v>101900</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>294</v>
       </c>
       <c r="D72" s="3">
         <v>2000</v>
@@ -6976,15 +7354,312 @@
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="4" t="s">
-        <v>191</v>
+        <v>245</v>
       </c>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
-      <c r="M72" s="4"/>
+      <c r="M72" s="3"/>
       <c r="N72" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="O72" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
+        <v>70</v>
+      </c>
+      <c r="B73" s="3">
+        <v>102000</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D73" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E73" s="3">
+        <v>2</v>
+      </c>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="O73" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <v>71</v>
+      </c>
+      <c r="B74" s="3">
+        <v>102100</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="D74" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E74" s="3">
+        <v>2</v>
+      </c>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="O74" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>72</v>
+      </c>
+      <c r="B75" s="3">
+        <v>102200</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D75" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E75" s="3">
+        <v>2</v>
+      </c>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3">
+        <v>0.214</v>
+      </c>
+      <c r="O75" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>73</v>
+      </c>
+      <c r="B76" s="3">
+        <v>102300</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D76" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2</v>
+      </c>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="O76" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>74</v>
+      </c>
+      <c r="B77" s="3">
+        <v>102400</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D77" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E77" s="3">
+        <v>2</v>
+      </c>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="O77" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <v>75</v>
+      </c>
+      <c r="B78" s="3">
+        <v>102500</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="D78" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E78" s="3">
+        <v>2</v>
+      </c>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="O78" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>76</v>
+      </c>
+      <c r="B79" s="3">
+        <v>102600</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D79" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E79" s="3">
+        <v>2</v>
+      </c>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3">
+        <v>1.3660000000000001</v>
+      </c>
+      <c r="O79" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
+        <v>77</v>
+      </c>
+      <c r="B80" s="3">
+        <v>102700</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D80" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E80" s="3">
+        <v>2</v>
+      </c>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3">
+        <v>6</v>
+      </c>
+      <c r="O80" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
+        <v>78</v>
+      </c>
+      <c r="B81" s="3">
+        <v>500020</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D81" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2</v>
+      </c>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="3">
         <v>0.35</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O81" s="3">
         <v>8</v>
       </c>
     </row>

--- a/Excel/skill.技能.xlsx
+++ b/Excel/skill.技能.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C23E10-FAF0-48FD-8484-B4D2A28E8C50}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F16842-BDA8-4E59-AF1C-50FF5E933206}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -280,7 +280,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="329">
   <si>
     <t>sheet名</t>
   </si>
@@ -1442,6 +1442,101 @@
   </si>
   <si>
     <t>金币本7BOSS子弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战宠蓝1普攻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战宠蓝2普攻</t>
+  </si>
+  <si>
+    <t>战宠蓝3普攻</t>
+  </si>
+  <si>
+    <t>战宠紫1普攻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战宠紫2普攻</t>
+  </si>
+  <si>
+    <t>战宠紫3普攻</t>
+  </si>
+  <si>
+    <t>战宠橙1普攻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战宠橙2普攻</t>
+  </si>
+  <si>
+    <t>战宠橙3普攻</t>
+  </si>
+  <si>
+    <t>战宠红1普攻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战宠红2普攻</t>
+  </si>
+  <si>
+    <t>战宠红3普攻</t>
+  </si>
+  <si>
+    <t>战宠红4普攻</t>
+  </si>
+  <si>
+    <t>战宠蓝1普攻子弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战宠蓝2普攻子弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战宠蓝3普攻子弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战宠紫1普攻子弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战宠紫2普攻子弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战宠紫3普攻子弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战宠橙1普攻子弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战宠橙2普攻子弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战宠橙3普攻子弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战宠红1普攻子弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战宠红2普攻子弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战宠红3普攻子弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战宠红4普攻子弹</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2131,11 +2226,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE1484E-E599-4101-955C-A99AA9634D79}">
-  <dimension ref="A1:U74"/>
+  <dimension ref="A1:U87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O67" sqref="O67"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3799,468 +3894,466 @@
       <c r="A43" s="3">
         <v>40</v>
       </c>
-      <c r="B43" s="3">
-        <v>10001</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="3">
-        <v>100200</v>
-      </c>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
-      <c r="U43" s="4"/>
+      <c r="B43" s="9">
+        <v>2010</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="12">
+        <v>20100</v>
+      </c>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="M43" s="9">
+        <v>0</v>
+      </c>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="10"/>
     </row>
     <row r="44" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>41</v>
       </c>
-      <c r="B44" s="3">
-        <v>10002</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="3">
-        <v>100300</v>
-      </c>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
-      <c r="U44" s="4"/>
+      <c r="B44" s="9">
+        <v>2020</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="12">
+        <v>20200</v>
+      </c>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="M44" s="9">
+        <v>0</v>
+      </c>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="10"/>
     </row>
     <row r="45" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>42</v>
       </c>
-      <c r="B45" s="3">
-        <v>10003</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="3">
-        <v>100800</v>
-      </c>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="3"/>
-      <c r="U45" s="4"/>
+      <c r="B45" s="9">
+        <v>2030</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="12">
+        <v>20300</v>
+      </c>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="M45" s="9">
+        <v>0</v>
+      </c>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="10"/>
     </row>
     <row r="46" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>43</v>
       </c>
-      <c r="B46" s="3">
-        <v>10004</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="3">
-        <v>100900</v>
-      </c>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
-      <c r="U46" s="4"/>
+      <c r="B46" s="9">
+        <v>3010</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="12">
+        <v>30100</v>
+      </c>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="M46" s="9">
+        <v>0</v>
+      </c>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="10"/>
     </row>
     <row r="47" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>44</v>
       </c>
-      <c r="B47" s="3">
-        <v>11001</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="3">
-        <v>100400</v>
-      </c>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3">
-        <v>1</v>
-      </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
-      <c r="U47" s="4"/>
+      <c r="B47" s="9">
+        <v>3020</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="12">
+        <v>30200</v>
+      </c>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="M47" s="9">
+        <v>0</v>
+      </c>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="10"/>
     </row>
     <row r="48" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>45</v>
       </c>
-      <c r="B48" s="3">
-        <v>11002</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="3">
-        <v>100500</v>
-      </c>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3">
-        <v>1</v>
-      </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
-      <c r="U48" s="4"/>
+      <c r="B48" s="9">
+        <v>3030</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="12">
+        <v>30300</v>
+      </c>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="M48" s="9">
+        <v>0</v>
+      </c>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="10"/>
     </row>
     <row r="49" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>46</v>
       </c>
-      <c r="B49" s="3">
-        <v>11003</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="3">
-        <v>101000</v>
-      </c>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3">
-        <v>1</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
-      <c r="U49" s="4"/>
+      <c r="B49" s="9">
+        <v>4010</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="12">
+        <v>40100</v>
+      </c>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="M49" s="9">
+        <v>0</v>
+      </c>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="10"/>
     </row>
     <row r="50" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>47</v>
       </c>
-      <c r="B50" s="3">
-        <v>11004</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="3">
-        <v>101100</v>
-      </c>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3">
-        <v>1</v>
-      </c>
-      <c r="M50" s="3">
-        <v>0</v>
-      </c>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
-      <c r="S50" s="3"/>
-      <c r="T50" s="3"/>
-      <c r="U50" s="4"/>
+      <c r="B50" s="9">
+        <v>4020</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="12">
+        <v>40200</v>
+      </c>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="M50" s="9">
+        <v>0</v>
+      </c>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="9"/>
+      <c r="U50" s="10"/>
     </row>
     <row r="51" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>48</v>
       </c>
-      <c r="B51" s="3">
-        <v>12001</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="3">
-        <v>100600</v>
-      </c>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3">
-        <v>2</v>
-      </c>
-      <c r="M51" s="3">
-        <v>0</v>
-      </c>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="3"/>
-      <c r="S51" s="3"/>
-      <c r="T51" s="3"/>
-      <c r="U51" s="4"/>
+      <c r="B51" s="9">
+        <v>4030</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="12">
+        <v>40300</v>
+      </c>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="M51" s="9">
+        <v>0</v>
+      </c>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="10"/>
     </row>
     <row r="52" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>49</v>
       </c>
-      <c r="B52" s="3">
-        <v>12002</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="3">
-        <v>101200</v>
-      </c>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3">
-        <v>2</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="3"/>
-      <c r="S52" s="3"/>
-      <c r="T52" s="3"/>
-      <c r="U52" s="4"/>
+      <c r="B52" s="9">
+        <v>5010</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="12">
+        <v>50100</v>
+      </c>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="M52" s="9">
+        <v>0</v>
+      </c>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="10"/>
     </row>
     <row r="53" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>50</v>
       </c>
-      <c r="B53" s="3">
-        <v>13001</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="3">
-        <v>100700</v>
-      </c>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3">
-        <v>2</v>
-      </c>
-      <c r="M53" s="3">
-        <v>0</v>
-      </c>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
-      <c r="S53" s="3"/>
-      <c r="T53" s="3"/>
-      <c r="U53" s="4" t="s">
-        <v>156</v>
-      </c>
+      <c r="B53" s="9">
+        <v>5020</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="12">
+        <v>50200</v>
+      </c>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="M53" s="9">
+        <v>0</v>
+      </c>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="10"/>
     </row>
     <row r="54" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>51</v>
       </c>
-      <c r="B54" s="3">
-        <v>13002</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="3">
-        <v>101300</v>
-      </c>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3">
-        <v>2</v>
-      </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
-      <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
-      <c r="U54" s="4"/>
+      <c r="B54" s="9">
+        <v>5030</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="12">
+        <v>50300</v>
+      </c>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="M54" s="9">
+        <v>0</v>
+      </c>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="10"/>
     </row>
     <row r="55" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>52</v>
       </c>
-      <c r="B55" s="3">
-        <v>20001</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="3">
-        <v>101400</v>
-      </c>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="M55" s="3">
-        <v>0</v>
-      </c>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
-      <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
-      <c r="U55" s="4"/>
+      <c r="B55" s="9">
+        <v>5040</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="12">
+        <v>50400</v>
+      </c>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="M55" s="9">
+        <v>0</v>
+      </c>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="10"/>
     </row>
     <row r="56" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>53</v>
       </c>
       <c r="B56" s="3">
-        <v>20002</v>
+        <v>10001</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>275</v>
+        <v>153</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -4268,7 +4361,7 @@
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="3">
-        <v>101500</v>
+        <v>100200</v>
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
@@ -4292,10 +4385,10 @@
         <v>54</v>
       </c>
       <c r="B57" s="3">
-        <v>20003</v>
+        <v>10002</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>284</v>
+        <v>154</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -4303,12 +4396,12 @@
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="3">
-        <v>101600</v>
+        <v>100300</v>
       </c>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
@@ -4327,10 +4420,10 @@
         <v>55</v>
       </c>
       <c r="B58" s="3">
-        <v>20004</v>
+        <v>10003</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -4338,7 +4431,7 @@
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="3">
-        <v>101700</v>
+        <v>100800</v>
       </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
@@ -4362,10 +4455,10 @@
         <v>56</v>
       </c>
       <c r="B59" s="3">
-        <v>20005</v>
+        <v>10004</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -4373,12 +4466,12 @@
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="3">
-        <v>101800</v>
+        <v>100900</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -4397,10 +4490,10 @@
         <v>57</v>
       </c>
       <c r="B60" s="3">
-        <v>20006</v>
+        <v>11001</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>285</v>
+        <v>216</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -4408,12 +4501,12 @@
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="3">
-        <v>101900</v>
+        <v>100400</v>
       </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="M60" s="3">
         <v>0</v>
@@ -4432,10 +4525,10 @@
         <v>58</v>
       </c>
       <c r="B61" s="3">
-        <v>20007</v>
+        <v>11002</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>286</v>
+        <v>217</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -4443,12 +4536,12 @@
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="3">
-        <v>102000</v>
+        <v>100500</v>
       </c>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -4467,10 +4560,10 @@
         <v>59</v>
       </c>
       <c r="B62" s="3">
-        <v>20008</v>
+        <v>11003</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -4478,12 +4571,12 @@
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="3">
-        <v>102100</v>
+        <v>101000</v>
       </c>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -4502,10 +4595,10 @@
         <v>60</v>
       </c>
       <c r="B63" s="3">
-        <v>20009</v>
+        <v>11004</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -4513,7 +4606,7 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="3">
-        <v>102200</v>
+        <v>101100</v>
       </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
@@ -4537,10 +4630,10 @@
         <v>61</v>
       </c>
       <c r="B64" s="3">
-        <v>20010</v>
+        <v>12001</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>289</v>
+        <v>218</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -4548,12 +4641,12 @@
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
       <c r="I64" s="3">
-        <v>102300</v>
+        <v>100600</v>
       </c>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M64" s="3">
         <v>0</v>
@@ -4572,10 +4665,10 @@
         <v>62</v>
       </c>
       <c r="B65" s="3">
-        <v>20011</v>
+        <v>12002</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -4583,12 +4676,12 @@
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="3">
-        <v>102400</v>
+        <v>101200</v>
       </c>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="M65" s="3">
         <v>0</v>
@@ -4607,10 +4700,10 @@
         <v>63</v>
       </c>
       <c r="B66" s="3">
-        <v>20012</v>
+        <v>13001</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>291</v>
+        <v>155</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -4618,12 +4711,12 @@
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" s="3">
-        <v>102500</v>
+        <v>100700</v>
       </c>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="M66" s="3">
         <v>0</v>
@@ -4635,17 +4728,19 @@
       <c r="R66" s="3"/>
       <c r="S66" s="3"/>
       <c r="T66" s="3"/>
-      <c r="U66" s="4"/>
+      <c r="U66" s="4" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="67" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>64</v>
       </c>
       <c r="B67" s="3">
-        <v>20013</v>
+        <v>13002</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -4653,7 +4748,7 @@
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="3">
-        <v>102600</v>
+        <v>101300</v>
       </c>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
@@ -4677,10 +4772,10 @@
         <v>65</v>
       </c>
       <c r="B68" s="3">
-        <v>20014</v>
+        <v>20001</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -4688,12 +4783,12 @@
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
       <c r="I68" s="3">
-        <v>102700</v>
+        <v>101400</v>
       </c>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="M68" s="3">
         <v>0</v>
@@ -4707,118 +4802,137 @@
       <c r="T68" s="3"/>
       <c r="U68" s="4"/>
     </row>
-    <row r="69" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>66</v>
       </c>
       <c r="B69" s="3">
-        <v>50001</v>
+        <v>20002</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="F69" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G69" s="3">
-        <v>0.125</v>
-      </c>
-      <c r="H69" s="3">
-        <v>25</v>
-      </c>
-      <c r="I69" s="7">
-        <v>500020</v>
-      </c>
-      <c r="J69" s="3">
-        <v>100</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="3">
+        <v>101500</v>
+      </c>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
       <c r="L69" s="3">
-        <v>100</v>
+        <v>1.5</v>
       </c>
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="U69" s="4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+      <c r="U69" s="4"/>
+    </row>
+    <row r="70" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>67</v>
       </c>
       <c r="B70" s="3">
-        <v>50002</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="I70" s="7"/>
-      <c r="J70" s="3">
-        <v>200</v>
-      </c>
-      <c r="K70" s="3">
+        <v>20003</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="3">
+        <v>101600</v>
+      </c>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3">
         <v>1</v>
       </c>
-      <c r="L70" s="3">
-        <v>200</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="U70" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3"/>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="4"/>
+    </row>
+    <row r="71" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>68</v>
       </c>
       <c r="B71" s="3">
-        <v>50003</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="I71" s="7"/>
-      <c r="J71" s="3">
-        <v>50</v>
-      </c>
+        <v>20004</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="3">
+        <v>101700</v>
+      </c>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
       <c r="L71" s="3">
-        <v>50</v>
+        <v>1.5</v>
       </c>
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="9">
-        <v>101</v>
-      </c>
-      <c r="Q71" s="3">
-        <v>1</v>
-      </c>
-      <c r="R71" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="U71" s="4" t="s">
-        <v>260</v>
-      </c>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3"/>
+      <c r="S71" s="3"/>
+      <c r="T71" s="3"/>
+      <c r="U71" s="4"/>
     </row>
     <row r="72" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="4"/>
+      <c r="A72" s="3">
+        <v>69</v>
+      </c>
+      <c r="B72" s="3">
+        <v>20005</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>277</v>
+      </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
-      <c r="I72" s="8"/>
+      <c r="I72" s="3">
+        <v>101800</v>
+      </c>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-      <c r="M72" s="3"/>
+      <c r="L72" s="3">
+        <v>2</v>
+      </c>
+      <c r="M72" s="3">
+        <v>0</v>
+      </c>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
       <c r="P72" s="3"/>
@@ -4829,19 +4943,31 @@
       <c r="U72" s="4"/>
     </row>
     <row r="73" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
+      <c r="A73" s="3">
+        <v>70</v>
+      </c>
+      <c r="B73" s="3">
+        <v>20006</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
-      <c r="I73" s="8"/>
+      <c r="I73" s="3">
+        <v>101900</v>
+      </c>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-      <c r="M73" s="3"/>
+      <c r="L73" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
       <c r="P73" s="3"/>
@@ -4852,20 +4978,32 @@
       <c r="U73" s="4"/>
     </row>
     <row r="74" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="4"/>
+      <c r="A74" s="3">
+        <v>71</v>
+      </c>
+      <c r="B74" s="3">
+        <v>20007</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>286</v>
+      </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
-      <c r="I74" s="8"/>
+      <c r="I74" s="3">
+        <v>102000</v>
+      </c>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-      <c r="M74" s="3"/>
-      <c r="N74" s="9"/>
+      <c r="L74" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
@@ -4873,6 +5011,418 @@
       <c r="S74" s="3"/>
       <c r="T74" s="3"/>
       <c r="U74" s="4"/>
+    </row>
+    <row r="75" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>72</v>
+      </c>
+      <c r="B75" s="3">
+        <v>20008</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="3">
+        <v>102100</v>
+      </c>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="3"/>
+      <c r="T75" s="3"/>
+      <c r="U75" s="4"/>
+    </row>
+    <row r="76" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>73</v>
+      </c>
+      <c r="B76" s="3">
+        <v>20009</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="3">
+        <v>102200</v>
+      </c>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3">
+        <v>1</v>
+      </c>
+      <c r="M76" s="3">
+        <v>0</v>
+      </c>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3"/>
+      <c r="S76" s="3"/>
+      <c r="T76" s="3"/>
+      <c r="U76" s="4"/>
+    </row>
+    <row r="77" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>74</v>
+      </c>
+      <c r="B77" s="3">
+        <v>20010</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="3">
+        <v>102300</v>
+      </c>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3">
+        <v>1</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
+      <c r="R77" s="3"/>
+      <c r="S77" s="3"/>
+      <c r="T77" s="3"/>
+      <c r="U77" s="4"/>
+    </row>
+    <row r="78" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <v>75</v>
+      </c>
+      <c r="B78" s="3">
+        <v>20011</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="3">
+        <v>102400</v>
+      </c>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M78" s="3">
+        <v>0</v>
+      </c>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3"/>
+      <c r="S78" s="3"/>
+      <c r="T78" s="3"/>
+      <c r="U78" s="4"/>
+    </row>
+    <row r="79" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>76</v>
+      </c>
+      <c r="B79" s="3">
+        <v>20012</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="3">
+        <v>102500</v>
+      </c>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M79" s="3">
+        <v>0</v>
+      </c>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3"/>
+      <c r="R79" s="3"/>
+      <c r="S79" s="3"/>
+      <c r="T79" s="3"/>
+      <c r="U79" s="4"/>
+    </row>
+    <row r="80" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
+        <v>77</v>
+      </c>
+      <c r="B80" s="3">
+        <v>20013</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="3">
+        <v>102600</v>
+      </c>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3">
+        <v>2</v>
+      </c>
+      <c r="M80" s="3">
+        <v>0</v>
+      </c>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="3"/>
+      <c r="S80" s="3"/>
+      <c r="T80" s="3"/>
+      <c r="U80" s="4"/>
+    </row>
+    <row r="81" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
+        <v>78</v>
+      </c>
+      <c r="B81" s="3">
+        <v>20014</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="3">
+        <v>102700</v>
+      </c>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="3"/>
+      <c r="S81" s="3"/>
+      <c r="T81" s="3"/>
+      <c r="U81" s="4"/>
+    </row>
+    <row r="82" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>79</v>
+      </c>
+      <c r="B82" s="3">
+        <v>50001</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F82" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G82" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="H82" s="3">
+        <v>25</v>
+      </c>
+      <c r="I82" s="7">
+        <v>500020</v>
+      </c>
+      <c r="J82" s="3">
+        <v>100</v>
+      </c>
+      <c r="L82" s="3">
+        <v>100</v>
+      </c>
+      <c r="M82" s="3">
+        <v>0</v>
+      </c>
+      <c r="U82" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>80</v>
+      </c>
+      <c r="B83" s="3">
+        <v>50002</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="I83" s="7"/>
+      <c r="J83" s="3">
+        <v>200</v>
+      </c>
+      <c r="K83" s="3">
+        <v>1</v>
+      </c>
+      <c r="L83" s="3">
+        <v>200</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="U83" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>81</v>
+      </c>
+      <c r="B84" s="3">
+        <v>50003</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="I84" s="7"/>
+      <c r="J84" s="3">
+        <v>50</v>
+      </c>
+      <c r="L84" s="3">
+        <v>50</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="9">
+        <v>101</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>1</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="U84" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3"/>
+      <c r="R85" s="3"/>
+      <c r="S85" s="3"/>
+      <c r="T85" s="3"/>
+      <c r="U85" s="4"/>
+    </row>
+    <row r="86" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
+      <c r="R86" s="3"/>
+      <c r="S86" s="3"/>
+      <c r="T86" s="3"/>
+      <c r="U86" s="4"/>
+    </row>
+    <row r="87" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="9"/>
+      <c r="O87" s="3"/>
+      <c r="P87" s="3"/>
+      <c r="Q87" s="3"/>
+      <c r="R87" s="3"/>
+      <c r="S87" s="3"/>
+      <c r="T87" s="3"/>
+      <c r="U87" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4884,10 +5434,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84809B08-AEE0-4B35-956F-542A8D2C0F97}">
-  <dimension ref="A1:O81"/>
+  <dimension ref="A1:O94"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P77" sqref="P77"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O52" sqref="O52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6365,13 +6915,13 @@
         <v>40</v>
       </c>
       <c r="B43" s="3">
-        <v>100100</v>
+        <v>20100</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>141</v>
+        <v>316</v>
       </c>
       <c r="D43" s="3">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="E43" s="3">
         <v>2</v>
@@ -6380,17 +6930,18 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
-      <c r="J43" s="4" t="s">
-        <v>160</v>
+      <c r="J43" s="4" t="str">
+        <f>"petBullet-"&amp;B43</f>
+        <v>petBullet-20100</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="3"/>
+      <c r="M43" s="4"/>
       <c r="N43" s="3">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6398,13 +6949,13 @@
         <v>41</v>
       </c>
       <c r="B44" s="3">
-        <v>100101</v>
+        <v>20200</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>142</v>
+        <v>317</v>
       </c>
       <c r="D44" s="3">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="E44" s="3">
         <v>2</v>
@@ -6413,17 +6964,18 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
-      <c r="J44" s="4" t="s">
-        <v>161</v>
+      <c r="J44" s="4" t="str">
+        <f t="shared" ref="J44:J55" si="0">"petBullet-"&amp;B44</f>
+        <v>petBullet-20200</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="3"/>
+      <c r="M44" s="4"/>
       <c r="N44" s="3">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="O44" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6431,13 +6983,13 @@
         <v>42</v>
       </c>
       <c r="B45" s="3">
-        <v>100102</v>
+        <v>20300</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>143</v>
+        <v>318</v>
       </c>
       <c r="D45" s="3">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="E45" s="3">
         <v>2</v>
@@ -6446,17 +6998,18 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
-      <c r="J45" s="4" t="s">
-        <v>162</v>
+      <c r="J45" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>petBullet-20300</v>
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="3"/>
+      <c r="M45" s="4"/>
       <c r="N45" s="3">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6464,13 +7017,13 @@
         <v>43</v>
       </c>
       <c r="B46" s="3">
-        <v>100103</v>
+        <v>30100</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>144</v>
+        <v>319</v>
       </c>
       <c r="D46" s="3">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="E46" s="3">
         <v>2</v>
@@ -6479,17 +7032,18 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
-      <c r="J46" s="4" t="s">
-        <v>159</v>
+      <c r="J46" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>petBullet-30100</v>
       </c>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="3"/>
+      <c r="M46" s="4"/>
       <c r="N46" s="3">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="O46" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6497,13 +7051,13 @@
         <v>44</v>
       </c>
       <c r="B47" s="3">
-        <v>100104</v>
+        <v>30200</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>145</v>
+        <v>320</v>
       </c>
       <c r="D47" s="3">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="E47" s="3">
         <v>2</v>
@@ -6512,17 +7066,18 @@
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
-      <c r="J47" s="4" t="s">
-        <v>163</v>
+      <c r="J47" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>petBullet-30200</v>
       </c>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="3"/>
+      <c r="M47" s="4"/>
       <c r="N47" s="3">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="O47" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6530,13 +7085,13 @@
         <v>45</v>
       </c>
       <c r="B48" s="3">
-        <v>100105</v>
+        <v>30300</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>146</v>
+        <v>321</v>
       </c>
       <c r="D48" s="3">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="E48" s="3">
         <v>2</v>
@@ -6545,17 +7100,18 @@
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
-      <c r="J48" s="4" t="s">
-        <v>164</v>
+      <c r="J48" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>petBullet-30300</v>
       </c>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
-      <c r="M48" s="3"/>
+      <c r="M48" s="4"/>
       <c r="N48" s="3">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="O48" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6563,13 +7119,13 @@
         <v>46</v>
       </c>
       <c r="B49" s="3">
-        <v>100106</v>
+        <v>40100</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>147</v>
+        <v>322</v>
       </c>
       <c r="D49" s="3">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="E49" s="3">
         <v>2</v>
@@ -6578,17 +7134,18 @@
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
-      <c r="J49" s="4" t="s">
-        <v>165</v>
+      <c r="J49" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>petBullet-40100</v>
       </c>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="3"/>
+      <c r="M49" s="4"/>
       <c r="N49" s="3">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="O49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6596,13 +7153,13 @@
         <v>47</v>
       </c>
       <c r="B50" s="3">
-        <v>100107</v>
+        <v>40200</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>148</v>
+        <v>323</v>
       </c>
       <c r="D50" s="3">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="E50" s="3">
         <v>2</v>
@@ -6611,17 +7168,18 @@
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
-      <c r="J50" s="4" t="s">
-        <v>166</v>
+      <c r="J50" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>petBullet-40200</v>
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
-      <c r="M50" s="3"/>
+      <c r="M50" s="4"/>
       <c r="N50" s="3">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="O50" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6629,13 +7187,13 @@
         <v>48</v>
       </c>
       <c r="B51" s="3">
-        <v>100108</v>
+        <v>40300</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>149</v>
+        <v>324</v>
       </c>
       <c r="D51" s="3">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="E51" s="3">
         <v>2</v>
@@ -6644,17 +7202,18 @@
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
-      <c r="J51" s="4" t="s">
-        <v>167</v>
+      <c r="J51" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>petBullet-40300</v>
       </c>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="3"/>
+      <c r="M51" s="4"/>
       <c r="N51" s="3">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="O51" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6662,13 +7221,13 @@
         <v>49</v>
       </c>
       <c r="B52" s="3">
-        <v>100109</v>
+        <v>50100</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>150</v>
+        <v>325</v>
       </c>
       <c r="D52" s="3">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="E52" s="3">
         <v>2</v>
@@ -6677,17 +7236,18 @@
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
-      <c r="J52" s="4" t="s">
-        <v>168</v>
+      <c r="J52" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>petBullet-50100</v>
       </c>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
-      <c r="M52" s="3"/>
+      <c r="M52" s="4"/>
       <c r="N52" s="3">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="O52" s="3">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6695,13 +7255,13 @@
         <v>50</v>
       </c>
       <c r="B53" s="3">
-        <v>100110</v>
+        <v>50200</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>151</v>
+        <v>326</v>
       </c>
       <c r="D53" s="3">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="E53" s="3">
         <v>2</v>
@@ -6710,17 +7270,18 @@
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
-      <c r="J53" s="4" t="s">
-        <v>169</v>
+      <c r="J53" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>petBullet-50200</v>
       </c>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
-      <c r="M53" s="3"/>
+      <c r="M53" s="4"/>
       <c r="N53" s="3">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="O53" s="3">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6728,13 +7289,13 @@
         <v>51</v>
       </c>
       <c r="B54" s="3">
-        <v>100111</v>
+        <v>50300</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>152</v>
+        <v>327</v>
       </c>
       <c r="D54" s="3">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="E54" s="3">
         <v>2</v>
@@ -6743,17 +7304,18 @@
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
-      <c r="J54" s="4" t="s">
-        <v>170</v>
+      <c r="J54" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>petBullet-50300</v>
       </c>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
-      <c r="M54" s="3"/>
+      <c r="M54" s="4"/>
       <c r="N54" s="3">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="O54" s="3">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6761,13 +7323,13 @@
         <v>52</v>
       </c>
       <c r="B55" s="3">
-        <v>100200</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>219</v>
+        <v>50400</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>328</v>
       </c>
       <c r="D55" s="3">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="E55" s="3">
         <v>2</v>
@@ -6776,21 +7338,18 @@
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
-      <c r="J55" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="K55" s="4">
-        <v>0.85</v>
-      </c>
-      <c r="L55" s="4">
-        <v>0.85</v>
-      </c>
-      <c r="M55" s="3"/>
+      <c r="J55" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>petBullet-50400</v>
+      </c>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
       <c r="N55" s="3">
-        <v>0.22499999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="O55" s="3">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6798,10 +7357,10 @@
         <v>53</v>
       </c>
       <c r="B56" s="3">
-        <v>100300</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>220</v>
+        <v>100100</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="D56" s="3">
         <v>2000</v>
@@ -6814,17 +7373,13 @@
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="K56" s="4">
-        <v>0.85</v>
-      </c>
-      <c r="L56" s="4">
-        <v>0.85</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3">
-        <v>0.30000000000000004</v>
+        <v>1</v>
       </c>
       <c r="O56" s="3">
         <v>0</v>
@@ -6835,10 +7390,10 @@
         <v>54</v>
       </c>
       <c r="B57" s="3">
-        <v>100400</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>221</v>
+        <v>100101</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="D57" s="3">
         <v>2000</v>
@@ -6851,13 +7406,13 @@
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="4" t="s">
-        <v>225</v>
+        <v>161</v>
       </c>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -6868,10 +7423,10 @@
         <v>55</v>
       </c>
       <c r="B58" s="3">
-        <v>100500</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>222</v>
+        <v>100102</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="D58" s="3">
         <v>2000</v>
@@ -6884,13 +7439,13 @@
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="4" t="s">
-        <v>225</v>
+        <v>162</v>
       </c>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
       <c r="M58" s="3"/>
       <c r="N58" s="3">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -6901,13 +7456,13 @@
         <v>56</v>
       </c>
       <c r="B59" s="3">
-        <v>100600</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>223</v>
+        <v>100103</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="D59" s="3">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E59" s="3">
         <v>2</v>
@@ -6917,13 +7472,13 @@
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="4" t="s">
-        <v>226</v>
+        <v>159</v>
       </c>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -6934,13 +7489,13 @@
         <v>57</v>
       </c>
       <c r="B60" s="3">
-        <v>100700</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>224</v>
+        <v>100104</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="D60" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E60" s="3">
         <v>2</v>
@@ -6950,13 +7505,13 @@
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="4" t="s">
-        <v>227</v>
+        <v>163</v>
       </c>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
       <c r="M60" s="3"/>
       <c r="N60" s="3">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O60" s="3">
         <v>0</v>
@@ -6967,10 +7522,10 @@
         <v>58</v>
       </c>
       <c r="B61" s="3">
-        <v>100800</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>263</v>
+        <v>100105</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="D61" s="3">
         <v>2000</v>
@@ -6983,17 +7538,13 @@
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="K61" s="4">
-        <v>0.85</v>
-      </c>
-      <c r="L61" s="4">
-        <v>0.85</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3">
-        <v>0.22499999999999998</v>
+        <v>1</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -7004,10 +7555,10 @@
         <v>59</v>
       </c>
       <c r="B62" s="3">
-        <v>100900</v>
+        <v>100106</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>265</v>
+        <v>147</v>
       </c>
       <c r="D62" s="3">
         <v>2000</v>
@@ -7020,17 +7571,13 @@
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="K62" s="4">
-        <v>0.85</v>
-      </c>
-      <c r="L62" s="4">
-        <v>0.85</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3">
-        <v>0.30000000000000004</v>
+        <v>1</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -7041,10 +7588,10 @@
         <v>60</v>
       </c>
       <c r="B63" s="3">
-        <v>101000</v>
+        <v>100107</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>268</v>
+        <v>148</v>
       </c>
       <c r="D63" s="3">
         <v>2000</v>
@@ -7057,13 +7604,13 @@
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="4" t="s">
-        <v>225</v>
+        <v>166</v>
       </c>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="O63" s="3">
         <v>0</v>
@@ -7074,10 +7621,10 @@
         <v>61</v>
       </c>
       <c r="B64" s="3">
-        <v>101100</v>
+        <v>100108</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>269</v>
+        <v>149</v>
       </c>
       <c r="D64" s="3">
         <v>2000</v>
@@ -7090,13 +7637,13 @@
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="4" t="s">
-        <v>225</v>
+        <v>167</v>
       </c>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="O64" s="3">
         <v>0</v>
@@ -7107,13 +7654,13 @@
         <v>62</v>
       </c>
       <c r="B65" s="3">
-        <v>101200</v>
+        <v>100109</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="D65" s="3">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E65" s="3">
         <v>2</v>
@@ -7123,13 +7670,13 @@
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="4" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="O65" s="3">
         <v>0</v>
@@ -7140,13 +7687,13 @@
         <v>63</v>
       </c>
       <c r="B66" s="3">
-        <v>101300</v>
+        <v>100110</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>271</v>
+        <v>151</v>
       </c>
       <c r="D66" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E66" s="3">
         <v>2</v>
@@ -7156,13 +7703,13 @@
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="4" t="s">
-        <v>226</v>
+        <v>169</v>
       </c>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="O66" s="3">
         <v>0</v>
@@ -7173,10 +7720,10 @@
         <v>64</v>
       </c>
       <c r="B67" s="3">
-        <v>101400</v>
+        <v>100111</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>278</v>
+        <v>152</v>
       </c>
       <c r="D67" s="3">
         <v>2000</v>
@@ -7189,16 +7736,16 @@
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="4" t="s">
-        <v>245</v>
+        <v>170</v>
       </c>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3">
-        <v>0.11799999999999999</v>
+        <v>1</v>
       </c>
       <c r="O67" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7206,10 +7753,10 @@
         <v>65</v>
       </c>
       <c r="B68" s="3">
-        <v>101500</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>279</v>
+        <v>100200</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="D68" s="3">
         <v>2000</v>
@@ -7224,14 +7771,18 @@
       <c r="J68" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
+      <c r="K68" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="L68" s="4">
+        <v>0.85</v>
+      </c>
       <c r="M68" s="3"/>
       <c r="N68" s="3">
-        <v>7.3999999999999996E-2</v>
+        <v>0.22499999999999998</v>
       </c>
       <c r="O68" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7239,10 +7790,10 @@
         <v>66</v>
       </c>
       <c r="B69" s="3">
-        <v>101600</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>280</v>
+        <v>100300</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="D69" s="3">
         <v>2000</v>
@@ -7255,16 +7806,20 @@
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
+        <v>245</v>
+      </c>
+      <c r="K69" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="L69" s="4">
+        <v>0.85</v>
+      </c>
       <c r="M69" s="3"/>
       <c r="N69" s="3">
-        <v>9.8000000000000004E-2</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="O69" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7272,10 +7827,10 @@
         <v>67</v>
       </c>
       <c r="B70" s="3">
-        <v>101700</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>281</v>
+        <v>100400</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="D70" s="3">
         <v>2000</v>
@@ -7288,16 +7843,16 @@
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
       <c r="M70" s="3"/>
       <c r="N70" s="3">
-        <v>0.29499999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="O70" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7305,10 +7860,10 @@
         <v>68</v>
       </c>
       <c r="B71" s="3">
-        <v>101800</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>282</v>
+        <v>100500</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>222</v>
       </c>
       <c r="D71" s="3">
         <v>2000</v>
@@ -7321,16 +7876,16 @@
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
       <c r="M71" s="3"/>
       <c r="N71" s="3">
-        <v>0.98399999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="O71" s="3">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7338,13 +7893,13 @@
         <v>69</v>
       </c>
       <c r="B72" s="3">
-        <v>101900</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>294</v>
+        <v>100600</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="D72" s="3">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="E72" s="3">
         <v>2</v>
@@ -7354,16 +7909,16 @@
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="4" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
       <c r="M72" s="3"/>
       <c r="N72" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="O72" s="4">
-        <v>1</v>
+        <v>0.6</v>
+      </c>
+      <c r="O72" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7371,13 +7926,13 @@
         <v>70</v>
       </c>
       <c r="B73" s="3">
-        <v>102000</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>295</v>
+        <v>100700</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="D73" s="3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E73" s="3">
         <v>2</v>
@@ -7387,16 +7942,16 @@
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="4" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
       <c r="M73" s="3"/>
       <c r="N73" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="O73" s="4">
-        <v>1</v>
+        <v>0.8</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7404,10 +7959,10 @@
         <v>71</v>
       </c>
       <c r="B74" s="3">
-        <v>102100</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>296</v>
+        <v>100800</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>263</v>
       </c>
       <c r="D74" s="3">
         <v>2000</v>
@@ -7422,14 +7977,18 @@
       <c r="J74" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
+      <c r="K74" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="L74" s="4">
+        <v>0.85</v>
+      </c>
       <c r="M74" s="3"/>
       <c r="N74" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="O74" s="4">
-        <v>1</v>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7437,10 +7996,10 @@
         <v>72</v>
       </c>
       <c r="B75" s="3">
-        <v>102200</v>
+        <v>100900</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="D75" s="3">
         <v>2000</v>
@@ -7453,16 +8012,20 @@
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
+        <v>245</v>
+      </c>
+      <c r="K75" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="L75" s="4">
+        <v>0.85</v>
+      </c>
       <c r="M75" s="3"/>
       <c r="N75" s="3">
-        <v>0.214</v>
-      </c>
-      <c r="O75" s="4">
-        <v>1</v>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7470,10 +8033,10 @@
         <v>73</v>
       </c>
       <c r="B76" s="3">
-        <v>102300</v>
+        <v>101000</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="D76" s="3">
         <v>2000</v>
@@ -7492,10 +8055,10 @@
       <c r="L76" s="4"/>
       <c r="M76" s="3"/>
       <c r="N76" s="3">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="O76" s="4">
-        <v>1</v>
+        <v>0.35</v>
+      </c>
+      <c r="O76" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7503,10 +8066,10 @@
         <v>74</v>
       </c>
       <c r="B77" s="3">
-        <v>102400</v>
+        <v>101100</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="D77" s="3">
         <v>2000</v>
@@ -7519,16 +8082,16 @@
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
       <c r="J77" s="4" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
       <c r="M77" s="3"/>
       <c r="N77" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="O77" s="4">
-        <v>1</v>
+        <v>0.4</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7536,13 +8099,13 @@
         <v>75</v>
       </c>
       <c r="B78" s="3">
-        <v>102500</v>
+        <v>101200</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="D78" s="3">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="E78" s="3">
         <v>2</v>
@@ -7552,16 +8115,16 @@
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="J78" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
       <c r="M78" s="3"/>
       <c r="N78" s="3">
-        <v>0.40100000000000002</v>
-      </c>
-      <c r="O78" s="4">
-        <v>1</v>
+        <v>0.7</v>
+      </c>
+      <c r="O78" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7569,13 +8132,13 @@
         <v>76</v>
       </c>
       <c r="B79" s="3">
-        <v>102600</v>
+        <v>101300</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="D79" s="3">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="E79" s="3">
         <v>2</v>
@@ -7591,10 +8154,10 @@
       <c r="L79" s="4"/>
       <c r="M79" s="3"/>
       <c r="N79" s="3">
-        <v>1.3660000000000001</v>
-      </c>
-      <c r="O79" s="4">
-        <v>1</v>
+        <v>0.85</v>
+      </c>
+      <c r="O79" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7602,13 +8165,13 @@
         <v>77</v>
       </c>
       <c r="B80" s="3">
-        <v>102700</v>
+        <v>101400</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="D80" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E80" s="3">
         <v>2</v>
@@ -7618,15 +8181,15 @@
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="4" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
       <c r="M80" s="3"/>
       <c r="N80" s="3">
-        <v>6</v>
-      </c>
-      <c r="O80" s="4">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="O80" s="3">
         <v>1</v>
       </c>
     </row>
@@ -7635,10 +8198,10 @@
         <v>78</v>
       </c>
       <c r="B81" s="3">
-        <v>500020</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>248</v>
+        <v>101500</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="D81" s="3">
         <v>2000</v>
@@ -7651,15 +8214,444 @@
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="4" t="s">
-        <v>191</v>
+        <v>245</v>
       </c>
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
-      <c r="M81" s="4"/>
+      <c r="M81" s="3"/>
       <c r="N81" s="3">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="O81" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>79</v>
+      </c>
+      <c r="B82" s="3">
+        <v>101600</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D82" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E82" s="3">
+        <v>2</v>
+      </c>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="O82" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>80</v>
+      </c>
+      <c r="B83" s="3">
+        <v>101700</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>2</v>
+      </c>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="O83" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>81</v>
+      </c>
+      <c r="B84" s="3">
+        <v>101800</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D84" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E84" s="3">
+        <v>2</v>
+      </c>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="O84" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>82</v>
+      </c>
+      <c r="B85" s="3">
+        <v>101900</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="D85" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E85" s="3">
+        <v>2</v>
+      </c>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="O85" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>83</v>
+      </c>
+      <c r="B86" s="3">
+        <v>102000</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D86" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E86" s="3">
+        <v>2</v>
+      </c>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="O86" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <v>84</v>
+      </c>
+      <c r="B87" s="3">
+        <v>102100</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="D87" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E87" s="3">
+        <v>2</v>
+      </c>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="O87" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <v>85</v>
+      </c>
+      <c r="B88" s="3">
+        <v>102200</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D88" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E88" s="3">
+        <v>2</v>
+      </c>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3">
+        <v>0.214</v>
+      </c>
+      <c r="O88" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
+        <v>86</v>
+      </c>
+      <c r="B89" s="3">
+        <v>102300</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D89" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>2</v>
+      </c>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="3">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="O89" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>87</v>
+      </c>
+      <c r="B90" s="3">
+        <v>102400</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D90" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E90" s="3">
+        <v>2</v>
+      </c>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="O90" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>88</v>
+      </c>
+      <c r="B91" s="3">
+        <v>102500</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="D91" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>2</v>
+      </c>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="3">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="O91" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>89</v>
+      </c>
+      <c r="B92" s="3">
+        <v>102600</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D92" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E92" s="3">
+        <v>2</v>
+      </c>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3">
+        <v>1.3660000000000001</v>
+      </c>
+      <c r="O92" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>90</v>
+      </c>
+      <c r="B93" s="3">
+        <v>102700</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D93" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E93" s="3">
+        <v>2</v>
+      </c>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="3"/>
+      <c r="N93" s="3">
+        <v>6</v>
+      </c>
+      <c r="O93" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>91</v>
+      </c>
+      <c r="B94" s="3">
+        <v>500020</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D94" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>2</v>
+      </c>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="3">
         <v>0.35</v>
       </c>
-      <c r="O81" s="3">
+      <c r="O94" s="3">
         <v>8</v>
       </c>
     </row>

--- a/Excel/skill.技能.xlsx
+++ b/Excel/skill.技能.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F16842-BDA8-4E59-AF1C-50FF5E933206}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E006C3-6F44-4C12-BD9C-5907CA78625F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -280,7 +280,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="340">
   <si>
     <t>sheet名</t>
   </si>
@@ -1537,6 +1537,49 @@
   </si>
   <si>
     <t>战宠红4普攻子弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>petBullet-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>petBullet-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>petBullet-3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>petBullet-6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>petBullet-4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>petBullet-5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>petBullet-9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>petBullet-7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>petBullet-8</t>
+  </si>
+  <si>
+    <t>petBullet-10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainBullet-12</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5436,8 +5479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84809B08-AEE0-4B35-956F-542A8D2C0F97}">
   <dimension ref="A1:O94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O52" sqref="O52"/>
+    <sheetView tabSelected="1" topLeftCell="B78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M99" sqref="M99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6930,9 +6973,8 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
-      <c r="J43" s="4" t="str">
-        <f>"petBullet-"&amp;B43</f>
-        <v>petBullet-20100</v>
+      <c r="J43" s="4" t="s">
+        <v>329</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
@@ -6964,9 +7006,8 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
-      <c r="J44" s="4" t="str">
-        <f t="shared" ref="J44:J55" si="0">"petBullet-"&amp;B44</f>
-        <v>petBullet-20200</v>
+      <c r="J44" s="4" t="s">
+        <v>329</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
@@ -6998,15 +7039,14 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
-      <c r="J45" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>petBullet-20300</v>
+      <c r="J45" s="4" t="s">
+        <v>330</v>
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
       <c r="N45" s="3">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="O45" s="3">
         <v>10</v>
@@ -7032,15 +7072,14 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
-      <c r="J46" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>petBullet-30100</v>
+      <c r="J46" s="4" t="s">
+        <v>331</v>
       </c>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
       <c r="N46" s="3">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="O46" s="3">
         <v>50</v>
@@ -7066,9 +7105,8 @@
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
-      <c r="J47" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>petBullet-30200</v>
+      <c r="J47" s="4" t="s">
+        <v>330</v>
       </c>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
@@ -7100,9 +7138,8 @@
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
-      <c r="J48" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>petBullet-30300</v>
+      <c r="J48" s="4" t="s">
+        <v>330</v>
       </c>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
@@ -7134,15 +7171,14 @@
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
-      <c r="J49" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>petBullet-40100</v>
+      <c r="J49" s="4" t="s">
+        <v>332</v>
       </c>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="3">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="O49" s="3">
         <v>100</v>
@@ -7168,9 +7204,8 @@
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
-      <c r="J50" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>petBullet-40200</v>
+      <c r="J50" s="4" t="s">
+        <v>333</v>
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
@@ -7202,9 +7237,8 @@
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
-      <c r="J51" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>petBullet-40300</v>
+      <c r="J51" s="4" t="s">
+        <v>334</v>
       </c>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
@@ -7236,15 +7270,14 @@
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
-      <c r="J52" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>petBullet-50100</v>
+      <c r="J52" s="4" t="s">
+        <v>335</v>
       </c>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
       <c r="N52" s="3">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="O52" s="3">
         <v>250</v>
@@ -7270,9 +7303,8 @@
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
-      <c r="J53" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>petBullet-50200</v>
+      <c r="J53" s="4" t="s">
+        <v>336</v>
       </c>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
@@ -7304,9 +7336,8 @@
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
-      <c r="J54" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>petBullet-50300</v>
+      <c r="J54" s="4" t="s">
+        <v>337</v>
       </c>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
@@ -7338,15 +7369,14 @@
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
-      <c r="J55" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>petBullet-50400</v>
+      <c r="J55" s="4" t="s">
+        <v>338</v>
       </c>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
       <c r="N55" s="3">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="O55" s="3">
         <v>250</v>
@@ -8643,7 +8673,7 @@
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
       <c r="J94" s="4" t="s">
-        <v>191</v>
+        <v>339</v>
       </c>
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>

--- a/Excel/skill.技能.xlsx
+++ b/Excel/skill.技能.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E006C3-6F44-4C12-BD9C-5907CA78625F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2E635F-605C-4E24-B15E-311DFBA71F9A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -280,7 +280,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="343">
   <si>
     <t>sheet名</t>
   </si>
@@ -1540,47 +1540,47 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>petBullet-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>petBullet-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>petBullet-3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>petBullet-6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>petBullet-4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>petBullet-5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>petBullet-9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>petBullet-7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>petBullet-8</t>
-  </si>
-  <si>
-    <t>petBullet-10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>MainBullet-12</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>petBullet-201</t>
+  </si>
+  <si>
+    <t>petBullet-202</t>
+  </si>
+  <si>
+    <t>petBullet-203</t>
+  </si>
+  <si>
+    <t>petBullet-301</t>
+  </si>
+  <si>
+    <t>petBullet-302</t>
+  </si>
+  <si>
+    <t>petBullet-303</t>
+  </si>
+  <si>
+    <t>petBullet-401</t>
+  </si>
+  <si>
+    <t>petBullet-402</t>
+  </si>
+  <si>
+    <t>petBullet-403</t>
+  </si>
+  <si>
+    <t>petBullet-501</t>
+  </si>
+  <si>
+    <t>petBullet-502</t>
+  </si>
+  <si>
+    <t>petBullet-503</t>
+  </si>
+  <si>
+    <t>petBullet-504</t>
   </si>
 </sst>
 </file>
@@ -2271,9 +2271,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE1484E-E599-4101-955C-A99AA9634D79}">
   <dimension ref="A1:U87"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M52" sqref="M52"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I88" sqref="I88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5479,8 +5479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84809B08-AEE0-4B35-956F-542A8D2C0F97}">
   <dimension ref="A1:O94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M99" sqref="M99"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43:J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6974,7 +6974,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
@@ -7007,7 +7007,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
@@ -7040,7 +7040,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
@@ -7073,7 +7073,7 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="4" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
@@ -7106,7 +7106,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="4" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
@@ -7139,7 +7139,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="4" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
@@ -7172,7 +7172,7 @@
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="4" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
@@ -7205,7 +7205,7 @@
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="4" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
@@ -7238,7 +7238,7 @@
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="4" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
@@ -7271,7 +7271,7 @@
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="4" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
@@ -7304,7 +7304,7 @@
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="4" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
@@ -7337,7 +7337,7 @@
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="4" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
@@ -7370,7 +7370,7 @@
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="4" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
@@ -8673,7 +8673,7 @@
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
       <c r="J94" s="4" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>

--- a/Excel/skill.技能.xlsx
+++ b/Excel/skill.技能.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2E635F-605C-4E24-B15E-311DFBA71F9A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7273211-566B-4F39-A469-C1FABAEF3266}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -280,7 +280,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="349">
   <si>
     <t>sheet名</t>
   </si>
@@ -1581,6 +1581,30 @@
   </si>
   <si>
     <t>petBullet-504</t>
+  </si>
+  <si>
+    <t>绿蜂普攻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金蝶普攻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿蜂普攻子弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金蝶普攻子弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>JinDieBullet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LvFengBullet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2269,11 +2293,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE1484E-E599-4101-955C-A99AA9634D79}">
-  <dimension ref="A1:U87"/>
+  <dimension ref="A1:U89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I88" sqref="I88"/>
+      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3938,23 +3962,23 @@
         <v>40</v>
       </c>
       <c r="B43" s="9">
-        <v>2010</v>
+        <v>1401</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>303</v>
+        <v>343</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
-      <c r="I43" s="12">
-        <v>20100</v>
+      <c r="I43" s="9">
+        <v>14010</v>
       </c>
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
       <c r="L43" s="9">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="M43" s="9">
         <v>0</v>
@@ -3973,23 +3997,23 @@
         <v>41</v>
       </c>
       <c r="B44" s="9">
-        <v>2020</v>
+        <v>1402</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>304</v>
+        <v>344</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
-      <c r="I44" s="12">
-        <v>20200</v>
+      <c r="I44" s="9">
+        <v>14020</v>
       </c>
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
       <c r="L44" s="9">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="M44" s="9">
         <v>0</v>
@@ -4008,10 +4032,10 @@
         <v>42</v>
       </c>
       <c r="B45" s="9">
-        <v>2030</v>
+        <v>2010</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
@@ -4019,7 +4043,7 @@
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
       <c r="I45" s="12">
-        <v>20300</v>
+        <v>20100</v>
       </c>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
@@ -4043,10 +4067,10 @@
         <v>43</v>
       </c>
       <c r="B46" s="9">
-        <v>3010</v>
+        <v>2020</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
@@ -4054,7 +4078,7 @@
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
       <c r="I46" s="12">
-        <v>30100</v>
+        <v>20200</v>
       </c>
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
@@ -4078,10 +4102,10 @@
         <v>44</v>
       </c>
       <c r="B47" s="9">
-        <v>3020</v>
+        <v>2030</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
@@ -4089,7 +4113,7 @@
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
       <c r="I47" s="12">
-        <v>30200</v>
+        <v>20300</v>
       </c>
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
@@ -4113,10 +4137,10 @@
         <v>45</v>
       </c>
       <c r="B48" s="9">
-        <v>3030</v>
+        <v>3010</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
@@ -4124,7 +4148,7 @@
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
       <c r="I48" s="12">
-        <v>30300</v>
+        <v>30100</v>
       </c>
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
@@ -4148,10 +4172,10 @@
         <v>46</v>
       </c>
       <c r="B49" s="9">
-        <v>4010</v>
+        <v>3020</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
@@ -4159,7 +4183,7 @@
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
       <c r="I49" s="12">
-        <v>40100</v>
+        <v>30200</v>
       </c>
       <c r="J49" s="11"/>
       <c r="K49" s="11"/>
@@ -4183,10 +4207,10 @@
         <v>47</v>
       </c>
       <c r="B50" s="9">
-        <v>4020</v>
+        <v>3030</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
@@ -4194,7 +4218,7 @@
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
       <c r="I50" s="12">
-        <v>40200</v>
+        <v>30300</v>
       </c>
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
@@ -4218,10 +4242,10 @@
         <v>48</v>
       </c>
       <c r="B51" s="9">
-        <v>4030</v>
+        <v>4010</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
@@ -4229,7 +4253,7 @@
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
       <c r="I51" s="12">
-        <v>40300</v>
+        <v>40100</v>
       </c>
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
@@ -4253,10 +4277,10 @@
         <v>49</v>
       </c>
       <c r="B52" s="9">
-        <v>5010</v>
+        <v>4020</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
@@ -4264,7 +4288,7 @@
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
       <c r="I52" s="12">
-        <v>50100</v>
+        <v>40200</v>
       </c>
       <c r="J52" s="11"/>
       <c r="K52" s="11"/>
@@ -4288,10 +4312,10 @@
         <v>50</v>
       </c>
       <c r="B53" s="9">
-        <v>5020</v>
+        <v>4030</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
@@ -4299,7 +4323,7 @@
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
       <c r="I53" s="12">
-        <v>50200</v>
+        <v>40300</v>
       </c>
       <c r="J53" s="11"/>
       <c r="K53" s="11"/>
@@ -4323,10 +4347,10 @@
         <v>51</v>
       </c>
       <c r="B54" s="9">
-        <v>5030</v>
+        <v>5010</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
@@ -4334,7 +4358,7 @@
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
       <c r="I54" s="12">
-        <v>50300</v>
+        <v>50100</v>
       </c>
       <c r="J54" s="11"/>
       <c r="K54" s="11"/>
@@ -4358,10 +4382,10 @@
         <v>52</v>
       </c>
       <c r="B55" s="9">
-        <v>5040</v>
+        <v>5020</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
@@ -4369,7 +4393,7 @@
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
       <c r="I55" s="12">
-        <v>50400</v>
+        <v>50200</v>
       </c>
       <c r="J55" s="11"/>
       <c r="K55" s="11"/>
@@ -4392,81 +4416,81 @@
       <c r="A56" s="3">
         <v>53</v>
       </c>
-      <c r="B56" s="3">
-        <v>10001</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="3">
-        <v>100200</v>
-      </c>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="M56" s="3">
-        <v>0</v>
-      </c>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
-      <c r="U56" s="4"/>
+      <c r="B56" s="9">
+        <v>5030</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="12">
+        <v>50300</v>
+      </c>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="M56" s="9">
+        <v>0</v>
+      </c>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="9"/>
+      <c r="U56" s="10"/>
     </row>
     <row r="57" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>54</v>
       </c>
-      <c r="B57" s="3">
-        <v>10002</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="3">
-        <v>100300</v>
-      </c>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
-      <c r="R57" s="3"/>
-      <c r="S57" s="3"/>
-      <c r="T57" s="3"/>
-      <c r="U57" s="4"/>
+      <c r="B57" s="9">
+        <v>5040</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="12">
+        <v>50400</v>
+      </c>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="M57" s="9">
+        <v>0</v>
+      </c>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="9"/>
+      <c r="U57" s="10"/>
     </row>
     <row r="58" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>55</v>
       </c>
       <c r="B58" s="3">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>264</v>
+        <v>153</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -4474,7 +4498,7 @@
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="3">
-        <v>100800</v>
+        <v>100200</v>
       </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
@@ -4498,10 +4522,10 @@
         <v>56</v>
       </c>
       <c r="B59" s="3">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>265</v>
+        <v>154</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -4509,7 +4533,7 @@
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="3">
-        <v>100900</v>
+        <v>100300</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
@@ -4533,10 +4557,10 @@
         <v>57</v>
       </c>
       <c r="B60" s="3">
-        <v>11001</v>
+        <v>10003</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>216</v>
+        <v>264</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -4544,12 +4568,12 @@
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="3">
-        <v>100400</v>
+        <v>100800</v>
       </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="M60" s="3">
         <v>0</v>
@@ -4568,10 +4592,10 @@
         <v>58</v>
       </c>
       <c r="B61" s="3">
-        <v>11002</v>
+        <v>10004</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>217</v>
+        <v>265</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -4579,12 +4603,12 @@
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="3">
-        <v>100500</v>
+        <v>100900</v>
       </c>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -4603,10 +4627,10 @@
         <v>59</v>
       </c>
       <c r="B62" s="3">
-        <v>11003</v>
+        <v>11001</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>266</v>
+        <v>216</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -4614,7 +4638,7 @@
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="3">
-        <v>101000</v>
+        <v>100400</v>
       </c>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
@@ -4638,10 +4662,10 @@
         <v>60</v>
       </c>
       <c r="B63" s="3">
-        <v>11004</v>
+        <v>11002</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>267</v>
+        <v>217</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -4649,7 +4673,7 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="3">
-        <v>101100</v>
+        <v>100500</v>
       </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
@@ -4673,10 +4697,10 @@
         <v>61</v>
       </c>
       <c r="B64" s="3">
-        <v>12001</v>
+        <v>11003</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>218</v>
+        <v>266</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -4684,12 +4708,12 @@
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
       <c r="I64" s="3">
-        <v>100600</v>
+        <v>101000</v>
       </c>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M64" s="3">
         <v>0</v>
@@ -4708,10 +4732,10 @@
         <v>62</v>
       </c>
       <c r="B65" s="3">
-        <v>12002</v>
+        <v>11004</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -4719,12 +4743,12 @@
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="3">
-        <v>101200</v>
+        <v>101100</v>
       </c>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M65" s="3">
         <v>0</v>
@@ -4743,10 +4767,10 @@
         <v>63</v>
       </c>
       <c r="B66" s="3">
-        <v>13001</v>
+        <v>12001</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>155</v>
+        <v>218</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -4754,7 +4778,7 @@
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" s="3">
-        <v>100700</v>
+        <v>100600</v>
       </c>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
@@ -4771,19 +4795,17 @@
       <c r="R66" s="3"/>
       <c r="S66" s="3"/>
       <c r="T66" s="3"/>
-      <c r="U66" s="4" t="s">
-        <v>156</v>
-      </c>
+      <c r="U66" s="4"/>
     </row>
     <row r="67" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>64</v>
       </c>
       <c r="B67" s="3">
-        <v>13002</v>
+        <v>12002</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -4791,7 +4813,7 @@
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="3">
-        <v>101300</v>
+        <v>101200</v>
       </c>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
@@ -4815,10 +4837,10 @@
         <v>65</v>
       </c>
       <c r="B68" s="3">
-        <v>20001</v>
+        <v>13001</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>274</v>
+        <v>155</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -4826,12 +4848,12 @@
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
       <c r="I68" s="3">
-        <v>101400</v>
+        <v>100700</v>
       </c>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="M68" s="3">
         <v>0</v>
@@ -4843,17 +4865,19 @@
       <c r="R68" s="3"/>
       <c r="S68" s="3"/>
       <c r="T68" s="3"/>
-      <c r="U68" s="4"/>
+      <c r="U68" s="4" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="69" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>66</v>
       </c>
       <c r="B69" s="3">
-        <v>20002</v>
+        <v>13002</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -4861,12 +4885,12 @@
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="I69" s="3">
-        <v>101500</v>
+        <v>101300</v>
       </c>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="M69" s="3">
         <v>0</v>
@@ -4885,10 +4909,10 @@
         <v>67</v>
       </c>
       <c r="B70" s="3">
-        <v>20003</v>
+        <v>20001</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -4896,12 +4920,12 @@
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="I70" s="3">
-        <v>101600</v>
+        <v>101400</v>
       </c>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
@@ -4920,10 +4944,10 @@
         <v>68</v>
       </c>
       <c r="B71" s="3">
-        <v>20004</v>
+        <v>20002</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -4931,7 +4955,7 @@
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="3">
-        <v>101700</v>
+        <v>101500</v>
       </c>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
@@ -4955,10 +4979,10 @@
         <v>69</v>
       </c>
       <c r="B72" s="3">
-        <v>20005</v>
+        <v>20003</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -4966,12 +4990,12 @@
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="I72" s="3">
-        <v>101800</v>
+        <v>101600</v>
       </c>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M72" s="3">
         <v>0</v>
@@ -4990,10 +5014,10 @@
         <v>70</v>
       </c>
       <c r="B73" s="3">
-        <v>20006</v>
+        <v>20004</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -5001,7 +5025,7 @@
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="I73" s="3">
-        <v>101900</v>
+        <v>101700</v>
       </c>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
@@ -5025,10 +5049,10 @@
         <v>71</v>
       </c>
       <c r="B74" s="3">
-        <v>20007</v>
+        <v>20005</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -5036,12 +5060,12 @@
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="I74" s="3">
-        <v>102000</v>
+        <v>101800</v>
       </c>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="M74" s="3">
         <v>0</v>
@@ -5060,10 +5084,10 @@
         <v>72</v>
       </c>
       <c r="B75" s="3">
-        <v>20008</v>
+        <v>20006</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -5071,7 +5095,7 @@
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="3">
-        <v>102100</v>
+        <v>101900</v>
       </c>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
@@ -5095,10 +5119,10 @@
         <v>73</v>
       </c>
       <c r="B76" s="3">
-        <v>20009</v>
+        <v>20007</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -5106,12 +5130,12 @@
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
       <c r="I76" s="3">
-        <v>102200</v>
+        <v>102000</v>
       </c>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="M76" s="3">
         <v>0</v>
@@ -5130,10 +5154,10 @@
         <v>74</v>
       </c>
       <c r="B77" s="3">
-        <v>20010</v>
+        <v>20008</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -5141,12 +5165,12 @@
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
       <c r="I77" s="3">
-        <v>102300</v>
+        <v>102100</v>
       </c>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="M77" s="3">
         <v>0</v>
@@ -5165,10 +5189,10 @@
         <v>75</v>
       </c>
       <c r="B78" s="3">
-        <v>20011</v>
+        <v>20009</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -5176,12 +5200,12 @@
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
       <c r="I78" s="3">
-        <v>102400</v>
+        <v>102200</v>
       </c>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="M78" s="3">
         <v>0</v>
@@ -5200,10 +5224,10 @@
         <v>76</v>
       </c>
       <c r="B79" s="3">
-        <v>20012</v>
+        <v>20010</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -5211,12 +5235,12 @@
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
       <c r="I79" s="3">
-        <v>102500</v>
+        <v>102300</v>
       </c>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
       <c r="L79" s="3">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="M79" s="3">
         <v>0</v>
@@ -5235,10 +5259,10 @@
         <v>77</v>
       </c>
       <c r="B80" s="3">
-        <v>20013</v>
+        <v>20011</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -5246,12 +5270,12 @@
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
       <c r="I80" s="3">
-        <v>102600</v>
+        <v>102400</v>
       </c>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="M80" s="3">
         <v>0</v>
@@ -5270,10 +5294,10 @@
         <v>78</v>
       </c>
       <c r="B81" s="3">
-        <v>20014</v>
+        <v>20012</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -5281,12 +5305,12 @@
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
       <c r="I81" s="3">
-        <v>102700</v>
+        <v>102500</v>
       </c>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="M81" s="3">
         <v>0</v>
@@ -5300,149 +5324,173 @@
       <c r="T81" s="3"/>
       <c r="U81" s="4"/>
     </row>
-    <row r="82" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>79</v>
       </c>
       <c r="B82" s="3">
-        <v>50001</v>
+        <v>20013</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="F82" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G82" s="3">
-        <v>0.125</v>
-      </c>
-      <c r="H82" s="3">
-        <v>25</v>
-      </c>
-      <c r="I82" s="7">
-        <v>500020</v>
-      </c>
-      <c r="J82" s="3">
-        <v>100</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="3">
+        <v>102600</v>
+      </c>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
       <c r="L82" s="3">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="M82" s="3">
         <v>0</v>
       </c>
-      <c r="U82" s="4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="4"/>
+    </row>
+    <row r="83" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>80</v>
       </c>
       <c r="B83" s="3">
-        <v>50002</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="I83" s="7"/>
-      <c r="J83" s="3">
-        <v>200</v>
-      </c>
-      <c r="K83" s="3">
-        <v>1</v>
-      </c>
+        <v>20014</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="3">
+        <v>102700</v>
+      </c>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
       <c r="L83" s="3">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="U83" s="4" t="s">
-        <v>259</v>
-      </c>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3"/>
+      <c r="S83" s="3"/>
+      <c r="T83" s="3"/>
+      <c r="U83" s="4"/>
     </row>
     <row r="84" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>81</v>
       </c>
       <c r="B84" s="3">
+        <v>50001</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F84" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G84" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="H84" s="3">
+        <v>25</v>
+      </c>
+      <c r="I84" s="7">
+        <v>500020</v>
+      </c>
+      <c r="J84" s="3">
+        <v>100</v>
+      </c>
+      <c r="L84" s="3">
+        <v>100</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>82</v>
+      </c>
+      <c r="B85" s="3">
+        <v>50002</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="I85" s="7"/>
+      <c r="J85" s="3">
+        <v>200</v>
+      </c>
+      <c r="K85" s="3">
+        <v>1</v>
+      </c>
+      <c r="L85" s="3">
+        <v>200</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="U85" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>83</v>
+      </c>
+      <c r="B86" s="3">
         <v>50003</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C86" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="I84" s="7"/>
-      <c r="J84" s="3">
+      <c r="I86" s="7"/>
+      <c r="J86" s="3">
         <v>50</v>
       </c>
-      <c r="L84" s="3">
+      <c r="L86" s="3">
         <v>50</v>
       </c>
-      <c r="M84" s="3">
-        <v>0</v>
-      </c>
-      <c r="N84" s="9">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="9">
         <v>101</v>
       </c>
-      <c r="Q84" s="3">
+      <c r="Q86" s="3">
         <v>1</v>
       </c>
-      <c r="R84" s="3">
+      <c r="R86" s="3">
         <v>0.3</v>
       </c>
-      <c r="U84" s="4" t="s">
+      <c r="U86" s="4" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="85" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="8"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
-      <c r="L85" s="3"/>
-      <c r="M85" s="3"/>
-      <c r="N85" s="3"/>
-      <c r="O85" s="3"/>
-      <c r="P85" s="3"/>
-      <c r="Q85" s="3"/>
-      <c r="R85" s="3"/>
-      <c r="S85" s="3"/>
-      <c r="T85" s="3"/>
-      <c r="U85" s="4"/>
-    </row>
-    <row r="86" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="8"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
-      <c r="M86" s="3"/>
-      <c r="N86" s="3"/>
-      <c r="O86" s="3"/>
-      <c r="P86" s="3"/>
-      <c r="Q86" s="3"/>
-      <c r="R86" s="3"/>
-      <c r="S86" s="3"/>
-      <c r="T86" s="3"/>
-      <c r="U86" s="4"/>
     </row>
     <row r="87" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
@@ -5458,7 +5506,7 @@
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
-      <c r="N87" s="9"/>
+      <c r="N87" s="3"/>
       <c r="O87" s="3"/>
       <c r="P87" s="3"/>
       <c r="Q87" s="3"/>
@@ -5466,6 +5514,52 @@
       <c r="S87" s="3"/>
       <c r="T87" s="3"/>
       <c r="U87" s="4"/>
+    </row>
+    <row r="88" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="3"/>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3"/>
+      <c r="R88" s="3"/>
+      <c r="S88" s="3"/>
+      <c r="T88" s="3"/>
+      <c r="U88" s="4"/>
+    </row>
+    <row r="89" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="9"/>
+      <c r="O89" s="3"/>
+      <c r="P89" s="3"/>
+      <c r="Q89" s="3"/>
+      <c r="R89" s="3"/>
+      <c r="S89" s="3"/>
+      <c r="T89" s="3"/>
+      <c r="U89" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -5477,10 +5571,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84809B08-AEE0-4B35-956F-542A8D2C0F97}">
-  <dimension ref="A1:O94"/>
+  <dimension ref="A1:O96"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43:J55"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6957,14 +7051,14 @@
       <c r="A43" s="3">
         <v>40</v>
       </c>
-      <c r="B43" s="3">
-        <v>20100</v>
+      <c r="B43" s="9">
+        <v>14010</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>316</v>
+        <v>345</v>
       </c>
       <c r="D43" s="3">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E43" s="3">
         <v>2</v>
@@ -6974,30 +7068,30 @@
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="4" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="3">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="O43" s="3">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>41</v>
       </c>
-      <c r="B44" s="3">
-        <v>20200</v>
+      <c r="B44" s="9">
+        <v>14020</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>317</v>
+        <v>346</v>
       </c>
       <c r="D44" s="3">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E44" s="3">
         <v>2</v>
@@ -7007,16 +7101,16 @@
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="4" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
       <c r="N44" s="3">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="O44" s="3">
-        <v>10</v>
+        <v>250</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7024,10 +7118,10 @@
         <v>42</v>
       </c>
       <c r="B45" s="3">
-        <v>20300</v>
+        <v>20100</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D45" s="3">
         <v>1500</v>
@@ -7040,13 +7134,13 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
       <c r="N45" s="3">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="O45" s="3">
         <v>10</v>
@@ -7057,10 +7151,10 @@
         <v>43</v>
       </c>
       <c r="B46" s="3">
-        <v>30100</v>
+        <v>20200</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D46" s="3">
         <v>1500</v>
@@ -7073,16 +7167,16 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
       <c r="N46" s="3">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="O46" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7090,10 +7184,10 @@
         <v>44</v>
       </c>
       <c r="B47" s="3">
-        <v>30200</v>
+        <v>20300</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D47" s="3">
         <v>1500</v>
@@ -7106,7 +7200,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
@@ -7115,7 +7209,7 @@
         <v>0.2</v>
       </c>
       <c r="O47" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7123,10 +7217,10 @@
         <v>45</v>
       </c>
       <c r="B48" s="3">
-        <v>30300</v>
+        <v>30100</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D48" s="3">
         <v>1500</v>
@@ -7139,13 +7233,13 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="3">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="O48" s="3">
         <v>50</v>
@@ -7156,10 +7250,10 @@
         <v>46</v>
       </c>
       <c r="B49" s="3">
-        <v>40100</v>
+        <v>30200</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D49" s="3">
         <v>1500</v>
@@ -7172,16 +7266,16 @@
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="3">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="O49" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7189,10 +7283,10 @@
         <v>47</v>
       </c>
       <c r="B50" s="3">
-        <v>40200</v>
+        <v>30300</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D50" s="3">
         <v>1500</v>
@@ -7205,16 +7299,16 @@
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="3">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="O50" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7222,10 +7316,10 @@
         <v>48</v>
       </c>
       <c r="B51" s="3">
-        <v>40300</v>
+        <v>40100</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D51" s="3">
         <v>1500</v>
@@ -7238,13 +7332,13 @@
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
       <c r="N51" s="3">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="O51" s="3">
         <v>100</v>
@@ -7255,10 +7349,10 @@
         <v>49</v>
       </c>
       <c r="B52" s="3">
-        <v>50100</v>
+        <v>40200</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D52" s="3">
         <v>1500</v>
@@ -7271,16 +7365,16 @@
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
       <c r="N52" s="3">
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
       <c r="O52" s="3">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7288,10 +7382,10 @@
         <v>50</v>
       </c>
       <c r="B53" s="3">
-        <v>50200</v>
+        <v>40300</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D53" s="3">
         <v>1500</v>
@@ -7304,16 +7398,16 @@
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
       <c r="N53" s="3">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="O53" s="3">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7321,10 +7415,10 @@
         <v>51</v>
       </c>
       <c r="B54" s="3">
-        <v>50300</v>
+        <v>50100</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D54" s="3">
         <v>1500</v>
@@ -7337,13 +7431,13 @@
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
       <c r="N54" s="3">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="O54" s="3">
         <v>250</v>
@@ -7354,10 +7448,10 @@
         <v>52</v>
       </c>
       <c r="B55" s="3">
-        <v>50400</v>
+        <v>50200</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D55" s="3">
         <v>1500</v>
@@ -7370,13 +7464,13 @@
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
       <c r="N55" s="3">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="O55" s="3">
         <v>250</v>
@@ -7387,13 +7481,13 @@
         <v>53</v>
       </c>
       <c r="B56" s="3">
-        <v>100100</v>
+        <v>50300</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>141</v>
+        <v>327</v>
       </c>
       <c r="D56" s="3">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="E56" s="3">
         <v>2</v>
@@ -7403,16 +7497,16 @@
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="4" t="s">
-        <v>160</v>
+        <v>341</v>
       </c>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="3"/>
+      <c r="M56" s="4"/>
       <c r="N56" s="3">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="O56" s="3">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7420,13 +7514,13 @@
         <v>54</v>
       </c>
       <c r="B57" s="3">
-        <v>100101</v>
+        <v>50400</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>142</v>
+        <v>328</v>
       </c>
       <c r="D57" s="3">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="E57" s="3">
         <v>2</v>
@@ -7436,16 +7530,16 @@
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="4" t="s">
-        <v>161</v>
+        <v>342</v>
       </c>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
-      <c r="M57" s="3"/>
+      <c r="M57" s="4"/>
       <c r="N57" s="3">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7453,10 +7547,10 @@
         <v>55</v>
       </c>
       <c r="B58" s="3">
-        <v>100102</v>
+        <v>100100</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D58" s="3">
         <v>2000</v>
@@ -7469,7 +7563,7 @@
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
@@ -7486,10 +7580,10 @@
         <v>56</v>
       </c>
       <c r="B59" s="3">
-        <v>100103</v>
+        <v>100101</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D59" s="3">
         <v>2000</v>
@@ -7502,7 +7596,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
@@ -7519,10 +7613,10 @@
         <v>57</v>
       </c>
       <c r="B60" s="3">
-        <v>100104</v>
+        <v>100102</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D60" s="3">
         <v>2000</v>
@@ -7535,7 +7629,7 @@
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
@@ -7552,10 +7646,10 @@
         <v>58</v>
       </c>
       <c r="B61" s="3">
-        <v>100105</v>
+        <v>100103</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D61" s="3">
         <v>2000</v>
@@ -7568,7 +7662,7 @@
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
@@ -7585,10 +7679,10 @@
         <v>59</v>
       </c>
       <c r="B62" s="3">
-        <v>100106</v>
+        <v>100104</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D62" s="3">
         <v>2000</v>
@@ -7601,7 +7695,7 @@
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
@@ -7618,10 +7712,10 @@
         <v>60</v>
       </c>
       <c r="B63" s="3">
-        <v>100107</v>
+        <v>100105</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D63" s="3">
         <v>2000</v>
@@ -7634,7 +7728,7 @@
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
@@ -7651,10 +7745,10 @@
         <v>61</v>
       </c>
       <c r="B64" s="3">
-        <v>100108</v>
+        <v>100106</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D64" s="3">
         <v>2000</v>
@@ -7667,7 +7761,7 @@
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
@@ -7684,10 +7778,10 @@
         <v>62</v>
       </c>
       <c r="B65" s="3">
-        <v>100109</v>
+        <v>100107</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D65" s="3">
         <v>2000</v>
@@ -7700,7 +7794,7 @@
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
@@ -7717,10 +7811,10 @@
         <v>63</v>
       </c>
       <c r="B66" s="3">
-        <v>100110</v>
+        <v>100108</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D66" s="3">
         <v>2000</v>
@@ -7733,7 +7827,7 @@
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
@@ -7750,10 +7844,10 @@
         <v>64</v>
       </c>
       <c r="B67" s="3">
-        <v>100111</v>
+        <v>100109</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D67" s="3">
         <v>2000</v>
@@ -7766,7 +7860,7 @@
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
@@ -7783,10 +7877,10 @@
         <v>65</v>
       </c>
       <c r="B68" s="3">
-        <v>100200</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>219</v>
+        <v>100110</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="D68" s="3">
         <v>2000</v>
@@ -7799,17 +7893,13 @@
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="K68" s="4">
-        <v>0.85</v>
-      </c>
-      <c r="L68" s="4">
-        <v>0.85</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3">
-        <v>0.22499999999999998</v>
+        <v>1</v>
       </c>
       <c r="O68" s="3">
         <v>0</v>
@@ -7820,10 +7910,10 @@
         <v>66</v>
       </c>
       <c r="B69" s="3">
-        <v>100300</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>220</v>
+        <v>100111</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="D69" s="3">
         <v>2000</v>
@@ -7836,17 +7926,13 @@
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="K69" s="4">
-        <v>0.85</v>
-      </c>
-      <c r="L69" s="4">
-        <v>0.85</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
       <c r="M69" s="3"/>
       <c r="N69" s="3">
-        <v>0.30000000000000004</v>
+        <v>1</v>
       </c>
       <c r="O69" s="3">
         <v>0</v>
@@ -7857,10 +7943,10 @@
         <v>67</v>
       </c>
       <c r="B70" s="3">
-        <v>100400</v>
+        <v>100200</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D70" s="3">
         <v>2000</v>
@@ -7873,13 +7959,17 @@
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
+        <v>245</v>
+      </c>
+      <c r="K70" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="L70" s="4">
+        <v>0.85</v>
+      </c>
       <c r="M70" s="3"/>
       <c r="N70" s="3">
-        <v>0.35</v>
+        <v>0.22499999999999998</v>
       </c>
       <c r="O70" s="3">
         <v>0</v>
@@ -7890,10 +7980,10 @@
         <v>68</v>
       </c>
       <c r="B71" s="3">
-        <v>100500</v>
+        <v>100300</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D71" s="3">
         <v>2000</v>
@@ -7906,13 +7996,17 @@
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
+        <v>245</v>
+      </c>
+      <c r="K71" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="L71" s="4">
+        <v>0.85</v>
+      </c>
       <c r="M71" s="3"/>
       <c r="N71" s="3">
-        <v>0.4</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="O71" s="3">
         <v>0</v>
@@ -7923,13 +8017,13 @@
         <v>69</v>
       </c>
       <c r="B72" s="3">
-        <v>100600</v>
+        <v>100400</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D72" s="3">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E72" s="3">
         <v>2</v>
@@ -7939,13 +8033,13 @@
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
       <c r="M72" s="3"/>
       <c r="N72" s="3">
-        <v>0.6</v>
+        <v>0.35</v>
       </c>
       <c r="O72" s="3">
         <v>0</v>
@@ -7956,13 +8050,13 @@
         <v>70</v>
       </c>
       <c r="B73" s="3">
-        <v>100700</v>
+        <v>100500</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D73" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E73" s="3">
         <v>2</v>
@@ -7972,13 +8066,13 @@
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
       <c r="M73" s="3"/>
       <c r="N73" s="3">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="O73" s="3">
         <v>0</v>
@@ -7989,13 +8083,13 @@
         <v>71</v>
       </c>
       <c r="B74" s="3">
-        <v>100800</v>
+        <v>100600</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="D74" s="3">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="E74" s="3">
         <v>2</v>
@@ -8005,17 +8099,13 @@
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="K74" s="4">
-        <v>0.85</v>
-      </c>
-      <c r="L74" s="4">
-        <v>0.85</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
       <c r="M74" s="3"/>
       <c r="N74" s="3">
-        <v>0.22499999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="O74" s="3">
         <v>0</v>
@@ -8026,13 +8116,13 @@
         <v>72</v>
       </c>
       <c r="B75" s="3">
-        <v>100900</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>265</v>
+        <v>100700</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="D75" s="3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E75" s="3">
         <v>2</v>
@@ -8042,17 +8132,13 @@
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="K75" s="4">
-        <v>0.85</v>
-      </c>
-      <c r="L75" s="4">
-        <v>0.85</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
       <c r="M75" s="3"/>
       <c r="N75" s="3">
-        <v>0.30000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="O75" s="3">
         <v>0</v>
@@ -8063,10 +8149,10 @@
         <v>73</v>
       </c>
       <c r="B76" s="3">
-        <v>101000</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>268</v>
+        <v>100800</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>263</v>
       </c>
       <c r="D76" s="3">
         <v>2000</v>
@@ -8079,13 +8165,17 @@
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
+        <v>245</v>
+      </c>
+      <c r="K76" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="L76" s="4">
+        <v>0.85</v>
+      </c>
       <c r="M76" s="3"/>
       <c r="N76" s="3">
-        <v>0.35</v>
+        <v>0.22499999999999998</v>
       </c>
       <c r="O76" s="3">
         <v>0</v>
@@ -8096,10 +8186,10 @@
         <v>74</v>
       </c>
       <c r="B77" s="3">
-        <v>101100</v>
+        <v>100900</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D77" s="3">
         <v>2000</v>
@@ -8112,13 +8202,17 @@
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
       <c r="J77" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
+        <v>245</v>
+      </c>
+      <c r="K77" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="L77" s="4">
+        <v>0.85</v>
+      </c>
       <c r="M77" s="3"/>
       <c r="N77" s="3">
-        <v>0.4</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="O77" s="3">
         <v>0</v>
@@ -8129,13 +8223,13 @@
         <v>75</v>
       </c>
       <c r="B78" s="3">
-        <v>101200</v>
+        <v>101000</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D78" s="3">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E78" s="3">
         <v>2</v>
@@ -8145,13 +8239,13 @@
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="J78" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
       <c r="M78" s="3"/>
       <c r="N78" s="3">
-        <v>0.7</v>
+        <v>0.35</v>
       </c>
       <c r="O78" s="3">
         <v>0</v>
@@ -8162,13 +8256,13 @@
         <v>76</v>
       </c>
       <c r="B79" s="3">
-        <v>101300</v>
+        <v>101100</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D79" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E79" s="3">
         <v>2</v>
@@ -8178,13 +8272,13 @@
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
       <c r="J79" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K79" s="4"/>
       <c r="L79" s="4"/>
       <c r="M79" s="3"/>
       <c r="N79" s="3">
-        <v>0.85</v>
+        <v>0.4</v>
       </c>
       <c r="O79" s="3">
         <v>0</v>
@@ -8195,13 +8289,13 @@
         <v>77</v>
       </c>
       <c r="B80" s="3">
-        <v>101400</v>
+        <v>101200</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="D80" s="3">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="E80" s="3">
         <v>2</v>
@@ -8211,16 +8305,16 @@
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="4" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
       <c r="M80" s="3"/>
       <c r="N80" s="3">
-        <v>0.11799999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="O80" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8228,13 +8322,13 @@
         <v>78</v>
       </c>
       <c r="B81" s="3">
-        <v>101500</v>
+        <v>101300</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="D81" s="3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E81" s="3">
         <v>2</v>
@@ -8244,16 +8338,16 @@
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="4" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
       <c r="M81" s="3"/>
       <c r="N81" s="3">
-        <v>7.3999999999999996E-2</v>
+        <v>0.85</v>
       </c>
       <c r="O81" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8261,10 +8355,10 @@
         <v>79</v>
       </c>
       <c r="B82" s="3">
-        <v>101600</v>
+        <v>101400</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D82" s="3">
         <v>2000</v>
@@ -8277,16 +8371,16 @@
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
       <c r="J82" s="4" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="K82" s="4"/>
       <c r="L82" s="4"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3">
-        <v>9.8000000000000004E-2</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="O82" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8294,10 +8388,10 @@
         <v>80</v>
       </c>
       <c r="B83" s="3">
-        <v>101700</v>
+        <v>101500</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D83" s="3">
         <v>2000</v>
@@ -8310,16 +8404,16 @@
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="4" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
       <c r="M83" s="3"/>
       <c r="N83" s="3">
-        <v>0.29499999999999998</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="O83" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8327,10 +8421,10 @@
         <v>81</v>
       </c>
       <c r="B84" s="3">
-        <v>101800</v>
+        <v>101600</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D84" s="3">
         <v>2000</v>
@@ -8343,16 +8437,16 @@
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
       <c r="J84" s="4" t="s">
-        <v>227</v>
+        <v>283</v>
       </c>
       <c r="K84" s="4"/>
       <c r="L84" s="4"/>
       <c r="M84" s="3"/>
       <c r="N84" s="3">
-        <v>0.98399999999999999</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="O84" s="3">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8360,10 +8454,10 @@
         <v>82</v>
       </c>
       <c r="B85" s="3">
-        <v>101900</v>
+        <v>101700</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="D85" s="3">
         <v>2000</v>
@@ -8376,16 +8470,16 @@
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="J85" s="4" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
       <c r="M85" s="3"/>
       <c r="N85" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="O85" s="4">
-        <v>1</v>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="O85" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8393,10 +8487,10 @@
         <v>83</v>
       </c>
       <c r="B86" s="3">
-        <v>102000</v>
+        <v>101800</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="D86" s="3">
         <v>2000</v>
@@ -8409,16 +8503,16 @@
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
       <c r="J86" s="4" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
       <c r="M86" s="3"/>
       <c r="N86" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="O86" s="4">
-        <v>1</v>
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="O86" s="3">
+        <v>25</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8426,10 +8520,10 @@
         <v>84</v>
       </c>
       <c r="B87" s="3">
-        <v>102100</v>
+        <v>101900</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D87" s="3">
         <v>2000</v>
@@ -8459,10 +8553,10 @@
         <v>85</v>
       </c>
       <c r="B88" s="3">
-        <v>102200</v>
+        <v>102000</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D88" s="3">
         <v>2000</v>
@@ -8475,13 +8569,13 @@
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
       <c r="J88" s="4" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
       <c r="M88" s="3"/>
       <c r="N88" s="3">
-        <v>0.214</v>
+        <v>0.2</v>
       </c>
       <c r="O88" s="4">
         <v>1</v>
@@ -8492,10 +8586,10 @@
         <v>86</v>
       </c>
       <c r="B89" s="3">
-        <v>102300</v>
+        <v>102100</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D89" s="3">
         <v>2000</v>
@@ -8508,13 +8602,13 @@
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
       <c r="J89" s="4" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
       <c r="M89" s="3"/>
       <c r="N89" s="3">
-        <v>0.26700000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="O89" s="4">
         <v>1</v>
@@ -8525,10 +8619,10 @@
         <v>87</v>
       </c>
       <c r="B90" s="3">
-        <v>102400</v>
+        <v>102200</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D90" s="3">
         <v>2000</v>
@@ -8541,13 +8635,13 @@
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
       <c r="J90" s="4" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3">
-        <v>0.2</v>
+        <v>0.214</v>
       </c>
       <c r="O90" s="4">
         <v>1</v>
@@ -8558,10 +8652,10 @@
         <v>88</v>
       </c>
       <c r="B91" s="3">
-        <v>102500</v>
+        <v>102300</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D91" s="3">
         <v>2000</v>
@@ -8580,7 +8674,7 @@
       <c r="L91" s="4"/>
       <c r="M91" s="3"/>
       <c r="N91" s="3">
-        <v>0.40100000000000002</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="O91" s="4">
         <v>1</v>
@@ -8591,13 +8685,13 @@
         <v>89</v>
       </c>
       <c r="B92" s="3">
-        <v>102600</v>
+        <v>102400</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D92" s="3">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E92" s="3">
         <v>2</v>
@@ -8607,13 +8701,13 @@
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
       <c r="J92" s="4" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
       <c r="M92" s="3"/>
       <c r="N92" s="3">
-        <v>1.3660000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="O92" s="4">
         <v>1</v>
@@ -8624,13 +8718,13 @@
         <v>90</v>
       </c>
       <c r="B93" s="3">
-        <v>102700</v>
+        <v>102500</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D93" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E93" s="3">
         <v>2</v>
@@ -8640,13 +8734,13 @@
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
       <c r="J93" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
       <c r="M93" s="3"/>
       <c r="N93" s="3">
-        <v>6</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="O93" s="4">
         <v>1</v>
@@ -8657,13 +8751,13 @@
         <v>91</v>
       </c>
       <c r="B94" s="3">
-        <v>500020</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>248</v>
+        <v>102600</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>301</v>
       </c>
       <c r="D94" s="3">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="E94" s="3">
         <v>2</v>
@@ -8673,15 +8767,81 @@
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
       <c r="J94" s="4" t="s">
-        <v>329</v>
+        <v>226</v>
       </c>
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>
-      <c r="M94" s="4"/>
+      <c r="M94" s="3"/>
       <c r="N94" s="3">
+        <v>1.3660000000000001</v>
+      </c>
+      <c r="O94" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>92</v>
+      </c>
+      <c r="B95" s="3">
+        <v>102700</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D95" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E95" s="3">
+        <v>2</v>
+      </c>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3">
+        <v>6</v>
+      </c>
+      <c r="O95" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>93</v>
+      </c>
+      <c r="B96" s="3">
+        <v>500020</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D96" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>2</v>
+      </c>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="3">
         <v>0.35</v>
       </c>
-      <c r="O94" s="3">
+      <c r="O96" s="3">
         <v>8</v>
       </c>
     </row>

--- a/Excel/skill.技能.xlsx
+++ b/Excel/skill.技能.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7273211-566B-4F39-A469-C1FABAEF3266}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54A33B8-64DD-48BA-B654-7F3367C71B1A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -280,7 +280,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="352">
   <si>
     <t>sheet名</t>
   </si>
@@ -1604,6 +1604,18 @@
   </si>
   <si>
     <t>LvFengBullet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣斗士普攻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣斗士普攻子弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShengDouShiBullet</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2293,11 +2305,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE1484E-E599-4101-955C-A99AA9634D79}">
-  <dimension ref="A1:U89"/>
+  <dimension ref="A1:U90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4032,23 +4044,23 @@
         <v>42</v>
       </c>
       <c r="B45" s="9">
-        <v>2010</v>
+        <v>1403</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>303</v>
+        <v>349</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
-      <c r="I45" s="12">
-        <v>20100</v>
+      <c r="I45" s="9">
+        <v>14030</v>
       </c>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
       <c r="L45" s="9">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="M45" s="9">
         <v>0</v>
@@ -4067,10 +4079,10 @@
         <v>43</v>
       </c>
       <c r="B46" s="9">
-        <v>2020</v>
+        <v>2010</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
@@ -4078,7 +4090,7 @@
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
       <c r="I46" s="12">
-        <v>20200</v>
+        <v>20100</v>
       </c>
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
@@ -4102,10 +4114,10 @@
         <v>44</v>
       </c>
       <c r="B47" s="9">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
@@ -4113,7 +4125,7 @@
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
       <c r="I47" s="12">
-        <v>20300</v>
+        <v>20200</v>
       </c>
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
@@ -4137,10 +4149,10 @@
         <v>45</v>
       </c>
       <c r="B48" s="9">
-        <v>3010</v>
+        <v>2030</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
@@ -4148,7 +4160,7 @@
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
       <c r="I48" s="12">
-        <v>30100</v>
+        <v>20300</v>
       </c>
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
@@ -4172,10 +4184,10 @@
         <v>46</v>
       </c>
       <c r="B49" s="9">
-        <v>3020</v>
+        <v>3010</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
@@ -4183,7 +4195,7 @@
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
       <c r="I49" s="12">
-        <v>30200</v>
+        <v>30100</v>
       </c>
       <c r="J49" s="11"/>
       <c r="K49" s="11"/>
@@ -4207,10 +4219,10 @@
         <v>47</v>
       </c>
       <c r="B50" s="9">
-        <v>3030</v>
+        <v>3020</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
@@ -4218,7 +4230,7 @@
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
       <c r="I50" s="12">
-        <v>30300</v>
+        <v>30200</v>
       </c>
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
@@ -4242,10 +4254,10 @@
         <v>48</v>
       </c>
       <c r="B51" s="9">
-        <v>4010</v>
+        <v>3030</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
@@ -4253,7 +4265,7 @@
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
       <c r="I51" s="12">
-        <v>40100</v>
+        <v>30300</v>
       </c>
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
@@ -4277,10 +4289,10 @@
         <v>49</v>
       </c>
       <c r="B52" s="9">
-        <v>4020</v>
+        <v>4010</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
@@ -4288,7 +4300,7 @@
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
       <c r="I52" s="12">
-        <v>40200</v>
+        <v>40100</v>
       </c>
       <c r="J52" s="11"/>
       <c r="K52" s="11"/>
@@ -4312,10 +4324,10 @@
         <v>50</v>
       </c>
       <c r="B53" s="9">
-        <v>4030</v>
+        <v>4020</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
@@ -4323,7 +4335,7 @@
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
       <c r="I53" s="12">
-        <v>40300</v>
+        <v>40200</v>
       </c>
       <c r="J53" s="11"/>
       <c r="K53" s="11"/>
@@ -4347,10 +4359,10 @@
         <v>51</v>
       </c>
       <c r="B54" s="9">
-        <v>5010</v>
+        <v>4030</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
@@ -4358,7 +4370,7 @@
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
       <c r="I54" s="12">
-        <v>50100</v>
+        <v>40300</v>
       </c>
       <c r="J54" s="11"/>
       <c r="K54" s="11"/>
@@ -4382,10 +4394,10 @@
         <v>52</v>
       </c>
       <c r="B55" s="9">
-        <v>5020</v>
+        <v>5010</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
@@ -4393,7 +4405,7 @@
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
       <c r="I55" s="12">
-        <v>50200</v>
+        <v>50100</v>
       </c>
       <c r="J55" s="11"/>
       <c r="K55" s="11"/>
@@ -4417,10 +4429,10 @@
         <v>53</v>
       </c>
       <c r="B56" s="9">
-        <v>5030</v>
+        <v>5020</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
@@ -4428,7 +4440,7 @@
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
       <c r="I56" s="12">
-        <v>50300</v>
+        <v>50200</v>
       </c>
       <c r="J56" s="11"/>
       <c r="K56" s="11"/>
@@ -4452,10 +4464,10 @@
         <v>54</v>
       </c>
       <c r="B57" s="9">
-        <v>5040</v>
+        <v>5030</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
@@ -4463,7 +4475,7 @@
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
       <c r="I57" s="12">
-        <v>50400</v>
+        <v>50300</v>
       </c>
       <c r="J57" s="11"/>
       <c r="K57" s="11"/>
@@ -4486,46 +4498,46 @@
       <c r="A58" s="3">
         <v>55</v>
       </c>
-      <c r="B58" s="3">
-        <v>10001</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="3">
-        <v>100200</v>
-      </c>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
-      <c r="S58" s="3"/>
-      <c r="T58" s="3"/>
-      <c r="U58" s="4"/>
+      <c r="B58" s="9">
+        <v>5040</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="12">
+        <v>50400</v>
+      </c>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="M58" s="9">
+        <v>0</v>
+      </c>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="9"/>
+      <c r="U58" s="10"/>
     </row>
     <row r="59" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>56</v>
       </c>
       <c r="B59" s="3">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -4533,7 +4545,7 @@
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="3">
-        <v>100300</v>
+        <v>100200</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
@@ -4557,10 +4569,10 @@
         <v>57</v>
       </c>
       <c r="B60" s="3">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>264</v>
+        <v>154</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -4568,7 +4580,7 @@
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="3">
-        <v>100800</v>
+        <v>100300</v>
       </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
@@ -4592,10 +4604,10 @@
         <v>58</v>
       </c>
       <c r="B61" s="3">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -4603,7 +4615,7 @@
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="3">
-        <v>100900</v>
+        <v>100800</v>
       </c>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
@@ -4627,10 +4639,10 @@
         <v>59</v>
       </c>
       <c r="B62" s="3">
-        <v>11001</v>
+        <v>10004</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>216</v>
+        <v>265</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -4638,12 +4650,12 @@
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="3">
-        <v>100400</v>
+        <v>100900</v>
       </c>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -4662,10 +4674,10 @@
         <v>60</v>
       </c>
       <c r="B63" s="3">
-        <v>11002</v>
+        <v>11001</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -4673,7 +4685,7 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="3">
-        <v>100500</v>
+        <v>100400</v>
       </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
@@ -4697,10 +4709,10 @@
         <v>61</v>
       </c>
       <c r="B64" s="3">
-        <v>11003</v>
+        <v>11002</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>266</v>
+        <v>217</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -4708,7 +4720,7 @@
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
       <c r="I64" s="3">
-        <v>101000</v>
+        <v>100500</v>
       </c>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
@@ -4732,10 +4744,10 @@
         <v>62</v>
       </c>
       <c r="B65" s="3">
-        <v>11004</v>
+        <v>11003</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -4743,7 +4755,7 @@
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="3">
-        <v>101100</v>
+        <v>101000</v>
       </c>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
@@ -4767,10 +4779,10 @@
         <v>63</v>
       </c>
       <c r="B66" s="3">
-        <v>12001</v>
+        <v>11004</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>218</v>
+        <v>267</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -4778,12 +4790,12 @@
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" s="3">
-        <v>100600</v>
+        <v>101100</v>
       </c>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M66" s="3">
         <v>0</v>
@@ -4802,10 +4814,10 @@
         <v>64</v>
       </c>
       <c r="B67" s="3">
-        <v>12002</v>
+        <v>12001</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -4813,7 +4825,7 @@
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="3">
-        <v>101200</v>
+        <v>100600</v>
       </c>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
@@ -4837,10 +4849,10 @@
         <v>65</v>
       </c>
       <c r="B68" s="3">
-        <v>13001</v>
+        <v>12002</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>155</v>
+        <v>272</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -4848,7 +4860,7 @@
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
       <c r="I68" s="3">
-        <v>100700</v>
+        <v>101200</v>
       </c>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
@@ -4865,19 +4877,17 @@
       <c r="R68" s="3"/>
       <c r="S68" s="3"/>
       <c r="T68" s="3"/>
-      <c r="U68" s="4" t="s">
-        <v>156</v>
-      </c>
+      <c r="U68" s="4"/>
     </row>
     <row r="69" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>66</v>
       </c>
       <c r="B69" s="3">
-        <v>13002</v>
+        <v>13001</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>271</v>
+        <v>155</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -4885,7 +4895,7 @@
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="I69" s="3">
-        <v>101300</v>
+        <v>100700</v>
       </c>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
@@ -4902,17 +4912,19 @@
       <c r="R69" s="3"/>
       <c r="S69" s="3"/>
       <c r="T69" s="3"/>
-      <c r="U69" s="4"/>
+      <c r="U69" s="4" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="70" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>67</v>
       </c>
       <c r="B70" s="3">
-        <v>20001</v>
+        <v>13002</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -4920,12 +4932,12 @@
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="I70" s="3">
-        <v>101400</v>
+        <v>101300</v>
       </c>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
@@ -4944,10 +4956,10 @@
         <v>68</v>
       </c>
       <c r="B71" s="3">
-        <v>20002</v>
+        <v>20001</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -4955,7 +4967,7 @@
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="3">
-        <v>101500</v>
+        <v>101400</v>
       </c>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
@@ -4979,10 +4991,10 @@
         <v>69</v>
       </c>
       <c r="B72" s="3">
-        <v>20003</v>
+        <v>20002</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -4990,12 +5002,12 @@
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="I72" s="3">
-        <v>101600</v>
+        <v>101500</v>
       </c>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="M72" s="3">
         <v>0</v>
@@ -5014,10 +5026,10 @@
         <v>70</v>
       </c>
       <c r="B73" s="3">
-        <v>20004</v>
+        <v>20003</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -5025,12 +5037,12 @@
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="I73" s="3">
-        <v>101700</v>
+        <v>101600</v>
       </c>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="M73" s="3">
         <v>0</v>
@@ -5049,10 +5061,10 @@
         <v>71</v>
       </c>
       <c r="B74" s="3">
-        <v>20005</v>
+        <v>20004</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -5060,12 +5072,12 @@
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="I74" s="3">
-        <v>101800</v>
+        <v>101700</v>
       </c>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="M74" s="3">
         <v>0</v>
@@ -5084,10 +5096,10 @@
         <v>72</v>
       </c>
       <c r="B75" s="3">
-        <v>20006</v>
+        <v>20005</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -5095,12 +5107,12 @@
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="3">
-        <v>101900</v>
+        <v>101800</v>
       </c>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="M75" s="3">
         <v>0</v>
@@ -5119,10 +5131,10 @@
         <v>73</v>
       </c>
       <c r="B76" s="3">
-        <v>20007</v>
+        <v>20006</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -5130,7 +5142,7 @@
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
       <c r="I76" s="3">
-        <v>102000</v>
+        <v>101900</v>
       </c>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
@@ -5154,10 +5166,10 @@
         <v>74</v>
       </c>
       <c r="B77" s="3">
-        <v>20008</v>
+        <v>20007</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -5165,7 +5177,7 @@
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
       <c r="I77" s="3">
-        <v>102100</v>
+        <v>102000</v>
       </c>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
@@ -5189,10 +5201,10 @@
         <v>75</v>
       </c>
       <c r="B78" s="3">
-        <v>20009</v>
+        <v>20008</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -5200,12 +5212,12 @@
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
       <c r="I78" s="3">
-        <v>102200</v>
+        <v>102100</v>
       </c>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="M78" s="3">
         <v>0</v>
@@ -5224,10 +5236,10 @@
         <v>76</v>
       </c>
       <c r="B79" s="3">
-        <v>20010</v>
+        <v>20009</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -5235,7 +5247,7 @@
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
       <c r="I79" s="3">
-        <v>102300</v>
+        <v>102200</v>
       </c>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
@@ -5259,10 +5271,10 @@
         <v>77</v>
       </c>
       <c r="B80" s="3">
-        <v>20011</v>
+        <v>20010</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -5270,12 +5282,12 @@
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
       <c r="I80" s="3">
-        <v>102400</v>
+        <v>102300</v>
       </c>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="M80" s="3">
         <v>0</v>
@@ -5294,10 +5306,10 @@
         <v>78</v>
       </c>
       <c r="B81" s="3">
-        <v>20012</v>
+        <v>20011</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -5305,7 +5317,7 @@
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
       <c r="I81" s="3">
-        <v>102500</v>
+        <v>102400</v>
       </c>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
@@ -5329,10 +5341,10 @@
         <v>79</v>
       </c>
       <c r="B82" s="3">
-        <v>20013</v>
+        <v>20012</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -5340,12 +5352,12 @@
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
       <c r="I82" s="3">
-        <v>102600</v>
+        <v>102500</v>
       </c>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="M82" s="3">
         <v>0</v>
@@ -5364,10 +5376,10 @@
         <v>80</v>
       </c>
       <c r="B83" s="3">
-        <v>20014</v>
+        <v>20013</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -5375,12 +5387,12 @@
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
       <c r="I83" s="3">
-        <v>102700</v>
+        <v>102600</v>
       </c>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
       <c r="L83" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -5394,69 +5406,74 @@
       <c r="T83" s="3"/>
       <c r="U83" s="4"/>
     </row>
-    <row r="84" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>81</v>
       </c>
       <c r="B84" s="3">
-        <v>50001</v>
+        <v>20014</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="F84" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G84" s="3">
-        <v>0.125</v>
-      </c>
-      <c r="H84" s="3">
-        <v>25</v>
-      </c>
-      <c r="I84" s="7">
-        <v>500020</v>
-      </c>
-      <c r="J84" s="3">
-        <v>100</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="3">
+        <v>102700</v>
+      </c>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
       <c r="L84" s="3">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="U84" s="4" t="s">
-        <v>262</v>
-      </c>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3"/>
+      <c r="S84" s="3"/>
+      <c r="T84" s="3"/>
+      <c r="U84" s="4"/>
     </row>
     <row r="85" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>82</v>
       </c>
       <c r="B85" s="3">
-        <v>50002</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="I85" s="7"/>
+        <v>50001</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F85" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G85" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="H85" s="3">
+        <v>25</v>
+      </c>
+      <c r="I85" s="7">
+        <v>500020</v>
+      </c>
       <c r="J85" s="3">
-        <v>200</v>
-      </c>
-      <c r="K85" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L85" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="13" t="s">
-        <v>255</v>
-      </c>
       <c r="U85" s="4" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="86" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5464,61 +5481,68 @@
         <v>83</v>
       </c>
       <c r="B86" s="3">
-        <v>50003</v>
+        <v>50002</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I86" s="7"/>
       <c r="J86" s="3">
+        <v>200</v>
+      </c>
+      <c r="K86" s="3">
+        <v>1</v>
+      </c>
+      <c r="L86" s="3">
+        <v>200</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="U86" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <v>84</v>
+      </c>
+      <c r="B87" s="3">
+        <v>50003</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="I87" s="7"/>
+      <c r="J87" s="3">
         <v>50</v>
       </c>
-      <c r="L86" s="3">
+      <c r="L87" s="3">
         <v>50</v>
       </c>
-      <c r="M86" s="3">
-        <v>0</v>
-      </c>
-      <c r="N86" s="9">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="9">
         <v>101</v>
       </c>
-      <c r="Q86" s="3">
+      <c r="Q87" s="3">
         <v>1</v>
       </c>
-      <c r="R86" s="3">
+      <c r="R87" s="3">
         <v>0.3</v>
       </c>
-      <c r="U86" s="4" t="s">
+      <c r="U87" s="4" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="87" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="8"/>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
-      <c r="L87" s="3"/>
-      <c r="M87" s="3"/>
-      <c r="N87" s="3"/>
-      <c r="O87" s="3"/>
-      <c r="P87" s="3"/>
-      <c r="Q87" s="3"/>
-      <c r="R87" s="3"/>
-      <c r="S87" s="3"/>
-      <c r="T87" s="3"/>
-      <c r="U87" s="4"/>
     </row>
     <row r="88" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
+      <c r="C88" s="4"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
@@ -5541,7 +5565,7 @@
     <row r="89" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
-      <c r="C89" s="4"/>
+      <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
@@ -5552,7 +5576,7 @@
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
-      <c r="N89" s="9"/>
+      <c r="N89" s="3"/>
       <c r="O89" s="3"/>
       <c r="P89" s="3"/>
       <c r="Q89" s="3"/>
@@ -5560,6 +5584,29 @@
       <c r="S89" s="3"/>
       <c r="T89" s="3"/>
       <c r="U89" s="4"/>
+    </row>
+    <row r="90" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="9"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -5571,10 +5618,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84809B08-AEE0-4B35-956F-542A8D2C0F97}">
-  <dimension ref="A1:O96"/>
+  <dimension ref="A1:O97"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K51" sqref="K51"/>
+      <selection activeCell="O45" sqref="A43:O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7117,14 +7164,14 @@
       <c r="A45" s="3">
         <v>42</v>
       </c>
-      <c r="B45" s="3">
-        <v>20100</v>
+      <c r="B45" s="9">
+        <v>14030</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="D45" s="3">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E45" s="3">
         <v>2</v>
@@ -7134,16 +7181,16 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="4" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
       <c r="N45" s="3">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="O45" s="3">
-        <v>10</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7151,10 +7198,10 @@
         <v>43</v>
       </c>
       <c r="B46" s="3">
-        <v>20200</v>
+        <v>20100</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D46" s="3">
         <v>1500</v>
@@ -7167,7 +7214,7 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
@@ -7184,10 +7231,10 @@
         <v>44</v>
       </c>
       <c r="B47" s="3">
-        <v>20300</v>
+        <v>20200</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D47" s="3">
         <v>1500</v>
@@ -7200,13 +7247,13 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="3">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="O47" s="3">
         <v>10</v>
@@ -7217,10 +7264,10 @@
         <v>45</v>
       </c>
       <c r="B48" s="3">
-        <v>30100</v>
+        <v>20300</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D48" s="3">
         <v>1500</v>
@@ -7233,16 +7280,16 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="3">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="O48" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7250,10 +7297,10 @@
         <v>46</v>
       </c>
       <c r="B49" s="3">
-        <v>30200</v>
+        <v>30100</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D49" s="3">
         <v>1500</v>
@@ -7266,13 +7313,13 @@
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="3">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="O49" s="3">
         <v>50</v>
@@ -7283,10 +7330,10 @@
         <v>47</v>
       </c>
       <c r="B50" s="3">
-        <v>30300</v>
+        <v>30200</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D50" s="3">
         <v>1500</v>
@@ -7299,7 +7346,7 @@
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
@@ -7316,10 +7363,10 @@
         <v>48</v>
       </c>
       <c r="B51" s="3">
-        <v>40100</v>
+        <v>30300</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D51" s="3">
         <v>1500</v>
@@ -7332,16 +7379,16 @@
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
       <c r="N51" s="3">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="O51" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7349,10 +7396,10 @@
         <v>49</v>
       </c>
       <c r="B52" s="3">
-        <v>40200</v>
+        <v>40100</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D52" s="3">
         <v>1500</v>
@@ -7365,13 +7412,13 @@
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
       <c r="N52" s="3">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="O52" s="3">
         <v>100</v>
@@ -7382,10 +7429,10 @@
         <v>50</v>
       </c>
       <c r="B53" s="3">
-        <v>40300</v>
+        <v>40200</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D53" s="3">
         <v>1500</v>
@@ -7398,7 +7445,7 @@
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
@@ -7415,10 +7462,10 @@
         <v>51</v>
       </c>
       <c r="B54" s="3">
-        <v>50100</v>
+        <v>40300</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D54" s="3">
         <v>1500</v>
@@ -7431,16 +7478,16 @@
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
       <c r="N54" s="3">
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
       <c r="O54" s="3">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7448,10 +7495,10 @@
         <v>52</v>
       </c>
       <c r="B55" s="3">
-        <v>50200</v>
+        <v>50100</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D55" s="3">
         <v>1500</v>
@@ -7464,13 +7511,13 @@
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
       <c r="N55" s="3">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="O55" s="3">
         <v>250</v>
@@ -7481,10 +7528,10 @@
         <v>53</v>
       </c>
       <c r="B56" s="3">
-        <v>50300</v>
+        <v>50200</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D56" s="3">
         <v>1500</v>
@@ -7497,7 +7544,7 @@
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
@@ -7514,10 +7561,10 @@
         <v>54</v>
       </c>
       <c r="B57" s="3">
-        <v>50400</v>
+        <v>50300</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D57" s="3">
         <v>1500</v>
@@ -7530,13 +7577,13 @@
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
       <c r="N57" s="3">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="O57" s="3">
         <v>250</v>
@@ -7547,13 +7594,13 @@
         <v>55</v>
       </c>
       <c r="B58" s="3">
-        <v>100100</v>
+        <v>50400</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>141</v>
+        <v>328</v>
       </c>
       <c r="D58" s="3">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="E58" s="3">
         <v>2</v>
@@ -7563,16 +7610,16 @@
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="4" t="s">
-        <v>160</v>
+        <v>342</v>
       </c>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
-      <c r="M58" s="3"/>
+      <c r="M58" s="4"/>
       <c r="N58" s="3">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="O58" s="3">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7580,10 +7627,10 @@
         <v>56</v>
       </c>
       <c r="B59" s="3">
-        <v>100101</v>
+        <v>100100</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D59" s="3">
         <v>2000</v>
@@ -7596,7 +7643,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
@@ -7613,10 +7660,10 @@
         <v>57</v>
       </c>
       <c r="B60" s="3">
-        <v>100102</v>
+        <v>100101</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D60" s="3">
         <v>2000</v>
@@ -7629,7 +7676,7 @@
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
@@ -7646,10 +7693,10 @@
         <v>58</v>
       </c>
       <c r="B61" s="3">
-        <v>100103</v>
+        <v>100102</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D61" s="3">
         <v>2000</v>
@@ -7662,7 +7709,7 @@
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
@@ -7679,10 +7726,10 @@
         <v>59</v>
       </c>
       <c r="B62" s="3">
-        <v>100104</v>
+        <v>100103</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D62" s="3">
         <v>2000</v>
@@ -7695,7 +7742,7 @@
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
@@ -7712,10 +7759,10 @@
         <v>60</v>
       </c>
       <c r="B63" s="3">
-        <v>100105</v>
+        <v>100104</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D63" s="3">
         <v>2000</v>
@@ -7728,7 +7775,7 @@
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
@@ -7745,10 +7792,10 @@
         <v>61</v>
       </c>
       <c r="B64" s="3">
-        <v>100106</v>
+        <v>100105</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D64" s="3">
         <v>2000</v>
@@ -7761,7 +7808,7 @@
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
@@ -7778,10 +7825,10 @@
         <v>62</v>
       </c>
       <c r="B65" s="3">
-        <v>100107</v>
+        <v>100106</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D65" s="3">
         <v>2000</v>
@@ -7794,7 +7841,7 @@
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
@@ -7811,10 +7858,10 @@
         <v>63</v>
       </c>
       <c r="B66" s="3">
-        <v>100108</v>
+        <v>100107</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D66" s="3">
         <v>2000</v>
@@ -7827,7 +7874,7 @@
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
@@ -7844,10 +7891,10 @@
         <v>64</v>
       </c>
       <c r="B67" s="3">
-        <v>100109</v>
+        <v>100108</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D67" s="3">
         <v>2000</v>
@@ -7860,7 +7907,7 @@
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
@@ -7877,10 +7924,10 @@
         <v>65</v>
       </c>
       <c r="B68" s="3">
-        <v>100110</v>
+        <v>100109</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D68" s="3">
         <v>2000</v>
@@ -7893,7 +7940,7 @@
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
@@ -7910,10 +7957,10 @@
         <v>66</v>
       </c>
       <c r="B69" s="3">
-        <v>100111</v>
+        <v>100110</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D69" s="3">
         <v>2000</v>
@@ -7926,7 +7973,7 @@
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
@@ -7943,10 +7990,10 @@
         <v>67</v>
       </c>
       <c r="B70" s="3">
-        <v>100200</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>219</v>
+        <v>100111</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="D70" s="3">
         <v>2000</v>
@@ -7959,17 +8006,13 @@
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="K70" s="4">
-        <v>0.85</v>
-      </c>
-      <c r="L70" s="4">
-        <v>0.85</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
       <c r="M70" s="3"/>
       <c r="N70" s="3">
-        <v>0.22499999999999998</v>
+        <v>1</v>
       </c>
       <c r="O70" s="3">
         <v>0</v>
@@ -7980,10 +8023,10 @@
         <v>68</v>
       </c>
       <c r="B71" s="3">
-        <v>100300</v>
+        <v>100200</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D71" s="3">
         <v>2000</v>
@@ -8006,7 +8049,7 @@
       </c>
       <c r="M71" s="3"/>
       <c r="N71" s="3">
-        <v>0.30000000000000004</v>
+        <v>0.22499999999999998</v>
       </c>
       <c r="O71" s="3">
         <v>0</v>
@@ -8017,10 +8060,10 @@
         <v>69</v>
       </c>
       <c r="B72" s="3">
-        <v>100400</v>
+        <v>100300</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D72" s="3">
         <v>2000</v>
@@ -8033,13 +8076,17 @@
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
+        <v>245</v>
+      </c>
+      <c r="K72" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="L72" s="4">
+        <v>0.85</v>
+      </c>
       <c r="M72" s="3"/>
       <c r="N72" s="3">
-        <v>0.35</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="O72" s="3">
         <v>0</v>
@@ -8050,10 +8097,10 @@
         <v>70</v>
       </c>
       <c r="B73" s="3">
-        <v>100500</v>
+        <v>100400</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D73" s="3">
         <v>2000</v>
@@ -8072,7 +8119,7 @@
       <c r="L73" s="4"/>
       <c r="M73" s="3"/>
       <c r="N73" s="3">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="O73" s="3">
         <v>0</v>
@@ -8083,13 +8130,13 @@
         <v>71</v>
       </c>
       <c r="B74" s="3">
-        <v>100600</v>
+        <v>100500</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D74" s="3">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E74" s="3">
         <v>2</v>
@@ -8099,13 +8146,13 @@
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
       <c r="M74" s="3"/>
       <c r="N74" s="3">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="O74" s="3">
         <v>0</v>
@@ -8116,13 +8163,13 @@
         <v>72</v>
       </c>
       <c r="B75" s="3">
-        <v>100700</v>
+        <v>100600</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D75" s="3">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E75" s="3">
         <v>2</v>
@@ -8132,13 +8179,13 @@
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
       <c r="M75" s="3"/>
       <c r="N75" s="3">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="O75" s="3">
         <v>0</v>
@@ -8149,13 +8196,13 @@
         <v>73</v>
       </c>
       <c r="B76" s="3">
-        <v>100800</v>
+        <v>100700</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="D76" s="3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E76" s="3">
         <v>2</v>
@@ -8165,17 +8212,13 @@
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="K76" s="4">
-        <v>0.85</v>
-      </c>
-      <c r="L76" s="4">
-        <v>0.85</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
       <c r="M76" s="3"/>
       <c r="N76" s="3">
-        <v>0.22499999999999998</v>
+        <v>0.8</v>
       </c>
       <c r="O76" s="3">
         <v>0</v>
@@ -8186,10 +8229,10 @@
         <v>74</v>
       </c>
       <c r="B77" s="3">
-        <v>100900</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>265</v>
+        <v>100800</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>263</v>
       </c>
       <c r="D77" s="3">
         <v>2000</v>
@@ -8212,7 +8255,7 @@
       </c>
       <c r="M77" s="3"/>
       <c r="N77" s="3">
-        <v>0.30000000000000004</v>
+        <v>0.22499999999999998</v>
       </c>
       <c r="O77" s="3">
         <v>0</v>
@@ -8223,10 +8266,10 @@
         <v>75</v>
       </c>
       <c r="B78" s="3">
-        <v>101000</v>
+        <v>100900</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D78" s="3">
         <v>2000</v>
@@ -8239,13 +8282,17 @@
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="J78" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
+        <v>245</v>
+      </c>
+      <c r="K78" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="L78" s="4">
+        <v>0.85</v>
+      </c>
       <c r="M78" s="3"/>
       <c r="N78" s="3">
-        <v>0.35</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="O78" s="3">
         <v>0</v>
@@ -8256,10 +8303,10 @@
         <v>76</v>
       </c>
       <c r="B79" s="3">
-        <v>101100</v>
+        <v>101000</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D79" s="3">
         <v>2000</v>
@@ -8278,7 +8325,7 @@
       <c r="L79" s="4"/>
       <c r="M79" s="3"/>
       <c r="N79" s="3">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="O79" s="3">
         <v>0</v>
@@ -8289,13 +8336,13 @@
         <v>77</v>
       </c>
       <c r="B80" s="3">
-        <v>101200</v>
+        <v>101100</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D80" s="3">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E80" s="3">
         <v>2</v>
@@ -8305,13 +8352,13 @@
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
       <c r="M80" s="3"/>
       <c r="N80" s="3">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="O80" s="3">
         <v>0</v>
@@ -8322,13 +8369,13 @@
         <v>78</v>
       </c>
       <c r="B81" s="3">
-        <v>101300</v>
+        <v>101200</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D81" s="3">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E81" s="3">
         <v>2</v>
@@ -8344,7 +8391,7 @@
       <c r="L81" s="4"/>
       <c r="M81" s="3"/>
       <c r="N81" s="3">
-        <v>0.85</v>
+        <v>0.7</v>
       </c>
       <c r="O81" s="3">
         <v>0</v>
@@ -8355,13 +8402,13 @@
         <v>79</v>
       </c>
       <c r="B82" s="3">
-        <v>101400</v>
+        <v>101300</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D82" s="3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E82" s="3">
         <v>2</v>
@@ -8371,16 +8418,16 @@
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
       <c r="J82" s="4" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="K82" s="4"/>
       <c r="L82" s="4"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3">
-        <v>0.11799999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="O82" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8388,10 +8435,10 @@
         <v>80</v>
       </c>
       <c r="B83" s="3">
-        <v>101500</v>
+        <v>101400</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D83" s="3">
         <v>2000</v>
@@ -8410,7 +8457,7 @@
       <c r="L83" s="4"/>
       <c r="M83" s="3"/>
       <c r="N83" s="3">
-        <v>7.3999999999999996E-2</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="O83" s="3">
         <v>1</v>
@@ -8421,10 +8468,10 @@
         <v>81</v>
       </c>
       <c r="B84" s="3">
-        <v>101600</v>
+        <v>101500</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D84" s="3">
         <v>2000</v>
@@ -8437,16 +8484,16 @@
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
       <c r="J84" s="4" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="K84" s="4"/>
       <c r="L84" s="4"/>
       <c r="M84" s="3"/>
       <c r="N84" s="3">
-        <v>9.8000000000000004E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="O84" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8454,10 +8501,10 @@
         <v>82</v>
       </c>
       <c r="B85" s="3">
-        <v>101700</v>
+        <v>101600</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D85" s="3">
         <v>2000</v>
@@ -8470,16 +8517,16 @@
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="J85" s="4" t="s">
-        <v>226</v>
+        <v>283</v>
       </c>
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
       <c r="M85" s="3"/>
       <c r="N85" s="3">
-        <v>0.29499999999999998</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="O85" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8487,10 +8534,10 @@
         <v>83</v>
       </c>
       <c r="B86" s="3">
-        <v>101800</v>
+        <v>101700</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D86" s="3">
         <v>2000</v>
@@ -8503,16 +8550,16 @@
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
       <c r="J86" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
       <c r="M86" s="3"/>
       <c r="N86" s="3">
-        <v>0.98399999999999999</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="O86" s="3">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8520,10 +8567,10 @@
         <v>84</v>
       </c>
       <c r="B87" s="3">
-        <v>101900</v>
+        <v>101800</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="D87" s="3">
         <v>2000</v>
@@ -8536,16 +8583,16 @@
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
       <c r="J87" s="4" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
       <c r="M87" s="3"/>
       <c r="N87" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="O87" s="4">
-        <v>1</v>
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="O87" s="3">
+        <v>25</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8553,10 +8600,10 @@
         <v>85</v>
       </c>
       <c r="B88" s="3">
-        <v>102000</v>
+        <v>101900</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D88" s="3">
         <v>2000</v>
@@ -8586,10 +8633,10 @@
         <v>86</v>
       </c>
       <c r="B89" s="3">
-        <v>102100</v>
+        <v>102000</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D89" s="3">
         <v>2000</v>
@@ -8619,10 +8666,10 @@
         <v>87</v>
       </c>
       <c r="B90" s="3">
-        <v>102200</v>
+        <v>102100</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D90" s="3">
         <v>2000</v>
@@ -8635,13 +8682,13 @@
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
       <c r="J90" s="4" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3">
-        <v>0.214</v>
+        <v>0.2</v>
       </c>
       <c r="O90" s="4">
         <v>1</v>
@@ -8652,10 +8699,10 @@
         <v>88</v>
       </c>
       <c r="B91" s="3">
-        <v>102300</v>
+        <v>102200</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D91" s="3">
         <v>2000</v>
@@ -8674,7 +8721,7 @@
       <c r="L91" s="4"/>
       <c r="M91" s="3"/>
       <c r="N91" s="3">
-        <v>0.26700000000000002</v>
+        <v>0.214</v>
       </c>
       <c r="O91" s="4">
         <v>1</v>
@@ -8685,10 +8732,10 @@
         <v>89</v>
       </c>
       <c r="B92" s="3">
-        <v>102400</v>
+        <v>102300</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D92" s="3">
         <v>2000</v>
@@ -8701,13 +8748,13 @@
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
       <c r="J92" s="4" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
       <c r="M92" s="3"/>
       <c r="N92" s="3">
-        <v>0.2</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="O92" s="4">
         <v>1</v>
@@ -8718,10 +8765,10 @@
         <v>90</v>
       </c>
       <c r="B93" s="3">
-        <v>102500</v>
+        <v>102400</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D93" s="3">
         <v>2000</v>
@@ -8734,13 +8781,13 @@
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
       <c r="J93" s="4" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
       <c r="M93" s="3"/>
       <c r="N93" s="3">
-        <v>0.40100000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="O93" s="4">
         <v>1</v>
@@ -8751,13 +8798,13 @@
         <v>91</v>
       </c>
       <c r="B94" s="3">
-        <v>102600</v>
+        <v>102500</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D94" s="3">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E94" s="3">
         <v>2</v>
@@ -8767,13 +8814,13 @@
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
       <c r="J94" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>
       <c r="M94" s="3"/>
       <c r="N94" s="3">
-        <v>1.3660000000000001</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="O94" s="4">
         <v>1</v>
@@ -8784,13 +8831,13 @@
         <v>92</v>
       </c>
       <c r="B95" s="3">
-        <v>102700</v>
+        <v>102600</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D95" s="3">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E95" s="3">
         <v>2</v>
@@ -8800,13 +8847,13 @@
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
       <c r="J95" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K95" s="4"/>
       <c r="L95" s="4"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3">
-        <v>6</v>
+        <v>1.3660000000000001</v>
       </c>
       <c r="O95" s="4">
         <v>1</v>
@@ -8817,13 +8864,13 @@
         <v>93</v>
       </c>
       <c r="B96" s="3">
-        <v>500020</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>248</v>
+        <v>102700</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>302</v>
       </c>
       <c r="D96" s="3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E96" s="3">
         <v>2</v>
@@ -8833,15 +8880,48 @@
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="4" t="s">
-        <v>329</v>
+        <v>227</v>
       </c>
       <c r="K96" s="4"/>
       <c r="L96" s="4"/>
-      <c r="M96" s="4"/>
+      <c r="M96" s="3"/>
       <c r="N96" s="3">
+        <v>6</v>
+      </c>
+      <c r="O96" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>94</v>
+      </c>
+      <c r="B97" s="3">
+        <v>500020</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D97" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E97" s="3">
+        <v>2</v>
+      </c>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="3">
         <v>0.35</v>
       </c>
-      <c r="O96" s="3">
+      <c r="O97" s="3">
         <v>8</v>
       </c>
     </row>
